--- a/SuppXLS/Scen_TRA_Demand.xlsx
+++ b/SuppXLS/Scen_TRA_Demand.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Irish-TIMES-model\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_Irish-TIMES-model\VA_Transport\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD7C561-578D-4A32-9BD0-EBEA5657B539}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C597AB4B-B55E-46D6-9DCE-1EE65F8A48A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS" sheetId="2" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="98">
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
@@ -331,6 +331,96 @@
   </si>
   <si>
     <t>TRAPL</t>
+  </si>
+  <si>
+    <t>~UC_Sets: R_E</t>
+  </si>
+  <si>
+    <t>~UC_T:UC_COMPRD</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>TCAR*</t>
+  </si>
+  <si>
+    <t>TTAXI*</t>
+  </si>
+  <si>
+    <t>THRAIL*</t>
+  </si>
+  <si>
+    <t>UC_walking-S</t>
+  </si>
+  <si>
+    <t>UC_cycling_S</t>
+  </si>
+  <si>
+    <t>UC_motorcycle_S</t>
+  </si>
+  <si>
+    <t>UC_LDVs_S</t>
+  </si>
+  <si>
+    <t>UC_Taxis_S</t>
+  </si>
+  <si>
+    <t>UC_BUS_S</t>
+  </si>
+  <si>
+    <t>UC_Light rail (LUAS)_S</t>
+  </si>
+  <si>
+    <t>UC_Train_S</t>
+  </si>
+  <si>
+    <t>UC_walking_M</t>
+  </si>
+  <si>
+    <t>UC_cycling_M</t>
+  </si>
+  <si>
+    <t>UC_motorcycle_M</t>
+  </si>
+  <si>
+    <t>UC_LDVs_M</t>
+  </si>
+  <si>
+    <t>UC_Taxis_M</t>
+  </si>
+  <si>
+    <t>UC_BUS_M</t>
+  </si>
+  <si>
+    <t>UC_Light rail (LUAS)_M</t>
+  </si>
+  <si>
+    <t>UC_Train_M</t>
+  </si>
+  <si>
+    <t>UC_walking_L</t>
+  </si>
+  <si>
+    <t>UC_cycling_L</t>
+  </si>
+  <si>
+    <t>UC_motorcycle_L</t>
+  </si>
+  <si>
+    <t>UC_LDVs_L</t>
+  </si>
+  <si>
+    <t>UC_Taxis_L</t>
+  </si>
+  <si>
+    <t>UC_BUS_L</t>
+  </si>
+  <si>
+    <t>UC_Light rail (LUAS)_L</t>
+  </si>
+  <si>
+    <t>UC_Train_L</t>
   </si>
 </sst>
 </file>
@@ -986,7 +1076,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="55" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1025,6 +1115,14 @@
     <xf numFmtId="0" fontId="34" fillId="32" borderId="0" xfId="46" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="34" fillId="32" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="34" fillId="32" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="64">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1216,7 +1314,48 @@
       </sheetData>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="7">
+        <row r="8">
+          <cell r="K8" t="str">
+            <v>TWLK_WLK</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="K9" t="str">
+            <v>TCYC_CYC</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="K11" t="str">
+            <v>TMOT_GSL_00</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>TRAPS</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>TRAPM</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>TRAPL</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="K27" t="str">
+            <v>TBUS_ICE_DST_00</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="K29" t="str">
+            <v>TLRAIL_ELC_00</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9">
         <row r="4">
@@ -1466,6 +1605,2022 @@
           </cell>
           <cell r="AC6">
             <v>0.42809298937083867</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>Walk</v>
+          </cell>
+          <cell r="C28">
+            <v>0.32377983784854231</v>
+          </cell>
+          <cell r="D28">
+            <v>0.29539615700051852</v>
+          </cell>
+          <cell r="E28">
+            <v>0.34966256439645477</v>
+          </cell>
+          <cell r="F28">
+            <v>0.31311359703458036</v>
+          </cell>
+          <cell r="G28">
+            <v>0.30099430857485032</v>
+          </cell>
+          <cell r="H28">
+            <v>0.32585784427063491</v>
+          </cell>
+          <cell r="I28">
+            <v>0.31296089693181006</v>
+          </cell>
+          <cell r="J28">
+            <v>0.34414959934244926</v>
+          </cell>
+          <cell r="K28">
+            <v>0.31640567871855385</v>
+          </cell>
+          <cell r="L28">
+            <v>0.30551897544605799</v>
+          </cell>
+          <cell r="M28">
+            <v>0.30690900126975923</v>
+          </cell>
+          <cell r="N28">
+            <v>0.29742024558167873</v>
+          </cell>
+          <cell r="O28">
+            <v>0.31985079986061538</v>
+          </cell>
+          <cell r="P28">
+            <v>0.30317740338092081</v>
+          </cell>
+          <cell r="Q28">
+            <v>0.32755819451934742</v>
+          </cell>
+          <cell r="R28">
+            <v>0.29108733491927802</v>
+          </cell>
+          <cell r="S28">
+            <v>0.32210907481657336</v>
+          </cell>
+          <cell r="T28">
+            <v>0.28924149649685427</v>
+          </cell>
+          <cell r="U28">
+            <v>0.31716332192128543</v>
+          </cell>
+          <cell r="V28">
+            <v>0.31520515014132622</v>
+          </cell>
+          <cell r="W28">
+            <v>0.30543827437637427</v>
+          </cell>
+          <cell r="X28">
+            <v>0.29765342162432462</v>
+          </cell>
+          <cell r="Y28">
+            <v>0.28141024531167946</v>
+          </cell>
+          <cell r="Z28">
+            <v>0.32408712009988533</v>
+          </cell>
+          <cell r="AA28">
+            <v>0.33773511822059504</v>
+          </cell>
+          <cell r="AB28">
+            <v>0.36384480991771728</v>
+          </cell>
+          <cell r="AC28">
+            <v>0.29253128431407999</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>Bike</v>
+          </cell>
+          <cell r="C29">
+            <v>5.3963306308090382E-2</v>
+          </cell>
+          <cell r="D29">
+            <v>4.9232692833419758E-2</v>
+          </cell>
+          <cell r="E29">
+            <v>5.8277094066075792E-2</v>
+          </cell>
+          <cell r="F29">
+            <v>5.2185599505763403E-2</v>
+          </cell>
+          <cell r="G29">
+            <v>5.016571809580838E-2</v>
+          </cell>
+          <cell r="H29">
+            <v>5.4309640711772487E-2</v>
+          </cell>
+          <cell r="I29">
+            <v>5.216014948863501E-2</v>
+          </cell>
+          <cell r="J29">
+            <v>5.7358266557074891E-2</v>
+          </cell>
+          <cell r="K29">
+            <v>5.2734279786425649E-2</v>
+          </cell>
+          <cell r="L29">
+            <v>5.0919829241009663E-2</v>
+          </cell>
+          <cell r="M29">
+            <v>5.1151500211626538E-2</v>
+          </cell>
+          <cell r="N29">
+            <v>4.95700409302798E-2</v>
+          </cell>
+          <cell r="O29">
+            <v>5.3308466643435894E-2</v>
+          </cell>
+          <cell r="P29">
+            <v>5.052956723015347E-2</v>
+          </cell>
+          <cell r="Q29">
+            <v>5.459303241989124E-2</v>
+          </cell>
+          <cell r="R29">
+            <v>4.8514555819879672E-2</v>
+          </cell>
+          <cell r="S29">
+            <v>5.3684845802762227E-2</v>
+          </cell>
+          <cell r="T29">
+            <v>4.8206916082809047E-2</v>
+          </cell>
+          <cell r="U29">
+            <v>5.2860553653547575E-2</v>
+          </cell>
+          <cell r="V29">
+            <v>5.2534191690221041E-2</v>
+          </cell>
+          <cell r="W29">
+            <v>5.0906379062729046E-2</v>
+          </cell>
+          <cell r="X29">
+            <v>4.9608903604054101E-2</v>
+          </cell>
+          <cell r="Y29">
+            <v>4.690170755194658E-2</v>
+          </cell>
+          <cell r="Z29">
+            <v>5.4014520016647569E-2</v>
+          </cell>
+          <cell r="AA29">
+            <v>5.6289186370099165E-2</v>
+          </cell>
+          <cell r="AB29">
+            <v>6.064080165295288E-2</v>
+          </cell>
+          <cell r="AC29">
+            <v>4.8755214052346667E-2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>2-wheelers</v>
+          </cell>
+          <cell r="C30">
+            <v>1.2024577456126329E-3</v>
+          </cell>
+          <cell r="D30">
+            <v>8.4181954391599476E-4</v>
+          </cell>
+          <cell r="E30">
+            <v>1.4736843073167786E-3</v>
+          </cell>
+          <cell r="F30">
+            <v>1.3698908311171865E-3</v>
+          </cell>
+          <cell r="G30">
+            <v>9.8425388735709995E-4</v>
+          </cell>
+          <cell r="H30">
+            <v>6.2421004942624992E-4</v>
+          </cell>
+          <cell r="I30">
+            <v>1.2422933671109623E-3</v>
+          </cell>
+          <cell r="J30">
+            <v>8.6646068484003841E-4</v>
+          </cell>
+          <cell r="K30">
+            <v>1.3159890714686659E-3</v>
+          </cell>
+          <cell r="L30">
+            <v>1.2716318220191991E-3</v>
+          </cell>
+          <cell r="M30">
+            <v>1.1218737998245681E-3</v>
+          </cell>
+          <cell r="N30">
+            <v>1.2891857705150252E-3</v>
+          </cell>
+          <cell r="O30">
+            <v>1.4574437703184118E-3</v>
+          </cell>
+          <cell r="P30">
+            <v>1.2419671387040388E-3</v>
+          </cell>
+          <cell r="Q30">
+            <v>1.4684396048311016E-3</v>
+          </cell>
+          <cell r="R30">
+            <v>9.5921086863546602E-4</v>
+          </cell>
+          <cell r="S30">
+            <v>1.0725657999581929E-3</v>
+          </cell>
+          <cell r="T30">
+            <v>1.1764845294377178E-3</v>
+          </cell>
+          <cell r="U30">
+            <v>1.3287962602263445E-3</v>
+          </cell>
+          <cell r="V30">
+            <v>7.9269582890742734E-4</v>
+          </cell>
+          <cell r="W30">
+            <v>0</v>
+          </cell>
+          <cell r="X30">
+            <v>7.4007830335184128E-4</v>
+          </cell>
+          <cell r="Y30">
+            <v>7.0738302217035411E-4</v>
+          </cell>
+          <cell r="Z30">
+            <v>8.0234115950314402E-4</v>
+          </cell>
+          <cell r="AA30">
+            <v>7.1933080869381386E-4</v>
+          </cell>
+          <cell r="AB30">
+            <v>7.4164409782466955E-4</v>
+          </cell>
+          <cell r="AC30">
+            <v>7.7316749378532367E-4</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>LDV</v>
+          </cell>
+          <cell r="C31">
+            <v>0.51421690231633799</v>
+          </cell>
+          <cell r="D31">
+            <v>0.57696936147650701</v>
+          </cell>
+          <cell r="E31">
+            <v>0.41519891685215071</v>
+          </cell>
+          <cell r="F31">
+            <v>0.53837411623785481</v>
+          </cell>
+          <cell r="G31">
+            <v>0.5273035898540861</v>
+          </cell>
+          <cell r="H31">
+            <v>0.54428190464659498</v>
+          </cell>
+          <cell r="I31">
+            <v>0.54724418926165252</v>
+          </cell>
+          <cell r="J31">
+            <v>0.50629481396736598</v>
+          </cell>
+          <cell r="K31">
+            <v>0.54969956239724382</v>
+          </cell>
+          <cell r="L31">
+            <v>0.54286879912927866</v>
+          </cell>
+          <cell r="M31">
+            <v>0.57050800443626981</v>
+          </cell>
+          <cell r="N31">
+            <v>0.57834017325166753</v>
+          </cell>
+          <cell r="O31">
+            <v>0.54807767476728875</v>
+          </cell>
+          <cell r="P31">
+            <v>0.57445550608131724</v>
+          </cell>
+          <cell r="Q31">
+            <v>0.54514159019281827</v>
+          </cell>
+          <cell r="R31">
+            <v>0.52942173322971142</v>
+          </cell>
+          <cell r="S31">
+            <v>0.54890743812317566</v>
+          </cell>
+          <cell r="T31">
+            <v>0.57655830557717536</v>
+          </cell>
+          <cell r="U31">
+            <v>0.56469028513375741</v>
+          </cell>
+          <cell r="V31">
+            <v>0.5314898835087899</v>
+          </cell>
+          <cell r="W31">
+            <v>0.5710449216561202</v>
+          </cell>
+          <cell r="X31">
+            <v>0.54463316447281129</v>
+          </cell>
+          <cell r="Y31">
+            <v>0.60580683229929833</v>
+          </cell>
+          <cell r="Z31">
+            <v>0.54575340066281097</v>
+          </cell>
+          <cell r="AA31">
+            <v>0.57130392959697351</v>
+          </cell>
+          <cell r="AB31">
+            <v>0.56067924597798535</v>
+          </cell>
+          <cell r="AC31">
+            <v>0.49285227418620653</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>Taxis</v>
+          </cell>
+          <cell r="C32">
+            <v>1.6399604421517593E-2</v>
+          </cell>
+          <cell r="D32">
+            <v>7.4490307781118984E-3</v>
+          </cell>
+          <cell r="E32">
+            <v>3.2041705931306341E-2</v>
+          </cell>
+          <cell r="F32">
+            <v>1.4142087272297982E-2</v>
+          </cell>
+          <cell r="G32">
+            <v>7.8384539751406128E-3</v>
+          </cell>
+          <cell r="H32">
+            <v>9.942235039347571E-3</v>
+          </cell>
+          <cell r="I32">
+            <v>8.7941712391293846E-3</v>
+          </cell>
+          <cell r="J32">
+            <v>1.9167683727598969E-2</v>
+          </cell>
+          <cell r="K32">
+            <v>1.9563309645198885E-2</v>
+          </cell>
+          <cell r="L32">
+            <v>6.7513932047123726E-3</v>
+          </cell>
+          <cell r="M32">
+            <v>1.1912585101328303E-2</v>
+          </cell>
+          <cell r="N32">
+            <v>6.2742086519266488E-3</v>
+          </cell>
+          <cell r="O32">
+            <v>9.0275647633180547E-3</v>
+          </cell>
+          <cell r="P32">
+            <v>1.0257172186811273E-2</v>
+          </cell>
+          <cell r="Q32">
+            <v>1.2127565539618518E-2</v>
+          </cell>
+          <cell r="R32">
+            <v>1.0185353383353699E-2</v>
+          </cell>
+          <cell r="S32">
+            <v>1.2812635692286438E-2</v>
+          </cell>
+          <cell r="T32">
+            <v>5.2051948265462115E-3</v>
+          </cell>
+          <cell r="U32">
+            <v>8.6226466174633056E-3</v>
+          </cell>
+          <cell r="V32">
+            <v>1.3327262086971724E-2</v>
+          </cell>
+          <cell r="W32">
+            <v>8.2106842864435349E-3</v>
+          </cell>
+          <cell r="X32">
+            <v>7.2036254203120672E-3</v>
+          </cell>
+          <cell r="Y32">
+            <v>6.2594387860714779E-3</v>
+          </cell>
+          <cell r="Z32">
+            <v>8.5196368293601697E-3</v>
+          </cell>
+          <cell r="AA32">
+            <v>8.9112260712667282E-3</v>
+          </cell>
+          <cell r="AB32">
+            <v>9.8439085033626087E-3</v>
+          </cell>
+          <cell r="AC32">
+            <v>4.1049285439853662E-3</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>BUS</v>
+          </cell>
+          <cell r="C33">
+            <v>8.2740995898888392E-2</v>
+          </cell>
+          <cell r="D33">
+            <v>7.0110938367526743E-2</v>
+          </cell>
+          <cell r="E33">
+            <v>0.1139689510378053</v>
+          </cell>
+          <cell r="F33">
+            <v>8.0814709118386313E-2</v>
+          </cell>
+          <cell r="G33">
+            <v>0.11271367561275741</v>
+          </cell>
+          <cell r="H33">
+            <v>6.4984165282223824E-2</v>
+          </cell>
+          <cell r="I33">
+            <v>7.7598299711661989E-2</v>
+          </cell>
+          <cell r="J33">
+            <v>7.216317572067088E-2</v>
+          </cell>
+          <cell r="K33">
+            <v>6.0281180381109148E-2</v>
+          </cell>
+          <cell r="L33">
+            <v>9.2669371156921962E-2</v>
+          </cell>
+          <cell r="M33">
+            <v>5.839703518119168E-2</v>
+          </cell>
+          <cell r="N33">
+            <v>6.7106145813932178E-2</v>
+          </cell>
+          <cell r="O33">
+            <v>6.8278050195023532E-2</v>
+          </cell>
+          <cell r="P33">
+            <v>6.0338383982093263E-2</v>
+          </cell>
+          <cell r="Q33">
+            <v>5.9111177723493433E-2</v>
+          </cell>
+          <cell r="R33">
+            <v>0.11983181177914175</v>
+          </cell>
+          <cell r="S33">
+            <v>6.1413439765244195E-2</v>
+          </cell>
+          <cell r="T33">
+            <v>7.9611602487177441E-2</v>
+          </cell>
+          <cell r="U33">
+            <v>5.5334396413720018E-2</v>
+          </cell>
+          <cell r="V33">
+            <v>8.6650816743783748E-2</v>
+          </cell>
+          <cell r="W33">
+            <v>6.4399740618333048E-2</v>
+          </cell>
+          <cell r="X33">
+            <v>0.10016080657514609</v>
+          </cell>
+          <cell r="Y33">
+            <v>5.8914393028833764E-2</v>
+          </cell>
+          <cell r="Z33">
+            <v>6.6822981231792783E-2</v>
+          </cell>
+          <cell r="AA33">
+            <v>2.5041208932371696E-2</v>
+          </cell>
+          <cell r="AB33">
+            <v>4.2495898501573662E-3</v>
+          </cell>
+          <cell r="AC33">
+            <v>0.16098313140959611</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>Light rail (LUAS)</v>
+          </cell>
+          <cell r="C34">
+            <v>7.6968954610109105E-3</v>
+          </cell>
+          <cell r="D34">
+            <v>0</v>
+          </cell>
+          <cell r="E34">
+            <v>2.9377083408890298E-2</v>
+          </cell>
+          <cell r="F34">
+            <v>0</v>
+          </cell>
+          <cell r="G34">
+            <v>0</v>
+          </cell>
+          <cell r="H34">
+            <v>0</v>
+          </cell>
+          <cell r="I34">
+            <v>0</v>
+          </cell>
+          <cell r="J34">
+            <v>0</v>
+          </cell>
+          <cell r="K34">
+            <v>0</v>
+          </cell>
+          <cell r="L34">
+            <v>0</v>
+          </cell>
+          <cell r="M34">
+            <v>0</v>
+          </cell>
+          <cell r="N34">
+            <v>0</v>
+          </cell>
+          <cell r="O34">
+            <v>0</v>
+          </cell>
+          <cell r="P34">
+            <v>0</v>
+          </cell>
+          <cell r="Q34">
+            <v>0</v>
+          </cell>
+          <cell r="R34">
+            <v>0</v>
+          </cell>
+          <cell r="S34">
+            <v>0</v>
+          </cell>
+          <cell r="T34">
+            <v>0</v>
+          </cell>
+          <cell r="U34">
+            <v>0</v>
+          </cell>
+          <cell r="V34">
+            <v>0</v>
+          </cell>
+          <cell r="W34">
+            <v>0</v>
+          </cell>
+          <cell r="X34">
+            <v>0</v>
+          </cell>
+          <cell r="Y34">
+            <v>0</v>
+          </cell>
+          <cell r="Z34">
+            <v>0</v>
+          </cell>
+          <cell r="AA34">
+            <v>0</v>
+          </cell>
+          <cell r="AB34">
+            <v>0</v>
+          </cell>
+          <cell r="AC34">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>Train</v>
+          </cell>
+          <cell r="C35">
+            <v>0</v>
+          </cell>
+          <cell r="D35">
+            <v>0</v>
+          </cell>
+          <cell r="E35">
+            <v>0</v>
+          </cell>
+          <cell r="F35">
+            <v>0</v>
+          </cell>
+          <cell r="G35">
+            <v>0</v>
+          </cell>
+          <cell r="H35">
+            <v>0</v>
+          </cell>
+          <cell r="I35">
+            <v>0</v>
+          </cell>
+          <cell r="J35">
+            <v>0</v>
+          </cell>
+          <cell r="K35">
+            <v>0</v>
+          </cell>
+          <cell r="L35">
+            <v>0</v>
+          </cell>
+          <cell r="M35">
+            <v>0</v>
+          </cell>
+          <cell r="N35">
+            <v>0</v>
+          </cell>
+          <cell r="O35">
+            <v>0</v>
+          </cell>
+          <cell r="P35">
+            <v>0</v>
+          </cell>
+          <cell r="Q35">
+            <v>0</v>
+          </cell>
+          <cell r="R35">
+            <v>0</v>
+          </cell>
+          <cell r="S35">
+            <v>0</v>
+          </cell>
+          <cell r="T35">
+            <v>0</v>
+          </cell>
+          <cell r="U35">
+            <v>0</v>
+          </cell>
+          <cell r="V35">
+            <v>0</v>
+          </cell>
+          <cell r="W35">
+            <v>0</v>
+          </cell>
+          <cell r="X35">
+            <v>0</v>
+          </cell>
+          <cell r="Y35">
+            <v>0</v>
+          </cell>
+          <cell r="Z35">
+            <v>0</v>
+          </cell>
+          <cell r="AA35">
+            <v>0</v>
+          </cell>
+          <cell r="AB35">
+            <v>0</v>
+          </cell>
+          <cell r="AC35">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42">
+            <v>0</v>
+          </cell>
+          <cell r="D42">
+            <v>0</v>
+          </cell>
+          <cell r="E42">
+            <v>0</v>
+          </cell>
+          <cell r="F42">
+            <v>0</v>
+          </cell>
+          <cell r="G42">
+            <v>0</v>
+          </cell>
+          <cell r="H42">
+            <v>0</v>
+          </cell>
+          <cell r="I42">
+            <v>0</v>
+          </cell>
+          <cell r="J42">
+            <v>0</v>
+          </cell>
+          <cell r="K42">
+            <v>0</v>
+          </cell>
+          <cell r="L42">
+            <v>0</v>
+          </cell>
+          <cell r="M42">
+            <v>0</v>
+          </cell>
+          <cell r="N42">
+            <v>0</v>
+          </cell>
+          <cell r="O42">
+            <v>0</v>
+          </cell>
+          <cell r="P42">
+            <v>0</v>
+          </cell>
+          <cell r="Q42">
+            <v>0</v>
+          </cell>
+          <cell r="R42">
+            <v>0</v>
+          </cell>
+          <cell r="S42">
+            <v>0</v>
+          </cell>
+          <cell r="T42">
+            <v>0</v>
+          </cell>
+          <cell r="U42">
+            <v>0</v>
+          </cell>
+          <cell r="V42">
+            <v>0</v>
+          </cell>
+          <cell r="W42">
+            <v>0</v>
+          </cell>
+          <cell r="X42">
+            <v>0</v>
+          </cell>
+          <cell r="Y42">
+            <v>0</v>
+          </cell>
+          <cell r="Z42">
+            <v>0</v>
+          </cell>
+          <cell r="AA42">
+            <v>0</v>
+          </cell>
+          <cell r="AB42">
+            <v>0</v>
+          </cell>
+          <cell r="AC42">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43">
+            <v>0</v>
+          </cell>
+          <cell r="D43">
+            <v>0</v>
+          </cell>
+          <cell r="E43">
+            <v>0</v>
+          </cell>
+          <cell r="F43">
+            <v>0</v>
+          </cell>
+          <cell r="G43">
+            <v>0</v>
+          </cell>
+          <cell r="H43">
+            <v>0</v>
+          </cell>
+          <cell r="I43">
+            <v>0</v>
+          </cell>
+          <cell r="J43">
+            <v>0</v>
+          </cell>
+          <cell r="K43">
+            <v>0</v>
+          </cell>
+          <cell r="L43">
+            <v>0</v>
+          </cell>
+          <cell r="M43">
+            <v>0</v>
+          </cell>
+          <cell r="N43">
+            <v>0</v>
+          </cell>
+          <cell r="O43">
+            <v>0</v>
+          </cell>
+          <cell r="P43">
+            <v>0</v>
+          </cell>
+          <cell r="Q43">
+            <v>0</v>
+          </cell>
+          <cell r="R43">
+            <v>0</v>
+          </cell>
+          <cell r="S43">
+            <v>0</v>
+          </cell>
+          <cell r="T43">
+            <v>0</v>
+          </cell>
+          <cell r="U43">
+            <v>0</v>
+          </cell>
+          <cell r="V43">
+            <v>0</v>
+          </cell>
+          <cell r="W43">
+            <v>0</v>
+          </cell>
+          <cell r="X43">
+            <v>0</v>
+          </cell>
+          <cell r="Y43">
+            <v>0</v>
+          </cell>
+          <cell r="Z43">
+            <v>0</v>
+          </cell>
+          <cell r="AA43">
+            <v>0</v>
+          </cell>
+          <cell r="AB43">
+            <v>0</v>
+          </cell>
+          <cell r="AC43">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44">
+            <v>3.2739468688573266E-3</v>
+          </cell>
+          <cell r="D44">
+            <v>2.1586268841599747E-3</v>
+          </cell>
+          <cell r="E44">
+            <v>4.3137182635283444E-3</v>
+          </cell>
+          <cell r="F44">
+            <v>3.6319751739066989E-3</v>
+          </cell>
+          <cell r="G44">
+            <v>2.5491869155235955E-3</v>
+          </cell>
+          <cell r="H44">
+            <v>1.6941154698507114E-3</v>
+          </cell>
+          <cell r="I44">
+            <v>3.2883004760979389E-3</v>
+          </cell>
+          <cell r="J44">
+            <v>2.4416088687366478E-3</v>
+          </cell>
+          <cell r="K44">
+            <v>3.5159102982178412E-3</v>
+          </cell>
+          <cell r="L44">
+            <v>3.3185344885490013E-3</v>
+          </cell>
+          <cell r="M44">
+            <v>2.939754742265497E-3</v>
+          </cell>
+          <cell r="N44">
+            <v>3.3151523856669103E-3</v>
+          </cell>
+          <cell r="O44">
+            <v>3.906666915379246E-3</v>
+          </cell>
+          <cell r="P44">
+            <v>3.2306073901205486E-3</v>
+          </cell>
+          <cell r="Q44">
+            <v>3.9969766503394092E-3</v>
+          </cell>
+          <cell r="R44">
+            <v>2.4423953155841079E-3</v>
+          </cell>
+          <cell r="S44">
+            <v>2.8914591982090753E-3</v>
+          </cell>
+          <cell r="T44">
+            <v>2.9812499263931389E-3</v>
+          </cell>
+          <cell r="U44">
+            <v>3.5441732524901714E-3</v>
+          </cell>
+          <cell r="V44">
+            <v>2.1106258862285242E-3</v>
+          </cell>
+          <cell r="W44">
+            <v>0</v>
+          </cell>
+          <cell r="X44">
+            <v>1.9054783663146626E-3</v>
+          </cell>
+          <cell r="Y44">
+            <v>1.7694736792673005E-3</v>
+          </cell>
+          <cell r="Z44">
+            <v>2.1690169741061518E-3</v>
+          </cell>
+          <cell r="AA44">
+            <v>1.996201699404686E-3</v>
+          </cell>
+          <cell r="AB44">
+            <v>2.1678265957034699E-3</v>
+          </cell>
+          <cell r="AC44">
+            <v>1.9708873200458749E-3</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45">
+            <v>0.83405572391255312</v>
+          </cell>
+          <cell r="D45">
+            <v>0.88136996225712338</v>
+          </cell>
+          <cell r="E45">
+            <v>0.7240198055510555</v>
+          </cell>
+          <cell r="F45">
+            <v>0.85033097733510543</v>
+          </cell>
+          <cell r="G45">
+            <v>0.81358360125192186</v>
+          </cell>
+          <cell r="H45">
+            <v>0.88000079438796519</v>
+          </cell>
+          <cell r="I45">
+            <v>0.86292967512561713</v>
+          </cell>
+          <cell r="J45">
+            <v>0.84991917486050839</v>
+          </cell>
+          <cell r="K45">
+            <v>0.87489878054676506</v>
+          </cell>
+          <cell r="L45">
+            <v>0.84396948853578213</v>
+          </cell>
+          <cell r="M45">
+            <v>0.89058577172865516</v>
+          </cell>
+          <cell r="N45">
+            <v>0.88596847722847849</v>
+          </cell>
+          <cell r="O45">
+            <v>0.87519253516054751</v>
+          </cell>
+          <cell r="P45">
+            <v>0.89017909286971042</v>
+          </cell>
+          <cell r="Q45">
+            <v>0.88395825319439558</v>
+          </cell>
+          <cell r="R45">
+            <v>0.80306472393989703</v>
+          </cell>
+          <cell r="S45">
+            <v>0.88153417928289457</v>
+          </cell>
+          <cell r="T45">
+            <v>0.87036679499941227</v>
+          </cell>
+          <cell r="U45">
+            <v>0.89725064481847272</v>
+          </cell>
+          <cell r="V45">
+            <v>0.84303694258501916</v>
+          </cell>
+          <cell r="W45">
+            <v>0.88919219682824724</v>
+          </cell>
+          <cell r="X45">
+            <v>0.83536706688667051</v>
+          </cell>
+          <cell r="Y45">
+            <v>0.90275636290048633</v>
+          </cell>
+          <cell r="Z45">
+            <v>0.87891574758893642</v>
+          </cell>
+          <cell r="AA45">
+            <v>0.9444737396739924</v>
+          </cell>
+          <cell r="AB45">
+            <v>0.97631596747347482</v>
+          </cell>
+          <cell r="AC45">
+            <v>0.7484312106638259</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46">
+            <v>2.1905905312439161E-2</v>
+          </cell>
+          <cell r="D46">
+            <v>9.3709663140288998E-3</v>
+          </cell>
+          <cell r="E46">
+            <v>4.6013893098741668E-2</v>
+          </cell>
+          <cell r="F46">
+            <v>1.8394858695029128E-2</v>
+          </cell>
+          <cell r="G46">
+            <v>9.9598084318994508E-3</v>
+          </cell>
+          <cell r="H46">
+            <v>1.3237997918849932E-2</v>
+          </cell>
+          <cell r="I46">
+            <v>1.1420057155050359E-2</v>
+          </cell>
+          <cell r="J46">
+            <v>2.6498598054231513E-2</v>
+          </cell>
+          <cell r="K46">
+            <v>2.5642116158186581E-2</v>
+          </cell>
+          <cell r="L46">
+            <v>8.6437934593511252E-3</v>
+          </cell>
+          <cell r="M46">
+            <v>1.5314370184172183E-2</v>
+          </cell>
+          <cell r="N46">
+            <v>7.9154020817384443E-3</v>
+          </cell>
+          <cell r="O46">
+            <v>1.1871653704006174E-2</v>
+          </cell>
+          <cell r="P46">
+            <v>1.3089641552029165E-2</v>
+          </cell>
+          <cell r="Q46">
+            <v>1.6194784858342321E-2</v>
+          </cell>
+          <cell r="R46">
+            <v>1.272342398540301E-2</v>
+          </cell>
+          <cell r="S46">
+            <v>1.6945626580446856E-2</v>
+          </cell>
+          <cell r="T46">
+            <v>6.4710564013944778E-3</v>
+          </cell>
+          <cell r="U46">
+            <v>1.1282963024401618E-2</v>
+          </cell>
+          <cell r="V46">
+            <v>1.7408913059663488E-2</v>
+          </cell>
+          <cell r="W46">
+            <v>1.0528920260910977E-2</v>
+          </cell>
+          <cell r="X46">
+            <v>9.0992061135074936E-3</v>
+          </cell>
+          <cell r="Y46">
+            <v>7.6815860877352945E-3</v>
+          </cell>
+          <cell r="Z46">
+            <v>1.129928575321087E-2</v>
+          </cell>
+          <cell r="AA46">
+            <v>1.2132191360051241E-2</v>
+          </cell>
+          <cell r="AB46">
+            <v>1.4116355738962196E-2</v>
+          </cell>
+          <cell r="AC46">
+            <v>5.1335741680296381E-3</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47">
+            <v>0.13420523697456904</v>
+          </cell>
+          <cell r="D47">
+            <v>0.10710044454468777</v>
+          </cell>
+          <cell r="E47">
+            <v>0.19873794082808949</v>
+          </cell>
+          <cell r="F47">
+            <v>0.12764218879595873</v>
+          </cell>
+          <cell r="G47">
+            <v>0.17390740340065505</v>
+          </cell>
+          <cell r="H47">
+            <v>0.10506709222333424</v>
+          </cell>
+          <cell r="I47">
+            <v>0.12236196724323453</v>
+          </cell>
+          <cell r="J47">
+            <v>0.12114061821652349</v>
+          </cell>
+          <cell r="K47">
+            <v>9.5943192996830379E-2</v>
+          </cell>
+          <cell r="L47">
+            <v>0.14406818351631784</v>
+          </cell>
+          <cell r="M47">
+            <v>9.1160103344907026E-2</v>
+          </cell>
+          <cell r="N47">
+            <v>0.10280096830411618</v>
+          </cell>
+          <cell r="O47">
+            <v>0.1090291442200671</v>
+          </cell>
+          <cell r="P47">
+            <v>9.3500658188139713E-2</v>
+          </cell>
+          <cell r="Q47">
+            <v>9.5849985296922749E-2</v>
+          </cell>
+          <cell r="R47">
+            <v>0.18176945675911579</v>
+          </cell>
+          <cell r="S47">
+            <v>9.8628734938449439E-2</v>
+          </cell>
+          <cell r="T47">
+            <v>0.1201808986728002</v>
+          </cell>
+          <cell r="U47">
+            <v>8.7922218904635543E-2</v>
+          </cell>
+          <cell r="V47">
+            <v>0.13744351846908884</v>
+          </cell>
+          <cell r="W47">
+            <v>0.10027888291084175</v>
+          </cell>
+          <cell r="X47">
+            <v>0.15362824863350735</v>
+          </cell>
+          <cell r="Y47">
+            <v>8.779257733251114E-2</v>
+          </cell>
+          <cell r="Z47">
+            <v>0.10761594968374652</v>
+          </cell>
+          <cell r="AA47">
+            <v>4.1397867266551647E-2</v>
+          </cell>
+          <cell r="AB47">
+            <v>7.3998501918595234E-3</v>
+          </cell>
+          <cell r="AC47">
+            <v>0.24446432784809863</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="C48">
+            <v>6.559186931581344E-3</v>
+          </cell>
+          <cell r="D48">
+            <v>0</v>
+          </cell>
+          <cell r="E48">
+            <v>2.6914642258584892E-2</v>
+          </cell>
+          <cell r="F48">
+            <v>0</v>
+          </cell>
+          <cell r="G48">
+            <v>0</v>
+          </cell>
+          <cell r="H48">
+            <v>0</v>
+          </cell>
+          <cell r="I48">
+            <v>0</v>
+          </cell>
+          <cell r="J48">
+            <v>0</v>
+          </cell>
+          <cell r="K48">
+            <v>0</v>
+          </cell>
+          <cell r="L48">
+            <v>0</v>
+          </cell>
+          <cell r="M48">
+            <v>0</v>
+          </cell>
+          <cell r="N48">
+            <v>0</v>
+          </cell>
+          <cell r="O48">
+            <v>0</v>
+          </cell>
+          <cell r="P48">
+            <v>0</v>
+          </cell>
+          <cell r="Q48">
+            <v>0</v>
+          </cell>
+          <cell r="R48">
+            <v>0</v>
+          </cell>
+          <cell r="S48">
+            <v>0</v>
+          </cell>
+          <cell r="T48">
+            <v>0</v>
+          </cell>
+          <cell r="U48">
+            <v>0</v>
+          </cell>
+          <cell r="V48">
+            <v>0</v>
+          </cell>
+          <cell r="W48">
+            <v>0</v>
+          </cell>
+          <cell r="X48">
+            <v>0</v>
+          </cell>
+          <cell r="Y48">
+            <v>0</v>
+          </cell>
+          <cell r="Z48">
+            <v>0</v>
+          </cell>
+          <cell r="AA48">
+            <v>0</v>
+          </cell>
+          <cell r="AB48">
+            <v>0</v>
+          </cell>
+          <cell r="AC48">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="C49">
+            <v>0</v>
+          </cell>
+          <cell r="D49">
+            <v>0</v>
+          </cell>
+          <cell r="E49">
+            <v>0</v>
+          </cell>
+          <cell r="F49">
+            <v>0</v>
+          </cell>
+          <cell r="G49">
+            <v>0</v>
+          </cell>
+          <cell r="H49">
+            <v>0</v>
+          </cell>
+          <cell r="I49">
+            <v>0</v>
+          </cell>
+          <cell r="J49">
+            <v>0</v>
+          </cell>
+          <cell r="K49">
+            <v>0</v>
+          </cell>
+          <cell r="L49">
+            <v>0</v>
+          </cell>
+          <cell r="M49">
+            <v>0</v>
+          </cell>
+          <cell r="N49">
+            <v>0</v>
+          </cell>
+          <cell r="O49">
+            <v>0</v>
+          </cell>
+          <cell r="P49">
+            <v>0</v>
+          </cell>
+          <cell r="Q49">
+            <v>0</v>
+          </cell>
+          <cell r="R49">
+            <v>0</v>
+          </cell>
+          <cell r="S49">
+            <v>0</v>
+          </cell>
+          <cell r="T49">
+            <v>0</v>
+          </cell>
+          <cell r="U49">
+            <v>0</v>
+          </cell>
+          <cell r="V49">
+            <v>0</v>
+          </cell>
+          <cell r="W49">
+            <v>0</v>
+          </cell>
+          <cell r="X49">
+            <v>0</v>
+          </cell>
+          <cell r="Y49">
+            <v>0</v>
+          </cell>
+          <cell r="Z49">
+            <v>0</v>
+          </cell>
+          <cell r="AA49">
+            <v>0</v>
+          </cell>
+          <cell r="AB49">
+            <v>0</v>
+          </cell>
+          <cell r="AC49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="C56">
+            <v>0</v>
+          </cell>
+          <cell r="D56">
+            <v>0</v>
+          </cell>
+          <cell r="E56">
+            <v>0</v>
+          </cell>
+          <cell r="F56">
+            <v>0</v>
+          </cell>
+          <cell r="G56">
+            <v>0</v>
+          </cell>
+          <cell r="H56">
+            <v>0</v>
+          </cell>
+          <cell r="I56">
+            <v>0</v>
+          </cell>
+          <cell r="J56">
+            <v>0</v>
+          </cell>
+          <cell r="K56">
+            <v>0</v>
+          </cell>
+          <cell r="L56">
+            <v>0</v>
+          </cell>
+          <cell r="M56">
+            <v>0</v>
+          </cell>
+          <cell r="N56">
+            <v>0</v>
+          </cell>
+          <cell r="O56">
+            <v>0</v>
+          </cell>
+          <cell r="P56">
+            <v>0</v>
+          </cell>
+          <cell r="Q56">
+            <v>0</v>
+          </cell>
+          <cell r="R56">
+            <v>0</v>
+          </cell>
+          <cell r="S56">
+            <v>0</v>
+          </cell>
+          <cell r="T56">
+            <v>0</v>
+          </cell>
+          <cell r="U56">
+            <v>0</v>
+          </cell>
+          <cell r="V56">
+            <v>0</v>
+          </cell>
+          <cell r="W56">
+            <v>0</v>
+          </cell>
+          <cell r="X56">
+            <v>0</v>
+          </cell>
+          <cell r="Y56">
+            <v>0</v>
+          </cell>
+          <cell r="Z56">
+            <v>0</v>
+          </cell>
+          <cell r="AA56">
+            <v>0</v>
+          </cell>
+          <cell r="AB56">
+            <v>0</v>
+          </cell>
+          <cell r="AC56">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57">
+            <v>0</v>
+          </cell>
+          <cell r="D57">
+            <v>0</v>
+          </cell>
+          <cell r="E57">
+            <v>0</v>
+          </cell>
+          <cell r="F57">
+            <v>0</v>
+          </cell>
+          <cell r="G57">
+            <v>0</v>
+          </cell>
+          <cell r="H57">
+            <v>0</v>
+          </cell>
+          <cell r="I57">
+            <v>0</v>
+          </cell>
+          <cell r="J57">
+            <v>0</v>
+          </cell>
+          <cell r="K57">
+            <v>0</v>
+          </cell>
+          <cell r="L57">
+            <v>0</v>
+          </cell>
+          <cell r="M57">
+            <v>0</v>
+          </cell>
+          <cell r="N57">
+            <v>0</v>
+          </cell>
+          <cell r="O57">
+            <v>0</v>
+          </cell>
+          <cell r="P57">
+            <v>0</v>
+          </cell>
+          <cell r="Q57">
+            <v>0</v>
+          </cell>
+          <cell r="R57">
+            <v>0</v>
+          </cell>
+          <cell r="S57">
+            <v>0</v>
+          </cell>
+          <cell r="T57">
+            <v>0</v>
+          </cell>
+          <cell r="U57">
+            <v>0</v>
+          </cell>
+          <cell r="V57">
+            <v>0</v>
+          </cell>
+          <cell r="W57">
+            <v>0</v>
+          </cell>
+          <cell r="X57">
+            <v>0</v>
+          </cell>
+          <cell r="Y57">
+            <v>0</v>
+          </cell>
+          <cell r="Z57">
+            <v>0</v>
+          </cell>
+          <cell r="AA57">
+            <v>0</v>
+          </cell>
+          <cell r="AB57">
+            <v>0</v>
+          </cell>
+          <cell r="AC57">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58">
+            <v>0</v>
+          </cell>
+          <cell r="D58">
+            <v>0</v>
+          </cell>
+          <cell r="E58">
+            <v>0</v>
+          </cell>
+          <cell r="F58">
+            <v>0</v>
+          </cell>
+          <cell r="G58">
+            <v>0</v>
+          </cell>
+          <cell r="H58">
+            <v>0</v>
+          </cell>
+          <cell r="I58">
+            <v>0</v>
+          </cell>
+          <cell r="J58">
+            <v>0</v>
+          </cell>
+          <cell r="K58">
+            <v>0</v>
+          </cell>
+          <cell r="L58">
+            <v>0</v>
+          </cell>
+          <cell r="M58">
+            <v>0</v>
+          </cell>
+          <cell r="N58">
+            <v>0</v>
+          </cell>
+          <cell r="O58">
+            <v>0</v>
+          </cell>
+          <cell r="P58">
+            <v>0</v>
+          </cell>
+          <cell r="Q58">
+            <v>0</v>
+          </cell>
+          <cell r="R58">
+            <v>0</v>
+          </cell>
+          <cell r="S58">
+            <v>0</v>
+          </cell>
+          <cell r="T58">
+            <v>0</v>
+          </cell>
+          <cell r="U58">
+            <v>0</v>
+          </cell>
+          <cell r="V58">
+            <v>0</v>
+          </cell>
+          <cell r="W58">
+            <v>0</v>
+          </cell>
+          <cell r="X58">
+            <v>0</v>
+          </cell>
+          <cell r="Y58">
+            <v>0</v>
+          </cell>
+          <cell r="Z58">
+            <v>0</v>
+          </cell>
+          <cell r="AA58">
+            <v>0</v>
+          </cell>
+          <cell r="AB58">
+            <v>0</v>
+          </cell>
+          <cell r="AC58">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59">
+            <v>0.74108639947108168</v>
+          </cell>
+          <cell r="D59">
+            <v>0.79071880912169545</v>
+          </cell>
+          <cell r="E59">
+            <v>0.6386131571238467</v>
+          </cell>
+          <cell r="F59">
+            <v>0.75580744416441215</v>
+          </cell>
+          <cell r="G59">
+            <v>0.71320246300225565</v>
+          </cell>
+          <cell r="H59">
+            <v>0.78115676031065473</v>
+          </cell>
+          <cell r="I59">
+            <v>0.76642349622098382</v>
+          </cell>
+          <cell r="J59">
+            <v>0.74828496387185417</v>
+          </cell>
+          <cell r="K59">
+            <v>0.78640329755658556</v>
+          </cell>
+          <cell r="L59">
+            <v>0.74588309703681677</v>
+          </cell>
+          <cell r="M59">
+            <v>0.80172469534468704</v>
+          </cell>
+          <cell r="N59">
+            <v>0.79583426304303684</v>
+          </cell>
+          <cell r="O59">
+            <v>0.77907090765006382</v>
+          </cell>
+          <cell r="P59">
+            <v>0.80155723993574601</v>
+          </cell>
+          <cell r="Q59">
+            <v>0.78887154985237196</v>
+          </cell>
+          <cell r="R59">
+            <v>0.70533422841274862</v>
+          </cell>
+          <cell r="S59">
+            <v>0.78717070970762593</v>
+          </cell>
+          <cell r="T59">
+            <v>0.77916775606401434</v>
+          </cell>
+          <cell r="U59">
+            <v>0.80467495581567261</v>
+          </cell>
+          <cell r="V59">
+            <v>0.74505854970828844</v>
+          </cell>
+          <cell r="W59">
+            <v>0.79514890678426453</v>
+          </cell>
+          <cell r="X59">
+            <v>0.73736495113760858</v>
+          </cell>
+          <cell r="Y59">
+            <v>0.81853938082108479</v>
+          </cell>
+          <cell r="Z59">
+            <v>0.77998817627338324</v>
+          </cell>
+          <cell r="AA59">
+            <v>0.85154985463859412</v>
+          </cell>
+          <cell r="AB59">
+            <v>0.88006272796227247</v>
+          </cell>
+          <cell r="AC59">
+            <v>0.64231184378282558</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60">
+            <v>1.214216695359136E-2</v>
+          </cell>
+          <cell r="D60">
+            <v>5.244564356444866E-3</v>
+          </cell>
+          <cell r="E60">
+            <v>2.5318479036608464E-2</v>
+          </cell>
+          <cell r="F60">
+            <v>1.0199545943263343E-2</v>
+          </cell>
+          <cell r="G60">
+            <v>5.4465670112681473E-3</v>
+          </cell>
+          <cell r="H60">
+            <v>7.3305854058422536E-3</v>
+          </cell>
+          <cell r="I60">
+            <v>6.327365203104513E-3</v>
+          </cell>
+          <cell r="J60">
+            <v>1.4553702960433654E-2</v>
+          </cell>
+          <cell r="K60">
+            <v>1.4378136289327563E-2</v>
+          </cell>
+          <cell r="L60">
+            <v>4.7655125577413509E-3</v>
+          </cell>
+          <cell r="M60">
+            <v>8.6002260738130814E-3</v>
+          </cell>
+          <cell r="N60">
+            <v>4.4354589246647135E-3</v>
+          </cell>
+          <cell r="O60">
+            <v>6.592434448494537E-3</v>
+          </cell>
+          <cell r="P60">
+            <v>7.3526877521562662E-3</v>
+          </cell>
+          <cell r="Q60">
+            <v>9.0159384819168999E-3</v>
+          </cell>
+          <cell r="R60">
+            <v>6.9712334769449829E-3</v>
+          </cell>
+          <cell r="S60">
+            <v>9.4394919428535985E-3</v>
+          </cell>
+          <cell r="T60">
+            <v>3.6138078846859318E-3</v>
+          </cell>
+          <cell r="U60">
+            <v>6.3123502546919919E-3</v>
+          </cell>
+          <cell r="V60">
+            <v>9.5979099500525071E-3</v>
+          </cell>
+          <cell r="W60">
+            <v>5.8735122381989901E-3</v>
+          </cell>
+          <cell r="X60">
+            <v>5.0103707288089395E-3</v>
+          </cell>
+          <cell r="Y60">
+            <v>4.3449135578945168E-3</v>
+          </cell>
+          <cell r="Z60">
+            <v>6.2553697184935773E-3</v>
+          </cell>
+          <cell r="AA60">
+            <v>6.8237115745591239E-3</v>
+          </cell>
+          <cell r="AB60">
+            <v>7.9379260453763534E-3</v>
+          </cell>
+          <cell r="AC60">
+            <v>2.7483693665086213E-3</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61">
+            <v>0.1626965950818042</v>
+          </cell>
+          <cell r="D61">
+            <v>0.13109626623170204</v>
+          </cell>
+          <cell r="E61">
+            <v>0.23916819504950479</v>
+          </cell>
+          <cell r="F61">
+            <v>0.15479346868381608</v>
+          </cell>
+          <cell r="G61">
+            <v>0.20800029152740038</v>
+          </cell>
+          <cell r="H61">
+            <v>0.12724978858051844</v>
+          </cell>
+          <cell r="I61">
+            <v>0.14827744084788594</v>
+          </cell>
+          <cell r="J61">
+            <v>0.14551722418000443</v>
+          </cell>
+          <cell r="K61">
+            <v>0.11766218454461841</v>
+          </cell>
+          <cell r="L61">
+            <v>0.17371900154534914</v>
+          </cell>
+          <cell r="M61">
+            <v>0.11196687123703571</v>
+          </cell>
+          <cell r="N61">
+            <v>0.12599020808803368</v>
+          </cell>
+          <cell r="O61">
+            <v>0.13241927644257739</v>
+          </cell>
+          <cell r="P61">
+            <v>0.11487011188674058</v>
+          </cell>
+          <cell r="Q61">
+            <v>0.11670831913312733</v>
+          </cell>
+          <cell r="R61">
+            <v>0.2178213998684824</v>
+          </cell>
+          <cell r="S61">
+            <v>0.12016236232976817</v>
+          </cell>
+          <cell r="T61">
+            <v>0.14679096653005977</v>
+          </cell>
+          <cell r="U61">
+            <v>0.10758223700696061</v>
+          </cell>
+          <cell r="V61">
+            <v>0.1657308225029282</v>
+          </cell>
+          <cell r="W61">
+            <v>0.12234818626194599</v>
+          </cell>
+          <cell r="X61">
+            <v>0.18501691930313938</v>
+          </cell>
+          <cell r="Y61">
+            <v>0.10860805699514527</v>
+          </cell>
+          <cell r="Z61">
+            <v>0.13030246782805119</v>
+          </cell>
+          <cell r="AA61">
+            <v>5.0925275195199252E-2</v>
+          </cell>
+          <cell r="AB61">
+            <v>9.1008381034736394E-3</v>
+          </cell>
+          <cell r="AC61">
+            <v>0.28624951607603277</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62">
+            <v>0</v>
+          </cell>
+          <cell r="D62">
+            <v>0</v>
+          </cell>
+          <cell r="E62">
+            <v>0</v>
+          </cell>
+          <cell r="F62">
+            <v>0</v>
+          </cell>
+          <cell r="G62">
+            <v>0</v>
+          </cell>
+          <cell r="H62">
+            <v>0</v>
+          </cell>
+          <cell r="I62">
+            <v>0</v>
+          </cell>
+          <cell r="J62">
+            <v>0</v>
+          </cell>
+          <cell r="K62">
+            <v>0</v>
+          </cell>
+          <cell r="L62">
+            <v>0</v>
+          </cell>
+          <cell r="M62">
+            <v>0</v>
+          </cell>
+          <cell r="N62">
+            <v>0</v>
+          </cell>
+          <cell r="O62">
+            <v>0</v>
+          </cell>
+          <cell r="P62">
+            <v>0</v>
+          </cell>
+          <cell r="Q62">
+            <v>0</v>
+          </cell>
+          <cell r="R62">
+            <v>0</v>
+          </cell>
+          <cell r="S62">
+            <v>0</v>
+          </cell>
+          <cell r="T62">
+            <v>0</v>
+          </cell>
+          <cell r="U62">
+            <v>0</v>
+          </cell>
+          <cell r="V62">
+            <v>0</v>
+          </cell>
+          <cell r="W62">
+            <v>0</v>
+          </cell>
+          <cell r="X62">
+            <v>0</v>
+          </cell>
+          <cell r="Y62">
+            <v>0</v>
+          </cell>
+          <cell r="Z62">
+            <v>0</v>
+          </cell>
+          <cell r="AA62">
+            <v>0</v>
+          </cell>
+          <cell r="AB62">
+            <v>0</v>
+          </cell>
+          <cell r="AC62">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63">
+            <v>8.4074838493522847E-2</v>
+          </cell>
+          <cell r="D63">
+            <v>7.2940360290157685E-2</v>
+          </cell>
+          <cell r="E63">
+            <v>9.6900168790040125E-2</v>
+          </cell>
+          <cell r="F63">
+            <v>7.91995412085085E-2</v>
+          </cell>
+          <cell r="G63">
+            <v>7.3350678459075919E-2</v>
+          </cell>
+          <cell r="H63">
+            <v>8.426286570298451E-2</v>
+          </cell>
+          <cell r="I63">
+            <v>7.8971697728025606E-2</v>
+          </cell>
+          <cell r="J63">
+            <v>9.1644108987707917E-2</v>
+          </cell>
+          <cell r="K63">
+            <v>8.1556381609468237E-2</v>
+          </cell>
+          <cell r="L63">
+            <v>7.5632388860092645E-2</v>
+          </cell>
+          <cell r="M63">
+            <v>7.7708207344464181E-2</v>
+          </cell>
+          <cell r="N63">
+            <v>7.3740069944264783E-2</v>
+          </cell>
+          <cell r="O63">
+            <v>8.1917381458864319E-2</v>
+          </cell>
+          <cell r="P63">
+            <v>7.6219960425357156E-2</v>
+          </cell>
+          <cell r="Q63">
+            <v>8.5404192532583911E-2</v>
+          </cell>
+          <cell r="R63">
+            <v>6.987313824182402E-2</v>
+          </cell>
+          <cell r="S63">
+            <v>8.3227436019752521E-2</v>
+          </cell>
+          <cell r="T63">
+            <v>7.0427469521239974E-2</v>
+          </cell>
+          <cell r="U63">
+            <v>8.1430456922674907E-2</v>
+          </cell>
+          <cell r="V63">
+            <v>7.9612717838730945E-2</v>
+          </cell>
+          <cell r="W63">
+            <v>7.6629394715590618E-2</v>
+          </cell>
+          <cell r="X63">
+            <v>7.2607758830443E-2</v>
+          </cell>
+          <cell r="Y63">
+            <v>6.8507648625875522E-2</v>
+          </cell>
+          <cell r="Z63">
+            <v>8.3453986180072076E-2</v>
+          </cell>
+          <cell r="AA63">
+            <v>9.070115859164736E-2</v>
+          </cell>
+          <cell r="AB63">
+            <v>0.10289850788887757</v>
+          </cell>
+          <cell r="AC63">
+            <v>6.8690270774633036E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2147,80 +4302,3879 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="B6:AO53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="6" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+    <row r="7" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="C7" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+    <row r="9" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="C10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E10" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F10" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H10" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J10" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="L10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="8" t="s">
+      <c r="M10" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="28" t="str">
+        <f>[1]Regions!B2</f>
+        <v>*National</v>
+      </c>
+      <c r="O10" s="28" t="str">
+        <f>[1]Regions!C2</f>
+        <v>IE-CW</v>
+      </c>
+      <c r="P10" s="28" t="str">
+        <f>[1]Regions!D2</f>
+        <v>IE-D</v>
+      </c>
+      <c r="Q10" s="28" t="str">
+        <f>[1]Regions!E2</f>
+        <v>IE-KE</v>
+      </c>
+      <c r="R10" s="28" t="str">
+        <f>[1]Regions!F2</f>
+        <v>IE-KK</v>
+      </c>
+      <c r="S10" s="28" t="str">
+        <f>[1]Regions!G2</f>
+        <v>IE-LS</v>
+      </c>
+      <c r="T10" s="28" t="str">
+        <f>[1]Regions!H2</f>
+        <v>IE-LD</v>
+      </c>
+      <c r="U10" s="28" t="str">
+        <f>[1]Regions!I2</f>
+        <v>IE-LH</v>
+      </c>
+      <c r="V10" s="28" t="str">
+        <f>[1]Regions!J2</f>
+        <v>IE-MH</v>
+      </c>
+      <c r="W10" s="28" t="str">
+        <f>[1]Regions!K2</f>
+        <v>IE-OY</v>
+      </c>
+      <c r="X10" s="28" t="str">
+        <f>[1]Regions!L2</f>
+        <v>IE-WH</v>
+      </c>
+      <c r="Y10" s="28" t="str">
+        <f>[1]Regions!M2</f>
+        <v>IE-WX</v>
+      </c>
+      <c r="Z10" s="28" t="str">
+        <f>[1]Regions!N2</f>
+        <v>IE-WW</v>
+      </c>
+      <c r="AA10" s="28" t="str">
+        <f>[1]Regions!O2</f>
+        <v>IE-CE</v>
+      </c>
+      <c r="AB10" s="28" t="str">
+        <f>[1]Regions!P2</f>
+        <v>IE-CO</v>
+      </c>
+      <c r="AC10" s="28" t="str">
+        <f>[1]Regions!Q2</f>
+        <v>IE-KY</v>
+      </c>
+      <c r="AD10" s="28" t="str">
+        <f>[1]Regions!R2</f>
+        <v>IE-LK</v>
+      </c>
+      <c r="AE10" s="28" t="str">
+        <f>[1]Regions!S2</f>
+        <v>IE-TA</v>
+      </c>
+      <c r="AF10" s="28" t="str">
+        <f>[1]Regions!T2</f>
+        <v>IE-WD</v>
+      </c>
+      <c r="AG10" s="28" t="str">
+        <f>[1]Regions!U2</f>
+        <v>IE-G</v>
+      </c>
+      <c r="AH10" s="28" t="str">
+        <f>[1]Regions!V2</f>
+        <v>IE-LM</v>
+      </c>
+      <c r="AI10" s="28" t="str">
+        <f>[1]Regions!W2</f>
+        <v>IE-MO</v>
+      </c>
+      <c r="AJ10" s="28" t="str">
+        <f>[1]Regions!X2</f>
+        <v>IE-RN</v>
+      </c>
+      <c r="AK10" s="28" t="str">
+        <f>[1]Regions!Y2</f>
+        <v>IE-SO</v>
+      </c>
+      <c r="AL10" s="28" t="str">
+        <f>[1]Regions!Z2</f>
+        <v>IE-CN</v>
+      </c>
+      <c r="AM10" s="28" t="str">
+        <f>[1]Regions!AA2</f>
+        <v>IE-DL</v>
+      </c>
+      <c r="AN10" s="28" t="str">
+        <f>[1]Regions!AB2</f>
+        <v>IE-MN</v>
+      </c>
+      <c r="AO10" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="5" t="s">
+    </row>
+    <row r="11" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="str">
+        <f>[1]Commodities!$K$8</f>
+        <v>TWLK_WLK</v>
+      </c>
+      <c r="H11" t="str">
+        <f>[1]Commodities!$B$18</f>
+        <v>TRAPS</v>
+      </c>
+      <c r="J11">
+        <v>2018</v>
+      </c>
+      <c r="K11" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11">
+        <v>-1</v>
+      </c>
+      <c r="M11" t="str">
+        <f>[1]Demands!B28</f>
+        <v>Walk</v>
+      </c>
+      <c r="N11" s="31">
+        <f>[1]Demands!C28</f>
+        <v>0.32377983784854231</v>
+      </c>
+      <c r="O11" s="31">
+        <f>[1]Demands!D28</f>
+        <v>0.29539615700051852</v>
+      </c>
+      <c r="P11" s="31">
+        <f>[1]Demands!E28</f>
+        <v>0.34966256439645477</v>
+      </c>
+      <c r="Q11" s="31">
+        <f>[1]Demands!F28</f>
+        <v>0.31311359703458036</v>
+      </c>
+      <c r="R11" s="31">
+        <f>[1]Demands!G28</f>
+        <v>0.30099430857485032</v>
+      </c>
+      <c r="S11" s="31">
+        <f>[1]Demands!H28</f>
+        <v>0.32585784427063491</v>
+      </c>
+      <c r="T11" s="31">
+        <f>[1]Demands!I28</f>
+        <v>0.31296089693181006</v>
+      </c>
+      <c r="U11" s="31">
+        <f>[1]Demands!J28</f>
+        <v>0.34414959934244926</v>
+      </c>
+      <c r="V11" s="31">
+        <f>[1]Demands!K28</f>
+        <v>0.31640567871855385</v>
+      </c>
+      <c r="W11" s="31">
+        <f>[1]Demands!L28</f>
+        <v>0.30551897544605799</v>
+      </c>
+      <c r="X11" s="31">
+        <f>[1]Demands!M28</f>
+        <v>0.30690900126975923</v>
+      </c>
+      <c r="Y11" s="31">
+        <f>[1]Demands!N28</f>
+        <v>0.29742024558167873</v>
+      </c>
+      <c r="Z11" s="31">
+        <f>[1]Demands!O28</f>
+        <v>0.31985079986061538</v>
+      </c>
+      <c r="AA11" s="31">
+        <f>[1]Demands!P28</f>
+        <v>0.30317740338092081</v>
+      </c>
+      <c r="AB11" s="31">
+        <f>[1]Demands!Q28</f>
+        <v>0.32755819451934742</v>
+      </c>
+      <c r="AC11" s="31">
+        <f>[1]Demands!R28</f>
+        <v>0.29108733491927802</v>
+      </c>
+      <c r="AD11" s="31">
+        <f>[1]Demands!S28</f>
+        <v>0.32210907481657336</v>
+      </c>
+      <c r="AE11" s="31">
+        <f>[1]Demands!T28</f>
+        <v>0.28924149649685427</v>
+      </c>
+      <c r="AF11" s="31">
+        <f>[1]Demands!U28</f>
+        <v>0.31716332192128543</v>
+      </c>
+      <c r="AG11" s="31">
+        <f>[1]Demands!V28</f>
+        <v>0.31520515014132622</v>
+      </c>
+      <c r="AH11" s="31">
+        <f>[1]Demands!W28</f>
+        <v>0.30543827437637427</v>
+      </c>
+      <c r="AI11" s="31">
+        <f>[1]Demands!X28</f>
+        <v>0.29765342162432462</v>
+      </c>
+      <c r="AJ11" s="31">
+        <f>[1]Demands!Y28</f>
+        <v>0.28141024531167946</v>
+      </c>
+      <c r="AK11" s="31">
+        <f>[1]Demands!Z28</f>
+        <v>0.32408712009988533</v>
+      </c>
+      <c r="AL11" s="31">
+        <f>[1]Demands!AA28</f>
+        <v>0.33773511822059504</v>
+      </c>
+      <c r="AM11" s="31">
+        <f>[1]Demands!AB28</f>
+        <v>0.36384480991771728</v>
+      </c>
+      <c r="AN11" s="31">
+        <f>[1]Demands!AC28</f>
+        <v>0.29253128431407999</v>
+      </c>
+      <c r="AO11" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="str">
+        <f>[1]Commodities!$K$9</f>
+        <v>TCYC_CYC</v>
+      </c>
+      <c r="H12" t="str">
+        <f>H11</f>
+        <v>TRAPS</v>
+      </c>
+      <c r="J12">
+        <v>2018</v>
+      </c>
+      <c r="K12" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12">
+        <v>-1</v>
+      </c>
+      <c r="M12" t="str">
+        <f>[1]Demands!B29</f>
+        <v>Bike</v>
+      </c>
+      <c r="N12" s="31">
+        <f>[1]Demands!C29</f>
+        <v>5.3963306308090382E-2</v>
+      </c>
+      <c r="O12" s="31">
+        <f>[1]Demands!D29</f>
+        <v>4.9232692833419758E-2</v>
+      </c>
+      <c r="P12" s="31">
+        <f>[1]Demands!E29</f>
+        <v>5.8277094066075792E-2</v>
+      </c>
+      <c r="Q12" s="31">
+        <f>[1]Demands!F29</f>
+        <v>5.2185599505763403E-2</v>
+      </c>
+      <c r="R12" s="31">
+        <f>[1]Demands!G29</f>
+        <v>5.016571809580838E-2</v>
+      </c>
+      <c r="S12" s="31">
+        <f>[1]Demands!H29</f>
+        <v>5.4309640711772487E-2</v>
+      </c>
+      <c r="T12" s="31">
+        <f>[1]Demands!I29</f>
+        <v>5.216014948863501E-2</v>
+      </c>
+      <c r="U12" s="31">
+        <f>[1]Demands!J29</f>
+        <v>5.7358266557074891E-2</v>
+      </c>
+      <c r="V12" s="31">
+        <f>[1]Demands!K29</f>
+        <v>5.2734279786425649E-2</v>
+      </c>
+      <c r="W12" s="31">
+        <f>[1]Demands!L29</f>
+        <v>5.0919829241009663E-2</v>
+      </c>
+      <c r="X12" s="31">
+        <f>[1]Demands!M29</f>
+        <v>5.1151500211626538E-2</v>
+      </c>
+      <c r="Y12" s="31">
+        <f>[1]Demands!N29</f>
+        <v>4.95700409302798E-2</v>
+      </c>
+      <c r="Z12" s="31">
+        <f>[1]Demands!O29</f>
+        <v>5.3308466643435894E-2</v>
+      </c>
+      <c r="AA12" s="31">
+        <f>[1]Demands!P29</f>
+        <v>5.052956723015347E-2</v>
+      </c>
+      <c r="AB12" s="31">
+        <f>[1]Demands!Q29</f>
+        <v>5.459303241989124E-2</v>
+      </c>
+      <c r="AC12" s="31">
+        <f>[1]Demands!R29</f>
+        <v>4.8514555819879672E-2</v>
+      </c>
+      <c r="AD12" s="31">
+        <f>[1]Demands!S29</f>
+        <v>5.3684845802762227E-2</v>
+      </c>
+      <c r="AE12" s="31">
+        <f>[1]Demands!T29</f>
+        <v>4.8206916082809047E-2</v>
+      </c>
+      <c r="AF12" s="31">
+        <f>[1]Demands!U29</f>
+        <v>5.2860553653547575E-2</v>
+      </c>
+      <c r="AG12" s="31">
+        <f>[1]Demands!V29</f>
+        <v>5.2534191690221041E-2</v>
+      </c>
+      <c r="AH12" s="31">
+        <f>[1]Demands!W29</f>
+        <v>5.0906379062729046E-2</v>
+      </c>
+      <c r="AI12" s="31">
+        <f>[1]Demands!X29</f>
+        <v>4.9608903604054101E-2</v>
+      </c>
+      <c r="AJ12" s="31">
+        <f>[1]Demands!Y29</f>
+        <v>4.690170755194658E-2</v>
+      </c>
+      <c r="AK12" s="31">
+        <f>[1]Demands!Z29</f>
+        <v>5.4014520016647569E-2</v>
+      </c>
+      <c r="AL12" s="31">
+        <f>[1]Demands!AA29</f>
+        <v>5.6289186370099165E-2</v>
+      </c>
+      <c r="AM12" s="31">
+        <f>[1]Demands!AB29</f>
+        <v>6.064080165295288E-2</v>
+      </c>
+      <c r="AN12" s="31">
+        <f>[1]Demands!AC29</f>
+        <v>4.8755214052346667E-2</v>
+      </c>
+      <c r="AO12" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="str">
+        <f>[1]Commodities!$K$11</f>
+        <v>TMOT_GSL_00</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" ref="H13:H18" si="0">H12</f>
+        <v>TRAPS</v>
+      </c>
+      <c r="J13">
+        <v>2018</v>
+      </c>
+      <c r="K13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13">
+        <v>-1</v>
+      </c>
+      <c r="M13" t="str">
+        <f>[1]Demands!B30</f>
+        <v>2-wheelers</v>
+      </c>
+      <c r="N13" s="31">
+        <f>[1]Demands!C30</f>
+        <v>1.2024577456126329E-3</v>
+      </c>
+      <c r="O13" s="31">
+        <f>[1]Demands!D30</f>
+        <v>8.4181954391599476E-4</v>
+      </c>
+      <c r="P13" s="31">
+        <f>[1]Demands!E30</f>
+        <v>1.4736843073167786E-3</v>
+      </c>
+      <c r="Q13" s="31">
+        <f>[1]Demands!F30</f>
+        <v>1.3698908311171865E-3</v>
+      </c>
+      <c r="R13" s="31">
+        <f>[1]Demands!G30</f>
+        <v>9.8425388735709995E-4</v>
+      </c>
+      <c r="S13" s="31">
+        <f>[1]Demands!H30</f>
+        <v>6.2421004942624992E-4</v>
+      </c>
+      <c r="T13" s="31">
+        <f>[1]Demands!I30</f>
+        <v>1.2422933671109623E-3</v>
+      </c>
+      <c r="U13" s="31">
+        <f>[1]Demands!J30</f>
+        <v>8.6646068484003841E-4</v>
+      </c>
+      <c r="V13" s="31">
+        <f>[1]Demands!K30</f>
+        <v>1.3159890714686659E-3</v>
+      </c>
+      <c r="W13" s="31">
+        <f>[1]Demands!L30</f>
+        <v>1.2716318220191991E-3</v>
+      </c>
+      <c r="X13" s="31">
+        <f>[1]Demands!M30</f>
+        <v>1.1218737998245681E-3</v>
+      </c>
+      <c r="Y13" s="31">
+        <f>[1]Demands!N30</f>
+        <v>1.2891857705150252E-3</v>
+      </c>
+      <c r="Z13" s="31">
+        <f>[1]Demands!O30</f>
+        <v>1.4574437703184118E-3</v>
+      </c>
+      <c r="AA13" s="31">
+        <f>[1]Demands!P30</f>
+        <v>1.2419671387040388E-3</v>
+      </c>
+      <c r="AB13" s="31">
+        <f>[1]Demands!Q30</f>
+        <v>1.4684396048311016E-3</v>
+      </c>
+      <c r="AC13" s="31">
+        <f>[1]Demands!R30</f>
+        <v>9.5921086863546602E-4</v>
+      </c>
+      <c r="AD13" s="31">
+        <f>[1]Demands!S30</f>
+        <v>1.0725657999581929E-3</v>
+      </c>
+      <c r="AE13" s="31">
+        <f>[1]Demands!T30</f>
+        <v>1.1764845294377178E-3</v>
+      </c>
+      <c r="AF13" s="31">
+        <f>[1]Demands!U30</f>
+        <v>1.3287962602263445E-3</v>
+      </c>
+      <c r="AG13" s="31">
+        <f>[1]Demands!V30</f>
+        <v>7.9269582890742734E-4</v>
+      </c>
+      <c r="AH13" s="31">
+        <f>[1]Demands!W30</f>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="31">
+        <f>[1]Demands!X30</f>
+        <v>7.4007830335184128E-4</v>
+      </c>
+      <c r="AJ13" s="31">
+        <f>[1]Demands!Y30</f>
+        <v>7.0738302217035411E-4</v>
+      </c>
+      <c r="AK13" s="31">
+        <f>[1]Demands!Z30</f>
+        <v>8.0234115950314402E-4</v>
+      </c>
+      <c r="AL13" s="31">
+        <f>[1]Demands!AA30</f>
+        <v>7.1933080869381386E-4</v>
+      </c>
+      <c r="AM13" s="31">
+        <f>[1]Demands!AB30</f>
+        <v>7.4164409782466955E-4</v>
+      </c>
+      <c r="AN13" s="31">
+        <f>[1]Demands!AC30</f>
+        <v>7.7316749378532367E-4</v>
+      </c>
+      <c r="AO13" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>TRAPS</v>
+      </c>
+      <c r="J14">
+        <v>2018</v>
+      </c>
+      <c r="K14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14">
+        <v>-1</v>
+      </c>
+      <c r="M14" t="str">
+        <f>[1]Demands!B31</f>
+        <v>LDV</v>
+      </c>
+      <c r="N14" s="31">
+        <f>[1]Demands!C31</f>
+        <v>0.51421690231633799</v>
+      </c>
+      <c r="O14" s="31">
+        <f>[1]Demands!D31</f>
+        <v>0.57696936147650701</v>
+      </c>
+      <c r="P14" s="31">
+        <f>[1]Demands!E31</f>
+        <v>0.41519891685215071</v>
+      </c>
+      <c r="Q14" s="31">
+        <f>[1]Demands!F31</f>
+        <v>0.53837411623785481</v>
+      </c>
+      <c r="R14" s="31">
+        <f>[1]Demands!G31</f>
+        <v>0.5273035898540861</v>
+      </c>
+      <c r="S14" s="31">
+        <f>[1]Demands!H31</f>
+        <v>0.54428190464659498</v>
+      </c>
+      <c r="T14" s="31">
+        <f>[1]Demands!I31</f>
+        <v>0.54724418926165252</v>
+      </c>
+      <c r="U14" s="31">
+        <f>[1]Demands!J31</f>
+        <v>0.50629481396736598</v>
+      </c>
+      <c r="V14" s="31">
+        <f>[1]Demands!K31</f>
+        <v>0.54969956239724382</v>
+      </c>
+      <c r="W14" s="31">
+        <f>[1]Demands!L31</f>
+        <v>0.54286879912927866</v>
+      </c>
+      <c r="X14" s="31">
+        <f>[1]Demands!M31</f>
+        <v>0.57050800443626981</v>
+      </c>
+      <c r="Y14" s="31">
+        <f>[1]Demands!N31</f>
+        <v>0.57834017325166753</v>
+      </c>
+      <c r="Z14" s="31">
+        <f>[1]Demands!O31</f>
+        <v>0.54807767476728875</v>
+      </c>
+      <c r="AA14" s="31">
+        <f>[1]Demands!P31</f>
+        <v>0.57445550608131724</v>
+      </c>
+      <c r="AB14" s="31">
+        <f>[1]Demands!Q31</f>
+        <v>0.54514159019281827</v>
+      </c>
+      <c r="AC14" s="31">
+        <f>[1]Demands!R31</f>
+        <v>0.52942173322971142</v>
+      </c>
+      <c r="AD14" s="31">
+        <f>[1]Demands!S31</f>
+        <v>0.54890743812317566</v>
+      </c>
+      <c r="AE14" s="31">
+        <f>[1]Demands!T31</f>
+        <v>0.57655830557717536</v>
+      </c>
+      <c r="AF14" s="31">
+        <f>[1]Demands!U31</f>
+        <v>0.56469028513375741</v>
+      </c>
+      <c r="AG14" s="31">
+        <f>[1]Demands!V31</f>
+        <v>0.5314898835087899</v>
+      </c>
+      <c r="AH14" s="31">
+        <f>[1]Demands!W31</f>
+        <v>0.5710449216561202</v>
+      </c>
+      <c r="AI14" s="31">
+        <f>[1]Demands!X31</f>
+        <v>0.54463316447281129</v>
+      </c>
+      <c r="AJ14" s="31">
+        <f>[1]Demands!Y31</f>
+        <v>0.60580683229929833</v>
+      </c>
+      <c r="AK14" s="31">
+        <f>[1]Demands!Z31</f>
+        <v>0.54575340066281097</v>
+      </c>
+      <c r="AL14" s="31">
+        <f>[1]Demands!AA31</f>
+        <v>0.57130392959697351</v>
+      </c>
+      <c r="AM14" s="31">
+        <f>[1]Demands!AB31</f>
+        <v>0.56067924597798535</v>
+      </c>
+      <c r="AN14" s="31">
+        <f>[1]Demands!AC31</f>
+        <v>0.49285227418620653</v>
+      </c>
+      <c r="AO14" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>TRAPS</v>
+      </c>
+      <c r="J15">
+        <v>2018</v>
+      </c>
+      <c r="K15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15">
+        <v>-1</v>
+      </c>
+      <c r="M15" t="str">
+        <f>[1]Demands!B32</f>
+        <v>Taxis</v>
+      </c>
+      <c r="N15" s="31">
+        <f>[1]Demands!C32</f>
+        <v>1.6399604421517593E-2</v>
+      </c>
+      <c r="O15" s="31">
+        <f>[1]Demands!D32</f>
+        <v>7.4490307781118984E-3</v>
+      </c>
+      <c r="P15" s="31">
+        <f>[1]Demands!E32</f>
+        <v>3.2041705931306341E-2</v>
+      </c>
+      <c r="Q15" s="31">
+        <f>[1]Demands!F32</f>
+        <v>1.4142087272297982E-2</v>
+      </c>
+      <c r="R15" s="31">
+        <f>[1]Demands!G32</f>
+        <v>7.8384539751406128E-3</v>
+      </c>
+      <c r="S15" s="31">
+        <f>[1]Demands!H32</f>
+        <v>9.942235039347571E-3</v>
+      </c>
+      <c r="T15" s="31">
+        <f>[1]Demands!I32</f>
+        <v>8.7941712391293846E-3</v>
+      </c>
+      <c r="U15" s="31">
+        <f>[1]Demands!J32</f>
+        <v>1.9167683727598969E-2</v>
+      </c>
+      <c r="V15" s="31">
+        <f>[1]Demands!K32</f>
+        <v>1.9563309645198885E-2</v>
+      </c>
+      <c r="W15" s="31">
+        <f>[1]Demands!L32</f>
+        <v>6.7513932047123726E-3</v>
+      </c>
+      <c r="X15" s="31">
+        <f>[1]Demands!M32</f>
+        <v>1.1912585101328303E-2</v>
+      </c>
+      <c r="Y15" s="31">
+        <f>[1]Demands!N32</f>
+        <v>6.2742086519266488E-3</v>
+      </c>
+      <c r="Z15" s="31">
+        <f>[1]Demands!O32</f>
+        <v>9.0275647633180547E-3</v>
+      </c>
+      <c r="AA15" s="31">
+        <f>[1]Demands!P32</f>
+        <v>1.0257172186811273E-2</v>
+      </c>
+      <c r="AB15" s="31">
+        <f>[1]Demands!Q32</f>
+        <v>1.2127565539618518E-2</v>
+      </c>
+      <c r="AC15" s="31">
+        <f>[1]Demands!R32</f>
+        <v>1.0185353383353699E-2</v>
+      </c>
+      <c r="AD15" s="31">
+        <f>[1]Demands!S32</f>
+        <v>1.2812635692286438E-2</v>
+      </c>
+      <c r="AE15" s="31">
+        <f>[1]Demands!T32</f>
+        <v>5.2051948265462115E-3</v>
+      </c>
+      <c r="AF15" s="31">
+        <f>[1]Demands!U32</f>
+        <v>8.6226466174633056E-3</v>
+      </c>
+      <c r="AG15" s="31">
+        <f>[1]Demands!V32</f>
+        <v>1.3327262086971724E-2</v>
+      </c>
+      <c r="AH15" s="31">
+        <f>[1]Demands!W32</f>
+        <v>8.2106842864435349E-3</v>
+      </c>
+      <c r="AI15" s="31">
+        <f>[1]Demands!X32</f>
+        <v>7.2036254203120672E-3</v>
+      </c>
+      <c r="AJ15" s="31">
+        <f>[1]Demands!Y32</f>
+        <v>6.2594387860714779E-3</v>
+      </c>
+      <c r="AK15" s="31">
+        <f>[1]Demands!Z32</f>
+        <v>8.5196368293601697E-3</v>
+      </c>
+      <c r="AL15" s="31">
+        <f>[1]Demands!AA32</f>
+        <v>8.9112260712667282E-3</v>
+      </c>
+      <c r="AM15" s="31">
+        <f>[1]Demands!AB32</f>
+        <v>9.8439085033626087E-3</v>
+      </c>
+      <c r="AN15" s="31">
+        <f>[1]Demands!AC32</f>
+        <v>4.1049285439853662E-3</v>
+      </c>
+      <c r="AO15" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="str">
+        <f>[1]Commodities!$K$27</f>
+        <v>TBUS_ICE_DST_00</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>TRAPS</v>
+      </c>
+      <c r="J16">
+        <v>2018</v>
+      </c>
+      <c r="K16" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16">
+        <v>-1</v>
+      </c>
+      <c r="M16" t="str">
+        <f>[1]Demands!B33</f>
+        <v>BUS</v>
+      </c>
+      <c r="N16" s="31">
+        <f>[1]Demands!C33</f>
+        <v>8.2740995898888392E-2</v>
+      </c>
+      <c r="O16" s="31">
+        <f>[1]Demands!D33</f>
+        <v>7.0110938367526743E-2</v>
+      </c>
+      <c r="P16" s="31">
+        <f>[1]Demands!E33</f>
+        <v>0.1139689510378053</v>
+      </c>
+      <c r="Q16" s="31">
+        <f>[1]Demands!F33</f>
+        <v>8.0814709118386313E-2</v>
+      </c>
+      <c r="R16" s="31">
+        <f>[1]Demands!G33</f>
+        <v>0.11271367561275741</v>
+      </c>
+      <c r="S16" s="31">
+        <f>[1]Demands!H33</f>
+        <v>6.4984165282223824E-2</v>
+      </c>
+      <c r="T16" s="31">
+        <f>[1]Demands!I33</f>
+        <v>7.7598299711661989E-2</v>
+      </c>
+      <c r="U16" s="31">
+        <f>[1]Demands!J33</f>
+        <v>7.216317572067088E-2</v>
+      </c>
+      <c r="V16" s="31">
+        <f>[1]Demands!K33</f>
+        <v>6.0281180381109148E-2</v>
+      </c>
+      <c r="W16" s="31">
+        <f>[1]Demands!L33</f>
+        <v>9.2669371156921962E-2</v>
+      </c>
+      <c r="X16" s="31">
+        <f>[1]Demands!M33</f>
+        <v>5.839703518119168E-2</v>
+      </c>
+      <c r="Y16" s="31">
+        <f>[1]Demands!N33</f>
+        <v>6.7106145813932178E-2</v>
+      </c>
+      <c r="Z16" s="31">
+        <f>[1]Demands!O33</f>
+        <v>6.8278050195023532E-2</v>
+      </c>
+      <c r="AA16" s="31">
+        <f>[1]Demands!P33</f>
+        <v>6.0338383982093263E-2</v>
+      </c>
+      <c r="AB16" s="31">
+        <f>[1]Demands!Q33</f>
+        <v>5.9111177723493433E-2</v>
+      </c>
+      <c r="AC16" s="31">
+        <f>[1]Demands!R33</f>
+        <v>0.11983181177914175</v>
+      </c>
+      <c r="AD16" s="31">
+        <f>[1]Demands!S33</f>
+        <v>6.1413439765244195E-2</v>
+      </c>
+      <c r="AE16" s="31">
+        <f>[1]Demands!T33</f>
+        <v>7.9611602487177441E-2</v>
+      </c>
+      <c r="AF16" s="31">
+        <f>[1]Demands!U33</f>
+        <v>5.5334396413720018E-2</v>
+      </c>
+      <c r="AG16" s="31">
+        <f>[1]Demands!V33</f>
+        <v>8.6650816743783748E-2</v>
+      </c>
+      <c r="AH16" s="31">
+        <f>[1]Demands!W33</f>
+        <v>6.4399740618333048E-2</v>
+      </c>
+      <c r="AI16" s="31">
+        <f>[1]Demands!X33</f>
+        <v>0.10016080657514609</v>
+      </c>
+      <c r="AJ16" s="31">
+        <f>[1]Demands!Y33</f>
+        <v>5.8914393028833764E-2</v>
+      </c>
+      <c r="AK16" s="31">
+        <f>[1]Demands!Z33</f>
+        <v>6.6822981231792783E-2</v>
+      </c>
+      <c r="AL16" s="31">
+        <f>[1]Demands!AA33</f>
+        <v>2.5041208932371696E-2</v>
+      </c>
+      <c r="AM16" s="31">
+        <f>[1]Demands!AB33</f>
+        <v>4.2495898501573662E-3</v>
+      </c>
+      <c r="AN16" s="31">
+        <f>[1]Demands!AC33</f>
+        <v>0.16098313140959611</v>
+      </c>
+      <c r="AO16" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="str">
+        <f>[1]Commodities!$K$29</f>
+        <v>TLRAIL_ELC_00</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>TRAPS</v>
+      </c>
+      <c r="J17">
+        <v>2018</v>
+      </c>
+      <c r="K17" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17">
+        <v>-1</v>
+      </c>
+      <c r="M17" t="str">
+        <f>[1]Demands!B34</f>
+        <v>Light rail (LUAS)</v>
+      </c>
+      <c r="N17" s="31">
+        <f>[1]Demands!C34</f>
+        <v>7.6968954610109105E-3</v>
+      </c>
+      <c r="O17" s="31">
+        <f>[1]Demands!D34</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="31">
+        <f>[1]Demands!E34</f>
+        <v>2.9377083408890298E-2</v>
+      </c>
+      <c r="Q17" s="31">
+        <f>[1]Demands!F34</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="31">
+        <f>[1]Demands!G34</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="31">
+        <f>[1]Demands!H34</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="31">
+        <f>[1]Demands!I34</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="31">
+        <f>[1]Demands!J34</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="31">
+        <f>[1]Demands!K34</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="31">
+        <f>[1]Demands!L34</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="31">
+        <f>[1]Demands!M34</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="31">
+        <f>[1]Demands!N34</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="31">
+        <f>[1]Demands!O34</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="31">
+        <f>[1]Demands!P34</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="31">
+        <f>[1]Demands!Q34</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="31">
+        <f>[1]Demands!R34</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="31">
+        <f>[1]Demands!S34</f>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="31">
+        <f>[1]Demands!T34</f>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="31">
+        <f>[1]Demands!U34</f>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="31">
+        <f>[1]Demands!V34</f>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="31">
+        <f>[1]Demands!W34</f>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="31">
+        <f>[1]Demands!X34</f>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="31">
+        <f>[1]Demands!Y34</f>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="31">
+        <f>[1]Demands!Z34</f>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="31">
+        <f>[1]Demands!AA34</f>
+        <v>0</v>
+      </c>
+      <c r="AM17" s="31">
+        <f>[1]Demands!AB34</f>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="31">
+        <f>[1]Demands!AC34</f>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C18" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>TRAPS</v>
+      </c>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32">
+        <v>2018</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" s="32">
+        <v>-1</v>
+      </c>
+      <c r="M18" s="32" t="str">
+        <f>[1]Demands!B35</f>
+        <v>Train</v>
+      </c>
+      <c r="N18" s="33">
+        <f>[1]Demands!C35</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="33">
+        <f>[1]Demands!D35</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="33">
+        <f>[1]Demands!E35</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="33">
+        <f>[1]Demands!F35</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="33">
+        <f>[1]Demands!G35</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="33">
+        <f>[1]Demands!H35</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="33">
+        <f>[1]Demands!I35</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="33">
+        <f>[1]Demands!J35</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="33">
+        <f>[1]Demands!K35</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="33">
+        <f>[1]Demands!L35</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="33">
+        <f>[1]Demands!M35</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="33">
+        <f>[1]Demands!N35</f>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="33">
+        <f>[1]Demands!O35</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="33">
+        <f>[1]Demands!P35</f>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="33">
+        <f>[1]Demands!Q35</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="33">
+        <f>[1]Demands!R35</f>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="33">
+        <f>[1]Demands!S35</f>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="33">
+        <f>[1]Demands!T35</f>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="33">
+        <f>[1]Demands!U35</f>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="33">
+        <f>[1]Demands!V35</f>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="33">
+        <f>[1]Demands!W35</f>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="33">
+        <f>[1]Demands!X35</f>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="33">
+        <f>[1]Demands!Y35</f>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="33">
+        <f>[1]Demands!Z35</f>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="33">
+        <f>[1]Demands!AA35</f>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="33">
+        <f>[1]Demands!AB35</f>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="33">
+        <f>[1]Demands!AC35</f>
+        <v>0</v>
+      </c>
+      <c r="AO18" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="N19" s="31"/>
+    </row>
+    <row r="20" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="N20" s="31"/>
+    </row>
+    <row r="21" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="N21" s="31"/>
+    </row>
+    <row r="24" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="K26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C27" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="28" t="s">
         <v>14</v>
+      </c>
+      <c r="N27" s="28" t="str">
+        <f>N10</f>
+        <v>*National</v>
+      </c>
+      <c r="O27" s="28" t="str">
+        <f t="shared" ref="O27:AN27" si="1">O10</f>
+        <v>IE-CW</v>
+      </c>
+      <c r="P27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-D</v>
+      </c>
+      <c r="Q27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-KE</v>
+      </c>
+      <c r="R27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-KK</v>
+      </c>
+      <c r="S27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-LS</v>
+      </c>
+      <c r="T27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-LD</v>
+      </c>
+      <c r="U27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-LH</v>
+      </c>
+      <c r="V27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-MH</v>
+      </c>
+      <c r="W27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-OY</v>
+      </c>
+      <c r="X27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-WH</v>
+      </c>
+      <c r="Y27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-WX</v>
+      </c>
+      <c r="Z27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-WW</v>
+      </c>
+      <c r="AA27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-CE</v>
+      </c>
+      <c r="AB27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-CO</v>
+      </c>
+      <c r="AC27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-KY</v>
+      </c>
+      <c r="AD27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-LK</v>
+      </c>
+      <c r="AE27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-TA</v>
+      </c>
+      <c r="AF27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-WD</v>
+      </c>
+      <c r="AG27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-G</v>
+      </c>
+      <c r="AH27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-LM</v>
+      </c>
+      <c r="AI27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-MO</v>
+      </c>
+      <c r="AJ27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-RN</v>
+      </c>
+      <c r="AK27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-SO</v>
+      </c>
+      <c r="AL27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-CN</v>
+      </c>
+      <c r="AM27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-DL</v>
+      </c>
+      <c r="AN27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-MN</v>
+      </c>
+      <c r="AO27" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" t="str">
+        <f>[1]Commodities!$K$8</f>
+        <v>TWLK_WLK</v>
+      </c>
+      <c r="H28" t="str">
+        <f>[1]Commodities!$B$19</f>
+        <v>TRAPM</v>
+      </c>
+      <c r="J28">
+        <v>2018</v>
+      </c>
+      <c r="K28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28">
+        <v>-1</v>
+      </c>
+      <c r="M28" t="str">
+        <f>M11</f>
+        <v>Walk</v>
+      </c>
+      <c r="N28" s="31">
+        <f>[1]Demands!C42</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="31">
+        <f>[1]Demands!D42</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="31">
+        <f>[1]Demands!E42</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="31">
+        <f>[1]Demands!F42</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="31">
+        <f>[1]Demands!G42</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="31">
+        <f>[1]Demands!H42</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="31">
+        <f>[1]Demands!I42</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="31">
+        <f>[1]Demands!J42</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="31">
+        <f>[1]Demands!K42</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="31">
+        <f>[1]Demands!L42</f>
+        <v>0</v>
+      </c>
+      <c r="X28" s="31">
+        <f>[1]Demands!M42</f>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="31">
+        <f>[1]Demands!N42</f>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="31">
+        <f>[1]Demands!O42</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="31">
+        <f>[1]Demands!P42</f>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="31">
+        <f>[1]Demands!Q42</f>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="31">
+        <f>[1]Demands!R42</f>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="31">
+        <f>[1]Demands!S42</f>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="31">
+        <f>[1]Demands!T42</f>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="31">
+        <f>[1]Demands!U42</f>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="31">
+        <f>[1]Demands!V42</f>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="31">
+        <f>[1]Demands!W42</f>
+        <v>0</v>
+      </c>
+      <c r="AI28" s="31">
+        <f>[1]Demands!X42</f>
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="31">
+        <f>[1]Demands!Y42</f>
+        <v>0</v>
+      </c>
+      <c r="AK28" s="31">
+        <f>[1]Demands!Z42</f>
+        <v>0</v>
+      </c>
+      <c r="AL28" s="31">
+        <f>[1]Demands!AA42</f>
+        <v>0</v>
+      </c>
+      <c r="AM28" s="31">
+        <f>[1]Demands!AB42</f>
+        <v>0</v>
+      </c>
+      <c r="AN28" s="31">
+        <f>[1]Demands!AC42</f>
+        <v>0</v>
+      </c>
+      <c r="AO28" s="31">
+        <f>[1]Demands!AD42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" t="str">
+        <f>[1]Commodities!$K$9</f>
+        <v>TCYC_CYC</v>
+      </c>
+      <c r="H29" t="str">
+        <f>H28</f>
+        <v>TRAPM</v>
+      </c>
+      <c r="J29">
+        <v>2018</v>
+      </c>
+      <c r="K29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29">
+        <v>-1</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" ref="M29:M35" si="2">M12</f>
+        <v>Bike</v>
+      </c>
+      <c r="N29" s="31">
+        <f>[1]Demands!C43</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="31">
+        <f>[1]Demands!D43</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="31">
+        <f>[1]Demands!E43</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="31">
+        <f>[1]Demands!F43</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="31">
+        <f>[1]Demands!G43</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="31">
+        <f>[1]Demands!H43</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="31">
+        <f>[1]Demands!I43</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="31">
+        <f>[1]Demands!J43</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="31">
+        <f>[1]Demands!K43</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="31">
+        <f>[1]Demands!L43</f>
+        <v>0</v>
+      </c>
+      <c r="X29" s="31">
+        <f>[1]Demands!M43</f>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="31">
+        <f>[1]Demands!N43</f>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="31">
+        <f>[1]Demands!O43</f>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="31">
+        <f>[1]Demands!P43</f>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="31">
+        <f>[1]Demands!Q43</f>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="31">
+        <f>[1]Demands!R43</f>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="31">
+        <f>[1]Demands!S43</f>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="31">
+        <f>[1]Demands!T43</f>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="31">
+        <f>[1]Demands!U43</f>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="31">
+        <f>[1]Demands!V43</f>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="31">
+        <f>[1]Demands!W43</f>
+        <v>0</v>
+      </c>
+      <c r="AI29" s="31">
+        <f>[1]Demands!X43</f>
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="31">
+        <f>[1]Demands!Y43</f>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="31">
+        <f>[1]Demands!Z43</f>
+        <v>0</v>
+      </c>
+      <c r="AL29" s="31">
+        <f>[1]Demands!AA43</f>
+        <v>0</v>
+      </c>
+      <c r="AM29" s="31">
+        <f>[1]Demands!AB43</f>
+        <v>0</v>
+      </c>
+      <c r="AN29" s="31">
+        <f>[1]Demands!AC43</f>
+        <v>0</v>
+      </c>
+      <c r="AO29" s="31">
+        <f>[1]Demands!AD43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" t="str">
+        <f>[1]Commodities!$K$11</f>
+        <v>TMOT_GSL_00</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" ref="H30:H35" si="3">H29</f>
+        <v>TRAPM</v>
+      </c>
+      <c r="J30">
+        <v>2018</v>
+      </c>
+      <c r="K30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30">
+        <v>-1</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="2"/>
+        <v>2-wheelers</v>
+      </c>
+      <c r="N30" s="31">
+        <f>[1]Demands!C44</f>
+        <v>3.2739468688573266E-3</v>
+      </c>
+      <c r="O30" s="31">
+        <f>[1]Demands!D44</f>
+        <v>2.1586268841599747E-3</v>
+      </c>
+      <c r="P30" s="31">
+        <f>[1]Demands!E44</f>
+        <v>4.3137182635283444E-3</v>
+      </c>
+      <c r="Q30" s="31">
+        <f>[1]Demands!F44</f>
+        <v>3.6319751739066989E-3</v>
+      </c>
+      <c r="R30" s="31">
+        <f>[1]Demands!G44</f>
+        <v>2.5491869155235955E-3</v>
+      </c>
+      <c r="S30" s="31">
+        <f>[1]Demands!H44</f>
+        <v>1.6941154698507114E-3</v>
+      </c>
+      <c r="T30" s="31">
+        <f>[1]Demands!I44</f>
+        <v>3.2883004760979389E-3</v>
+      </c>
+      <c r="U30" s="31">
+        <f>[1]Demands!J44</f>
+        <v>2.4416088687366478E-3</v>
+      </c>
+      <c r="V30" s="31">
+        <f>[1]Demands!K44</f>
+        <v>3.5159102982178412E-3</v>
+      </c>
+      <c r="W30" s="31">
+        <f>[1]Demands!L44</f>
+        <v>3.3185344885490013E-3</v>
+      </c>
+      <c r="X30" s="31">
+        <f>[1]Demands!M44</f>
+        <v>2.939754742265497E-3</v>
+      </c>
+      <c r="Y30" s="31">
+        <f>[1]Demands!N44</f>
+        <v>3.3151523856669103E-3</v>
+      </c>
+      <c r="Z30" s="31">
+        <f>[1]Demands!O44</f>
+        <v>3.906666915379246E-3</v>
+      </c>
+      <c r="AA30" s="31">
+        <f>[1]Demands!P44</f>
+        <v>3.2306073901205486E-3</v>
+      </c>
+      <c r="AB30" s="31">
+        <f>[1]Demands!Q44</f>
+        <v>3.9969766503394092E-3</v>
+      </c>
+      <c r="AC30" s="31">
+        <f>[1]Demands!R44</f>
+        <v>2.4423953155841079E-3</v>
+      </c>
+      <c r="AD30" s="31">
+        <f>[1]Demands!S44</f>
+        <v>2.8914591982090753E-3</v>
+      </c>
+      <c r="AE30" s="31">
+        <f>[1]Demands!T44</f>
+        <v>2.9812499263931389E-3</v>
+      </c>
+      <c r="AF30" s="31">
+        <f>[1]Demands!U44</f>
+        <v>3.5441732524901714E-3</v>
+      </c>
+      <c r="AG30" s="31">
+        <f>[1]Demands!V44</f>
+        <v>2.1106258862285242E-3</v>
+      </c>
+      <c r="AH30" s="31">
+        <f>[1]Demands!W44</f>
+        <v>0</v>
+      </c>
+      <c r="AI30" s="31">
+        <f>[1]Demands!X44</f>
+        <v>1.9054783663146626E-3</v>
+      </c>
+      <c r="AJ30" s="31">
+        <f>[1]Demands!Y44</f>
+        <v>1.7694736792673005E-3</v>
+      </c>
+      <c r="AK30" s="31">
+        <f>[1]Demands!Z44</f>
+        <v>2.1690169741061518E-3</v>
+      </c>
+      <c r="AL30" s="31">
+        <f>[1]Demands!AA44</f>
+        <v>1.996201699404686E-3</v>
+      </c>
+      <c r="AM30" s="31">
+        <f>[1]Demands!AB44</f>
+        <v>2.1678265957034699E-3</v>
+      </c>
+      <c r="AN30" s="31">
+        <f>[1]Demands!AC44</f>
+        <v>1.9708873200458749E-3</v>
+      </c>
+      <c r="AO30" s="31">
+        <f>[1]Demands!AD44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="3"/>
+        <v>TRAPM</v>
+      </c>
+      <c r="J31">
+        <v>2018</v>
+      </c>
+      <c r="K31" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31">
+        <v>-1</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="2"/>
+        <v>LDV</v>
+      </c>
+      <c r="N31" s="31">
+        <f>[1]Demands!C45</f>
+        <v>0.83405572391255312</v>
+      </c>
+      <c r="O31" s="31">
+        <f>[1]Demands!D45</f>
+        <v>0.88136996225712338</v>
+      </c>
+      <c r="P31" s="31">
+        <f>[1]Demands!E45</f>
+        <v>0.7240198055510555</v>
+      </c>
+      <c r="Q31" s="31">
+        <f>[1]Demands!F45</f>
+        <v>0.85033097733510543</v>
+      </c>
+      <c r="R31" s="31">
+        <f>[1]Demands!G45</f>
+        <v>0.81358360125192186</v>
+      </c>
+      <c r="S31" s="31">
+        <f>[1]Demands!H45</f>
+        <v>0.88000079438796519</v>
+      </c>
+      <c r="T31" s="31">
+        <f>[1]Demands!I45</f>
+        <v>0.86292967512561713</v>
+      </c>
+      <c r="U31" s="31">
+        <f>[1]Demands!J45</f>
+        <v>0.84991917486050839</v>
+      </c>
+      <c r="V31" s="31">
+        <f>[1]Demands!K45</f>
+        <v>0.87489878054676506</v>
+      </c>
+      <c r="W31" s="31">
+        <f>[1]Demands!L45</f>
+        <v>0.84396948853578213</v>
+      </c>
+      <c r="X31" s="31">
+        <f>[1]Demands!M45</f>
+        <v>0.89058577172865516</v>
+      </c>
+      <c r="Y31" s="31">
+        <f>[1]Demands!N45</f>
+        <v>0.88596847722847849</v>
+      </c>
+      <c r="Z31" s="31">
+        <f>[1]Demands!O45</f>
+        <v>0.87519253516054751</v>
+      </c>
+      <c r="AA31" s="31">
+        <f>[1]Demands!P45</f>
+        <v>0.89017909286971042</v>
+      </c>
+      <c r="AB31" s="31">
+        <f>[1]Demands!Q45</f>
+        <v>0.88395825319439558</v>
+      </c>
+      <c r="AC31" s="31">
+        <f>[1]Demands!R45</f>
+        <v>0.80306472393989703</v>
+      </c>
+      <c r="AD31" s="31">
+        <f>[1]Demands!S45</f>
+        <v>0.88153417928289457</v>
+      </c>
+      <c r="AE31" s="31">
+        <f>[1]Demands!T45</f>
+        <v>0.87036679499941227</v>
+      </c>
+      <c r="AF31" s="31">
+        <f>[1]Demands!U45</f>
+        <v>0.89725064481847272</v>
+      </c>
+      <c r="AG31" s="31">
+        <f>[1]Demands!V45</f>
+        <v>0.84303694258501916</v>
+      </c>
+      <c r="AH31" s="31">
+        <f>[1]Demands!W45</f>
+        <v>0.88919219682824724</v>
+      </c>
+      <c r="AI31" s="31">
+        <f>[1]Demands!X45</f>
+        <v>0.83536706688667051</v>
+      </c>
+      <c r="AJ31" s="31">
+        <f>[1]Demands!Y45</f>
+        <v>0.90275636290048633</v>
+      </c>
+      <c r="AK31" s="31">
+        <f>[1]Demands!Z45</f>
+        <v>0.87891574758893642</v>
+      </c>
+      <c r="AL31" s="31">
+        <f>[1]Demands!AA45</f>
+        <v>0.9444737396739924</v>
+      </c>
+      <c r="AM31" s="31">
+        <f>[1]Demands!AB45</f>
+        <v>0.97631596747347482</v>
+      </c>
+      <c r="AN31" s="31">
+        <f>[1]Demands!AC45</f>
+        <v>0.7484312106638259</v>
+      </c>
+      <c r="AO31" s="31">
+        <f>[1]Demands!AD45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="3"/>
+        <v>TRAPM</v>
+      </c>
+      <c r="J32">
+        <v>2018</v>
+      </c>
+      <c r="K32" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32">
+        <v>-1</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="2"/>
+        <v>Taxis</v>
+      </c>
+      <c r="N32" s="31">
+        <f>[1]Demands!C46</f>
+        <v>2.1905905312439161E-2</v>
+      </c>
+      <c r="O32" s="31">
+        <f>[1]Demands!D46</f>
+        <v>9.3709663140288998E-3</v>
+      </c>
+      <c r="P32" s="31">
+        <f>[1]Demands!E46</f>
+        <v>4.6013893098741668E-2</v>
+      </c>
+      <c r="Q32" s="31">
+        <f>[1]Demands!F46</f>
+        <v>1.8394858695029128E-2</v>
+      </c>
+      <c r="R32" s="31">
+        <f>[1]Demands!G46</f>
+        <v>9.9598084318994508E-3</v>
+      </c>
+      <c r="S32" s="31">
+        <f>[1]Demands!H46</f>
+        <v>1.3237997918849932E-2</v>
+      </c>
+      <c r="T32" s="31">
+        <f>[1]Demands!I46</f>
+        <v>1.1420057155050359E-2</v>
+      </c>
+      <c r="U32" s="31">
+        <f>[1]Demands!J46</f>
+        <v>2.6498598054231513E-2</v>
+      </c>
+      <c r="V32" s="31">
+        <f>[1]Demands!K46</f>
+        <v>2.5642116158186581E-2</v>
+      </c>
+      <c r="W32" s="31">
+        <f>[1]Demands!L46</f>
+        <v>8.6437934593511252E-3</v>
+      </c>
+      <c r="X32" s="31">
+        <f>[1]Demands!M46</f>
+        <v>1.5314370184172183E-2</v>
+      </c>
+      <c r="Y32" s="31">
+        <f>[1]Demands!N46</f>
+        <v>7.9154020817384443E-3</v>
+      </c>
+      <c r="Z32" s="31">
+        <f>[1]Demands!O46</f>
+        <v>1.1871653704006174E-2</v>
+      </c>
+      <c r="AA32" s="31">
+        <f>[1]Demands!P46</f>
+        <v>1.3089641552029165E-2</v>
+      </c>
+      <c r="AB32" s="31">
+        <f>[1]Demands!Q46</f>
+        <v>1.6194784858342321E-2</v>
+      </c>
+      <c r="AC32" s="31">
+        <f>[1]Demands!R46</f>
+        <v>1.272342398540301E-2</v>
+      </c>
+      <c r="AD32" s="31">
+        <f>[1]Demands!S46</f>
+        <v>1.6945626580446856E-2</v>
+      </c>
+      <c r="AE32" s="31">
+        <f>[1]Demands!T46</f>
+        <v>6.4710564013944778E-3</v>
+      </c>
+      <c r="AF32" s="31">
+        <f>[1]Demands!U46</f>
+        <v>1.1282963024401618E-2</v>
+      </c>
+      <c r="AG32" s="31">
+        <f>[1]Demands!V46</f>
+        <v>1.7408913059663488E-2</v>
+      </c>
+      <c r="AH32" s="31">
+        <f>[1]Demands!W46</f>
+        <v>1.0528920260910977E-2</v>
+      </c>
+      <c r="AI32" s="31">
+        <f>[1]Demands!X46</f>
+        <v>9.0992061135074936E-3</v>
+      </c>
+      <c r="AJ32" s="31">
+        <f>[1]Demands!Y46</f>
+        <v>7.6815860877352945E-3</v>
+      </c>
+      <c r="AK32" s="31">
+        <f>[1]Demands!Z46</f>
+        <v>1.129928575321087E-2</v>
+      </c>
+      <c r="AL32" s="31">
+        <f>[1]Demands!AA46</f>
+        <v>1.2132191360051241E-2</v>
+      </c>
+      <c r="AM32" s="31">
+        <f>[1]Demands!AB46</f>
+        <v>1.4116355738962196E-2</v>
+      </c>
+      <c r="AN32" s="31">
+        <f>[1]Demands!AC46</f>
+        <v>5.1335741680296381E-3</v>
+      </c>
+      <c r="AO32" s="31">
+        <f>[1]Demands!AD46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" t="str">
+        <f>[1]Commodities!$K$27</f>
+        <v>TBUS_ICE_DST_00</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="3"/>
+        <v>TRAPM</v>
+      </c>
+      <c r="J33">
+        <v>2018</v>
+      </c>
+      <c r="K33" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33">
+        <v>-1</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="2"/>
+        <v>BUS</v>
+      </c>
+      <c r="N33" s="31">
+        <f>[1]Demands!C47</f>
+        <v>0.13420523697456904</v>
+      </c>
+      <c r="O33" s="31">
+        <f>[1]Demands!D47</f>
+        <v>0.10710044454468777</v>
+      </c>
+      <c r="P33" s="31">
+        <f>[1]Demands!E47</f>
+        <v>0.19873794082808949</v>
+      </c>
+      <c r="Q33" s="31">
+        <f>[1]Demands!F47</f>
+        <v>0.12764218879595873</v>
+      </c>
+      <c r="R33" s="31">
+        <f>[1]Demands!G47</f>
+        <v>0.17390740340065505</v>
+      </c>
+      <c r="S33" s="31">
+        <f>[1]Demands!H47</f>
+        <v>0.10506709222333424</v>
+      </c>
+      <c r="T33" s="31">
+        <f>[1]Demands!I47</f>
+        <v>0.12236196724323453</v>
+      </c>
+      <c r="U33" s="31">
+        <f>[1]Demands!J47</f>
+        <v>0.12114061821652349</v>
+      </c>
+      <c r="V33" s="31">
+        <f>[1]Demands!K47</f>
+        <v>9.5943192996830379E-2</v>
+      </c>
+      <c r="W33" s="31">
+        <f>[1]Demands!L47</f>
+        <v>0.14406818351631784</v>
+      </c>
+      <c r="X33" s="31">
+        <f>[1]Demands!M47</f>
+        <v>9.1160103344907026E-2</v>
+      </c>
+      <c r="Y33" s="31">
+        <f>[1]Demands!N47</f>
+        <v>0.10280096830411618</v>
+      </c>
+      <c r="Z33" s="31">
+        <f>[1]Demands!O47</f>
+        <v>0.1090291442200671</v>
+      </c>
+      <c r="AA33" s="31">
+        <f>[1]Demands!P47</f>
+        <v>9.3500658188139713E-2</v>
+      </c>
+      <c r="AB33" s="31">
+        <f>[1]Demands!Q47</f>
+        <v>9.5849985296922749E-2</v>
+      </c>
+      <c r="AC33" s="31">
+        <f>[1]Demands!R47</f>
+        <v>0.18176945675911579</v>
+      </c>
+      <c r="AD33" s="31">
+        <f>[1]Demands!S47</f>
+        <v>9.8628734938449439E-2</v>
+      </c>
+      <c r="AE33" s="31">
+        <f>[1]Demands!T47</f>
+        <v>0.1201808986728002</v>
+      </c>
+      <c r="AF33" s="31">
+        <f>[1]Demands!U47</f>
+        <v>8.7922218904635543E-2</v>
+      </c>
+      <c r="AG33" s="31">
+        <f>[1]Demands!V47</f>
+        <v>0.13744351846908884</v>
+      </c>
+      <c r="AH33" s="31">
+        <f>[1]Demands!W47</f>
+        <v>0.10027888291084175</v>
+      </c>
+      <c r="AI33" s="31">
+        <f>[1]Demands!X47</f>
+        <v>0.15362824863350735</v>
+      </c>
+      <c r="AJ33" s="31">
+        <f>[1]Demands!Y47</f>
+        <v>8.779257733251114E-2</v>
+      </c>
+      <c r="AK33" s="31">
+        <f>[1]Demands!Z47</f>
+        <v>0.10761594968374652</v>
+      </c>
+      <c r="AL33" s="31">
+        <f>[1]Demands!AA47</f>
+        <v>4.1397867266551647E-2</v>
+      </c>
+      <c r="AM33" s="31">
+        <f>[1]Demands!AB47</f>
+        <v>7.3998501918595234E-3</v>
+      </c>
+      <c r="AN33" s="31">
+        <f>[1]Demands!AC47</f>
+        <v>0.24446432784809863</v>
+      </c>
+      <c r="AO33" s="31">
+        <f>[1]Demands!AD47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" t="str">
+        <f>[1]Commodities!$K$29</f>
+        <v>TLRAIL_ELC_00</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="3"/>
+        <v>TRAPM</v>
+      </c>
+      <c r="J34">
+        <v>2018</v>
+      </c>
+      <c r="K34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L34">
+        <v>-1</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="2"/>
+        <v>Light rail (LUAS)</v>
+      </c>
+      <c r="N34" s="31">
+        <f>[1]Demands!C48</f>
+        <v>6.559186931581344E-3</v>
+      </c>
+      <c r="O34" s="31">
+        <f>[1]Demands!D48</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="31">
+        <f>[1]Demands!E48</f>
+        <v>2.6914642258584892E-2</v>
+      </c>
+      <c r="Q34" s="31">
+        <f>[1]Demands!F48</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="31">
+        <f>[1]Demands!G48</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="31">
+        <f>[1]Demands!H48</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="31">
+        <f>[1]Demands!I48</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="31">
+        <f>[1]Demands!J48</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="31">
+        <f>[1]Demands!K48</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="31">
+        <f>[1]Demands!L48</f>
+        <v>0</v>
+      </c>
+      <c r="X34" s="31">
+        <f>[1]Demands!M48</f>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="31">
+        <f>[1]Demands!N48</f>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="31">
+        <f>[1]Demands!O48</f>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="31">
+        <f>[1]Demands!P48</f>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="31">
+        <f>[1]Demands!Q48</f>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="31">
+        <f>[1]Demands!R48</f>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="31">
+        <f>[1]Demands!S48</f>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="31">
+        <f>[1]Demands!T48</f>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="31">
+        <f>[1]Demands!U48</f>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="31">
+        <f>[1]Demands!V48</f>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="31">
+        <f>[1]Demands!W48</f>
+        <v>0</v>
+      </c>
+      <c r="AI34" s="31">
+        <f>[1]Demands!X48</f>
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="31">
+        <f>[1]Demands!Y48</f>
+        <v>0</v>
+      </c>
+      <c r="AK34" s="31">
+        <f>[1]Demands!Z48</f>
+        <v>0</v>
+      </c>
+      <c r="AL34" s="31">
+        <f>[1]Demands!AA48</f>
+        <v>0</v>
+      </c>
+      <c r="AM34" s="31">
+        <f>[1]Demands!AB48</f>
+        <v>0</v>
+      </c>
+      <c r="AN34" s="31">
+        <f>[1]Demands!AC48</f>
+        <v>0</v>
+      </c>
+      <c r="AO34" s="31">
+        <f>[1]Demands!AD48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C35" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>TRAPM</v>
+      </c>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32">
+        <v>2018</v>
+      </c>
+      <c r="K35" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" s="32">
+        <v>-1</v>
+      </c>
+      <c r="M35" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>Train</v>
+      </c>
+      <c r="N35" s="33">
+        <f>[1]Demands!C49</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="33">
+        <f>[1]Demands!D49</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="33">
+        <f>[1]Demands!E49</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="33">
+        <f>[1]Demands!F49</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="33">
+        <f>[1]Demands!G49</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="33">
+        <f>[1]Demands!H49</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="33">
+        <f>[1]Demands!I49</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="33">
+        <f>[1]Demands!J49</f>
+        <v>0</v>
+      </c>
+      <c r="V35" s="33">
+        <f>[1]Demands!K49</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="33">
+        <f>[1]Demands!L49</f>
+        <v>0</v>
+      </c>
+      <c r="X35" s="33">
+        <f>[1]Demands!M49</f>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="33">
+        <f>[1]Demands!N49</f>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="33">
+        <f>[1]Demands!O49</f>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="33">
+        <f>[1]Demands!P49</f>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="33">
+        <f>[1]Demands!Q49</f>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="33">
+        <f>[1]Demands!R49</f>
+        <v>0</v>
+      </c>
+      <c r="AD35" s="33">
+        <f>[1]Demands!S49</f>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="33">
+        <f>[1]Demands!T49</f>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="33">
+        <f>[1]Demands!U49</f>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="33">
+        <f>[1]Demands!V49</f>
+        <v>0</v>
+      </c>
+      <c r="AH35" s="33">
+        <f>[1]Demands!W49</f>
+        <v>0</v>
+      </c>
+      <c r="AI35" s="33">
+        <f>[1]Demands!X49</f>
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="33">
+        <f>[1]Demands!Y49</f>
+        <v>0</v>
+      </c>
+      <c r="AK35" s="33">
+        <f>[1]Demands!Z49</f>
+        <v>0</v>
+      </c>
+      <c r="AL35" s="33">
+        <f>[1]Demands!AA49</f>
+        <v>0</v>
+      </c>
+      <c r="AM35" s="33">
+        <f>[1]Demands!AB49</f>
+        <v>0</v>
+      </c>
+      <c r="AN35" s="33">
+        <f>[1]Demands!AC49</f>
+        <v>0</v>
+      </c>
+      <c r="AO35" s="33">
+        <f>[1]Demands!AD49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C43" s="7"/>
+    </row>
+    <row r="44" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="34"/>
+      <c r="X44" s="34"/>
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="34"/>
+      <c r="AA44" s="34"/>
+      <c r="AB44" s="34"/>
+      <c r="AC44" s="34"/>
+      <c r="AD44" s="34"/>
+      <c r="AE44" s="34"/>
+      <c r="AF44" s="34"/>
+      <c r="AG44" s="34"/>
+      <c r="AH44" s="34"/>
+      <c r="AI44" s="34"/>
+      <c r="AJ44" s="34"/>
+      <c r="AK44" s="34"/>
+      <c r="AL44" s="34"/>
+      <c r="AM44" s="34"/>
+      <c r="AN44" s="34"/>
+      <c r="AO44" s="34"/>
+    </row>
+    <row r="45" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C45" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N45" s="5" t="str">
+        <f>N27</f>
+        <v>*National</v>
+      </c>
+      <c r="O45" s="5" t="str">
+        <f t="shared" ref="O45:AN45" si="4">O27</f>
+        <v>IE-CW</v>
+      </c>
+      <c r="P45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>IE-D</v>
+      </c>
+      <c r="Q45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>IE-KE</v>
+      </c>
+      <c r="R45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>IE-KK</v>
+      </c>
+      <c r="S45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>IE-LS</v>
+      </c>
+      <c r="T45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>IE-LD</v>
+      </c>
+      <c r="U45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>IE-LH</v>
+      </c>
+      <c r="V45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>IE-MH</v>
+      </c>
+      <c r="W45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>IE-OY</v>
+      </c>
+      <c r="X45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>IE-WH</v>
+      </c>
+      <c r="Y45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>IE-WX</v>
+      </c>
+      <c r="Z45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>IE-WW</v>
+      </c>
+      <c r="AA45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>IE-CE</v>
+      </c>
+      <c r="AB45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>IE-CO</v>
+      </c>
+      <c r="AC45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>IE-KY</v>
+      </c>
+      <c r="AD45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>IE-LK</v>
+      </c>
+      <c r="AE45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>IE-TA</v>
+      </c>
+      <c r="AF45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>IE-WD</v>
+      </c>
+      <c r="AG45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>IE-G</v>
+      </c>
+      <c r="AH45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>IE-LM</v>
+      </c>
+      <c r="AI45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>IE-MO</v>
+      </c>
+      <c r="AJ45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>IE-RN</v>
+      </c>
+      <c r="AK45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>IE-SO</v>
+      </c>
+      <c r="AL45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>IE-CN</v>
+      </c>
+      <c r="AM45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>IE-DL</v>
+      </c>
+      <c r="AN45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>IE-MN</v>
+      </c>
+      <c r="AO45" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C46" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34" t="str">
+        <f>[1]Commodities!$K$8</f>
+        <v>TWLK_WLK</v>
+      </c>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34" t="str">
+        <f>[1]Commodities!$B$20</f>
+        <v>TRAPL</v>
+      </c>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34">
+        <v>2018</v>
+      </c>
+      <c r="K46" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L46" s="34">
+        <v>-1</v>
+      </c>
+      <c r="M46" s="34" t="str">
+        <f>M28</f>
+        <v>Walk</v>
+      </c>
+      <c r="N46" s="35">
+        <f>[1]Demands!C56</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="35">
+        <f>[1]Demands!D56</f>
+        <v>0</v>
+      </c>
+      <c r="P46" s="35">
+        <f>[1]Demands!E56</f>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="35">
+        <f>[1]Demands!F56</f>
+        <v>0</v>
+      </c>
+      <c r="R46" s="35">
+        <f>[1]Demands!G56</f>
+        <v>0</v>
+      </c>
+      <c r="S46" s="35">
+        <f>[1]Demands!H56</f>
+        <v>0</v>
+      </c>
+      <c r="T46" s="35">
+        <f>[1]Demands!I56</f>
+        <v>0</v>
+      </c>
+      <c r="U46" s="35">
+        <f>[1]Demands!J56</f>
+        <v>0</v>
+      </c>
+      <c r="V46" s="35">
+        <f>[1]Demands!K56</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="35">
+        <f>[1]Demands!L56</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="35">
+        <f>[1]Demands!M56</f>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="35">
+        <f>[1]Demands!N56</f>
+        <v>0</v>
+      </c>
+      <c r="Z46" s="35">
+        <f>[1]Demands!O56</f>
+        <v>0</v>
+      </c>
+      <c r="AA46" s="35">
+        <f>[1]Demands!P56</f>
+        <v>0</v>
+      </c>
+      <c r="AB46" s="35">
+        <f>[1]Demands!Q56</f>
+        <v>0</v>
+      </c>
+      <c r="AC46" s="35">
+        <f>[1]Demands!R56</f>
+        <v>0</v>
+      </c>
+      <c r="AD46" s="35">
+        <f>[1]Demands!S56</f>
+        <v>0</v>
+      </c>
+      <c r="AE46" s="35">
+        <f>[1]Demands!T56</f>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="35">
+        <f>[1]Demands!U56</f>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="35">
+        <f>[1]Demands!V56</f>
+        <v>0</v>
+      </c>
+      <c r="AH46" s="35">
+        <f>[1]Demands!W56</f>
+        <v>0</v>
+      </c>
+      <c r="AI46" s="35">
+        <f>[1]Demands!X56</f>
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="35">
+        <f>[1]Demands!Y56</f>
+        <v>0</v>
+      </c>
+      <c r="AK46" s="35">
+        <f>[1]Demands!Z56</f>
+        <v>0</v>
+      </c>
+      <c r="AL46" s="35">
+        <f>[1]Demands!AA56</f>
+        <v>0</v>
+      </c>
+      <c r="AM46" s="35">
+        <f>[1]Demands!AB56</f>
+        <v>0</v>
+      </c>
+      <c r="AN46" s="35">
+        <f>[1]Demands!AC56</f>
+        <v>0</v>
+      </c>
+      <c r="AO46" s="35">
+        <f>[1]Demands!AD60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C47" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34" t="str">
+        <f>[1]Commodities!$K$9</f>
+        <v>TCYC_CYC</v>
+      </c>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34" t="str">
+        <f>H46</f>
+        <v>TRAPL</v>
+      </c>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34">
+        <v>2018</v>
+      </c>
+      <c r="K47" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L47" s="34">
+        <v>-1</v>
+      </c>
+      <c r="M47" s="34" t="str">
+        <f t="shared" ref="M47:M53" si="5">M29</f>
+        <v>Bike</v>
+      </c>
+      <c r="N47" s="35">
+        <f>[1]Demands!C57</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="35">
+        <f>[1]Demands!D57</f>
+        <v>0</v>
+      </c>
+      <c r="P47" s="35">
+        <f>[1]Demands!E57</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="35">
+        <f>[1]Demands!F57</f>
+        <v>0</v>
+      </c>
+      <c r="R47" s="35">
+        <f>[1]Demands!G57</f>
+        <v>0</v>
+      </c>
+      <c r="S47" s="35">
+        <f>[1]Demands!H57</f>
+        <v>0</v>
+      </c>
+      <c r="T47" s="35">
+        <f>[1]Demands!I57</f>
+        <v>0</v>
+      </c>
+      <c r="U47" s="35">
+        <f>[1]Demands!J57</f>
+        <v>0</v>
+      </c>
+      <c r="V47" s="35">
+        <f>[1]Demands!K57</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="35">
+        <f>[1]Demands!L57</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="35">
+        <f>[1]Demands!M57</f>
+        <v>0</v>
+      </c>
+      <c r="Y47" s="35">
+        <f>[1]Demands!N57</f>
+        <v>0</v>
+      </c>
+      <c r="Z47" s="35">
+        <f>[1]Demands!O57</f>
+        <v>0</v>
+      </c>
+      <c r="AA47" s="35">
+        <f>[1]Demands!P57</f>
+        <v>0</v>
+      </c>
+      <c r="AB47" s="35">
+        <f>[1]Demands!Q57</f>
+        <v>0</v>
+      </c>
+      <c r="AC47" s="35">
+        <f>[1]Demands!R57</f>
+        <v>0</v>
+      </c>
+      <c r="AD47" s="35">
+        <f>[1]Demands!S57</f>
+        <v>0</v>
+      </c>
+      <c r="AE47" s="35">
+        <f>[1]Demands!T57</f>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="35">
+        <f>[1]Demands!U57</f>
+        <v>0</v>
+      </c>
+      <c r="AG47" s="35">
+        <f>[1]Demands!V57</f>
+        <v>0</v>
+      </c>
+      <c r="AH47" s="35">
+        <f>[1]Demands!W57</f>
+        <v>0</v>
+      </c>
+      <c r="AI47" s="35">
+        <f>[1]Demands!X57</f>
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="35">
+        <f>[1]Demands!Y57</f>
+        <v>0</v>
+      </c>
+      <c r="AK47" s="35">
+        <f>[1]Demands!Z57</f>
+        <v>0</v>
+      </c>
+      <c r="AL47" s="35">
+        <f>[1]Demands!AA57</f>
+        <v>0</v>
+      </c>
+      <c r="AM47" s="35">
+        <f>[1]Demands!AB57</f>
+        <v>0</v>
+      </c>
+      <c r="AN47" s="35">
+        <f>[1]Demands!AC57</f>
+        <v>0</v>
+      </c>
+      <c r="AO47" s="35">
+        <f>[1]Demands!AD61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C48" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34" t="str">
+        <f>[1]Commodities!$K$11</f>
+        <v>TMOT_GSL_00</v>
+      </c>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34" t="str">
+        <f t="shared" ref="H48:H53" si="6">H47</f>
+        <v>TRAPL</v>
+      </c>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34">
+        <v>2018</v>
+      </c>
+      <c r="K48" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L48" s="34">
+        <v>-1</v>
+      </c>
+      <c r="M48" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>2-wheelers</v>
+      </c>
+      <c r="N48" s="35">
+        <f>[1]Demands!C58</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="35">
+        <f>[1]Demands!D58</f>
+        <v>0</v>
+      </c>
+      <c r="P48" s="35">
+        <f>[1]Demands!E58</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="35">
+        <f>[1]Demands!F58</f>
+        <v>0</v>
+      </c>
+      <c r="R48" s="35">
+        <f>[1]Demands!G58</f>
+        <v>0</v>
+      </c>
+      <c r="S48" s="35">
+        <f>[1]Demands!H58</f>
+        <v>0</v>
+      </c>
+      <c r="T48" s="35">
+        <f>[1]Demands!I58</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="35">
+        <f>[1]Demands!J58</f>
+        <v>0</v>
+      </c>
+      <c r="V48" s="35">
+        <f>[1]Demands!K58</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="35">
+        <f>[1]Demands!L58</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="35">
+        <f>[1]Demands!M58</f>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="35">
+        <f>[1]Demands!N58</f>
+        <v>0</v>
+      </c>
+      <c r="Z48" s="35">
+        <f>[1]Demands!O58</f>
+        <v>0</v>
+      </c>
+      <c r="AA48" s="35">
+        <f>[1]Demands!P58</f>
+        <v>0</v>
+      </c>
+      <c r="AB48" s="35">
+        <f>[1]Demands!Q58</f>
+        <v>0</v>
+      </c>
+      <c r="AC48" s="35">
+        <f>[1]Demands!R58</f>
+        <v>0</v>
+      </c>
+      <c r="AD48" s="35">
+        <f>[1]Demands!S58</f>
+        <v>0</v>
+      </c>
+      <c r="AE48" s="35">
+        <f>[1]Demands!T58</f>
+        <v>0</v>
+      </c>
+      <c r="AF48" s="35">
+        <f>[1]Demands!U58</f>
+        <v>0</v>
+      </c>
+      <c r="AG48" s="35">
+        <f>[1]Demands!V58</f>
+        <v>0</v>
+      </c>
+      <c r="AH48" s="35">
+        <f>[1]Demands!W58</f>
+        <v>0</v>
+      </c>
+      <c r="AI48" s="35">
+        <f>[1]Demands!X58</f>
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="35">
+        <f>[1]Demands!Y58</f>
+        <v>0</v>
+      </c>
+      <c r="AK48" s="35">
+        <f>[1]Demands!Z58</f>
+        <v>0</v>
+      </c>
+      <c r="AL48" s="35">
+        <f>[1]Demands!AA58</f>
+        <v>0</v>
+      </c>
+      <c r="AM48" s="35">
+        <f>[1]Demands!AB58</f>
+        <v>0</v>
+      </c>
+      <c r="AN48" s="35">
+        <f>[1]Demands!AC58</f>
+        <v>0</v>
+      </c>
+      <c r="AO48" s="35">
+        <f>[1]Demands!AD62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C49" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v>TRAPL</v>
+      </c>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34">
+        <v>2018</v>
+      </c>
+      <c r="K49" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L49" s="34">
+        <v>-1</v>
+      </c>
+      <c r="M49" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>LDV</v>
+      </c>
+      <c r="N49" s="35">
+        <f>[1]Demands!C59</f>
+        <v>0.74108639947108168</v>
+      </c>
+      <c r="O49" s="35">
+        <f>[1]Demands!D59</f>
+        <v>0.79071880912169545</v>
+      </c>
+      <c r="P49" s="35">
+        <f>[1]Demands!E59</f>
+        <v>0.6386131571238467</v>
+      </c>
+      <c r="Q49" s="35">
+        <f>[1]Demands!F59</f>
+        <v>0.75580744416441215</v>
+      </c>
+      <c r="R49" s="35">
+        <f>[1]Demands!G59</f>
+        <v>0.71320246300225565</v>
+      </c>
+      <c r="S49" s="35">
+        <f>[1]Demands!H59</f>
+        <v>0.78115676031065473</v>
+      </c>
+      <c r="T49" s="35">
+        <f>[1]Demands!I59</f>
+        <v>0.76642349622098382</v>
+      </c>
+      <c r="U49" s="35">
+        <f>[1]Demands!J59</f>
+        <v>0.74828496387185417</v>
+      </c>
+      <c r="V49" s="35">
+        <f>[1]Demands!K59</f>
+        <v>0.78640329755658556</v>
+      </c>
+      <c r="W49" s="35">
+        <f>[1]Demands!L59</f>
+        <v>0.74588309703681677</v>
+      </c>
+      <c r="X49" s="35">
+        <f>[1]Demands!M59</f>
+        <v>0.80172469534468704</v>
+      </c>
+      <c r="Y49" s="35">
+        <f>[1]Demands!N59</f>
+        <v>0.79583426304303684</v>
+      </c>
+      <c r="Z49" s="35">
+        <f>[1]Demands!O59</f>
+        <v>0.77907090765006382</v>
+      </c>
+      <c r="AA49" s="35">
+        <f>[1]Demands!P59</f>
+        <v>0.80155723993574601</v>
+      </c>
+      <c r="AB49" s="35">
+        <f>[1]Demands!Q59</f>
+        <v>0.78887154985237196</v>
+      </c>
+      <c r="AC49" s="35">
+        <f>[1]Demands!R59</f>
+        <v>0.70533422841274862</v>
+      </c>
+      <c r="AD49" s="35">
+        <f>[1]Demands!S59</f>
+        <v>0.78717070970762593</v>
+      </c>
+      <c r="AE49" s="35">
+        <f>[1]Demands!T59</f>
+        <v>0.77916775606401434</v>
+      </c>
+      <c r="AF49" s="35">
+        <f>[1]Demands!U59</f>
+        <v>0.80467495581567261</v>
+      </c>
+      <c r="AG49" s="35">
+        <f>[1]Demands!V59</f>
+        <v>0.74505854970828844</v>
+      </c>
+      <c r="AH49" s="35">
+        <f>[1]Demands!W59</f>
+        <v>0.79514890678426453</v>
+      </c>
+      <c r="AI49" s="35">
+        <f>[1]Demands!X59</f>
+        <v>0.73736495113760858</v>
+      </c>
+      <c r="AJ49" s="35">
+        <f>[1]Demands!Y59</f>
+        <v>0.81853938082108479</v>
+      </c>
+      <c r="AK49" s="35">
+        <f>[1]Demands!Z59</f>
+        <v>0.77998817627338324</v>
+      </c>
+      <c r="AL49" s="35">
+        <f>[1]Demands!AA59</f>
+        <v>0.85154985463859412</v>
+      </c>
+      <c r="AM49" s="35">
+        <f>[1]Demands!AB59</f>
+        <v>0.88006272796227247</v>
+      </c>
+      <c r="AN49" s="35">
+        <f>[1]Demands!AC59</f>
+        <v>0.64231184378282558</v>
+      </c>
+      <c r="AO49" s="35">
+        <f>[1]Demands!AD63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C50" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v>TRAPL</v>
+      </c>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34">
+        <v>2018</v>
+      </c>
+      <c r="K50" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L50" s="34">
+        <v>-1</v>
+      </c>
+      <c r="M50" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>Taxis</v>
+      </c>
+      <c r="N50" s="35">
+        <f>[1]Demands!C60</f>
+        <v>1.214216695359136E-2</v>
+      </c>
+      <c r="O50" s="35">
+        <f>[1]Demands!D60</f>
+        <v>5.244564356444866E-3</v>
+      </c>
+      <c r="P50" s="35">
+        <f>[1]Demands!E60</f>
+        <v>2.5318479036608464E-2</v>
+      </c>
+      <c r="Q50" s="35">
+        <f>[1]Demands!F60</f>
+        <v>1.0199545943263343E-2</v>
+      </c>
+      <c r="R50" s="35">
+        <f>[1]Demands!G60</f>
+        <v>5.4465670112681473E-3</v>
+      </c>
+      <c r="S50" s="35">
+        <f>[1]Demands!H60</f>
+        <v>7.3305854058422536E-3</v>
+      </c>
+      <c r="T50" s="35">
+        <f>[1]Demands!I60</f>
+        <v>6.327365203104513E-3</v>
+      </c>
+      <c r="U50" s="35">
+        <f>[1]Demands!J60</f>
+        <v>1.4553702960433654E-2</v>
+      </c>
+      <c r="V50" s="35">
+        <f>[1]Demands!K60</f>
+        <v>1.4378136289327563E-2</v>
+      </c>
+      <c r="W50" s="35">
+        <f>[1]Demands!L60</f>
+        <v>4.7655125577413509E-3</v>
+      </c>
+      <c r="X50" s="35">
+        <f>[1]Demands!M60</f>
+        <v>8.6002260738130814E-3</v>
+      </c>
+      <c r="Y50" s="35">
+        <f>[1]Demands!N60</f>
+        <v>4.4354589246647135E-3</v>
+      </c>
+      <c r="Z50" s="35">
+        <f>[1]Demands!O60</f>
+        <v>6.592434448494537E-3</v>
+      </c>
+      <c r="AA50" s="35">
+        <f>[1]Demands!P60</f>
+        <v>7.3526877521562662E-3</v>
+      </c>
+      <c r="AB50" s="35">
+        <f>[1]Demands!Q60</f>
+        <v>9.0159384819168999E-3</v>
+      </c>
+      <c r="AC50" s="35">
+        <f>[1]Demands!R60</f>
+        <v>6.9712334769449829E-3</v>
+      </c>
+      <c r="AD50" s="35">
+        <f>[1]Demands!S60</f>
+        <v>9.4394919428535985E-3</v>
+      </c>
+      <c r="AE50" s="35">
+        <f>[1]Demands!T60</f>
+        <v>3.6138078846859318E-3</v>
+      </c>
+      <c r="AF50" s="35">
+        <f>[1]Demands!U60</f>
+        <v>6.3123502546919919E-3</v>
+      </c>
+      <c r="AG50" s="35">
+        <f>[1]Demands!V60</f>
+        <v>9.5979099500525071E-3</v>
+      </c>
+      <c r="AH50" s="35">
+        <f>[1]Demands!W60</f>
+        <v>5.8735122381989901E-3</v>
+      </c>
+      <c r="AI50" s="35">
+        <f>[1]Demands!X60</f>
+        <v>5.0103707288089395E-3</v>
+      </c>
+      <c r="AJ50" s="35">
+        <f>[1]Demands!Y60</f>
+        <v>4.3449135578945168E-3</v>
+      </c>
+      <c r="AK50" s="35">
+        <f>[1]Demands!Z60</f>
+        <v>6.2553697184935773E-3</v>
+      </c>
+      <c r="AL50" s="35">
+        <f>[1]Demands!AA60</f>
+        <v>6.8237115745591239E-3</v>
+      </c>
+      <c r="AM50" s="35">
+        <f>[1]Demands!AB60</f>
+        <v>7.9379260453763534E-3</v>
+      </c>
+      <c r="AN50" s="35">
+        <f>[1]Demands!AC60</f>
+        <v>2.7483693665086213E-3</v>
+      </c>
+      <c r="AO50" s="35">
+        <f>[1]Demands!AD64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C51" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34" t="str">
+        <f>[1]Commodities!$K$27</f>
+        <v>TBUS_ICE_DST_00</v>
+      </c>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v>TRAPL</v>
+      </c>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34">
+        <v>2018</v>
+      </c>
+      <c r="K51" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L51" s="34">
+        <v>-1</v>
+      </c>
+      <c r="M51" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>BUS</v>
+      </c>
+      <c r="N51" s="35">
+        <f>[1]Demands!C61</f>
+        <v>0.1626965950818042</v>
+      </c>
+      <c r="O51" s="35">
+        <f>[1]Demands!D61</f>
+        <v>0.13109626623170204</v>
+      </c>
+      <c r="P51" s="35">
+        <f>[1]Demands!E61</f>
+        <v>0.23916819504950479</v>
+      </c>
+      <c r="Q51" s="35">
+        <f>[1]Demands!F61</f>
+        <v>0.15479346868381608</v>
+      </c>
+      <c r="R51" s="35">
+        <f>[1]Demands!G61</f>
+        <v>0.20800029152740038</v>
+      </c>
+      <c r="S51" s="35">
+        <f>[1]Demands!H61</f>
+        <v>0.12724978858051844</v>
+      </c>
+      <c r="T51" s="35">
+        <f>[1]Demands!I61</f>
+        <v>0.14827744084788594</v>
+      </c>
+      <c r="U51" s="35">
+        <f>[1]Demands!J61</f>
+        <v>0.14551722418000443</v>
+      </c>
+      <c r="V51" s="35">
+        <f>[1]Demands!K61</f>
+        <v>0.11766218454461841</v>
+      </c>
+      <c r="W51" s="35">
+        <f>[1]Demands!L61</f>
+        <v>0.17371900154534914</v>
+      </c>
+      <c r="X51" s="35">
+        <f>[1]Demands!M61</f>
+        <v>0.11196687123703571</v>
+      </c>
+      <c r="Y51" s="35">
+        <f>[1]Demands!N61</f>
+        <v>0.12599020808803368</v>
+      </c>
+      <c r="Z51" s="35">
+        <f>[1]Demands!O61</f>
+        <v>0.13241927644257739</v>
+      </c>
+      <c r="AA51" s="35">
+        <f>[1]Demands!P61</f>
+        <v>0.11487011188674058</v>
+      </c>
+      <c r="AB51" s="35">
+        <f>[1]Demands!Q61</f>
+        <v>0.11670831913312733</v>
+      </c>
+      <c r="AC51" s="35">
+        <f>[1]Demands!R61</f>
+        <v>0.2178213998684824</v>
+      </c>
+      <c r="AD51" s="35">
+        <f>[1]Demands!S61</f>
+        <v>0.12016236232976817</v>
+      </c>
+      <c r="AE51" s="35">
+        <f>[1]Demands!T61</f>
+        <v>0.14679096653005977</v>
+      </c>
+      <c r="AF51" s="35">
+        <f>[1]Demands!U61</f>
+        <v>0.10758223700696061</v>
+      </c>
+      <c r="AG51" s="35">
+        <f>[1]Demands!V61</f>
+        <v>0.1657308225029282</v>
+      </c>
+      <c r="AH51" s="35">
+        <f>[1]Demands!W61</f>
+        <v>0.12234818626194599</v>
+      </c>
+      <c r="AI51" s="35">
+        <f>[1]Demands!X61</f>
+        <v>0.18501691930313938</v>
+      </c>
+      <c r="AJ51" s="35">
+        <f>[1]Demands!Y61</f>
+        <v>0.10860805699514527</v>
+      </c>
+      <c r="AK51" s="35">
+        <f>[1]Demands!Z61</f>
+        <v>0.13030246782805119</v>
+      </c>
+      <c r="AL51" s="35">
+        <f>[1]Demands!AA61</f>
+        <v>5.0925275195199252E-2</v>
+      </c>
+      <c r="AM51" s="35">
+        <f>[1]Demands!AB61</f>
+        <v>9.1008381034736394E-3</v>
+      </c>
+      <c r="AN51" s="35">
+        <f>[1]Demands!AC61</f>
+        <v>0.28624951607603277</v>
+      </c>
+      <c r="AO51" s="35">
+        <f>[1]Demands!AD65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C52" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34" t="str">
+        <f>[1]Commodities!$K$29</f>
+        <v>TLRAIL_ELC_00</v>
+      </c>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v>TRAPL</v>
+      </c>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34">
+        <v>2018</v>
+      </c>
+      <c r="K52" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L52" s="34">
+        <v>-1</v>
+      </c>
+      <c r="M52" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>Light rail (LUAS)</v>
+      </c>
+      <c r="N52" s="35">
+        <f>[1]Demands!C62</f>
+        <v>0</v>
+      </c>
+      <c r="O52" s="35">
+        <f>[1]Demands!D62</f>
+        <v>0</v>
+      </c>
+      <c r="P52" s="35">
+        <f>[1]Demands!E62</f>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="35">
+        <f>[1]Demands!F62</f>
+        <v>0</v>
+      </c>
+      <c r="R52" s="35">
+        <f>[1]Demands!G62</f>
+        <v>0</v>
+      </c>
+      <c r="S52" s="35">
+        <f>[1]Demands!H62</f>
+        <v>0</v>
+      </c>
+      <c r="T52" s="35">
+        <f>[1]Demands!I62</f>
+        <v>0</v>
+      </c>
+      <c r="U52" s="35">
+        <f>[1]Demands!J62</f>
+        <v>0</v>
+      </c>
+      <c r="V52" s="35">
+        <f>[1]Demands!K62</f>
+        <v>0</v>
+      </c>
+      <c r="W52" s="35">
+        <f>[1]Demands!L62</f>
+        <v>0</v>
+      </c>
+      <c r="X52" s="35">
+        <f>[1]Demands!M62</f>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="35">
+        <f>[1]Demands!N62</f>
+        <v>0</v>
+      </c>
+      <c r="Z52" s="35">
+        <f>[1]Demands!O62</f>
+        <v>0</v>
+      </c>
+      <c r="AA52" s="35">
+        <f>[1]Demands!P62</f>
+        <v>0</v>
+      </c>
+      <c r="AB52" s="35">
+        <f>[1]Demands!Q62</f>
+        <v>0</v>
+      </c>
+      <c r="AC52" s="35">
+        <f>[1]Demands!R62</f>
+        <v>0</v>
+      </c>
+      <c r="AD52" s="35">
+        <f>[1]Demands!S62</f>
+        <v>0</v>
+      </c>
+      <c r="AE52" s="35">
+        <f>[1]Demands!T62</f>
+        <v>0</v>
+      </c>
+      <c r="AF52" s="35">
+        <f>[1]Demands!U62</f>
+        <v>0</v>
+      </c>
+      <c r="AG52" s="35">
+        <f>[1]Demands!V62</f>
+        <v>0</v>
+      </c>
+      <c r="AH52" s="35">
+        <f>[1]Demands!W62</f>
+        <v>0</v>
+      </c>
+      <c r="AI52" s="35">
+        <f>[1]Demands!X62</f>
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="35">
+        <f>[1]Demands!Y62</f>
+        <v>0</v>
+      </c>
+      <c r="AK52" s="35">
+        <f>[1]Demands!Z62</f>
+        <v>0</v>
+      </c>
+      <c r="AL52" s="35">
+        <f>[1]Demands!AA62</f>
+        <v>0</v>
+      </c>
+      <c r="AM52" s="35">
+        <f>[1]Demands!AB62</f>
+        <v>0</v>
+      </c>
+      <c r="AN52" s="35">
+        <f>[1]Demands!AC62</f>
+        <v>0</v>
+      </c>
+      <c r="AO52" s="35">
+        <f>[1]Demands!AD66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C53" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32" t="str">
+        <f t="shared" si="6"/>
+        <v>TRAPL</v>
+      </c>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32">
+        <v>2018</v>
+      </c>
+      <c r="K53" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="L53" s="32">
+        <v>-1</v>
+      </c>
+      <c r="M53" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v>Train</v>
+      </c>
+      <c r="N53" s="33">
+        <f>[1]Demands!C63</f>
+        <v>8.4074838493522847E-2</v>
+      </c>
+      <c r="O53" s="33">
+        <f>[1]Demands!D63</f>
+        <v>7.2940360290157685E-2</v>
+      </c>
+      <c r="P53" s="33">
+        <f>[1]Demands!E63</f>
+        <v>9.6900168790040125E-2</v>
+      </c>
+      <c r="Q53" s="33">
+        <f>[1]Demands!F63</f>
+        <v>7.91995412085085E-2</v>
+      </c>
+      <c r="R53" s="33">
+        <f>[1]Demands!G63</f>
+        <v>7.3350678459075919E-2</v>
+      </c>
+      <c r="S53" s="33">
+        <f>[1]Demands!H63</f>
+        <v>8.426286570298451E-2</v>
+      </c>
+      <c r="T53" s="33">
+        <f>[1]Demands!I63</f>
+        <v>7.8971697728025606E-2</v>
+      </c>
+      <c r="U53" s="33">
+        <f>[1]Demands!J63</f>
+        <v>9.1644108987707917E-2</v>
+      </c>
+      <c r="V53" s="33">
+        <f>[1]Demands!K63</f>
+        <v>8.1556381609468237E-2</v>
+      </c>
+      <c r="W53" s="33">
+        <f>[1]Demands!L63</f>
+        <v>7.5632388860092645E-2</v>
+      </c>
+      <c r="X53" s="33">
+        <f>[1]Demands!M63</f>
+        <v>7.7708207344464181E-2</v>
+      </c>
+      <c r="Y53" s="33">
+        <f>[1]Demands!N63</f>
+        <v>7.3740069944264783E-2</v>
+      </c>
+      <c r="Z53" s="33">
+        <f>[1]Demands!O63</f>
+        <v>8.1917381458864319E-2</v>
+      </c>
+      <c r="AA53" s="33">
+        <f>[1]Demands!P63</f>
+        <v>7.6219960425357156E-2</v>
+      </c>
+      <c r="AB53" s="33">
+        <f>[1]Demands!Q63</f>
+        <v>8.5404192532583911E-2</v>
+      </c>
+      <c r="AC53" s="33">
+        <f>[1]Demands!R63</f>
+        <v>6.987313824182402E-2</v>
+      </c>
+      <c r="AD53" s="33">
+        <f>[1]Demands!S63</f>
+        <v>8.3227436019752521E-2</v>
+      </c>
+      <c r="AE53" s="33">
+        <f>[1]Demands!T63</f>
+        <v>7.0427469521239974E-2</v>
+      </c>
+      <c r="AF53" s="33">
+        <f>[1]Demands!U63</f>
+        <v>8.1430456922674907E-2</v>
+      </c>
+      <c r="AG53" s="33">
+        <f>[1]Demands!V63</f>
+        <v>7.9612717838730945E-2</v>
+      </c>
+      <c r="AH53" s="33">
+        <f>[1]Demands!W63</f>
+        <v>7.6629394715590618E-2</v>
+      </c>
+      <c r="AI53" s="33">
+        <f>[1]Demands!X63</f>
+        <v>7.2607758830443E-2</v>
+      </c>
+      <c r="AJ53" s="33">
+        <f>[1]Demands!Y63</f>
+        <v>6.8507648625875522E-2</v>
+      </c>
+      <c r="AK53" s="33">
+        <f>[1]Demands!Z63</f>
+        <v>8.3453986180072076E-2</v>
+      </c>
+      <c r="AL53" s="33">
+        <f>[1]Demands!AA63</f>
+        <v>9.070115859164736E-2</v>
+      </c>
+      <c r="AM53" s="33">
+        <f>[1]Demands!AB63</f>
+        <v>0.10289850788887757</v>
+      </c>
+      <c r="AN53" s="33">
+        <f>[1]Demands!AC63</f>
+        <v>6.8690270774633036E-2</v>
+      </c>
+      <c r="AO53" s="33">
+        <f>[1]Demands!AD67</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2480,7 +8434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:AG63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/SuppXLS/Scen_TRA_Demand.xlsx
+++ b/SuppXLS/Scen_TRA_Demand.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_Irish-TIMES-model\VA_Transport\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C597AB4B-B55E-46D6-9DCE-1EE65F8A48A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE68E59-C47A-4B3A-B58E-20F0A0701684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS" sheetId="2" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="96">
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
@@ -351,9 +351,6 @@
     <t>THRAIL*</t>
   </si>
   <si>
-    <t>UC_walking-S</t>
-  </si>
-  <si>
     <t>UC_cycling_S</t>
   </si>
   <si>
@@ -367,9 +364,6 @@
   </si>
   <si>
     <t>UC_BUS_S</t>
-  </si>
-  <si>
-    <t>UC_Light rail (LUAS)_S</t>
   </si>
   <si>
     <t>UC_Train_S</t>
@@ -393,9 +387,6 @@
     <t>UC_BUS_M</t>
   </si>
   <si>
-    <t>UC_Light rail (LUAS)_M</t>
-  </si>
-  <si>
     <t>UC_Train_M</t>
   </si>
   <si>
@@ -417,10 +408,13 @@
     <t>UC_BUS_L</t>
   </si>
   <si>
-    <t>UC_Light rail (LUAS)_L</t>
+    <t>UC_Train_L</t>
   </si>
   <si>
-    <t>UC_Train_L</t>
+    <t>UC_Light_rail_LUAS_S</t>
+  </si>
+  <si>
+    <t>UC_walking_S</t>
   </si>
 </sst>
 </file>
@@ -3960,30 +3954,30 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.53125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="34" width="10.6640625" customWidth="1"/>
     <col min="35" max="35" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.53125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="8.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.45">
       <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
@@ -3996,7 +3990,7 @@
       <c r="AO2" s="11"/>
       <c r="AP2" s="11"/>
     </row>
-    <row r="3" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
@@ -4133,30 +4127,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.53125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="34" width="10.6640625" customWidth="1"/>
     <col min="35" max="35" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.53125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="8.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.45">
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
@@ -4169,7 +4163,7 @@
       <c r="AO2" s="11"/>
       <c r="AP2" s="11"/>
     </row>
-    <row r="3" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
@@ -4305,37 +4299,37 @@
   <dimension ref="B6:AO53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.796875" customWidth="1"/>
+    <col min="14" max="14" width="10.53125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:41" x14ac:dyDescent="0.45">
       <c r="C7" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:41" x14ac:dyDescent="0.45">
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:41" x14ac:dyDescent="0.45">
       <c r="K9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:41" x14ac:dyDescent="0.45">
       <c r="C10" s="28" t="s">
         <v>1</v>
       </c>
@@ -4481,9 +4475,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:41" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E11" t="str">
         <f>[1]Commodities!$K$8</f>
@@ -4618,9 +4612,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:41" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" t="str">
         <f>[1]Commodities!$K$9</f>
@@ -4755,9 +4749,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:41" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" t="str">
         <f>[1]Commodities!$K$11</f>
@@ -4892,9 +4886,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:41" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
         <v>71</v>
@@ -5028,9 +5022,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:41" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
         <v>72</v>
@@ -5164,9 +5158,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:41" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" t="str">
         <f>[1]Commodities!$K$27</f>
@@ -5301,9 +5295,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E17" t="str">
         <f>[1]Commodities!$K$29</f>
@@ -5438,9 +5432,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C18" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="32" t="s">
@@ -5578,27 +5572,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:41" x14ac:dyDescent="0.45">
       <c r="N19" s="31"/>
     </row>
-    <row r="20" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:41" x14ac:dyDescent="0.45">
       <c r="N20" s="31"/>
     </row>
-    <row r="21" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:41" x14ac:dyDescent="0.45">
       <c r="N21" s="31"/>
     </row>
-    <row r="24" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:41" x14ac:dyDescent="0.45">
       <c r="K26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C27" s="28" t="s">
         <v>1</v>
       </c>
@@ -5744,9 +5738,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E28" t="str">
         <f>[1]Commodities!$K$8</f>
@@ -5882,9 +5876,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E29" t="str">
         <f>[1]Commodities!$K$9</f>
@@ -6020,9 +6014,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E30" t="str">
         <f>[1]Commodities!$K$11</f>
@@ -6158,9 +6152,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E31" t="s">
         <v>71</v>
@@ -6295,9 +6289,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E32" t="s">
         <v>72</v>
@@ -6432,9 +6426,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E33" t="str">
         <f>[1]Commodities!$K$27</f>
@@ -6570,9 +6564,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E34" t="str">
         <f>[1]Commodities!$K$29</f>
@@ -6708,9 +6702,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C35" s="32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D35" s="32"/>
       <c r="E35" s="32" t="s">
@@ -6849,13 +6843,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C42" s="7"/>
     </row>
-    <row r="43" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C43" s="7"/>
     </row>
-    <row r="44" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
       <c r="E44" s="34"/>
@@ -6898,7 +6892,7 @@
       <c r="AN44" s="34"/>
       <c r="AO44" s="34"/>
     </row>
-    <row r="45" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C45" s="5" t="s">
         <v>1</v>
       </c>
@@ -7044,9 +7038,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C46" s="34" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D46" s="34"/>
       <c r="E46" s="34" t="str">
@@ -7186,9 +7180,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C47" s="34" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D47" s="34"/>
       <c r="E47" s="34" t="str">
@@ -7328,9 +7322,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C48" s="34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D48" s="34"/>
       <c r="E48" s="34" t="str">
@@ -7470,9 +7464,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C49" s="34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D49" s="34"/>
       <c r="E49" s="34" t="s">
@@ -7611,9 +7605,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C50" s="34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D50" s="34"/>
       <c r="E50" s="34" t="s">
@@ -7752,9 +7746,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C51" s="34" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D51" s="34"/>
       <c r="E51" s="34" t="str">
@@ -7894,9 +7888,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:41" x14ac:dyDescent="0.3">
-      <c r="C52" s="34" t="s">
-        <v>96</v>
+    <row r="52" spans="3:41" x14ac:dyDescent="0.45">
+      <c r="C52" t="s">
+        <v>94</v>
       </c>
       <c r="D52" s="34"/>
       <c r="E52" s="34" t="str">
@@ -8036,9 +8030,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C53" s="32" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D53" s="32"/>
       <c r="E53" s="32" t="s">
@@ -8189,33 +8183,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.53125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B3" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -8273,33 +8267,33 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.53125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -8355,32 +8349,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B3" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -8438,12 +8432,12 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B2" s="16" t="s">
         <v>16</v>
       </c>
@@ -8478,7 +8472,7 @@
       <c r="AF2" s="15"/>
       <c r="AG2" s="15"/>
     </row>
-    <row r="3" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:33" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="17" t="s">
         <v>17</v>
       </c>
@@ -8603,7 +8597,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15" t="s">
@@ -8724,7 +8718,7 @@
         <v>0.20769618859639608</v>
       </c>
     </row>
-    <row r="5" spans="2:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:33" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15" t="s">
@@ -8845,7 +8839,7 @@
         <v>0.2284658074560357</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
@@ -8966,7 +8960,7 @@
         <v>0.47664625412085693</v>
       </c>
     </row>
-    <row r="7" spans="2:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:33" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
@@ -9087,7 +9081,7 @@
         <v>0.52431087953294264</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
@@ -9208,7 +9202,7 @@
         <v>0.42809298937083867</v>
       </c>
     </row>
-    <row r="9" spans="2:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:33" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22" t="s">
@@ -9329,29 +9323,29 @@
         <v>0.47090228830792258</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B13" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B14" s="15" t="s">
         <v>64</v>
       </c>
@@ -9362,7 +9356,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B15" s="15" t="s">
         <v>65</v>
       </c>
@@ -9373,7 +9367,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B16" s="15" t="s">
         <v>66</v>
       </c>
@@ -9384,7 +9378,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="15" t="s">
         <v>67</v>
       </c>
@@ -9395,137 +9389,137 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D38" s="15"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D39" s="15"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D40" s="15"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D41" s="15"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D42" s="15"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D43" s="15"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D44" s="15"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D45" s="15"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D46" s="15"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D47" s="15"/>
     </row>
-    <row r="52" spans="5:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:33" x14ac:dyDescent="0.45">
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
@@ -9556,7 +9550,7 @@
       <c r="AF52" s="15"/>
       <c r="AG52" s="15"/>
     </row>
-    <row r="53" spans="5:33" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:33" x14ac:dyDescent="0.45">
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
@@ -9587,7 +9581,7 @@
       <c r="AF53" s="15"/>
       <c r="AG53" s="15"/>
     </row>
-    <row r="54" spans="5:33" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:33" x14ac:dyDescent="0.45">
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
@@ -9618,7 +9612,7 @@
       <c r="AF54" s="15"/>
       <c r="AG54" s="15"/>
     </row>
-    <row r="55" spans="5:33" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:33" x14ac:dyDescent="0.45">
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
@@ -9649,7 +9643,7 @@
       <c r="AF55" s="15"/>
       <c r="AG55" s="15"/>
     </row>
-    <row r="56" spans="5:33" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:33" x14ac:dyDescent="0.45">
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
@@ -9680,7 +9674,7 @@
       <c r="AF56" s="15"/>
       <c r="AG56" s="15"/>
     </row>
-    <row r="57" spans="5:33" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:33" x14ac:dyDescent="0.45">
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
@@ -9711,7 +9705,7 @@
       <c r="AF57" s="15"/>
       <c r="AG57" s="15"/>
     </row>
-    <row r="58" spans="5:33" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:33" x14ac:dyDescent="0.45">
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
@@ -9742,7 +9736,7 @@
       <c r="AF58" s="15"/>
       <c r="AG58" s="15"/>
     </row>
-    <row r="59" spans="5:33" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:33" x14ac:dyDescent="0.45">
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
@@ -9773,7 +9767,7 @@
       <c r="AF59" s="15"/>
       <c r="AG59" s="15"/>
     </row>
-    <row r="60" spans="5:33" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:33" x14ac:dyDescent="0.45">
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
@@ -9804,7 +9798,7 @@
       <c r="AF60" s="15"/>
       <c r="AG60" s="15"/>
     </row>
-    <row r="61" spans="5:33" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:33" x14ac:dyDescent="0.45">
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -9835,7 +9829,7 @@
       <c r="AF61" s="15"/>
       <c r="AG61" s="15"/>
     </row>
-    <row r="62" spans="5:33" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:33" x14ac:dyDescent="0.45">
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
@@ -9866,7 +9860,7 @@
       <c r="AF62" s="15"/>
       <c r="AG62" s="15"/>
     </row>
-    <row r="63" spans="5:33" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:33" x14ac:dyDescent="0.45">
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>

--- a/SuppXLS/Scen_TRA_Demand.xlsx
+++ b/SuppXLS/Scen_TRA_Demand.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE68E59-C47A-4B3A-B58E-20F0A0701684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F677EC0-8A04-4B6B-9F7E-6E7A055D23D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS" sheetId="2" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="96">
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
@@ -333,9 +333,6 @@
     <t>TRAPL</t>
   </si>
   <si>
-    <t>~UC_Sets: R_E</t>
-  </si>
-  <si>
     <t>~UC_T:UC_COMPRD</t>
   </si>
   <si>
@@ -415,6 +412,9 @@
   </si>
   <si>
     <t>UC_walking_S</t>
+  </si>
+  <si>
+    <t>~UC_Sets: R_E:AllRegions</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1070,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="55" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1117,6 +1117,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="64">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3954,30 +3955,30 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="34" width="10.6640625" customWidth="1"/>
     <col min="35" max="35" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.53125" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
@@ -3990,7 +3991,7 @@
       <c r="AO2" s="11"/>
       <c r="AP2" s="11"/>
     </row>
-    <row r="3" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
@@ -4127,30 +4128,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="34" width="10.6640625" customWidth="1"/>
     <col min="35" max="35" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.53125" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
@@ -4163,7 +4164,7 @@
       <c r="AO2" s="11"/>
       <c r="AP2" s="11"/>
     </row>
-    <row r="3" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
@@ -4296,40 +4297,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B6:AO53"/>
+  <dimension ref="B6:AO75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AM7" sqref="AM7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.796875" customWidth="1"/>
-    <col min="14" max="14" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:41" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:41" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="2:41" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:41" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:41" x14ac:dyDescent="0.3">
       <c r="K9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="2:41" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C10" s="28" t="s">
         <v>1</v>
       </c>
@@ -4475,9 +4476,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:41" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E11" t="str">
         <f>[1]Commodities!$K$8</f>
@@ -4491,7 +4492,7 @@
         <v>2018</v>
       </c>
       <c r="K11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L11">
         <v>-1</v>
@@ -4612,3563 +4613,4454 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:41" x14ac:dyDescent="0.45">
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" t="str">
+    <row r="12" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>69</v>
+      </c>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="31"/>
+      <c r="AF12" s="31"/>
+      <c r="AG12" s="31"/>
+      <c r="AH12" s="31"/>
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="31"/>
+      <c r="AL12" s="31"/>
+      <c r="AM12" s="31"/>
+      <c r="AN12" s="31"/>
+      <c r="AO12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="str">
         <f>[1]Commodities!$K$9</f>
         <v>TCYC_CYC</v>
       </c>
-      <c r="H12" t="str">
+      <c r="H13" t="str">
         <f>H11</f>
         <v>TRAPS</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>2018</v>
       </c>
-      <c r="K12" t="s">
-        <v>70</v>
-      </c>
-      <c r="L12">
+      <c r="K13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13">
         <v>-1</v>
       </c>
-      <c r="M12" t="str">
+      <c r="M13" t="str">
         <f>[1]Demands!B29</f>
         <v>Bike</v>
       </c>
-      <c r="N12" s="31">
+      <c r="N13" s="31">
         <f>[1]Demands!C29</f>
         <v>5.3963306308090382E-2</v>
       </c>
-      <c r="O12" s="31">
+      <c r="O13" s="31">
         <f>[1]Demands!D29</f>
         <v>4.9232692833419758E-2</v>
       </c>
-      <c r="P12" s="31">
+      <c r="P13" s="31">
         <f>[1]Demands!E29</f>
         <v>5.8277094066075792E-2</v>
       </c>
-      <c r="Q12" s="31">
+      <c r="Q13" s="31">
         <f>[1]Demands!F29</f>
         <v>5.2185599505763403E-2</v>
       </c>
-      <c r="R12" s="31">
+      <c r="R13" s="31">
         <f>[1]Demands!G29</f>
         <v>5.016571809580838E-2</v>
       </c>
-      <c r="S12" s="31">
+      <c r="S13" s="31">
         <f>[1]Demands!H29</f>
         <v>5.4309640711772487E-2</v>
       </c>
-      <c r="T12" s="31">
+      <c r="T13" s="31">
         <f>[1]Demands!I29</f>
         <v>5.216014948863501E-2</v>
       </c>
-      <c r="U12" s="31">
+      <c r="U13" s="31">
         <f>[1]Demands!J29</f>
         <v>5.7358266557074891E-2</v>
       </c>
-      <c r="V12" s="31">
+      <c r="V13" s="31">
         <f>[1]Demands!K29</f>
         <v>5.2734279786425649E-2</v>
       </c>
-      <c r="W12" s="31">
+      <c r="W13" s="31">
         <f>[1]Demands!L29</f>
         <v>5.0919829241009663E-2</v>
       </c>
-      <c r="X12" s="31">
+      <c r="X13" s="31">
         <f>[1]Demands!M29</f>
         <v>5.1151500211626538E-2</v>
       </c>
-      <c r="Y12" s="31">
+      <c r="Y13" s="31">
         <f>[1]Demands!N29</f>
         <v>4.95700409302798E-2</v>
       </c>
-      <c r="Z12" s="31">
+      <c r="Z13" s="31">
         <f>[1]Demands!O29</f>
         <v>5.3308466643435894E-2</v>
       </c>
-      <c r="AA12" s="31">
+      <c r="AA13" s="31">
         <f>[1]Demands!P29</f>
         <v>5.052956723015347E-2</v>
       </c>
-      <c r="AB12" s="31">
+      <c r="AB13" s="31">
         <f>[1]Demands!Q29</f>
         <v>5.459303241989124E-2</v>
       </c>
-      <c r="AC12" s="31">
+      <c r="AC13" s="31">
         <f>[1]Demands!R29</f>
         <v>4.8514555819879672E-2</v>
       </c>
-      <c r="AD12" s="31">
+      <c r="AD13" s="31">
         <f>[1]Demands!S29</f>
         <v>5.3684845802762227E-2</v>
       </c>
-      <c r="AE12" s="31">
+      <c r="AE13" s="31">
         <f>[1]Demands!T29</f>
         <v>4.8206916082809047E-2</v>
       </c>
-      <c r="AF12" s="31">
+      <c r="AF13" s="31">
         <f>[1]Demands!U29</f>
         <v>5.2860553653547575E-2</v>
       </c>
-      <c r="AG12" s="31">
+      <c r="AG13" s="31">
         <f>[1]Demands!V29</f>
         <v>5.2534191690221041E-2</v>
       </c>
-      <c r="AH12" s="31">
+      <c r="AH13" s="31">
         <f>[1]Demands!W29</f>
         <v>5.0906379062729046E-2</v>
       </c>
-      <c r="AI12" s="31">
+      <c r="AI13" s="31">
         <f>[1]Demands!X29</f>
         <v>4.9608903604054101E-2</v>
       </c>
-      <c r="AJ12" s="31">
+      <c r="AJ13" s="31">
         <f>[1]Demands!Y29</f>
         <v>4.690170755194658E-2</v>
       </c>
-      <c r="AK12" s="31">
+      <c r="AK13" s="31">
         <f>[1]Demands!Z29</f>
         <v>5.4014520016647569E-2</v>
       </c>
-      <c r="AL12" s="31">
+      <c r="AL13" s="31">
         <f>[1]Demands!AA29</f>
         <v>5.6289186370099165E-2</v>
       </c>
-      <c r="AM12" s="31">
+      <c r="AM13" s="31">
         <f>[1]Demands!AB29</f>
         <v>6.064080165295288E-2</v>
       </c>
-      <c r="AN12" s="31">
+      <c r="AN13" s="31">
         <f>[1]Demands!AC29</f>
         <v>4.8755214052346667E-2</v>
       </c>
-      <c r="AO12" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:41" x14ac:dyDescent="0.45">
-      <c r="C13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" t="str">
+      <c r="AO13" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="31"/>
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="31"/>
+      <c r="AI14" s="31"/>
+      <c r="AJ14" s="31"/>
+      <c r="AK14" s="31"/>
+      <c r="AL14" s="31"/>
+      <c r="AM14" s="31"/>
+      <c r="AN14" s="31"/>
+      <c r="AO14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" t="str">
         <f>[1]Commodities!$K$11</f>
         <v>TMOT_GSL_00</v>
       </c>
-      <c r="H13" t="str">
-        <f t="shared" ref="H13:H18" si="0">H12</f>
+      <c r="H15" t="str">
+        <f>H13</f>
         <v>TRAPS</v>
       </c>
-      <c r="J13">
+      <c r="J15">
         <v>2018</v>
       </c>
-      <c r="K13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13">
+      <c r="K15" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15">
         <v>-1</v>
       </c>
-      <c r="M13" t="str">
+      <c r="M15" t="str">
         <f>[1]Demands!B30</f>
         <v>2-wheelers</v>
       </c>
-      <c r="N13" s="31">
+      <c r="N15" s="31">
         <f>[1]Demands!C30</f>
         <v>1.2024577456126329E-3</v>
       </c>
-      <c r="O13" s="31">
+      <c r="O15" s="31">
         <f>[1]Demands!D30</f>
         <v>8.4181954391599476E-4</v>
       </c>
-      <c r="P13" s="31">
+      <c r="P15" s="31">
         <f>[1]Demands!E30</f>
         <v>1.4736843073167786E-3</v>
       </c>
-      <c r="Q13" s="31">
+      <c r="Q15" s="31">
         <f>[1]Demands!F30</f>
         <v>1.3698908311171865E-3</v>
       </c>
-      <c r="R13" s="31">
+      <c r="R15" s="31">
         <f>[1]Demands!G30</f>
         <v>9.8425388735709995E-4</v>
       </c>
-      <c r="S13" s="31">
+      <c r="S15" s="31">
         <f>[1]Demands!H30</f>
         <v>6.2421004942624992E-4</v>
       </c>
-      <c r="T13" s="31">
+      <c r="T15" s="31">
         <f>[1]Demands!I30</f>
         <v>1.2422933671109623E-3</v>
       </c>
-      <c r="U13" s="31">
+      <c r="U15" s="31">
         <f>[1]Demands!J30</f>
         <v>8.6646068484003841E-4</v>
       </c>
-      <c r="V13" s="31">
+      <c r="V15" s="31">
         <f>[1]Demands!K30</f>
         <v>1.3159890714686659E-3</v>
       </c>
-      <c r="W13" s="31">
+      <c r="W15" s="31">
         <f>[1]Demands!L30</f>
         <v>1.2716318220191991E-3</v>
       </c>
-      <c r="X13" s="31">
+      <c r="X15" s="31">
         <f>[1]Demands!M30</f>
         <v>1.1218737998245681E-3</v>
       </c>
-      <c r="Y13" s="31">
+      <c r="Y15" s="31">
         <f>[1]Demands!N30</f>
         <v>1.2891857705150252E-3</v>
       </c>
-      <c r="Z13" s="31">
+      <c r="Z15" s="31">
         <f>[1]Demands!O30</f>
         <v>1.4574437703184118E-3</v>
       </c>
-      <c r="AA13" s="31">
+      <c r="AA15" s="31">
         <f>[1]Demands!P30</f>
         <v>1.2419671387040388E-3</v>
       </c>
-      <c r="AB13" s="31">
+      <c r="AB15" s="31">
         <f>[1]Demands!Q30</f>
         <v>1.4684396048311016E-3</v>
       </c>
-      <c r="AC13" s="31">
+      <c r="AC15" s="31">
         <f>[1]Demands!R30</f>
         <v>9.5921086863546602E-4</v>
       </c>
-      <c r="AD13" s="31">
+      <c r="AD15" s="31">
         <f>[1]Demands!S30</f>
         <v>1.0725657999581929E-3</v>
       </c>
-      <c r="AE13" s="31">
+      <c r="AE15" s="31">
         <f>[1]Demands!T30</f>
         <v>1.1764845294377178E-3</v>
       </c>
-      <c r="AF13" s="31">
+      <c r="AF15" s="31">
         <f>[1]Demands!U30</f>
         <v>1.3287962602263445E-3</v>
       </c>
-      <c r="AG13" s="31">
+      <c r="AG15" s="31">
         <f>[1]Demands!V30</f>
         <v>7.9269582890742734E-4</v>
       </c>
-      <c r="AH13" s="31">
+      <c r="AH15" s="31">
         <f>[1]Demands!W30</f>
         <v>0</v>
       </c>
-      <c r="AI13" s="31">
+      <c r="AI15" s="31">
         <f>[1]Demands!X30</f>
         <v>7.4007830335184128E-4</v>
       </c>
-      <c r="AJ13" s="31">
+      <c r="AJ15" s="31">
         <f>[1]Demands!Y30</f>
         <v>7.0738302217035411E-4</v>
       </c>
-      <c r="AK13" s="31">
+      <c r="AK15" s="31">
         <f>[1]Demands!Z30</f>
         <v>8.0234115950314402E-4</v>
       </c>
-      <c r="AL13" s="31">
+      <c r="AL15" s="31">
         <f>[1]Demands!AA30</f>
         <v>7.1933080869381386E-4</v>
       </c>
-      <c r="AM13" s="31">
+      <c r="AM15" s="31">
         <f>[1]Demands!AB30</f>
         <v>7.4164409782466955E-4</v>
       </c>
-      <c r="AN13" s="31">
+      <c r="AN15" s="31">
         <f>[1]Demands!AC30</f>
         <v>7.7316749378532367E-4</v>
       </c>
-      <c r="AO13" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:41" x14ac:dyDescent="0.45">
-      <c r="C14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="0"/>
+      <c r="AO15" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>69</v>
+      </c>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="31"/>
+      <c r="AH16" s="31"/>
+      <c r="AI16" s="31"/>
+      <c r="AJ16" s="31"/>
+      <c r="AK16" s="31"/>
+      <c r="AL16" s="31"/>
+      <c r="AM16" s="31"/>
+      <c r="AN16" s="31"/>
+      <c r="AO16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" t="str">
+        <f>H15</f>
         <v>TRAPS</v>
       </c>
-      <c r="J14">
+      <c r="J17">
         <v>2018</v>
       </c>
-      <c r="K14" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14">
+      <c r="K17" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17">
         <v>-1</v>
       </c>
-      <c r="M14" t="str">
+      <c r="M17" t="str">
         <f>[1]Demands!B31</f>
         <v>LDV</v>
       </c>
-      <c r="N14" s="31">
+      <c r="N17" s="31">
         <f>[1]Demands!C31</f>
         <v>0.51421690231633799</v>
       </c>
-      <c r="O14" s="31">
+      <c r="O17" s="31">
         <f>[1]Demands!D31</f>
         <v>0.57696936147650701</v>
       </c>
-      <c r="P14" s="31">
+      <c r="P17" s="31">
         <f>[1]Demands!E31</f>
         <v>0.41519891685215071</v>
       </c>
-      <c r="Q14" s="31">
+      <c r="Q17" s="31">
         <f>[1]Demands!F31</f>
         <v>0.53837411623785481</v>
       </c>
-      <c r="R14" s="31">
+      <c r="R17" s="31">
         <f>[1]Demands!G31</f>
         <v>0.5273035898540861</v>
       </c>
-      <c r="S14" s="31">
+      <c r="S17" s="31">
         <f>[1]Demands!H31</f>
         <v>0.54428190464659498</v>
       </c>
-      <c r="T14" s="31">
+      <c r="T17" s="31">
         <f>[1]Demands!I31</f>
         <v>0.54724418926165252</v>
       </c>
-      <c r="U14" s="31">
+      <c r="U17" s="31">
         <f>[1]Demands!J31</f>
         <v>0.50629481396736598</v>
       </c>
-      <c r="V14" s="31">
+      <c r="V17" s="31">
         <f>[1]Demands!K31</f>
         <v>0.54969956239724382</v>
       </c>
-      <c r="W14" s="31">
+      <c r="W17" s="31">
         <f>[1]Demands!L31</f>
         <v>0.54286879912927866</v>
       </c>
-      <c r="X14" s="31">
+      <c r="X17" s="31">
         <f>[1]Demands!M31</f>
         <v>0.57050800443626981</v>
       </c>
-      <c r="Y14" s="31">
+      <c r="Y17" s="31">
         <f>[1]Demands!N31</f>
         <v>0.57834017325166753</v>
       </c>
-      <c r="Z14" s="31">
+      <c r="Z17" s="31">
         <f>[1]Demands!O31</f>
         <v>0.54807767476728875</v>
       </c>
-      <c r="AA14" s="31">
+      <c r="AA17" s="31">
         <f>[1]Demands!P31</f>
         <v>0.57445550608131724</v>
       </c>
-      <c r="AB14" s="31">
+      <c r="AB17" s="31">
         <f>[1]Demands!Q31</f>
         <v>0.54514159019281827</v>
       </c>
-      <c r="AC14" s="31">
+      <c r="AC17" s="31">
         <f>[1]Demands!R31</f>
         <v>0.52942173322971142</v>
       </c>
-      <c r="AD14" s="31">
+      <c r="AD17" s="31">
         <f>[1]Demands!S31</f>
         <v>0.54890743812317566</v>
       </c>
-      <c r="AE14" s="31">
+      <c r="AE17" s="31">
         <f>[1]Demands!T31</f>
         <v>0.57655830557717536</v>
       </c>
-      <c r="AF14" s="31">
+      <c r="AF17" s="31">
         <f>[1]Demands!U31</f>
         <v>0.56469028513375741</v>
       </c>
-      <c r="AG14" s="31">
+      <c r="AG17" s="31">
         <f>[1]Demands!V31</f>
         <v>0.5314898835087899</v>
       </c>
-      <c r="AH14" s="31">
+      <c r="AH17" s="31">
         <f>[1]Demands!W31</f>
         <v>0.5710449216561202</v>
       </c>
-      <c r="AI14" s="31">
+      <c r="AI17" s="31">
         <f>[1]Demands!X31</f>
         <v>0.54463316447281129</v>
       </c>
-      <c r="AJ14" s="31">
+      <c r="AJ17" s="31">
         <f>[1]Demands!Y31</f>
         <v>0.60580683229929833</v>
       </c>
-      <c r="AK14" s="31">
+      <c r="AK17" s="31">
         <f>[1]Demands!Z31</f>
         <v>0.54575340066281097</v>
       </c>
-      <c r="AL14" s="31">
+      <c r="AL17" s="31">
         <f>[1]Demands!AA31</f>
         <v>0.57130392959697351</v>
       </c>
-      <c r="AM14" s="31">
+      <c r="AM17" s="31">
         <f>[1]Demands!AB31</f>
         <v>0.56067924597798535</v>
       </c>
-      <c r="AN14" s="31">
+      <c r="AN17" s="31">
         <f>[1]Demands!AC31</f>
         <v>0.49285227418620653</v>
       </c>
-      <c r="AO14" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:41" x14ac:dyDescent="0.45">
-      <c r="C15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="0"/>
+      <c r="AO17" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>69</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="31"/>
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="31"/>
+      <c r="AG18" s="31"/>
+      <c r="AH18" s="31"/>
+      <c r="AI18" s="31"/>
+      <c r="AJ18" s="31"/>
+      <c r="AK18" s="31"/>
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="31"/>
+      <c r="AN18" s="31"/>
+      <c r="AO18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" t="str">
+        <f>H17</f>
         <v>TRAPS</v>
       </c>
-      <c r="J15">
+      <c r="J19">
         <v>2018</v>
       </c>
-      <c r="K15" t="s">
-        <v>70</v>
-      </c>
-      <c r="L15">
+      <c r="K19" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19">
         <v>-1</v>
       </c>
-      <c r="M15" t="str">
+      <c r="M19" t="str">
         <f>[1]Demands!B32</f>
         <v>Taxis</v>
       </c>
-      <c r="N15" s="31">
+      <c r="N19" s="31">
         <f>[1]Demands!C32</f>
         <v>1.6399604421517593E-2</v>
       </c>
-      <c r="O15" s="31">
+      <c r="O19" s="31">
         <f>[1]Demands!D32</f>
         <v>7.4490307781118984E-3</v>
       </c>
-      <c r="P15" s="31">
+      <c r="P19" s="31">
         <f>[1]Demands!E32</f>
         <v>3.2041705931306341E-2</v>
       </c>
-      <c r="Q15" s="31">
+      <c r="Q19" s="31">
         <f>[1]Demands!F32</f>
         <v>1.4142087272297982E-2</v>
       </c>
-      <c r="R15" s="31">
+      <c r="R19" s="31">
         <f>[1]Demands!G32</f>
         <v>7.8384539751406128E-3</v>
       </c>
-      <c r="S15" s="31">
+      <c r="S19" s="31">
         <f>[1]Demands!H32</f>
         <v>9.942235039347571E-3</v>
       </c>
-      <c r="T15" s="31">
+      <c r="T19" s="31">
         <f>[1]Demands!I32</f>
         <v>8.7941712391293846E-3</v>
       </c>
-      <c r="U15" s="31">
+      <c r="U19" s="31">
         <f>[1]Demands!J32</f>
         <v>1.9167683727598969E-2</v>
       </c>
-      <c r="V15" s="31">
+      <c r="V19" s="31">
         <f>[1]Demands!K32</f>
         <v>1.9563309645198885E-2</v>
       </c>
-      <c r="W15" s="31">
+      <c r="W19" s="31">
         <f>[1]Demands!L32</f>
         <v>6.7513932047123726E-3</v>
       </c>
-      <c r="X15" s="31">
+      <c r="X19" s="31">
         <f>[1]Demands!M32</f>
         <v>1.1912585101328303E-2</v>
       </c>
-      <c r="Y15" s="31">
+      <c r="Y19" s="31">
         <f>[1]Demands!N32</f>
         <v>6.2742086519266488E-3</v>
       </c>
-      <c r="Z15" s="31">
+      <c r="Z19" s="31">
         <f>[1]Demands!O32</f>
         <v>9.0275647633180547E-3</v>
       </c>
-      <c r="AA15" s="31">
+      <c r="AA19" s="31">
         <f>[1]Demands!P32</f>
         <v>1.0257172186811273E-2</v>
       </c>
-      <c r="AB15" s="31">
+      <c r="AB19" s="31">
         <f>[1]Demands!Q32</f>
         <v>1.2127565539618518E-2</v>
       </c>
-      <c r="AC15" s="31">
+      <c r="AC19" s="31">
         <f>[1]Demands!R32</f>
         <v>1.0185353383353699E-2</v>
       </c>
-      <c r="AD15" s="31">
+      <c r="AD19" s="31">
         <f>[1]Demands!S32</f>
         <v>1.2812635692286438E-2</v>
       </c>
-      <c r="AE15" s="31">
+      <c r="AE19" s="31">
         <f>[1]Demands!T32</f>
         <v>5.2051948265462115E-3</v>
       </c>
-      <c r="AF15" s="31">
+      <c r="AF19" s="31">
         <f>[1]Demands!U32</f>
         <v>8.6226466174633056E-3</v>
       </c>
-      <c r="AG15" s="31">
+      <c r="AG19" s="31">
         <f>[1]Demands!V32</f>
         <v>1.3327262086971724E-2</v>
       </c>
-      <c r="AH15" s="31">
+      <c r="AH19" s="31">
         <f>[1]Demands!W32</f>
         <v>8.2106842864435349E-3</v>
       </c>
-      <c r="AI15" s="31">
+      <c r="AI19" s="31">
         <f>[1]Demands!X32</f>
         <v>7.2036254203120672E-3</v>
       </c>
-      <c r="AJ15" s="31">
+      <c r="AJ19" s="31">
         <f>[1]Demands!Y32</f>
         <v>6.2594387860714779E-3</v>
       </c>
-      <c r="AK15" s="31">
+      <c r="AK19" s="31">
         <f>[1]Demands!Z32</f>
         <v>8.5196368293601697E-3</v>
       </c>
-      <c r="AL15" s="31">
+      <c r="AL19" s="31">
         <f>[1]Demands!AA32</f>
         <v>8.9112260712667282E-3</v>
       </c>
-      <c r="AM15" s="31">
+      <c r="AM19" s="31">
         <f>[1]Demands!AB32</f>
         <v>9.8439085033626087E-3</v>
       </c>
-      <c r="AN15" s="31">
+      <c r="AN19" s="31">
         <f>[1]Demands!AC32</f>
         <v>4.1049285439853662E-3</v>
       </c>
-      <c r="AO15" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:41" x14ac:dyDescent="0.45">
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" t="str">
+      <c r="AO19" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>69</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="31"/>
+      <c r="AD20" s="31"/>
+      <c r="AE20" s="31"/>
+      <c r="AF20" s="31"/>
+      <c r="AG20" s="31"/>
+      <c r="AH20" s="31"/>
+      <c r="AI20" s="31"/>
+      <c r="AJ20" s="31"/>
+      <c r="AK20" s="31"/>
+      <c r="AL20" s="31"/>
+      <c r="AM20" s="31"/>
+      <c r="AN20" s="31"/>
+      <c r="AO20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="str">
         <f>[1]Commodities!$K$27</f>
         <v>TBUS_ICE_DST_00</v>
       </c>
-      <c r="H16" t="str">
-        <f t="shared" si="0"/>
+      <c r="H21" t="str">
+        <f>H19</f>
         <v>TRAPS</v>
       </c>
-      <c r="J16">
+      <c r="J21">
         <v>2018</v>
       </c>
-      <c r="K16" t="s">
-        <v>70</v>
-      </c>
-      <c r="L16">
+      <c r="K21" t="s">
+        <v>69</v>
+      </c>
+      <c r="L21">
         <v>-1</v>
       </c>
-      <c r="M16" t="str">
+      <c r="M21" t="str">
         <f>[1]Demands!B33</f>
         <v>BUS</v>
       </c>
-      <c r="N16" s="31">
+      <c r="N21" s="31">
         <f>[1]Demands!C33</f>
         <v>8.2740995898888392E-2</v>
       </c>
-      <c r="O16" s="31">
+      <c r="O21" s="31">
         <f>[1]Demands!D33</f>
         <v>7.0110938367526743E-2</v>
       </c>
-      <c r="P16" s="31">
+      <c r="P21" s="31">
         <f>[1]Demands!E33</f>
         <v>0.1139689510378053</v>
       </c>
-      <c r="Q16" s="31">
+      <c r="Q21" s="31">
         <f>[1]Demands!F33</f>
         <v>8.0814709118386313E-2</v>
       </c>
-      <c r="R16" s="31">
+      <c r="R21" s="31">
         <f>[1]Demands!G33</f>
         <v>0.11271367561275741</v>
       </c>
-      <c r="S16" s="31">
+      <c r="S21" s="31">
         <f>[1]Demands!H33</f>
         <v>6.4984165282223824E-2</v>
       </c>
-      <c r="T16" s="31">
+      <c r="T21" s="31">
         <f>[1]Demands!I33</f>
         <v>7.7598299711661989E-2</v>
       </c>
-      <c r="U16" s="31">
+      <c r="U21" s="31">
         <f>[1]Demands!J33</f>
         <v>7.216317572067088E-2</v>
       </c>
-      <c r="V16" s="31">
+      <c r="V21" s="31">
         <f>[1]Demands!K33</f>
         <v>6.0281180381109148E-2</v>
       </c>
-      <c r="W16" s="31">
+      <c r="W21" s="31">
         <f>[1]Demands!L33</f>
         <v>9.2669371156921962E-2</v>
       </c>
-      <c r="X16" s="31">
+      <c r="X21" s="31">
         <f>[1]Demands!M33</f>
         <v>5.839703518119168E-2</v>
       </c>
-      <c r="Y16" s="31">
+      <c r="Y21" s="31">
         <f>[1]Demands!N33</f>
         <v>6.7106145813932178E-2</v>
       </c>
-      <c r="Z16" s="31">
+      <c r="Z21" s="31">
         <f>[1]Demands!O33</f>
         <v>6.8278050195023532E-2</v>
       </c>
-      <c r="AA16" s="31">
+      <c r="AA21" s="31">
         <f>[1]Demands!P33</f>
         <v>6.0338383982093263E-2</v>
       </c>
-      <c r="AB16" s="31">
+      <c r="AB21" s="31">
         <f>[1]Demands!Q33</f>
         <v>5.9111177723493433E-2</v>
       </c>
-      <c r="AC16" s="31">
+      <c r="AC21" s="31">
         <f>[1]Demands!R33</f>
         <v>0.11983181177914175</v>
       </c>
-      <c r="AD16" s="31">
+      <c r="AD21" s="31">
         <f>[1]Demands!S33</f>
         <v>6.1413439765244195E-2</v>
       </c>
-      <c r="AE16" s="31">
+      <c r="AE21" s="31">
         <f>[1]Demands!T33</f>
         <v>7.9611602487177441E-2</v>
       </c>
-      <c r="AF16" s="31">
+      <c r="AF21" s="31">
         <f>[1]Demands!U33</f>
         <v>5.5334396413720018E-2</v>
       </c>
-      <c r="AG16" s="31">
+      <c r="AG21" s="31">
         <f>[1]Demands!V33</f>
         <v>8.6650816743783748E-2</v>
       </c>
-      <c r="AH16" s="31">
+      <c r="AH21" s="31">
         <f>[1]Demands!W33</f>
         <v>6.4399740618333048E-2</v>
       </c>
-      <c r="AI16" s="31">
+      <c r="AI21" s="31">
         <f>[1]Demands!X33</f>
         <v>0.10016080657514609</v>
       </c>
-      <c r="AJ16" s="31">
+      <c r="AJ21" s="31">
         <f>[1]Demands!Y33</f>
         <v>5.8914393028833764E-2</v>
       </c>
-      <c r="AK16" s="31">
+      <c r="AK21" s="31">
         <f>[1]Demands!Z33</f>
         <v>6.6822981231792783E-2</v>
       </c>
-      <c r="AL16" s="31">
+      <c r="AL21" s="31">
         <f>[1]Demands!AA33</f>
         <v>2.5041208932371696E-2</v>
       </c>
-      <c r="AM16" s="31">
+      <c r="AM21" s="31">
         <f>[1]Demands!AB33</f>
         <v>4.2495898501573662E-3</v>
       </c>
-      <c r="AN16" s="31">
+      <c r="AN21" s="31">
         <f>[1]Demands!AC33</f>
         <v>0.16098313140959611</v>
       </c>
-      <c r="AO16" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" t="str">
+      <c r="AO21" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>69</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="31"/>
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="31"/>
+      <c r="AF22" s="31"/>
+      <c r="AG22" s="31"/>
+      <c r="AH22" s="31"/>
+      <c r="AI22" s="31"/>
+      <c r="AJ22" s="31"/>
+      <c r="AK22" s="31"/>
+      <c r="AL22" s="31"/>
+      <c r="AM22" s="31"/>
+      <c r="AN22" s="31"/>
+      <c r="AO22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" t="str">
         <f>[1]Commodities!$K$29</f>
         <v>TLRAIL_ELC_00</v>
       </c>
-      <c r="H17" t="str">
-        <f t="shared" si="0"/>
+      <c r="H23" t="str">
+        <f>H21</f>
         <v>TRAPS</v>
       </c>
-      <c r="J17">
+      <c r="J23">
         <v>2018</v>
       </c>
-      <c r="K17" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17">
+      <c r="K23" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23">
         <v>-1</v>
       </c>
-      <c r="M17" t="str">
+      <c r="M23" t="str">
         <f>[1]Demands!B34</f>
         <v>Light rail (LUAS)</v>
       </c>
-      <c r="N17" s="31">
+      <c r="N23" s="31">
         <f>[1]Demands!C34</f>
         <v>7.6968954610109105E-3</v>
       </c>
-      <c r="O17" s="31">
+      <c r="O23" s="31">
         <f>[1]Demands!D34</f>
         <v>0</v>
       </c>
-      <c r="P17" s="31">
+      <c r="P23" s="31">
         <f>[1]Demands!E34</f>
         <v>2.9377083408890298E-2</v>
       </c>
-      <c r="Q17" s="31">
+      <c r="Q23" s="31">
         <f>[1]Demands!F34</f>
         <v>0</v>
       </c>
-      <c r="R17" s="31">
+      <c r="R23" s="31">
         <f>[1]Demands!G34</f>
         <v>0</v>
       </c>
-      <c r="S17" s="31">
+      <c r="S23" s="31">
         <f>[1]Demands!H34</f>
         <v>0</v>
       </c>
-      <c r="T17" s="31">
+      <c r="T23" s="31">
         <f>[1]Demands!I34</f>
         <v>0</v>
       </c>
-      <c r="U17" s="31">
+      <c r="U23" s="31">
         <f>[1]Demands!J34</f>
         <v>0</v>
       </c>
-      <c r="V17" s="31">
+      <c r="V23" s="31">
         <f>[1]Demands!K34</f>
         <v>0</v>
       </c>
-      <c r="W17" s="31">
+      <c r="W23" s="31">
         <f>[1]Demands!L34</f>
         <v>0</v>
       </c>
-      <c r="X17" s="31">
+      <c r="X23" s="31">
         <f>[1]Demands!M34</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="31">
+      <c r="Y23" s="31">
         <f>[1]Demands!N34</f>
         <v>0</v>
       </c>
-      <c r="Z17" s="31">
+      <c r="Z23" s="31">
         <f>[1]Demands!O34</f>
         <v>0</v>
       </c>
-      <c r="AA17" s="31">
+      <c r="AA23" s="31">
         <f>[1]Demands!P34</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="31">
+      <c r="AB23" s="31">
         <f>[1]Demands!Q34</f>
         <v>0</v>
       </c>
-      <c r="AC17" s="31">
+      <c r="AC23" s="31">
         <f>[1]Demands!R34</f>
         <v>0</v>
       </c>
-      <c r="AD17" s="31">
+      <c r="AD23" s="31">
         <f>[1]Demands!S34</f>
         <v>0</v>
       </c>
-      <c r="AE17" s="31">
+      <c r="AE23" s="31">
         <f>[1]Demands!T34</f>
         <v>0</v>
       </c>
-      <c r="AF17" s="31">
+      <c r="AF23" s="31">
         <f>[1]Demands!U34</f>
         <v>0</v>
       </c>
-      <c r="AG17" s="31">
+      <c r="AG23" s="31">
         <f>[1]Demands!V34</f>
         <v>0</v>
       </c>
-      <c r="AH17" s="31">
+      <c r="AH23" s="31">
         <f>[1]Demands!W34</f>
         <v>0</v>
       </c>
-      <c r="AI17" s="31">
+      <c r="AI23" s="31">
         <f>[1]Demands!X34</f>
         <v>0</v>
       </c>
-      <c r="AJ17" s="31">
+      <c r="AJ23" s="31">
         <f>[1]Demands!Y34</f>
         <v>0</v>
       </c>
-      <c r="AK17" s="31">
+      <c r="AK23" s="31">
         <f>[1]Demands!Z34</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="31">
+      <c r="AL23" s="31">
         <f>[1]Demands!AA34</f>
         <v>0</v>
       </c>
-      <c r="AM17" s="31">
+      <c r="AM23" s="31">
         <f>[1]Demands!AB34</f>
         <v>0</v>
       </c>
-      <c r="AN17" s="31">
+      <c r="AN23" s="31">
         <f>[1]Demands!AC34</f>
         <v>0</v>
       </c>
-      <c r="AO17" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C18" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="AO23" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>69</v>
+      </c>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="31"/>
+      <c r="AF24" s="31"/>
+      <c r="AG24" s="31"/>
+      <c r="AH24" s="31"/>
+      <c r="AI24" s="31"/>
+      <c r="AJ24" s="31"/>
+      <c r="AK24" s="31"/>
+      <c r="AL24" s="31"/>
+      <c r="AM24" s="31"/>
+      <c r="AN24" s="31"/>
+      <c r="AO24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C25" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32" t="str">
+        <f t="shared" ref="H25" si="0">H23</f>
         <v>TRAPS</v>
       </c>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32">
+      <c r="I25" s="32"/>
+      <c r="J25" s="32">
         <v>2018</v>
       </c>
-      <c r="K18" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="L18" s="32">
+      <c r="K25" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25" s="32">
         <v>-1</v>
       </c>
-      <c r="M18" s="32" t="str">
+      <c r="M25" s="32" t="str">
         <f>[1]Demands!B35</f>
         <v>Train</v>
       </c>
-      <c r="N18" s="33">
+      <c r="N25" s="33">
         <f>[1]Demands!C35</f>
         <v>0</v>
       </c>
-      <c r="O18" s="33">
+      <c r="O25" s="33">
         <f>[1]Demands!D35</f>
         <v>0</v>
       </c>
-      <c r="P18" s="33">
+      <c r="P25" s="33">
         <f>[1]Demands!E35</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="33">
+      <c r="Q25" s="33">
         <f>[1]Demands!F35</f>
         <v>0</v>
       </c>
-      <c r="R18" s="33">
+      <c r="R25" s="33">
         <f>[1]Demands!G35</f>
         <v>0</v>
       </c>
-      <c r="S18" s="33">
+      <c r="S25" s="33">
         <f>[1]Demands!H35</f>
         <v>0</v>
       </c>
-      <c r="T18" s="33">
+      <c r="T25" s="33">
         <f>[1]Demands!I35</f>
         <v>0</v>
       </c>
-      <c r="U18" s="33">
+      <c r="U25" s="33">
         <f>[1]Demands!J35</f>
         <v>0</v>
       </c>
-      <c r="V18" s="33">
+      <c r="V25" s="33">
         <f>[1]Demands!K35</f>
         <v>0</v>
       </c>
-      <c r="W18" s="33">
+      <c r="W25" s="33">
         <f>[1]Demands!L35</f>
         <v>0</v>
       </c>
-      <c r="X18" s="33">
+      <c r="X25" s="33">
         <f>[1]Demands!M35</f>
         <v>0</v>
       </c>
-      <c r="Y18" s="33">
+      <c r="Y25" s="33">
         <f>[1]Demands!N35</f>
         <v>0</v>
       </c>
-      <c r="Z18" s="33">
+      <c r="Z25" s="33">
         <f>[1]Demands!O35</f>
         <v>0</v>
       </c>
-      <c r="AA18" s="33">
+      <c r="AA25" s="33">
         <f>[1]Demands!P35</f>
         <v>0</v>
       </c>
-      <c r="AB18" s="33">
+      <c r="AB25" s="33">
         <f>[1]Demands!Q35</f>
         <v>0</v>
       </c>
-      <c r="AC18" s="33">
+      <c r="AC25" s="33">
         <f>[1]Demands!R35</f>
         <v>0</v>
       </c>
-      <c r="AD18" s="33">
+      <c r="AD25" s="33">
         <f>[1]Demands!S35</f>
         <v>0</v>
       </c>
-      <c r="AE18" s="33">
+      <c r="AE25" s="33">
         <f>[1]Demands!T35</f>
         <v>0</v>
       </c>
-      <c r="AF18" s="33">
+      <c r="AF25" s="33">
         <f>[1]Demands!U35</f>
         <v>0</v>
       </c>
-      <c r="AG18" s="33">
+      <c r="AG25" s="33">
         <f>[1]Demands!V35</f>
         <v>0</v>
       </c>
-      <c r="AH18" s="33">
+      <c r="AH25" s="33">
         <f>[1]Demands!W35</f>
         <v>0</v>
       </c>
-      <c r="AI18" s="33">
+      <c r="AI25" s="33">
         <f>[1]Demands!X35</f>
         <v>0</v>
       </c>
-      <c r="AJ18" s="33">
+      <c r="AJ25" s="33">
         <f>[1]Demands!Y35</f>
         <v>0</v>
       </c>
-      <c r="AK18" s="33">
+      <c r="AK25" s="33">
         <f>[1]Demands!Z35</f>
         <v>0</v>
       </c>
-      <c r="AL18" s="33">
+      <c r="AL25" s="33">
         <f>[1]Demands!AA35</f>
         <v>0</v>
       </c>
-      <c r="AM18" s="33">
+      <c r="AM25" s="33">
         <f>[1]Demands!AB35</f>
         <v>0</v>
       </c>
-      <c r="AN18" s="33">
+      <c r="AN25" s="33">
         <f>[1]Demands!AC35</f>
         <v>0</v>
       </c>
-      <c r="AO18" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="N19" s="31"/>
-    </row>
-    <row r="20" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="N20" s="31"/>
-    </row>
-    <row r="21" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="N21" s="31"/>
-    </row>
-    <row r="24" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C24" s="7"/>
-    </row>
-    <row r="25" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C25" s="7"/>
-    </row>
-    <row r="26" spans="3:41" x14ac:dyDescent="0.45">
+      <c r="AO25" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="J26" s="36">
+        <v>0</v>
+      </c>
       <c r="K26" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="27" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C27" s="28" t="s">
+      <c r="N26" s="31"/>
+      <c r="AO26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="N27" s="31"/>
+    </row>
+    <row r="28" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="N28" s="31"/>
+    </row>
+    <row r="31" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="K33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C34" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D34" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E34" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F34" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G34" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="30" t="s">
+      <c r="H34" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="30" t="s">
+      <c r="I34" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="30" t="s">
+      <c r="J34" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="30" t="s">
+      <c r="K34" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="L27" s="30" t="s">
+      <c r="L34" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="28" t="s">
+      <c r="M34" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="N27" s="28" t="str">
+      <c r="N34" s="28" t="str">
         <f>N10</f>
         <v>*National</v>
       </c>
-      <c r="O27" s="28" t="str">
-        <f t="shared" ref="O27:AN27" si="1">O10</f>
+      <c r="O34" s="28" t="str">
+        <f t="shared" ref="O34:AN34" si="1">O10</f>
         <v>IE-CW</v>
       </c>
-      <c r="P27" s="28" t="str">
+      <c r="P34" s="28" t="str">
         <f t="shared" si="1"/>
         <v>IE-D</v>
       </c>
-      <c r="Q27" s="28" t="str">
+      <c r="Q34" s="28" t="str">
         <f t="shared" si="1"/>
         <v>IE-KE</v>
       </c>
-      <c r="R27" s="28" t="str">
+      <c r="R34" s="28" t="str">
         <f t="shared" si="1"/>
         <v>IE-KK</v>
       </c>
-      <c r="S27" s="28" t="str">
+      <c r="S34" s="28" t="str">
         <f t="shared" si="1"/>
         <v>IE-LS</v>
       </c>
-      <c r="T27" s="28" t="str">
+      <c r="T34" s="28" t="str">
         <f t="shared" si="1"/>
         <v>IE-LD</v>
       </c>
-      <c r="U27" s="28" t="str">
+      <c r="U34" s="28" t="str">
         <f t="shared" si="1"/>
         <v>IE-LH</v>
       </c>
-      <c r="V27" s="28" t="str">
+      <c r="V34" s="28" t="str">
         <f t="shared" si="1"/>
         <v>IE-MH</v>
       </c>
-      <c r="W27" s="28" t="str">
+      <c r="W34" s="28" t="str">
         <f t="shared" si="1"/>
         <v>IE-OY</v>
       </c>
-      <c r="X27" s="28" t="str">
+      <c r="X34" s="28" t="str">
         <f t="shared" si="1"/>
         <v>IE-WH</v>
       </c>
-      <c r="Y27" s="28" t="str">
+      <c r="Y34" s="28" t="str">
         <f t="shared" si="1"/>
         <v>IE-WX</v>
       </c>
-      <c r="Z27" s="28" t="str">
+      <c r="Z34" s="28" t="str">
         <f t="shared" si="1"/>
         <v>IE-WW</v>
       </c>
-      <c r="AA27" s="28" t="str">
+      <c r="AA34" s="28" t="str">
         <f t="shared" si="1"/>
         <v>IE-CE</v>
       </c>
-      <c r="AB27" s="28" t="str">
+      <c r="AB34" s="28" t="str">
         <f t="shared" si="1"/>
         <v>IE-CO</v>
       </c>
-      <c r="AC27" s="28" t="str">
+      <c r="AC34" s="28" t="str">
         <f t="shared" si="1"/>
         <v>IE-KY</v>
       </c>
-      <c r="AD27" s="28" t="str">
+      <c r="AD34" s="28" t="str">
         <f t="shared" si="1"/>
         <v>IE-LK</v>
       </c>
-      <c r="AE27" s="28" t="str">
+      <c r="AE34" s="28" t="str">
         <f t="shared" si="1"/>
         <v>IE-TA</v>
       </c>
-      <c r="AF27" s="28" t="str">
+      <c r="AF34" s="28" t="str">
         <f t="shared" si="1"/>
         <v>IE-WD</v>
       </c>
-      <c r="AG27" s="28" t="str">
+      <c r="AG34" s="28" t="str">
         <f t="shared" si="1"/>
         <v>IE-G</v>
       </c>
-      <c r="AH27" s="28" t="str">
+      <c r="AH34" s="28" t="str">
         <f t="shared" si="1"/>
         <v>IE-LM</v>
       </c>
-      <c r="AI27" s="28" t="str">
+      <c r="AI34" s="28" t="str">
         <f t="shared" si="1"/>
         <v>IE-MO</v>
       </c>
-      <c r="AJ27" s="28" t="str">
+      <c r="AJ34" s="28" t="str">
         <f t="shared" si="1"/>
         <v>IE-RN</v>
       </c>
-      <c r="AK27" s="28" t="str">
+      <c r="AK34" s="28" t="str">
         <f t="shared" si="1"/>
         <v>IE-SO</v>
       </c>
-      <c r="AL27" s="28" t="str">
+      <c r="AL34" s="28" t="str">
         <f t="shared" si="1"/>
         <v>IE-CN</v>
       </c>
-      <c r="AM27" s="28" t="str">
+      <c r="AM34" s="28" t="str">
         <f t="shared" si="1"/>
         <v>IE-DL</v>
       </c>
-      <c r="AN27" s="28" t="str">
+      <c r="AN34" s="28" t="str">
         <f t="shared" si="1"/>
         <v>IE-MN</v>
       </c>
-      <c r="AO27" s="28" t="s">
+      <c r="AO34" s="28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" t="str">
+    <row r="35" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" t="str">
         <f>[1]Commodities!$K$8</f>
         <v>TWLK_WLK</v>
       </c>
-      <c r="H28" t="str">
+      <c r="H35" t="str">
         <f>[1]Commodities!$B$19</f>
         <v>TRAPM</v>
       </c>
-      <c r="J28">
+      <c r="J35">
         <v>2018</v>
       </c>
-      <c r="K28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L28">
+      <c r="K35" t="s">
+        <v>69</v>
+      </c>
+      <c r="L35">
         <v>-1</v>
       </c>
-      <c r="M28" t="str">
+      <c r="M35" t="str">
         <f>M11</f>
         <v>Walk</v>
       </c>
-      <c r="N28" s="31">
+      <c r="N35" s="31">
         <f>[1]Demands!C42</f>
         <v>0</v>
       </c>
-      <c r="O28" s="31">
+      <c r="O35" s="31">
         <f>[1]Demands!D42</f>
         <v>0</v>
       </c>
-      <c r="P28" s="31">
+      <c r="P35" s="31">
         <f>[1]Demands!E42</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="31">
+      <c r="Q35" s="31">
         <f>[1]Demands!F42</f>
         <v>0</v>
       </c>
-      <c r="R28" s="31">
+      <c r="R35" s="31">
         <f>[1]Demands!G42</f>
         <v>0</v>
       </c>
-      <c r="S28" s="31">
+      <c r="S35" s="31">
         <f>[1]Demands!H42</f>
         <v>0</v>
       </c>
-      <c r="T28" s="31">
+      <c r="T35" s="31">
         <f>[1]Demands!I42</f>
         <v>0</v>
       </c>
-      <c r="U28" s="31">
+      <c r="U35" s="31">
         <f>[1]Demands!J42</f>
         <v>0</v>
       </c>
-      <c r="V28" s="31">
+      <c r="V35" s="31">
         <f>[1]Demands!K42</f>
         <v>0</v>
       </c>
-      <c r="W28" s="31">
+      <c r="W35" s="31">
         <f>[1]Demands!L42</f>
         <v>0</v>
       </c>
-      <c r="X28" s="31">
+      <c r="X35" s="31">
         <f>[1]Demands!M42</f>
         <v>0</v>
       </c>
-      <c r="Y28" s="31">
+      <c r="Y35" s="31">
         <f>[1]Demands!N42</f>
         <v>0</v>
       </c>
-      <c r="Z28" s="31">
+      <c r="Z35" s="31">
         <f>[1]Demands!O42</f>
         <v>0</v>
       </c>
-      <c r="AA28" s="31">
+      <c r="AA35" s="31">
         <f>[1]Demands!P42</f>
         <v>0</v>
       </c>
-      <c r="AB28" s="31">
+      <c r="AB35" s="31">
         <f>[1]Demands!Q42</f>
         <v>0</v>
       </c>
-      <c r="AC28" s="31">
+      <c r="AC35" s="31">
         <f>[1]Demands!R42</f>
         <v>0</v>
       </c>
-      <c r="AD28" s="31">
+      <c r="AD35" s="31">
         <f>[1]Demands!S42</f>
         <v>0</v>
       </c>
-      <c r="AE28" s="31">
+      <c r="AE35" s="31">
         <f>[1]Demands!T42</f>
         <v>0</v>
       </c>
-      <c r="AF28" s="31">
+      <c r="AF35" s="31">
         <f>[1]Demands!U42</f>
         <v>0</v>
       </c>
-      <c r="AG28" s="31">
+      <c r="AG35" s="31">
         <f>[1]Demands!V42</f>
         <v>0</v>
       </c>
-      <c r="AH28" s="31">
+      <c r="AH35" s="31">
         <f>[1]Demands!W42</f>
         <v>0</v>
       </c>
-      <c r="AI28" s="31">
+      <c r="AI35" s="31">
         <f>[1]Demands!X42</f>
         <v>0</v>
       </c>
-      <c r="AJ28" s="31">
+      <c r="AJ35" s="31">
         <f>[1]Demands!Y42</f>
         <v>0</v>
       </c>
-      <c r="AK28" s="31">
+      <c r="AK35" s="31">
         <f>[1]Demands!Z42</f>
         <v>0</v>
       </c>
-      <c r="AL28" s="31">
+      <c r="AL35" s="31">
         <f>[1]Demands!AA42</f>
         <v>0</v>
       </c>
-      <c r="AM28" s="31">
+      <c r="AM35" s="31">
         <f>[1]Demands!AB42</f>
         <v>0</v>
       </c>
-      <c r="AN28" s="31">
+      <c r="AN35" s="31">
         <f>[1]Demands!AC42</f>
         <v>0</v>
       </c>
-      <c r="AO28" s="31">
+      <c r="AO35" s="31">
         <f>[1]Demands!AD42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" t="str">
+    <row r="36" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>69</v>
+      </c>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="31"/>
+      <c r="AB36" s="31"/>
+      <c r="AC36" s="31"/>
+      <c r="AD36" s="31"/>
+      <c r="AE36" s="31"/>
+      <c r="AF36" s="31"/>
+      <c r="AG36" s="31"/>
+      <c r="AH36" s="31"/>
+      <c r="AI36" s="31"/>
+      <c r="AJ36" s="31"/>
+      <c r="AK36" s="31"/>
+      <c r="AL36" s="31"/>
+      <c r="AM36" s="31"/>
+      <c r="AN36" s="31"/>
+      <c r="AO36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" t="str">
         <f>[1]Commodities!$K$9</f>
         <v>TCYC_CYC</v>
       </c>
-      <c r="H29" t="str">
-        <f>H28</f>
+      <c r="H37" t="str">
+        <f>H35</f>
         <v>TRAPM</v>
       </c>
-      <c r="J29">
+      <c r="J37">
         <v>2018</v>
       </c>
-      <c r="K29" t="s">
-        <v>70</v>
-      </c>
-      <c r="L29">
+      <c r="K37" t="s">
+        <v>69</v>
+      </c>
+      <c r="L37">
         <v>-1</v>
       </c>
-      <c r="M29" t="str">
-        <f t="shared" ref="M29:M35" si="2">M12</f>
+      <c r="M37" t="str">
+        <f>M13</f>
         <v>Bike</v>
       </c>
-      <c r="N29" s="31">
+      <c r="N37" s="31">
         <f>[1]Demands!C43</f>
         <v>0</v>
       </c>
-      <c r="O29" s="31">
+      <c r="O37" s="31">
         <f>[1]Demands!D43</f>
         <v>0</v>
       </c>
-      <c r="P29" s="31">
+      <c r="P37" s="31">
         <f>[1]Demands!E43</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="31">
+      <c r="Q37" s="31">
         <f>[1]Demands!F43</f>
         <v>0</v>
       </c>
-      <c r="R29" s="31">
+      <c r="R37" s="31">
         <f>[1]Demands!G43</f>
         <v>0</v>
       </c>
-      <c r="S29" s="31">
+      <c r="S37" s="31">
         <f>[1]Demands!H43</f>
         <v>0</v>
       </c>
-      <c r="T29" s="31">
+      <c r="T37" s="31">
         <f>[1]Demands!I43</f>
         <v>0</v>
       </c>
-      <c r="U29" s="31">
+      <c r="U37" s="31">
         <f>[1]Demands!J43</f>
         <v>0</v>
       </c>
-      <c r="V29" s="31">
+      <c r="V37" s="31">
         <f>[1]Demands!K43</f>
         <v>0</v>
       </c>
-      <c r="W29" s="31">
+      <c r="W37" s="31">
         <f>[1]Demands!L43</f>
         <v>0</v>
       </c>
-      <c r="X29" s="31">
+      <c r="X37" s="31">
         <f>[1]Demands!M43</f>
         <v>0</v>
       </c>
-      <c r="Y29" s="31">
+      <c r="Y37" s="31">
         <f>[1]Demands!N43</f>
         <v>0</v>
       </c>
-      <c r="Z29" s="31">
+      <c r="Z37" s="31">
         <f>[1]Demands!O43</f>
         <v>0</v>
       </c>
-      <c r="AA29" s="31">
+      <c r="AA37" s="31">
         <f>[1]Demands!P43</f>
         <v>0</v>
       </c>
-      <c r="AB29" s="31">
+      <c r="AB37" s="31">
         <f>[1]Demands!Q43</f>
         <v>0</v>
       </c>
-      <c r="AC29" s="31">
+      <c r="AC37" s="31">
         <f>[1]Demands!R43</f>
         <v>0</v>
       </c>
-      <c r="AD29" s="31">
+      <c r="AD37" s="31">
         <f>[1]Demands!S43</f>
         <v>0</v>
       </c>
-      <c r="AE29" s="31">
+      <c r="AE37" s="31">
         <f>[1]Demands!T43</f>
         <v>0</v>
       </c>
-      <c r="AF29" s="31">
+      <c r="AF37" s="31">
         <f>[1]Demands!U43</f>
         <v>0</v>
       </c>
-      <c r="AG29" s="31">
+      <c r="AG37" s="31">
         <f>[1]Demands!V43</f>
         <v>0</v>
       </c>
-      <c r="AH29" s="31">
+      <c r="AH37" s="31">
         <f>[1]Demands!W43</f>
         <v>0</v>
       </c>
-      <c r="AI29" s="31">
+      <c r="AI37" s="31">
         <f>[1]Demands!X43</f>
         <v>0</v>
       </c>
-      <c r="AJ29" s="31">
+      <c r="AJ37" s="31">
         <f>[1]Demands!Y43</f>
         <v>0</v>
       </c>
-      <c r="AK29" s="31">
+      <c r="AK37" s="31">
         <f>[1]Demands!Z43</f>
         <v>0</v>
       </c>
-      <c r="AL29" s="31">
+      <c r="AL37" s="31">
         <f>[1]Demands!AA43</f>
         <v>0</v>
       </c>
-      <c r="AM29" s="31">
+      <c r="AM37" s="31">
         <f>[1]Demands!AB43</f>
         <v>0</v>
       </c>
-      <c r="AN29" s="31">
+      <c r="AN37" s="31">
         <f>[1]Demands!AC43</f>
         <v>0</v>
       </c>
-      <c r="AO29" s="31">
+      <c r="AO37" s="31">
         <f>[1]Demands!AD43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" t="str">
+    <row r="38" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>69</v>
+      </c>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
+      <c r="AB38" s="31"/>
+      <c r="AC38" s="31"/>
+      <c r="AD38" s="31"/>
+      <c r="AE38" s="31"/>
+      <c r="AF38" s="31"/>
+      <c r="AG38" s="31"/>
+      <c r="AH38" s="31"/>
+      <c r="AI38" s="31"/>
+      <c r="AJ38" s="31"/>
+      <c r="AK38" s="31"/>
+      <c r="AL38" s="31"/>
+      <c r="AM38" s="31"/>
+      <c r="AN38" s="31"/>
+      <c r="AO38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" t="str">
         <f>[1]Commodities!$K$11</f>
         <v>TMOT_GSL_00</v>
       </c>
-      <c r="H30" t="str">
-        <f t="shared" ref="H30:H35" si="3">H29</f>
+      <c r="H39" t="str">
+        <f>H37</f>
         <v>TRAPM</v>
       </c>
-      <c r="J30">
+      <c r="J39">
         <v>2018</v>
       </c>
-      <c r="K30" t="s">
-        <v>70</v>
-      </c>
-      <c r="L30">
+      <c r="K39" t="s">
+        <v>69</v>
+      </c>
+      <c r="L39">
         <v>-1</v>
       </c>
-      <c r="M30" t="str">
-        <f t="shared" si="2"/>
+      <c r="M39" t="str">
+        <f>M15</f>
         <v>2-wheelers</v>
       </c>
-      <c r="N30" s="31">
+      <c r="N39" s="31">
         <f>[1]Demands!C44</f>
         <v>3.2739468688573266E-3</v>
       </c>
-      <c r="O30" s="31">
+      <c r="O39" s="31">
         <f>[1]Demands!D44</f>
         <v>2.1586268841599747E-3</v>
       </c>
-      <c r="P30" s="31">
+      <c r="P39" s="31">
         <f>[1]Demands!E44</f>
         <v>4.3137182635283444E-3</v>
       </c>
-      <c r="Q30" s="31">
+      <c r="Q39" s="31">
         <f>[1]Demands!F44</f>
         <v>3.6319751739066989E-3</v>
       </c>
-      <c r="R30" s="31">
+      <c r="R39" s="31">
         <f>[1]Demands!G44</f>
         <v>2.5491869155235955E-3</v>
       </c>
-      <c r="S30" s="31">
+      <c r="S39" s="31">
         <f>[1]Demands!H44</f>
         <v>1.6941154698507114E-3</v>
       </c>
-      <c r="T30" s="31">
+      <c r="T39" s="31">
         <f>[1]Demands!I44</f>
         <v>3.2883004760979389E-3</v>
       </c>
-      <c r="U30" s="31">
+      <c r="U39" s="31">
         <f>[1]Demands!J44</f>
         <v>2.4416088687366478E-3</v>
       </c>
-      <c r="V30" s="31">
+      <c r="V39" s="31">
         <f>[1]Demands!K44</f>
         <v>3.5159102982178412E-3</v>
       </c>
-      <c r="W30" s="31">
+      <c r="W39" s="31">
         <f>[1]Demands!L44</f>
         <v>3.3185344885490013E-3</v>
       </c>
-      <c r="X30" s="31">
+      <c r="X39" s="31">
         <f>[1]Demands!M44</f>
         <v>2.939754742265497E-3</v>
       </c>
-      <c r="Y30" s="31">
+      <c r="Y39" s="31">
         <f>[1]Demands!N44</f>
         <v>3.3151523856669103E-3</v>
       </c>
-      <c r="Z30" s="31">
+      <c r="Z39" s="31">
         <f>[1]Demands!O44</f>
         <v>3.906666915379246E-3</v>
       </c>
-      <c r="AA30" s="31">
+      <c r="AA39" s="31">
         <f>[1]Demands!P44</f>
         <v>3.2306073901205486E-3</v>
       </c>
-      <c r="AB30" s="31">
+      <c r="AB39" s="31">
         <f>[1]Demands!Q44</f>
         <v>3.9969766503394092E-3</v>
       </c>
-      <c r="AC30" s="31">
+      <c r="AC39" s="31">
         <f>[1]Demands!R44</f>
         <v>2.4423953155841079E-3</v>
       </c>
-      <c r="AD30" s="31">
+      <c r="AD39" s="31">
         <f>[1]Demands!S44</f>
         <v>2.8914591982090753E-3</v>
       </c>
-      <c r="AE30" s="31">
+      <c r="AE39" s="31">
         <f>[1]Demands!T44</f>
         <v>2.9812499263931389E-3</v>
       </c>
-      <c r="AF30" s="31">
+      <c r="AF39" s="31">
         <f>[1]Demands!U44</f>
         <v>3.5441732524901714E-3</v>
       </c>
-      <c r="AG30" s="31">
+      <c r="AG39" s="31">
         <f>[1]Demands!V44</f>
         <v>2.1106258862285242E-3</v>
       </c>
-      <c r="AH30" s="31">
+      <c r="AH39" s="31">
         <f>[1]Demands!W44</f>
         <v>0</v>
       </c>
-      <c r="AI30" s="31">
+      <c r="AI39" s="31">
         <f>[1]Demands!X44</f>
         <v>1.9054783663146626E-3</v>
       </c>
-      <c r="AJ30" s="31">
+      <c r="AJ39" s="31">
         <f>[1]Demands!Y44</f>
         <v>1.7694736792673005E-3</v>
       </c>
-      <c r="AK30" s="31">
+      <c r="AK39" s="31">
         <f>[1]Demands!Z44</f>
         <v>2.1690169741061518E-3</v>
       </c>
-      <c r="AL30" s="31">
+      <c r="AL39" s="31">
         <f>[1]Demands!AA44</f>
         <v>1.996201699404686E-3</v>
       </c>
-      <c r="AM30" s="31">
+      <c r="AM39" s="31">
         <f>[1]Demands!AB44</f>
         <v>2.1678265957034699E-3</v>
       </c>
-      <c r="AN30" s="31">
+      <c r="AN39" s="31">
         <f>[1]Demands!AC44</f>
         <v>1.9708873200458749E-3</v>
       </c>
-      <c r="AO30" s="31">
+      <c r="AO39" s="31">
         <f>[1]Demands!AD44</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C31" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="3"/>
+    <row r="40" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>69</v>
+      </c>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="31"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="31"/>
+      <c r="AA40" s="31"/>
+      <c r="AB40" s="31"/>
+      <c r="AC40" s="31"/>
+      <c r="AD40" s="31"/>
+      <c r="AE40" s="31"/>
+      <c r="AF40" s="31"/>
+      <c r="AG40" s="31"/>
+      <c r="AH40" s="31"/>
+      <c r="AI40" s="31"/>
+      <c r="AJ40" s="31"/>
+      <c r="AK40" s="31"/>
+      <c r="AL40" s="31"/>
+      <c r="AM40" s="31"/>
+      <c r="AN40" s="31"/>
+      <c r="AO40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41" t="str">
+        <f>H39</f>
         <v>TRAPM</v>
       </c>
-      <c r="J31">
+      <c r="J41">
         <v>2018</v>
       </c>
-      <c r="K31" t="s">
-        <v>70</v>
-      </c>
-      <c r="L31">
+      <c r="K41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L41">
         <v>-1</v>
       </c>
-      <c r="M31" t="str">
-        <f t="shared" si="2"/>
+      <c r="M41" t="str">
+        <f>M17</f>
         <v>LDV</v>
       </c>
-      <c r="N31" s="31">
+      <c r="N41" s="31">
         <f>[1]Demands!C45</f>
         <v>0.83405572391255312</v>
       </c>
-      <c r="O31" s="31">
+      <c r="O41" s="31">
         <f>[1]Demands!D45</f>
         <v>0.88136996225712338</v>
       </c>
-      <c r="P31" s="31">
+      <c r="P41" s="31">
         <f>[1]Demands!E45</f>
         <v>0.7240198055510555</v>
       </c>
-      <c r="Q31" s="31">
+      <c r="Q41" s="31">
         <f>[1]Demands!F45</f>
         <v>0.85033097733510543</v>
       </c>
-      <c r="R31" s="31">
+      <c r="R41" s="31">
         <f>[1]Demands!G45</f>
         <v>0.81358360125192186</v>
       </c>
-      <c r="S31" s="31">
+      <c r="S41" s="31">
         <f>[1]Demands!H45</f>
         <v>0.88000079438796519</v>
       </c>
-      <c r="T31" s="31">
+      <c r="T41" s="31">
         <f>[1]Demands!I45</f>
         <v>0.86292967512561713</v>
       </c>
-      <c r="U31" s="31">
+      <c r="U41" s="31">
         <f>[1]Demands!J45</f>
         <v>0.84991917486050839</v>
       </c>
-      <c r="V31" s="31">
+      <c r="V41" s="31">
         <f>[1]Demands!K45</f>
         <v>0.87489878054676506</v>
       </c>
-      <c r="W31" s="31">
+      <c r="W41" s="31">
         <f>[1]Demands!L45</f>
         <v>0.84396948853578213</v>
       </c>
-      <c r="X31" s="31">
+      <c r="X41" s="31">
         <f>[1]Demands!M45</f>
         <v>0.89058577172865516</v>
       </c>
-      <c r="Y31" s="31">
+      <c r="Y41" s="31">
         <f>[1]Demands!N45</f>
         <v>0.88596847722847849</v>
       </c>
-      <c r="Z31" s="31">
+      <c r="Z41" s="31">
         <f>[1]Demands!O45</f>
         <v>0.87519253516054751</v>
       </c>
-      <c r="AA31" s="31">
+      <c r="AA41" s="31">
         <f>[1]Demands!P45</f>
         <v>0.89017909286971042</v>
       </c>
-      <c r="AB31" s="31">
+      <c r="AB41" s="31">
         <f>[1]Demands!Q45</f>
         <v>0.88395825319439558</v>
       </c>
-      <c r="AC31" s="31">
+      <c r="AC41" s="31">
         <f>[1]Demands!R45</f>
         <v>0.80306472393989703</v>
       </c>
-      <c r="AD31" s="31">
+      <c r="AD41" s="31">
         <f>[1]Demands!S45</f>
         <v>0.88153417928289457</v>
       </c>
-      <c r="AE31" s="31">
+      <c r="AE41" s="31">
         <f>[1]Demands!T45</f>
         <v>0.87036679499941227</v>
       </c>
-      <c r="AF31" s="31">
+      <c r="AF41" s="31">
         <f>[1]Demands!U45</f>
         <v>0.89725064481847272</v>
       </c>
-      <c r="AG31" s="31">
+      <c r="AG41" s="31">
         <f>[1]Demands!V45</f>
         <v>0.84303694258501916</v>
       </c>
-      <c r="AH31" s="31">
+      <c r="AH41" s="31">
         <f>[1]Demands!W45</f>
         <v>0.88919219682824724</v>
       </c>
-      <c r="AI31" s="31">
+      <c r="AI41" s="31">
         <f>[1]Demands!X45</f>
         <v>0.83536706688667051</v>
       </c>
-      <c r="AJ31" s="31">
+      <c r="AJ41" s="31">
         <f>[1]Demands!Y45</f>
         <v>0.90275636290048633</v>
       </c>
-      <c r="AK31" s="31">
+      <c r="AK41" s="31">
         <f>[1]Demands!Z45</f>
         <v>0.87891574758893642</v>
       </c>
-      <c r="AL31" s="31">
+      <c r="AL41" s="31">
         <f>[1]Demands!AA45</f>
         <v>0.9444737396739924</v>
       </c>
-      <c r="AM31" s="31">
+      <c r="AM41" s="31">
         <f>[1]Demands!AB45</f>
         <v>0.97631596747347482</v>
       </c>
-      <c r="AN31" s="31">
+      <c r="AN41" s="31">
         <f>[1]Demands!AC45</f>
         <v>0.7484312106638259</v>
       </c>
-      <c r="AO31" s="31">
+      <c r="AO41" s="31">
         <f>[1]Demands!AD45</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C32" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="3"/>
+    <row r="42" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>69</v>
+      </c>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="31"/>
+      <c r="U42" s="31"/>
+      <c r="V42" s="31"/>
+      <c r="W42" s="31"/>
+      <c r="X42" s="31"/>
+      <c r="Y42" s="31"/>
+      <c r="Z42" s="31"/>
+      <c r="AA42" s="31"/>
+      <c r="AB42" s="31"/>
+      <c r="AC42" s="31"/>
+      <c r="AD42" s="31"/>
+      <c r="AE42" s="31"/>
+      <c r="AF42" s="31"/>
+      <c r="AG42" s="31"/>
+      <c r="AH42" s="31"/>
+      <c r="AI42" s="31"/>
+      <c r="AJ42" s="31"/>
+      <c r="AK42" s="31"/>
+      <c r="AL42" s="31"/>
+      <c r="AM42" s="31"/>
+      <c r="AN42" s="31"/>
+      <c r="AO42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43" t="str">
+        <f>H41</f>
         <v>TRAPM</v>
       </c>
-      <c r="J32">
+      <c r="J43">
         <v>2018</v>
       </c>
-      <c r="K32" t="s">
-        <v>70</v>
-      </c>
-      <c r="L32">
+      <c r="K43" t="s">
+        <v>69</v>
+      </c>
+      <c r="L43">
         <v>-1</v>
       </c>
-      <c r="M32" t="str">
-        <f t="shared" si="2"/>
+      <c r="M43" t="str">
+        <f>M19</f>
         <v>Taxis</v>
       </c>
-      <c r="N32" s="31">
+      <c r="N43" s="31">
         <f>[1]Demands!C46</f>
         <v>2.1905905312439161E-2</v>
       </c>
-      <c r="O32" s="31">
+      <c r="O43" s="31">
         <f>[1]Demands!D46</f>
         <v>9.3709663140288998E-3</v>
       </c>
-      <c r="P32" s="31">
+      <c r="P43" s="31">
         <f>[1]Demands!E46</f>
         <v>4.6013893098741668E-2</v>
       </c>
-      <c r="Q32" s="31">
+      <c r="Q43" s="31">
         <f>[1]Demands!F46</f>
         <v>1.8394858695029128E-2</v>
       </c>
-      <c r="R32" s="31">
+      <c r="R43" s="31">
         <f>[1]Demands!G46</f>
         <v>9.9598084318994508E-3</v>
       </c>
-      <c r="S32" s="31">
+      <c r="S43" s="31">
         <f>[1]Demands!H46</f>
         <v>1.3237997918849932E-2</v>
       </c>
-      <c r="T32" s="31">
+      <c r="T43" s="31">
         <f>[1]Demands!I46</f>
         <v>1.1420057155050359E-2</v>
       </c>
-      <c r="U32" s="31">
+      <c r="U43" s="31">
         <f>[1]Demands!J46</f>
         <v>2.6498598054231513E-2</v>
       </c>
-      <c r="V32" s="31">
+      <c r="V43" s="31">
         <f>[1]Demands!K46</f>
         <v>2.5642116158186581E-2</v>
       </c>
-      <c r="W32" s="31">
+      <c r="W43" s="31">
         <f>[1]Demands!L46</f>
         <v>8.6437934593511252E-3</v>
       </c>
-      <c r="X32" s="31">
+      <c r="X43" s="31">
         <f>[1]Demands!M46</f>
         <v>1.5314370184172183E-2</v>
       </c>
-      <c r="Y32" s="31">
+      <c r="Y43" s="31">
         <f>[1]Demands!N46</f>
         <v>7.9154020817384443E-3</v>
       </c>
-      <c r="Z32" s="31">
+      <c r="Z43" s="31">
         <f>[1]Demands!O46</f>
         <v>1.1871653704006174E-2</v>
       </c>
-      <c r="AA32" s="31">
+      <c r="AA43" s="31">
         <f>[1]Demands!P46</f>
         <v>1.3089641552029165E-2</v>
       </c>
-      <c r="AB32" s="31">
+      <c r="AB43" s="31">
         <f>[1]Demands!Q46</f>
         <v>1.6194784858342321E-2</v>
       </c>
-      <c r="AC32" s="31">
+      <c r="AC43" s="31">
         <f>[1]Demands!R46</f>
         <v>1.272342398540301E-2</v>
       </c>
-      <c r="AD32" s="31">
+      <c r="AD43" s="31">
         <f>[1]Demands!S46</f>
         <v>1.6945626580446856E-2</v>
       </c>
-      <c r="AE32" s="31">
+      <c r="AE43" s="31">
         <f>[1]Demands!T46</f>
         <v>6.4710564013944778E-3</v>
       </c>
-      <c r="AF32" s="31">
+      <c r="AF43" s="31">
         <f>[1]Demands!U46</f>
         <v>1.1282963024401618E-2</v>
       </c>
-      <c r="AG32" s="31">
+      <c r="AG43" s="31">
         <f>[1]Demands!V46</f>
         <v>1.7408913059663488E-2</v>
       </c>
-      <c r="AH32" s="31">
+      <c r="AH43" s="31">
         <f>[1]Demands!W46</f>
         <v>1.0528920260910977E-2</v>
       </c>
-      <c r="AI32" s="31">
+      <c r="AI43" s="31">
         <f>[1]Demands!X46</f>
         <v>9.0992061135074936E-3</v>
       </c>
-      <c r="AJ32" s="31">
+      <c r="AJ43" s="31">
         <f>[1]Demands!Y46</f>
         <v>7.6815860877352945E-3</v>
       </c>
-      <c r="AK32" s="31">
+      <c r="AK43" s="31">
         <f>[1]Demands!Z46</f>
         <v>1.129928575321087E-2</v>
       </c>
-      <c r="AL32" s="31">
+      <c r="AL43" s="31">
         <f>[1]Demands!AA46</f>
         <v>1.2132191360051241E-2</v>
       </c>
-      <c r="AM32" s="31">
+      <c r="AM43" s="31">
         <f>[1]Demands!AB46</f>
         <v>1.4116355738962196E-2</v>
       </c>
-      <c r="AN32" s="31">
+      <c r="AN43" s="31">
         <f>[1]Demands!AC46</f>
         <v>5.1335741680296381E-3</v>
       </c>
-      <c r="AO32" s="31">
+      <c r="AO43" s="31">
         <f>[1]Demands!AD46</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" t="str">
+    <row r="44" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>69</v>
+      </c>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31"/>
+      <c r="T44" s="31"/>
+      <c r="U44" s="31"/>
+      <c r="V44" s="31"/>
+      <c r="W44" s="31"/>
+      <c r="X44" s="31"/>
+      <c r="Y44" s="31"/>
+      <c r="Z44" s="31"/>
+      <c r="AA44" s="31"/>
+      <c r="AB44" s="31"/>
+      <c r="AC44" s="31"/>
+      <c r="AD44" s="31"/>
+      <c r="AE44" s="31"/>
+      <c r="AF44" s="31"/>
+      <c r="AG44" s="31"/>
+      <c r="AH44" s="31"/>
+      <c r="AI44" s="31"/>
+      <c r="AJ44" s="31"/>
+      <c r="AK44" s="31"/>
+      <c r="AL44" s="31"/>
+      <c r="AM44" s="31"/>
+      <c r="AN44" s="31"/>
+      <c r="AO44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="3:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" t="str">
         <f>[1]Commodities!$K$27</f>
         <v>TBUS_ICE_DST_00</v>
       </c>
-      <c r="H33" t="str">
-        <f t="shared" si="3"/>
+      <c r="H45" t="str">
+        <f>H43</f>
         <v>TRAPM</v>
       </c>
-      <c r="J33">
+      <c r="J45">
         <v>2018</v>
       </c>
-      <c r="K33" t="s">
-        <v>70</v>
-      </c>
-      <c r="L33">
+      <c r="K45" t="s">
+        <v>69</v>
+      </c>
+      <c r="L45">
         <v>-1</v>
       </c>
-      <c r="M33" t="str">
-        <f t="shared" si="2"/>
+      <c r="M45" t="str">
+        <f>M21</f>
         <v>BUS</v>
       </c>
-      <c r="N33" s="31">
+      <c r="N45" s="31">
         <f>[1]Demands!C47</f>
         <v>0.13420523697456904</v>
       </c>
-      <c r="O33" s="31">
+      <c r="O45" s="31">
         <f>[1]Demands!D47</f>
         <v>0.10710044454468777</v>
       </c>
-      <c r="P33" s="31">
+      <c r="P45" s="31">
         <f>[1]Demands!E47</f>
         <v>0.19873794082808949</v>
       </c>
-      <c r="Q33" s="31">
+      <c r="Q45" s="31">
         <f>[1]Demands!F47</f>
         <v>0.12764218879595873</v>
       </c>
-      <c r="R33" s="31">
+      <c r="R45" s="31">
         <f>[1]Demands!G47</f>
         <v>0.17390740340065505</v>
       </c>
-      <c r="S33" s="31">
+      <c r="S45" s="31">
         <f>[1]Demands!H47</f>
         <v>0.10506709222333424</v>
       </c>
-      <c r="T33" s="31">
+      <c r="T45" s="31">
         <f>[1]Demands!I47</f>
         <v>0.12236196724323453</v>
       </c>
-      <c r="U33" s="31">
+      <c r="U45" s="31">
         <f>[1]Demands!J47</f>
         <v>0.12114061821652349</v>
       </c>
-      <c r="V33" s="31">
+      <c r="V45" s="31">
         <f>[1]Demands!K47</f>
         <v>9.5943192996830379E-2</v>
       </c>
-      <c r="W33" s="31">
+      <c r="W45" s="31">
         <f>[1]Demands!L47</f>
         <v>0.14406818351631784</v>
       </c>
-      <c r="X33" s="31">
+      <c r="X45" s="31">
         <f>[1]Demands!M47</f>
         <v>9.1160103344907026E-2</v>
       </c>
-      <c r="Y33" s="31">
+      <c r="Y45" s="31">
         <f>[1]Demands!N47</f>
         <v>0.10280096830411618</v>
       </c>
-      <c r="Z33" s="31">
+      <c r="Z45" s="31">
         <f>[1]Demands!O47</f>
         <v>0.1090291442200671</v>
       </c>
-      <c r="AA33" s="31">
+      <c r="AA45" s="31">
         <f>[1]Demands!P47</f>
         <v>9.3500658188139713E-2</v>
       </c>
-      <c r="AB33" s="31">
+      <c r="AB45" s="31">
         <f>[1]Demands!Q47</f>
         <v>9.5849985296922749E-2</v>
       </c>
-      <c r="AC33" s="31">
+      <c r="AC45" s="31">
         <f>[1]Demands!R47</f>
         <v>0.18176945675911579</v>
       </c>
-      <c r="AD33" s="31">
+      <c r="AD45" s="31">
         <f>[1]Demands!S47</f>
         <v>9.8628734938449439E-2</v>
       </c>
-      <c r="AE33" s="31">
+      <c r="AE45" s="31">
         <f>[1]Demands!T47</f>
         <v>0.1201808986728002</v>
       </c>
-      <c r="AF33" s="31">
+      <c r="AF45" s="31">
         <f>[1]Demands!U47</f>
         <v>8.7922218904635543E-2</v>
       </c>
-      <c r="AG33" s="31">
+      <c r="AG45" s="31">
         <f>[1]Demands!V47</f>
         <v>0.13744351846908884</v>
       </c>
-      <c r="AH33" s="31">
+      <c r="AH45" s="31">
         <f>[1]Demands!W47</f>
         <v>0.10027888291084175</v>
       </c>
-      <c r="AI33" s="31">
+      <c r="AI45" s="31">
         <f>[1]Demands!X47</f>
         <v>0.15362824863350735</v>
       </c>
-      <c r="AJ33" s="31">
+      <c r="AJ45" s="31">
         <f>[1]Demands!Y47</f>
         <v>8.779257733251114E-2</v>
       </c>
-      <c r="AK33" s="31">
+      <c r="AK45" s="31">
         <f>[1]Demands!Z47</f>
         <v>0.10761594968374652</v>
       </c>
-      <c r="AL33" s="31">
+      <c r="AL45" s="31">
         <f>[1]Demands!AA47</f>
         <v>4.1397867266551647E-2</v>
       </c>
-      <c r="AM33" s="31">
+      <c r="AM45" s="31">
         <f>[1]Demands!AB47</f>
         <v>7.3998501918595234E-3</v>
       </c>
-      <c r="AN33" s="31">
+      <c r="AN45" s="31">
         <f>[1]Demands!AC47</f>
         <v>0.24446432784809863</v>
       </c>
-      <c r="AO33" s="31">
+      <c r="AO45" s="31">
         <f>[1]Demands!AD47</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C34" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" t="str">
+    <row r="46" spans="3:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>69</v>
+      </c>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="31"/>
+      <c r="T46" s="31"/>
+      <c r="U46" s="31"/>
+      <c r="V46" s="31"/>
+      <c r="W46" s="31"/>
+      <c r="X46" s="31"/>
+      <c r="Y46" s="31"/>
+      <c r="Z46" s="31"/>
+      <c r="AA46" s="31"/>
+      <c r="AB46" s="31"/>
+      <c r="AC46" s="31"/>
+      <c r="AD46" s="31"/>
+      <c r="AE46" s="31"/>
+      <c r="AF46" s="31"/>
+      <c r="AG46" s="31"/>
+      <c r="AH46" s="31"/>
+      <c r="AI46" s="31"/>
+      <c r="AJ46" s="31"/>
+      <c r="AK46" s="31"/>
+      <c r="AL46" s="31"/>
+      <c r="AM46" s="31"/>
+      <c r="AN46" s="31"/>
+      <c r="AO46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" t="str">
         <f>[1]Commodities!$K$29</f>
         <v>TLRAIL_ELC_00</v>
       </c>
-      <c r="H34" t="str">
-        <f t="shared" si="3"/>
+      <c r="H47" t="str">
+        <f>H45</f>
         <v>TRAPM</v>
       </c>
-      <c r="J34">
+      <c r="J47">
         <v>2018</v>
       </c>
-      <c r="K34" t="s">
-        <v>70</v>
-      </c>
-      <c r="L34">
+      <c r="K47" t="s">
+        <v>69</v>
+      </c>
+      <c r="L47">
         <v>-1</v>
       </c>
-      <c r="M34" t="str">
-        <f t="shared" si="2"/>
+      <c r="M47" t="str">
+        <f>M23</f>
         <v>Light rail (LUAS)</v>
       </c>
-      <c r="N34" s="31">
+      <c r="N47" s="31">
         <f>[1]Demands!C48</f>
         <v>6.559186931581344E-3</v>
       </c>
-      <c r="O34" s="31">
+      <c r="O47" s="31">
         <f>[1]Demands!D48</f>
         <v>0</v>
       </c>
-      <c r="P34" s="31">
+      <c r="P47" s="31">
         <f>[1]Demands!E48</f>
         <v>2.6914642258584892E-2</v>
       </c>
-      <c r="Q34" s="31">
+      <c r="Q47" s="31">
         <f>[1]Demands!F48</f>
         <v>0</v>
       </c>
-      <c r="R34" s="31">
+      <c r="R47" s="31">
         <f>[1]Demands!G48</f>
         <v>0</v>
       </c>
-      <c r="S34" s="31">
+      <c r="S47" s="31">
         <f>[1]Demands!H48</f>
         <v>0</v>
       </c>
-      <c r="T34" s="31">
+      <c r="T47" s="31">
         <f>[1]Demands!I48</f>
         <v>0</v>
       </c>
-      <c r="U34" s="31">
+      <c r="U47" s="31">
         <f>[1]Demands!J48</f>
         <v>0</v>
       </c>
-      <c r="V34" s="31">
+      <c r="V47" s="31">
         <f>[1]Demands!K48</f>
         <v>0</v>
       </c>
-      <c r="W34" s="31">
+      <c r="W47" s="31">
         <f>[1]Demands!L48</f>
         <v>0</v>
       </c>
-      <c r="X34" s="31">
+      <c r="X47" s="31">
         <f>[1]Demands!M48</f>
         <v>0</v>
       </c>
-      <c r="Y34" s="31">
+      <c r="Y47" s="31">
         <f>[1]Demands!N48</f>
         <v>0</v>
       </c>
-      <c r="Z34" s="31">
+      <c r="Z47" s="31">
         <f>[1]Demands!O48</f>
         <v>0</v>
       </c>
-      <c r="AA34" s="31">
+      <c r="AA47" s="31">
         <f>[1]Demands!P48</f>
         <v>0</v>
       </c>
-      <c r="AB34" s="31">
+      <c r="AB47" s="31">
         <f>[1]Demands!Q48</f>
         <v>0</v>
       </c>
-      <c r="AC34" s="31">
+      <c r="AC47" s="31">
         <f>[1]Demands!R48</f>
         <v>0</v>
       </c>
-      <c r="AD34" s="31">
+      <c r="AD47" s="31">
         <f>[1]Demands!S48</f>
         <v>0</v>
       </c>
-      <c r="AE34" s="31">
+      <c r="AE47" s="31">
         <f>[1]Demands!T48</f>
         <v>0</v>
       </c>
-      <c r="AF34" s="31">
+      <c r="AF47" s="31">
         <f>[1]Demands!U48</f>
         <v>0</v>
       </c>
-      <c r="AG34" s="31">
+      <c r="AG47" s="31">
         <f>[1]Demands!V48</f>
         <v>0</v>
       </c>
-      <c r="AH34" s="31">
+      <c r="AH47" s="31">
         <f>[1]Demands!W48</f>
         <v>0</v>
       </c>
-      <c r="AI34" s="31">
+      <c r="AI47" s="31">
         <f>[1]Demands!X48</f>
         <v>0</v>
       </c>
-      <c r="AJ34" s="31">
+      <c r="AJ47" s="31">
         <f>[1]Demands!Y48</f>
         <v>0</v>
       </c>
-      <c r="AK34" s="31">
+      <c r="AK47" s="31">
         <f>[1]Demands!Z48</f>
         <v>0</v>
       </c>
-      <c r="AL34" s="31">
+      <c r="AL47" s="31">
         <f>[1]Demands!AA48</f>
         <v>0</v>
       </c>
-      <c r="AM34" s="31">
+      <c r="AM47" s="31">
         <f>[1]Demands!AB48</f>
         <v>0</v>
       </c>
-      <c r="AN34" s="31">
+      <c r="AN47" s="31">
         <f>[1]Demands!AC48</f>
         <v>0</v>
       </c>
-      <c r="AO34" s="31">
+      <c r="AO47" s="31">
         <f>[1]Demands!AD48</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C35" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32" t="str">
-        <f t="shared" si="3"/>
+    <row r="48" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>69</v>
+      </c>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="31"/>
+      <c r="T48" s="31"/>
+      <c r="U48" s="31"/>
+      <c r="V48" s="31"/>
+      <c r="W48" s="31"/>
+      <c r="X48" s="31"/>
+      <c r="Y48" s="31"/>
+      <c r="Z48" s="31"/>
+      <c r="AA48" s="31"/>
+      <c r="AB48" s="31"/>
+      <c r="AC48" s="31"/>
+      <c r="AD48" s="31"/>
+      <c r="AE48" s="31"/>
+      <c r="AF48" s="31"/>
+      <c r="AG48" s="31"/>
+      <c r="AH48" s="31"/>
+      <c r="AI48" s="31"/>
+      <c r="AJ48" s="31"/>
+      <c r="AK48" s="31"/>
+      <c r="AL48" s="31"/>
+      <c r="AM48" s="31"/>
+      <c r="AN48" s="31"/>
+      <c r="AO48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C49" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32" t="str">
+        <f t="shared" ref="H49" si="2">H47</f>
         <v>TRAPM</v>
       </c>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32">
+      <c r="I49" s="32"/>
+      <c r="J49" s="32">
         <v>2018</v>
       </c>
-      <c r="K35" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="L35" s="32">
+      <c r="K49" t="s">
+        <v>69</v>
+      </c>
+      <c r="L49" s="32">
         <v>-1</v>
       </c>
-      <c r="M35" s="32" t="str">
-        <f t="shared" si="2"/>
+      <c r="M49" s="32" t="str">
+        <f t="shared" ref="M49" si="3">M25</f>
         <v>Train</v>
       </c>
-      <c r="N35" s="33">
+      <c r="N49" s="33">
         <f>[1]Demands!C49</f>
         <v>0</v>
       </c>
-      <c r="O35" s="33">
+      <c r="O49" s="33">
         <f>[1]Demands!D49</f>
         <v>0</v>
       </c>
-      <c r="P35" s="33">
+      <c r="P49" s="33">
         <f>[1]Demands!E49</f>
         <v>0</v>
       </c>
-      <c r="Q35" s="33">
+      <c r="Q49" s="33">
         <f>[1]Demands!F49</f>
         <v>0</v>
       </c>
-      <c r="R35" s="33">
+      <c r="R49" s="33">
         <f>[1]Demands!G49</f>
         <v>0</v>
       </c>
-      <c r="S35" s="33">
+      <c r="S49" s="33">
         <f>[1]Demands!H49</f>
         <v>0</v>
       </c>
-      <c r="T35" s="33">
+      <c r="T49" s="33">
         <f>[1]Demands!I49</f>
         <v>0</v>
       </c>
-      <c r="U35" s="33">
+      <c r="U49" s="33">
         <f>[1]Demands!J49</f>
         <v>0</v>
       </c>
-      <c r="V35" s="33">
+      <c r="V49" s="33">
         <f>[1]Demands!K49</f>
         <v>0</v>
       </c>
-      <c r="W35" s="33">
+      <c r="W49" s="33">
         <f>[1]Demands!L49</f>
         <v>0</v>
       </c>
-      <c r="X35" s="33">
+      <c r="X49" s="33">
         <f>[1]Demands!M49</f>
         <v>0</v>
       </c>
-      <c r="Y35" s="33">
+      <c r="Y49" s="33">
         <f>[1]Demands!N49</f>
         <v>0</v>
       </c>
-      <c r="Z35" s="33">
+      <c r="Z49" s="33">
         <f>[1]Demands!O49</f>
         <v>0</v>
       </c>
-      <c r="AA35" s="33">
+      <c r="AA49" s="33">
         <f>[1]Demands!P49</f>
         <v>0</v>
       </c>
-      <c r="AB35" s="33">
+      <c r="AB49" s="33">
         <f>[1]Demands!Q49</f>
         <v>0</v>
       </c>
-      <c r="AC35" s="33">
+      <c r="AC49" s="33">
         <f>[1]Demands!R49</f>
         <v>0</v>
       </c>
-      <c r="AD35" s="33">
+      <c r="AD49" s="33">
         <f>[1]Demands!S49</f>
         <v>0</v>
       </c>
-      <c r="AE35" s="33">
+      <c r="AE49" s="33">
         <f>[1]Demands!T49</f>
         <v>0</v>
       </c>
-      <c r="AF35" s="33">
+      <c r="AF49" s="33">
         <f>[1]Demands!U49</f>
         <v>0</v>
       </c>
-      <c r="AG35" s="33">
+      <c r="AG49" s="33">
         <f>[1]Demands!V49</f>
         <v>0</v>
       </c>
-      <c r="AH35" s="33">
+      <c r="AH49" s="33">
         <f>[1]Demands!W49</f>
         <v>0</v>
       </c>
-      <c r="AI35" s="33">
+      <c r="AI49" s="33">
         <f>[1]Demands!X49</f>
         <v>0</v>
       </c>
-      <c r="AJ35" s="33">
+      <c r="AJ49" s="33">
         <f>[1]Demands!Y49</f>
         <v>0</v>
       </c>
-      <c r="AK35" s="33">
+      <c r="AK49" s="33">
         <f>[1]Demands!Z49</f>
         <v>0</v>
       </c>
-      <c r="AL35" s="33">
+      <c r="AL49" s="33">
         <f>[1]Demands!AA49</f>
         <v>0</v>
       </c>
-      <c r="AM35" s="33">
+      <c r="AM49" s="33">
         <f>[1]Demands!AB49</f>
         <v>0</v>
       </c>
-      <c r="AN35" s="33">
+      <c r="AN49" s="33">
         <f>[1]Demands!AC49</f>
         <v>0</v>
       </c>
-      <c r="AO35" s="33">
+      <c r="AO49" s="33">
         <f>[1]Demands!AD49</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C42" s="7"/>
-    </row>
-    <row r="43" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C43" s="7"/>
-    </row>
-    <row r="44" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34" t="s">
+    <row r="50" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="J50" s="36">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
         <v>69</v>
       </c>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="34"/>
-      <c r="S44" s="34"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="34"/>
-      <c r="V44" s="34"/>
-      <c r="W44" s="34"/>
-      <c r="X44" s="34"/>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="34"/>
-      <c r="AA44" s="34"/>
-      <c r="AB44" s="34"/>
-      <c r="AC44" s="34"/>
-      <c r="AD44" s="34"/>
-      <c r="AE44" s="34"/>
-      <c r="AF44" s="34"/>
-      <c r="AG44" s="34"/>
-      <c r="AH44" s="34"/>
-      <c r="AI44" s="34"/>
-      <c r="AJ44" s="34"/>
-      <c r="AK44" s="34"/>
-      <c r="AL44" s="34"/>
-      <c r="AM44" s="34"/>
-      <c r="AN44" s="34"/>
-      <c r="AO44" s="34"/>
-    </row>
-    <row r="45" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C45" s="5" t="s">
+      <c r="AO50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C56" s="7"/>
+    </row>
+    <row r="57" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C57" s="7"/>
+    </row>
+    <row r="58" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="L58" s="34"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="34"/>
+      <c r="U58" s="34"/>
+      <c r="V58" s="34"/>
+      <c r="W58" s="34"/>
+      <c r="X58" s="34"/>
+      <c r="Y58" s="34"/>
+      <c r="Z58" s="34"/>
+      <c r="AA58" s="34"/>
+      <c r="AB58" s="34"/>
+      <c r="AC58" s="34"/>
+      <c r="AD58" s="34"/>
+      <c r="AE58" s="34"/>
+      <c r="AF58" s="34"/>
+      <c r="AG58" s="34"/>
+      <c r="AH58" s="34"/>
+      <c r="AI58" s="34"/>
+      <c r="AJ58" s="34"/>
+      <c r="AK58" s="34"/>
+      <c r="AL58" s="34"/>
+      <c r="AM58" s="34"/>
+      <c r="AN58" s="34"/>
+      <c r="AO58" s="34"/>
+    </row>
+    <row r="59" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C59" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="J59" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="K59" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L45" s="4" t="s">
+      <c r="L59" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M45" s="5" t="s">
+      <c r="M59" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N45" s="5" t="str">
-        <f>N27</f>
+      <c r="N59" s="5" t="str">
+        <f>N34</f>
         <v>*National</v>
       </c>
-      <c r="O45" s="5" t="str">
-        <f t="shared" ref="O45:AN45" si="4">O27</f>
+      <c r="O59" s="5" t="str">
+        <f t="shared" ref="O59:AN59" si="4">O34</f>
         <v>IE-CW</v>
       </c>
-      <c r="P45" s="5" t="str">
+      <c r="P59" s="5" t="str">
         <f t="shared" si="4"/>
         <v>IE-D</v>
       </c>
-      <c r="Q45" s="5" t="str">
+      <c r="Q59" s="5" t="str">
         <f t="shared" si="4"/>
         <v>IE-KE</v>
       </c>
-      <c r="R45" s="5" t="str">
+      <c r="R59" s="5" t="str">
         <f t="shared" si="4"/>
         <v>IE-KK</v>
       </c>
-      <c r="S45" s="5" t="str">
+      <c r="S59" s="5" t="str">
         <f t="shared" si="4"/>
         <v>IE-LS</v>
       </c>
-      <c r="T45" s="5" t="str">
+      <c r="T59" s="5" t="str">
         <f t="shared" si="4"/>
         <v>IE-LD</v>
       </c>
-      <c r="U45" s="5" t="str">
+      <c r="U59" s="5" t="str">
         <f t="shared" si="4"/>
         <v>IE-LH</v>
       </c>
-      <c r="V45" s="5" t="str">
+      <c r="V59" s="5" t="str">
         <f t="shared" si="4"/>
         <v>IE-MH</v>
       </c>
-      <c r="W45" s="5" t="str">
+      <c r="W59" s="5" t="str">
         <f t="shared" si="4"/>
         <v>IE-OY</v>
       </c>
-      <c r="X45" s="5" t="str">
+      <c r="X59" s="5" t="str">
         <f t="shared" si="4"/>
         <v>IE-WH</v>
       </c>
-      <c r="Y45" s="5" t="str">
+      <c r="Y59" s="5" t="str">
         <f t="shared" si="4"/>
         <v>IE-WX</v>
       </c>
-      <c r="Z45" s="5" t="str">
+      <c r="Z59" s="5" t="str">
         <f t="shared" si="4"/>
         <v>IE-WW</v>
       </c>
-      <c r="AA45" s="5" t="str">
+      <c r="AA59" s="5" t="str">
         <f t="shared" si="4"/>
         <v>IE-CE</v>
       </c>
-      <c r="AB45" s="5" t="str">
+      <c r="AB59" s="5" t="str">
         <f t="shared" si="4"/>
         <v>IE-CO</v>
       </c>
-      <c r="AC45" s="5" t="str">
+      <c r="AC59" s="5" t="str">
         <f t="shared" si="4"/>
         <v>IE-KY</v>
       </c>
-      <c r="AD45" s="5" t="str">
+      <c r="AD59" s="5" t="str">
         <f t="shared" si="4"/>
         <v>IE-LK</v>
       </c>
-      <c r="AE45" s="5" t="str">
+      <c r="AE59" s="5" t="str">
         <f t="shared" si="4"/>
         <v>IE-TA</v>
       </c>
-      <c r="AF45" s="5" t="str">
+      <c r="AF59" s="5" t="str">
         <f t="shared" si="4"/>
         <v>IE-WD</v>
       </c>
-      <c r="AG45" s="5" t="str">
+      <c r="AG59" s="5" t="str">
         <f t="shared" si="4"/>
         <v>IE-G</v>
       </c>
-      <c r="AH45" s="5" t="str">
+      <c r="AH59" s="5" t="str">
         <f t="shared" si="4"/>
         <v>IE-LM</v>
       </c>
-      <c r="AI45" s="5" t="str">
+      <c r="AI59" s="5" t="str">
         <f t="shared" si="4"/>
         <v>IE-MO</v>
       </c>
-      <c r="AJ45" s="5" t="str">
+      <c r="AJ59" s="5" t="str">
         <f t="shared" si="4"/>
         <v>IE-RN</v>
       </c>
-      <c r="AK45" s="5" t="str">
+      <c r="AK59" s="5" t="str">
         <f t="shared" si="4"/>
         <v>IE-SO</v>
       </c>
-      <c r="AL45" s="5" t="str">
+      <c r="AL59" s="5" t="str">
         <f t="shared" si="4"/>
         <v>IE-CN</v>
       </c>
-      <c r="AM45" s="5" t="str">
+      <c r="AM59" s="5" t="str">
         <f t="shared" si="4"/>
         <v>IE-DL</v>
       </c>
-      <c r="AN45" s="5" t="str">
+      <c r="AN59" s="5" t="str">
         <f t="shared" si="4"/>
         <v>IE-MN</v>
       </c>
-      <c r="AO45" s="5" t="s">
+      <c r="AO59" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C46" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34" t="str">
+    <row r="60" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C60" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34" t="str">
         <f>[1]Commodities!$K$8</f>
         <v>TWLK_WLK</v>
       </c>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34" t="str">
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34" t="str">
         <f>[1]Commodities!$B$20</f>
         <v>TRAPL</v>
       </c>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34">
+      <c r="I60" s="34"/>
+      <c r="J60">
         <v>2018</v>
       </c>
-      <c r="K46" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="L46" s="34">
+      <c r="K60" t="s">
+        <v>69</v>
+      </c>
+      <c r="L60" s="34">
         <v>-1</v>
       </c>
-      <c r="M46" s="34" t="str">
-        <f>M28</f>
+      <c r="M60" s="34" t="str">
+        <f>M35</f>
         <v>Walk</v>
       </c>
-      <c r="N46" s="35">
+      <c r="N60" s="35">
         <f>[1]Demands!C56</f>
         <v>0</v>
       </c>
-      <c r="O46" s="35">
+      <c r="O60" s="35">
         <f>[1]Demands!D56</f>
         <v>0</v>
       </c>
-      <c r="P46" s="35">
+      <c r="P60" s="35">
         <f>[1]Demands!E56</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="35">
+      <c r="Q60" s="35">
         <f>[1]Demands!F56</f>
         <v>0</v>
       </c>
-      <c r="R46" s="35">
+      <c r="R60" s="35">
         <f>[1]Demands!G56</f>
         <v>0</v>
       </c>
-      <c r="S46" s="35">
+      <c r="S60" s="35">
         <f>[1]Demands!H56</f>
         <v>0</v>
       </c>
-      <c r="T46" s="35">
+      <c r="T60" s="35">
         <f>[1]Demands!I56</f>
         <v>0</v>
       </c>
-      <c r="U46" s="35">
+      <c r="U60" s="35">
         <f>[1]Demands!J56</f>
         <v>0</v>
       </c>
-      <c r="V46" s="35">
+      <c r="V60" s="35">
         <f>[1]Demands!K56</f>
         <v>0</v>
       </c>
-      <c r="W46" s="35">
+      <c r="W60" s="35">
         <f>[1]Demands!L56</f>
         <v>0</v>
       </c>
-      <c r="X46" s="35">
+      <c r="X60" s="35">
         <f>[1]Demands!M56</f>
         <v>0</v>
       </c>
-      <c r="Y46" s="35">
+      <c r="Y60" s="35">
         <f>[1]Demands!N56</f>
         <v>0</v>
       </c>
-      <c r="Z46" s="35">
+      <c r="Z60" s="35">
         <f>[1]Demands!O56</f>
         <v>0</v>
       </c>
-      <c r="AA46" s="35">
+      <c r="AA60" s="35">
         <f>[1]Demands!P56</f>
         <v>0</v>
       </c>
-      <c r="AB46" s="35">
+      <c r="AB60" s="35">
         <f>[1]Demands!Q56</f>
         <v>0</v>
       </c>
-      <c r="AC46" s="35">
+      <c r="AC60" s="35">
         <f>[1]Demands!R56</f>
         <v>0</v>
       </c>
-      <c r="AD46" s="35">
+      <c r="AD60" s="35">
         <f>[1]Demands!S56</f>
         <v>0</v>
       </c>
-      <c r="AE46" s="35">
+      <c r="AE60" s="35">
         <f>[1]Demands!T56</f>
         <v>0</v>
       </c>
-      <c r="AF46" s="35">
+      <c r="AF60" s="35">
         <f>[1]Demands!U56</f>
         <v>0</v>
       </c>
-      <c r="AG46" s="35">
+      <c r="AG60" s="35">
         <f>[1]Demands!V56</f>
         <v>0</v>
       </c>
-      <c r="AH46" s="35">
+      <c r="AH60" s="35">
         <f>[1]Demands!W56</f>
         <v>0</v>
       </c>
-      <c r="AI46" s="35">
+      <c r="AI60" s="35">
         <f>[1]Demands!X56</f>
         <v>0</v>
       </c>
-      <c r="AJ46" s="35">
+      <c r="AJ60" s="35">
         <f>[1]Demands!Y56</f>
         <v>0</v>
       </c>
-      <c r="AK46" s="35">
+      <c r="AK60" s="35">
         <f>[1]Demands!Z56</f>
         <v>0</v>
       </c>
-      <c r="AL46" s="35">
+      <c r="AL60" s="35">
         <f>[1]Demands!AA56</f>
         <v>0</v>
       </c>
-      <c r="AM46" s="35">
+      <c r="AM60" s="35">
         <f>[1]Demands!AB56</f>
         <v>0</v>
       </c>
-      <c r="AN46" s="35">
+      <c r="AN60" s="35">
         <f>[1]Demands!AC56</f>
         <v>0</v>
       </c>
-      <c r="AO46" s="35">
+      <c r="AO60" s="35">
         <f>[1]Demands!AD60</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C47" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34" t="str">
+    <row r="61" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>69</v>
+      </c>
+      <c r="L61" s="34"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35"/>
+      <c r="R61" s="35"/>
+      <c r="S61" s="35"/>
+      <c r="T61" s="35"/>
+      <c r="U61" s="35"/>
+      <c r="V61" s="35"/>
+      <c r="W61" s="35"/>
+      <c r="X61" s="35"/>
+      <c r="Y61" s="35"/>
+      <c r="Z61" s="35"/>
+      <c r="AA61" s="35"/>
+      <c r="AB61" s="35"/>
+      <c r="AC61" s="35"/>
+      <c r="AD61" s="35"/>
+      <c r="AE61" s="35"/>
+      <c r="AF61" s="35"/>
+      <c r="AG61" s="35"/>
+      <c r="AH61" s="35"/>
+      <c r="AI61" s="35"/>
+      <c r="AJ61" s="35"/>
+      <c r="AK61" s="35"/>
+      <c r="AL61" s="35"/>
+      <c r="AM61" s="35"/>
+      <c r="AN61" s="35"/>
+      <c r="AO61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C62" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34" t="str">
         <f>[1]Commodities!$K$9</f>
         <v>TCYC_CYC</v>
       </c>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34" t="str">
-        <f>H46</f>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34" t="str">
+        <f>H60</f>
         <v>TRAPL</v>
       </c>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34">
+      <c r="I62" s="34"/>
+      <c r="J62">
         <v>2018</v>
       </c>
-      <c r="K47" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="L47" s="34">
+      <c r="K62" t="s">
+        <v>69</v>
+      </c>
+      <c r="L62" s="34">
         <v>-1</v>
       </c>
-      <c r="M47" s="34" t="str">
-        <f t="shared" ref="M47:M53" si="5">M29</f>
+      <c r="M62" s="34" t="str">
+        <f>M37</f>
         <v>Bike</v>
       </c>
-      <c r="N47" s="35">
+      <c r="N62" s="35">
         <f>[1]Demands!C57</f>
         <v>0</v>
       </c>
-      <c r="O47" s="35">
+      <c r="O62" s="35">
         <f>[1]Demands!D57</f>
         <v>0</v>
       </c>
-      <c r="P47" s="35">
+      <c r="P62" s="35">
         <f>[1]Demands!E57</f>
         <v>0</v>
       </c>
-      <c r="Q47" s="35">
+      <c r="Q62" s="35">
         <f>[1]Demands!F57</f>
         <v>0</v>
       </c>
-      <c r="R47" s="35">
+      <c r="R62" s="35">
         <f>[1]Demands!G57</f>
         <v>0</v>
       </c>
-      <c r="S47" s="35">
+      <c r="S62" s="35">
         <f>[1]Demands!H57</f>
         <v>0</v>
       </c>
-      <c r="T47" s="35">
+      <c r="T62" s="35">
         <f>[1]Demands!I57</f>
         <v>0</v>
       </c>
-      <c r="U47" s="35">
+      <c r="U62" s="35">
         <f>[1]Demands!J57</f>
         <v>0</v>
       </c>
-      <c r="V47" s="35">
+      <c r="V62" s="35">
         <f>[1]Demands!K57</f>
         <v>0</v>
       </c>
-      <c r="W47" s="35">
+      <c r="W62" s="35">
         <f>[1]Demands!L57</f>
         <v>0</v>
       </c>
-      <c r="X47" s="35">
+      <c r="X62" s="35">
         <f>[1]Demands!M57</f>
         <v>0</v>
       </c>
-      <c r="Y47" s="35">
+      <c r="Y62" s="35">
         <f>[1]Demands!N57</f>
         <v>0</v>
       </c>
-      <c r="Z47" s="35">
+      <c r="Z62" s="35">
         <f>[1]Demands!O57</f>
         <v>0</v>
       </c>
-      <c r="AA47" s="35">
+      <c r="AA62" s="35">
         <f>[1]Demands!P57</f>
         <v>0</v>
       </c>
-      <c r="AB47" s="35">
+      <c r="AB62" s="35">
         <f>[1]Demands!Q57</f>
         <v>0</v>
       </c>
-      <c r="AC47" s="35">
+      <c r="AC62" s="35">
         <f>[1]Demands!R57</f>
         <v>0</v>
       </c>
-      <c r="AD47" s="35">
+      <c r="AD62" s="35">
         <f>[1]Demands!S57</f>
         <v>0</v>
       </c>
-      <c r="AE47" s="35">
+      <c r="AE62" s="35">
         <f>[1]Demands!T57</f>
         <v>0</v>
       </c>
-      <c r="AF47" s="35">
+      <c r="AF62" s="35">
         <f>[1]Demands!U57</f>
         <v>0</v>
       </c>
-      <c r="AG47" s="35">
+      <c r="AG62" s="35">
         <f>[1]Demands!V57</f>
         <v>0</v>
       </c>
-      <c r="AH47" s="35">
+      <c r="AH62" s="35">
         <f>[1]Demands!W57</f>
         <v>0</v>
       </c>
-      <c r="AI47" s="35">
+      <c r="AI62" s="35">
         <f>[1]Demands!X57</f>
         <v>0</v>
       </c>
-      <c r="AJ47" s="35">
+      <c r="AJ62" s="35">
         <f>[1]Demands!Y57</f>
         <v>0</v>
       </c>
-      <c r="AK47" s="35">
+      <c r="AK62" s="35">
         <f>[1]Demands!Z57</f>
         <v>0</v>
       </c>
-      <c r="AL47" s="35">
+      <c r="AL62" s="35">
         <f>[1]Demands!AA57</f>
         <v>0</v>
       </c>
-      <c r="AM47" s="35">
+      <c r="AM62" s="35">
         <f>[1]Demands!AB57</f>
         <v>0</v>
       </c>
-      <c r="AN47" s="35">
+      <c r="AN62" s="35">
         <f>[1]Demands!AC57</f>
         <v>0</v>
       </c>
-      <c r="AO47" s="35">
+      <c r="AO62" s="35">
         <f>[1]Demands!AD61</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C48" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34" t="str">
+    <row r="63" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>69</v>
+      </c>
+      <c r="L63" s="34"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
+      <c r="Q63" s="35"/>
+      <c r="R63" s="35"/>
+      <c r="S63" s="35"/>
+      <c r="T63" s="35"/>
+      <c r="U63" s="35"/>
+      <c r="V63" s="35"/>
+      <c r="W63" s="35"/>
+      <c r="X63" s="35"/>
+      <c r="Y63" s="35"/>
+      <c r="Z63" s="35"/>
+      <c r="AA63" s="35"/>
+      <c r="AB63" s="35"/>
+      <c r="AC63" s="35"/>
+      <c r="AD63" s="35"/>
+      <c r="AE63" s="35"/>
+      <c r="AF63" s="35"/>
+      <c r="AG63" s="35"/>
+      <c r="AH63" s="35"/>
+      <c r="AI63" s="35"/>
+      <c r="AJ63" s="35"/>
+      <c r="AK63" s="35"/>
+      <c r="AL63" s="35"/>
+      <c r="AM63" s="35"/>
+      <c r="AN63" s="35"/>
+      <c r="AO63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C64" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34" t="str">
         <f>[1]Commodities!$K$11</f>
         <v>TMOT_GSL_00</v>
       </c>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34" t="str">
-        <f t="shared" ref="H48:H53" si="6">H47</f>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34" t="str">
+        <f>H62</f>
         <v>TRAPL</v>
       </c>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34">
+      <c r="I64" s="34"/>
+      <c r="J64">
         <v>2018</v>
       </c>
-      <c r="K48" s="34" t="s">
+      <c r="K64" t="s">
+        <v>69</v>
+      </c>
+      <c r="L64" s="34">
+        <v>-1</v>
+      </c>
+      <c r="M64" s="34" t="str">
+        <f>M39</f>
+        <v>2-wheelers</v>
+      </c>
+      <c r="N64" s="35">
+        <f>[1]Demands!C58</f>
+        <v>0</v>
+      </c>
+      <c r="O64" s="35">
+        <f>[1]Demands!D58</f>
+        <v>0</v>
+      </c>
+      <c r="P64" s="35">
+        <f>[1]Demands!E58</f>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="35">
+        <f>[1]Demands!F58</f>
+        <v>0</v>
+      </c>
+      <c r="R64" s="35">
+        <f>[1]Demands!G58</f>
+        <v>0</v>
+      </c>
+      <c r="S64" s="35">
+        <f>[1]Demands!H58</f>
+        <v>0</v>
+      </c>
+      <c r="T64" s="35">
+        <f>[1]Demands!I58</f>
+        <v>0</v>
+      </c>
+      <c r="U64" s="35">
+        <f>[1]Demands!J58</f>
+        <v>0</v>
+      </c>
+      <c r="V64" s="35">
+        <f>[1]Demands!K58</f>
+        <v>0</v>
+      </c>
+      <c r="W64" s="35">
+        <f>[1]Demands!L58</f>
+        <v>0</v>
+      </c>
+      <c r="X64" s="35">
+        <f>[1]Demands!M58</f>
+        <v>0</v>
+      </c>
+      <c r="Y64" s="35">
+        <f>[1]Demands!N58</f>
+        <v>0</v>
+      </c>
+      <c r="Z64" s="35">
+        <f>[1]Demands!O58</f>
+        <v>0</v>
+      </c>
+      <c r="AA64" s="35">
+        <f>[1]Demands!P58</f>
+        <v>0</v>
+      </c>
+      <c r="AB64" s="35">
+        <f>[1]Demands!Q58</f>
+        <v>0</v>
+      </c>
+      <c r="AC64" s="35">
+        <f>[1]Demands!R58</f>
+        <v>0</v>
+      </c>
+      <c r="AD64" s="35">
+        <f>[1]Demands!S58</f>
+        <v>0</v>
+      </c>
+      <c r="AE64" s="35">
+        <f>[1]Demands!T58</f>
+        <v>0</v>
+      </c>
+      <c r="AF64" s="35">
+        <f>[1]Demands!U58</f>
+        <v>0</v>
+      </c>
+      <c r="AG64" s="35">
+        <f>[1]Demands!V58</f>
+        <v>0</v>
+      </c>
+      <c r="AH64" s="35">
+        <f>[1]Demands!W58</f>
+        <v>0</v>
+      </c>
+      <c r="AI64" s="35">
+        <f>[1]Demands!X58</f>
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="35">
+        <f>[1]Demands!Y58</f>
+        <v>0</v>
+      </c>
+      <c r="AK64" s="35">
+        <f>[1]Demands!Z58</f>
+        <v>0</v>
+      </c>
+      <c r="AL64" s="35">
+        <f>[1]Demands!AA58</f>
+        <v>0</v>
+      </c>
+      <c r="AM64" s="35">
+        <f>[1]Demands!AB58</f>
+        <v>0</v>
+      </c>
+      <c r="AN64" s="35">
+        <f>[1]Demands!AC58</f>
+        <v>0</v>
+      </c>
+      <c r="AO64" s="35">
+        <f>[1]Demands!AD62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>69</v>
+      </c>
+      <c r="L65" s="34"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="35"/>
+      <c r="U65" s="35"/>
+      <c r="V65" s="35"/>
+      <c r="W65" s="35"/>
+      <c r="X65" s="35"/>
+      <c r="Y65" s="35"/>
+      <c r="Z65" s="35"/>
+      <c r="AA65" s="35"/>
+      <c r="AB65" s="35"/>
+      <c r="AC65" s="35"/>
+      <c r="AD65" s="35"/>
+      <c r="AE65" s="35"/>
+      <c r="AF65" s="35"/>
+      <c r="AG65" s="35"/>
+      <c r="AH65" s="35"/>
+      <c r="AI65" s="35"/>
+      <c r="AJ65" s="35"/>
+      <c r="AK65" s="35"/>
+      <c r="AL65" s="35"/>
+      <c r="AM65" s="35"/>
+      <c r="AN65" s="35"/>
+      <c r="AO65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C66" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="L48" s="34">
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34" t="str">
+        <f>H64</f>
+        <v>TRAPL</v>
+      </c>
+      <c r="I66" s="34"/>
+      <c r="J66">
+        <v>2018</v>
+      </c>
+      <c r="K66" t="s">
+        <v>69</v>
+      </c>
+      <c r="L66" s="34">
         <v>-1</v>
       </c>
-      <c r="M48" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>2-wheelers</v>
-      </c>
-      <c r="N48" s="35">
-        <f>[1]Demands!C58</f>
-        <v>0</v>
-      </c>
-      <c r="O48" s="35">
-        <f>[1]Demands!D58</f>
-        <v>0</v>
-      </c>
-      <c r="P48" s="35">
-        <f>[1]Demands!E58</f>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="35">
-        <f>[1]Demands!F58</f>
-        <v>0</v>
-      </c>
-      <c r="R48" s="35">
-        <f>[1]Demands!G58</f>
-        <v>0</v>
-      </c>
-      <c r="S48" s="35">
-        <f>[1]Demands!H58</f>
-        <v>0</v>
-      </c>
-      <c r="T48" s="35">
-        <f>[1]Demands!I58</f>
-        <v>0</v>
-      </c>
-      <c r="U48" s="35">
-        <f>[1]Demands!J58</f>
-        <v>0</v>
-      </c>
-      <c r="V48" s="35">
-        <f>[1]Demands!K58</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="35">
-        <f>[1]Demands!L58</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="35">
-        <f>[1]Demands!M58</f>
-        <v>0</v>
-      </c>
-      <c r="Y48" s="35">
-        <f>[1]Demands!N58</f>
-        <v>0</v>
-      </c>
-      <c r="Z48" s="35">
-        <f>[1]Demands!O58</f>
-        <v>0</v>
-      </c>
-      <c r="AA48" s="35">
-        <f>[1]Demands!P58</f>
-        <v>0</v>
-      </c>
-      <c r="AB48" s="35">
-        <f>[1]Demands!Q58</f>
-        <v>0</v>
-      </c>
-      <c r="AC48" s="35">
-        <f>[1]Demands!R58</f>
-        <v>0</v>
-      </c>
-      <c r="AD48" s="35">
-        <f>[1]Demands!S58</f>
-        <v>0</v>
-      </c>
-      <c r="AE48" s="35">
-        <f>[1]Demands!T58</f>
-        <v>0</v>
-      </c>
-      <c r="AF48" s="35">
-        <f>[1]Demands!U58</f>
-        <v>0</v>
-      </c>
-      <c r="AG48" s="35">
-        <f>[1]Demands!V58</f>
-        <v>0</v>
-      </c>
-      <c r="AH48" s="35">
-        <f>[1]Demands!W58</f>
-        <v>0</v>
-      </c>
-      <c r="AI48" s="35">
-        <f>[1]Demands!X58</f>
-        <v>0</v>
-      </c>
-      <c r="AJ48" s="35">
-        <f>[1]Demands!Y58</f>
-        <v>0</v>
-      </c>
-      <c r="AK48" s="35">
-        <f>[1]Demands!Z58</f>
-        <v>0</v>
-      </c>
-      <c r="AL48" s="35">
-        <f>[1]Demands!AA58</f>
-        <v>0</v>
-      </c>
-      <c r="AM48" s="35">
-        <f>[1]Demands!AB58</f>
-        <v>0</v>
-      </c>
-      <c r="AN48" s="35">
-        <f>[1]Demands!AC58</f>
-        <v>0</v>
-      </c>
-      <c r="AO48" s="35">
-        <f>[1]Demands!AD62</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C49" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v>TRAPL</v>
-      </c>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34">
-        <v>2018</v>
-      </c>
-      <c r="K49" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="L49" s="34">
-        <v>-1</v>
-      </c>
-      <c r="M49" s="34" t="str">
-        <f t="shared" si="5"/>
+      <c r="M66" s="34" t="str">
+        <f>M41</f>
         <v>LDV</v>
       </c>
-      <c r="N49" s="35">
+      <c r="N66" s="35">
         <f>[1]Demands!C59</f>
         <v>0.74108639947108168</v>
       </c>
-      <c r="O49" s="35">
+      <c r="O66" s="35">
         <f>[1]Demands!D59</f>
         <v>0.79071880912169545</v>
       </c>
-      <c r="P49" s="35">
+      <c r="P66" s="35">
         <f>[1]Demands!E59</f>
         <v>0.6386131571238467</v>
       </c>
-      <c r="Q49" s="35">
+      <c r="Q66" s="35">
         <f>[1]Demands!F59</f>
         <v>0.75580744416441215</v>
       </c>
-      <c r="R49" s="35">
+      <c r="R66" s="35">
         <f>[1]Demands!G59</f>
         <v>0.71320246300225565</v>
       </c>
-      <c r="S49" s="35">
+      <c r="S66" s="35">
         <f>[1]Demands!H59</f>
         <v>0.78115676031065473</v>
       </c>
-      <c r="T49" s="35">
+      <c r="T66" s="35">
         <f>[1]Demands!I59</f>
         <v>0.76642349622098382</v>
       </c>
-      <c r="U49" s="35">
+      <c r="U66" s="35">
         <f>[1]Demands!J59</f>
         <v>0.74828496387185417</v>
       </c>
-      <c r="V49" s="35">
+      <c r="V66" s="35">
         <f>[1]Demands!K59</f>
         <v>0.78640329755658556</v>
       </c>
-      <c r="W49" s="35">
+      <c r="W66" s="35">
         <f>[1]Demands!L59</f>
         <v>0.74588309703681677</v>
       </c>
-      <c r="X49" s="35">
+      <c r="X66" s="35">
         <f>[1]Demands!M59</f>
         <v>0.80172469534468704</v>
       </c>
-      <c r="Y49" s="35">
+      <c r="Y66" s="35">
         <f>[1]Demands!N59</f>
         <v>0.79583426304303684</v>
       </c>
-      <c r="Z49" s="35">
+      <c r="Z66" s="35">
         <f>[1]Demands!O59</f>
         <v>0.77907090765006382</v>
       </c>
-      <c r="AA49" s="35">
+      <c r="AA66" s="35">
         <f>[1]Demands!P59</f>
         <v>0.80155723993574601</v>
       </c>
-      <c r="AB49" s="35">
+      <c r="AB66" s="35">
         <f>[1]Demands!Q59</f>
         <v>0.78887154985237196</v>
       </c>
-      <c r="AC49" s="35">
+      <c r="AC66" s="35">
         <f>[1]Demands!R59</f>
         <v>0.70533422841274862</v>
       </c>
-      <c r="AD49" s="35">
+      <c r="AD66" s="35">
         <f>[1]Demands!S59</f>
         <v>0.78717070970762593</v>
       </c>
-      <c r="AE49" s="35">
+      <c r="AE66" s="35">
         <f>[1]Demands!T59</f>
         <v>0.77916775606401434</v>
       </c>
-      <c r="AF49" s="35">
+      <c r="AF66" s="35">
         <f>[1]Demands!U59</f>
         <v>0.80467495581567261</v>
       </c>
-      <c r="AG49" s="35">
+      <c r="AG66" s="35">
         <f>[1]Demands!V59</f>
         <v>0.74505854970828844</v>
       </c>
-      <c r="AH49" s="35">
+      <c r="AH66" s="35">
         <f>[1]Demands!W59</f>
         <v>0.79514890678426453</v>
       </c>
-      <c r="AI49" s="35">
+      <c r="AI66" s="35">
         <f>[1]Demands!X59</f>
         <v>0.73736495113760858</v>
       </c>
-      <c r="AJ49" s="35">
+      <c r="AJ66" s="35">
         <f>[1]Demands!Y59</f>
         <v>0.81853938082108479</v>
       </c>
-      <c r="AK49" s="35">
+      <c r="AK66" s="35">
         <f>[1]Demands!Z59</f>
         <v>0.77998817627338324</v>
       </c>
-      <c r="AL49" s="35">
+      <c r="AL66" s="35">
         <f>[1]Demands!AA59</f>
         <v>0.85154985463859412</v>
       </c>
-      <c r="AM49" s="35">
+      <c r="AM66" s="35">
         <f>[1]Demands!AB59</f>
         <v>0.88006272796227247</v>
       </c>
-      <c r="AN49" s="35">
+      <c r="AN66" s="35">
         <f>[1]Demands!AC59</f>
         <v>0.64231184378282558</v>
       </c>
-      <c r="AO49" s="35">
+      <c r="AO66" s="35">
         <f>[1]Demands!AD63</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C50" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34" t="str">
-        <f t="shared" si="6"/>
+    <row r="67" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>69</v>
+      </c>
+      <c r="L67" s="34"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35"/>
+      <c r="S67" s="35"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="35"/>
+      <c r="V67" s="35"/>
+      <c r="W67" s="35"/>
+      <c r="X67" s="35"/>
+      <c r="Y67" s="35"/>
+      <c r="Z67" s="35"/>
+      <c r="AA67" s="35"/>
+      <c r="AB67" s="35"/>
+      <c r="AC67" s="35"/>
+      <c r="AD67" s="35"/>
+      <c r="AE67" s="35"/>
+      <c r="AF67" s="35"/>
+      <c r="AG67" s="35"/>
+      <c r="AH67" s="35"/>
+      <c r="AI67" s="35"/>
+      <c r="AJ67" s="35"/>
+      <c r="AK67" s="35"/>
+      <c r="AL67" s="35"/>
+      <c r="AM67" s="35"/>
+      <c r="AN67" s="35"/>
+      <c r="AO67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C68" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34" t="str">
+        <f>H66</f>
         <v>TRAPL</v>
       </c>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34">
+      <c r="I68" s="34"/>
+      <c r="J68">
         <v>2018</v>
       </c>
-      <c r="K50" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="L50" s="34">
+      <c r="K68" t="s">
+        <v>69</v>
+      </c>
+      <c r="L68" s="34">
         <v>-1</v>
       </c>
-      <c r="M50" s="34" t="str">
-        <f t="shared" si="5"/>
+      <c r="M68" s="34" t="str">
+        <f>M43</f>
         <v>Taxis</v>
       </c>
-      <c r="N50" s="35">
+      <c r="N68" s="35">
         <f>[1]Demands!C60</f>
         <v>1.214216695359136E-2</v>
       </c>
-      <c r="O50" s="35">
+      <c r="O68" s="35">
         <f>[1]Demands!D60</f>
         <v>5.244564356444866E-3</v>
       </c>
-      <c r="P50" s="35">
+      <c r="P68" s="35">
         <f>[1]Demands!E60</f>
         <v>2.5318479036608464E-2</v>
       </c>
-      <c r="Q50" s="35">
+      <c r="Q68" s="35">
         <f>[1]Demands!F60</f>
         <v>1.0199545943263343E-2</v>
       </c>
-      <c r="R50" s="35">
+      <c r="R68" s="35">
         <f>[1]Demands!G60</f>
         <v>5.4465670112681473E-3</v>
       </c>
-      <c r="S50" s="35">
+      <c r="S68" s="35">
         <f>[1]Demands!H60</f>
         <v>7.3305854058422536E-3</v>
       </c>
-      <c r="T50" s="35">
+      <c r="T68" s="35">
         <f>[1]Demands!I60</f>
         <v>6.327365203104513E-3</v>
       </c>
-      <c r="U50" s="35">
+      <c r="U68" s="35">
         <f>[1]Demands!J60</f>
         <v>1.4553702960433654E-2</v>
       </c>
-      <c r="V50" s="35">
+      <c r="V68" s="35">
         <f>[1]Demands!K60</f>
         <v>1.4378136289327563E-2</v>
       </c>
-      <c r="W50" s="35">
+      <c r="W68" s="35">
         <f>[1]Demands!L60</f>
         <v>4.7655125577413509E-3</v>
       </c>
-      <c r="X50" s="35">
+      <c r="X68" s="35">
         <f>[1]Demands!M60</f>
         <v>8.6002260738130814E-3</v>
       </c>
-      <c r="Y50" s="35">
+      <c r="Y68" s="35">
         <f>[1]Demands!N60</f>
         <v>4.4354589246647135E-3</v>
       </c>
-      <c r="Z50" s="35">
+      <c r="Z68" s="35">
         <f>[1]Demands!O60</f>
         <v>6.592434448494537E-3</v>
       </c>
-      <c r="AA50" s="35">
+      <c r="AA68" s="35">
         <f>[1]Demands!P60</f>
         <v>7.3526877521562662E-3</v>
       </c>
-      <c r="AB50" s="35">
+      <c r="AB68" s="35">
         <f>[1]Demands!Q60</f>
         <v>9.0159384819168999E-3</v>
       </c>
-      <c r="AC50" s="35">
+      <c r="AC68" s="35">
         <f>[1]Demands!R60</f>
         <v>6.9712334769449829E-3</v>
       </c>
-      <c r="AD50" s="35">
+      <c r="AD68" s="35">
         <f>[1]Demands!S60</f>
         <v>9.4394919428535985E-3</v>
       </c>
-      <c r="AE50" s="35">
+      <c r="AE68" s="35">
         <f>[1]Demands!T60</f>
         <v>3.6138078846859318E-3</v>
       </c>
-      <c r="AF50" s="35">
+      <c r="AF68" s="35">
         <f>[1]Demands!U60</f>
         <v>6.3123502546919919E-3</v>
       </c>
-      <c r="AG50" s="35">
+      <c r="AG68" s="35">
         <f>[1]Demands!V60</f>
         <v>9.5979099500525071E-3</v>
       </c>
-      <c r="AH50" s="35">
+      <c r="AH68" s="35">
         <f>[1]Demands!W60</f>
         <v>5.8735122381989901E-3</v>
       </c>
-      <c r="AI50" s="35">
+      <c r="AI68" s="35">
         <f>[1]Demands!X60</f>
         <v>5.0103707288089395E-3</v>
       </c>
-      <c r="AJ50" s="35">
+      <c r="AJ68" s="35">
         <f>[1]Demands!Y60</f>
         <v>4.3449135578945168E-3</v>
       </c>
-      <c r="AK50" s="35">
+      <c r="AK68" s="35">
         <f>[1]Demands!Z60</f>
         <v>6.2553697184935773E-3</v>
       </c>
-      <c r="AL50" s="35">
+      <c r="AL68" s="35">
         <f>[1]Demands!AA60</f>
         <v>6.8237115745591239E-3</v>
       </c>
-      <c r="AM50" s="35">
+      <c r="AM68" s="35">
         <f>[1]Demands!AB60</f>
         <v>7.9379260453763534E-3</v>
       </c>
-      <c r="AN50" s="35">
+      <c r="AN68" s="35">
         <f>[1]Demands!AC60</f>
         <v>2.7483693665086213E-3</v>
       </c>
-      <c r="AO50" s="35">
+      <c r="AO68" s="35">
         <f>[1]Demands!AD64</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C51" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34" t="str">
+    <row r="69" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>69</v>
+      </c>
+      <c r="L69" s="34"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="35"/>
+      <c r="V69" s="35"/>
+      <c r="W69" s="35"/>
+      <c r="X69" s="35"/>
+      <c r="Y69" s="35"/>
+      <c r="Z69" s="35"/>
+      <c r="AA69" s="35"/>
+      <c r="AB69" s="35"/>
+      <c r="AC69" s="35"/>
+      <c r="AD69" s="35"/>
+      <c r="AE69" s="35"/>
+      <c r="AF69" s="35"/>
+      <c r="AG69" s="35"/>
+      <c r="AH69" s="35"/>
+      <c r="AI69" s="35"/>
+      <c r="AJ69" s="35"/>
+      <c r="AK69" s="35"/>
+      <c r="AL69" s="35"/>
+      <c r="AM69" s="35"/>
+      <c r="AN69" s="35"/>
+      <c r="AO69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C70" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34" t="str">
         <f>[1]Commodities!$K$27</f>
         <v>TBUS_ICE_DST_00</v>
       </c>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34" t="str">
-        <f t="shared" si="6"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34" t="str">
+        <f>H68</f>
         <v>TRAPL</v>
       </c>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34">
+      <c r="I70" s="34"/>
+      <c r="J70">
         <v>2018</v>
       </c>
-      <c r="K51" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="L51" s="34">
+      <c r="K70" t="s">
+        <v>69</v>
+      </c>
+      <c r="L70" s="34">
         <v>-1</v>
       </c>
-      <c r="M51" s="34" t="str">
-        <f t="shared" si="5"/>
+      <c r="M70" s="34" t="str">
+        <f>M45</f>
         <v>BUS</v>
       </c>
-      <c r="N51" s="35">
+      <c r="N70" s="35">
         <f>[1]Demands!C61</f>
         <v>0.1626965950818042</v>
       </c>
-      <c r="O51" s="35">
+      <c r="O70" s="35">
         <f>[1]Demands!D61</f>
         <v>0.13109626623170204</v>
       </c>
-      <c r="P51" s="35">
+      <c r="P70" s="35">
         <f>[1]Demands!E61</f>
         <v>0.23916819504950479</v>
       </c>
-      <c r="Q51" s="35">
+      <c r="Q70" s="35">
         <f>[1]Demands!F61</f>
         <v>0.15479346868381608</v>
       </c>
-      <c r="R51" s="35">
+      <c r="R70" s="35">
         <f>[1]Demands!G61</f>
         <v>0.20800029152740038</v>
       </c>
-      <c r="S51" s="35">
+      <c r="S70" s="35">
         <f>[1]Demands!H61</f>
         <v>0.12724978858051844</v>
       </c>
-      <c r="T51" s="35">
+      <c r="T70" s="35">
         <f>[1]Demands!I61</f>
         <v>0.14827744084788594</v>
       </c>
-      <c r="U51" s="35">
+      <c r="U70" s="35">
         <f>[1]Demands!J61</f>
         <v>0.14551722418000443</v>
       </c>
-      <c r="V51" s="35">
+      <c r="V70" s="35">
         <f>[1]Demands!K61</f>
         <v>0.11766218454461841</v>
       </c>
-      <c r="W51" s="35">
+      <c r="W70" s="35">
         <f>[1]Demands!L61</f>
         <v>0.17371900154534914</v>
       </c>
-      <c r="X51" s="35">
+      <c r="X70" s="35">
         <f>[1]Demands!M61</f>
         <v>0.11196687123703571</v>
       </c>
-      <c r="Y51" s="35">
+      <c r="Y70" s="35">
         <f>[1]Demands!N61</f>
         <v>0.12599020808803368</v>
       </c>
-      <c r="Z51" s="35">
+      <c r="Z70" s="35">
         <f>[1]Demands!O61</f>
         <v>0.13241927644257739</v>
       </c>
-      <c r="AA51" s="35">
+      <c r="AA70" s="35">
         <f>[1]Demands!P61</f>
         <v>0.11487011188674058</v>
       </c>
-      <c r="AB51" s="35">
+      <c r="AB70" s="35">
         <f>[1]Demands!Q61</f>
         <v>0.11670831913312733</v>
       </c>
-      <c r="AC51" s="35">
+      <c r="AC70" s="35">
         <f>[1]Demands!R61</f>
         <v>0.2178213998684824</v>
       </c>
-      <c r="AD51" s="35">
+      <c r="AD70" s="35">
         <f>[1]Demands!S61</f>
         <v>0.12016236232976817</v>
       </c>
-      <c r="AE51" s="35">
+      <c r="AE70" s="35">
         <f>[1]Demands!T61</f>
         <v>0.14679096653005977</v>
       </c>
-      <c r="AF51" s="35">
+      <c r="AF70" s="35">
         <f>[1]Demands!U61</f>
         <v>0.10758223700696061</v>
       </c>
-      <c r="AG51" s="35">
+      <c r="AG70" s="35">
         <f>[1]Demands!V61</f>
         <v>0.1657308225029282</v>
       </c>
-      <c r="AH51" s="35">
+      <c r="AH70" s="35">
         <f>[1]Demands!W61</f>
         <v>0.12234818626194599</v>
       </c>
-      <c r="AI51" s="35">
+      <c r="AI70" s="35">
         <f>[1]Demands!X61</f>
         <v>0.18501691930313938</v>
       </c>
-      <c r="AJ51" s="35">
+      <c r="AJ70" s="35">
         <f>[1]Demands!Y61</f>
         <v>0.10860805699514527</v>
       </c>
-      <c r="AK51" s="35">
+      <c r="AK70" s="35">
         <f>[1]Demands!Z61</f>
         <v>0.13030246782805119</v>
       </c>
-      <c r="AL51" s="35">
+      <c r="AL70" s="35">
         <f>[1]Demands!AA61</f>
         <v>5.0925275195199252E-2</v>
       </c>
-      <c r="AM51" s="35">
+      <c r="AM70" s="35">
         <f>[1]Demands!AB61</f>
         <v>9.1008381034736394E-3</v>
       </c>
-      <c r="AN51" s="35">
+      <c r="AN70" s="35">
         <f>[1]Demands!AC61</f>
         <v>0.28624951607603277</v>
       </c>
-      <c r="AO51" s="35">
+      <c r="AO70" s="35">
         <f>[1]Demands!AD65</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C52" t="s">
-        <v>94</v>
-      </c>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34" t="str">
+    <row r="71" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71" t="s">
+        <v>69</v>
+      </c>
+      <c r="L71" s="34"/>
+      <c r="M71" s="34"/>
+      <c r="N71" s="35"/>
+      <c r="O71" s="35"/>
+      <c r="P71" s="35"/>
+      <c r="Q71" s="35"/>
+      <c r="R71" s="35"/>
+      <c r="S71" s="35"/>
+      <c r="T71" s="35"/>
+      <c r="U71" s="35"/>
+      <c r="V71" s="35"/>
+      <c r="W71" s="35"/>
+      <c r="X71" s="35"/>
+      <c r="Y71" s="35"/>
+      <c r="Z71" s="35"/>
+      <c r="AA71" s="35"/>
+      <c r="AB71" s="35"/>
+      <c r="AC71" s="35"/>
+      <c r="AD71" s="35"/>
+      <c r="AE71" s="35"/>
+      <c r="AF71" s="35"/>
+      <c r="AG71" s="35"/>
+      <c r="AH71" s="35"/>
+      <c r="AI71" s="35"/>
+      <c r="AJ71" s="35"/>
+      <c r="AK71" s="35"/>
+      <c r="AL71" s="35"/>
+      <c r="AM71" s="35"/>
+      <c r="AN71" s="35"/>
+      <c r="AO71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>93</v>
+      </c>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34" t="str">
         <f>[1]Commodities!$K$29</f>
         <v>TLRAIL_ELC_00</v>
       </c>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34" t="str">
-        <f t="shared" si="6"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34" t="str">
+        <f>H70</f>
         <v>TRAPL</v>
       </c>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34">
+      <c r="I72" s="34"/>
+      <c r="J72">
         <v>2018</v>
       </c>
-      <c r="K52" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="L52" s="34">
+      <c r="K72" t="s">
+        <v>69</v>
+      </c>
+      <c r="L72" s="34">
         <v>-1</v>
       </c>
-      <c r="M52" s="34" t="str">
-        <f t="shared" si="5"/>
+      <c r="M72" s="34" t="str">
+        <f>M47</f>
         <v>Light rail (LUAS)</v>
       </c>
-      <c r="N52" s="35">
+      <c r="N72" s="35">
         <f>[1]Demands!C62</f>
         <v>0</v>
       </c>
-      <c r="O52" s="35">
+      <c r="O72" s="35">
         <f>[1]Demands!D62</f>
         <v>0</v>
       </c>
-      <c r="P52" s="35">
+      <c r="P72" s="35">
         <f>[1]Demands!E62</f>
         <v>0</v>
       </c>
-      <c r="Q52" s="35">
+      <c r="Q72" s="35">
         <f>[1]Demands!F62</f>
         <v>0</v>
       </c>
-      <c r="R52" s="35">
+      <c r="R72" s="35">
         <f>[1]Demands!G62</f>
         <v>0</v>
       </c>
-      <c r="S52" s="35">
+      <c r="S72" s="35">
         <f>[1]Demands!H62</f>
         <v>0</v>
       </c>
-      <c r="T52" s="35">
+      <c r="T72" s="35">
         <f>[1]Demands!I62</f>
         <v>0</v>
       </c>
-      <c r="U52" s="35">
+      <c r="U72" s="35">
         <f>[1]Demands!J62</f>
         <v>0</v>
       </c>
-      <c r="V52" s="35">
+      <c r="V72" s="35">
         <f>[1]Demands!K62</f>
         <v>0</v>
       </c>
-      <c r="W52" s="35">
+      <c r="W72" s="35">
         <f>[1]Demands!L62</f>
         <v>0</v>
       </c>
-      <c r="X52" s="35">
+      <c r="X72" s="35">
         <f>[1]Demands!M62</f>
         <v>0</v>
       </c>
-      <c r="Y52" s="35">
+      <c r="Y72" s="35">
         <f>[1]Demands!N62</f>
         <v>0</v>
       </c>
-      <c r="Z52" s="35">
+      <c r="Z72" s="35">
         <f>[1]Demands!O62</f>
         <v>0</v>
       </c>
-      <c r="AA52" s="35">
+      <c r="AA72" s="35">
         <f>[1]Demands!P62</f>
         <v>0</v>
       </c>
-      <c r="AB52" s="35">
+      <c r="AB72" s="35">
         <f>[1]Demands!Q62</f>
         <v>0</v>
       </c>
-      <c r="AC52" s="35">
+      <c r="AC72" s="35">
         <f>[1]Demands!R62</f>
         <v>0</v>
       </c>
-      <c r="AD52" s="35">
+      <c r="AD72" s="35">
         <f>[1]Demands!S62</f>
         <v>0</v>
       </c>
-      <c r="AE52" s="35">
+      <c r="AE72" s="35">
         <f>[1]Demands!T62</f>
         <v>0</v>
       </c>
-      <c r="AF52" s="35">
+      <c r="AF72" s="35">
         <f>[1]Demands!U62</f>
         <v>0</v>
       </c>
-      <c r="AG52" s="35">
+      <c r="AG72" s="35">
         <f>[1]Demands!V62</f>
         <v>0</v>
       </c>
-      <c r="AH52" s="35">
+      <c r="AH72" s="35">
         <f>[1]Demands!W62</f>
         <v>0</v>
       </c>
-      <c r="AI52" s="35">
+      <c r="AI72" s="35">
         <f>[1]Demands!X62</f>
         <v>0</v>
       </c>
-      <c r="AJ52" s="35">
+      <c r="AJ72" s="35">
         <f>[1]Demands!Y62</f>
         <v>0</v>
       </c>
-      <c r="AK52" s="35">
+      <c r="AK72" s="35">
         <f>[1]Demands!Z62</f>
         <v>0</v>
       </c>
-      <c r="AL52" s="35">
+      <c r="AL72" s="35">
         <f>[1]Demands!AA62</f>
         <v>0</v>
       </c>
-      <c r="AM52" s="35">
+      <c r="AM72" s="35">
         <f>[1]Demands!AB62</f>
         <v>0</v>
       </c>
-      <c r="AN52" s="35">
+      <c r="AN72" s="35">
         <f>[1]Demands!AC62</f>
         <v>0</v>
       </c>
-      <c r="AO52" s="35">
+      <c r="AO72" s="35">
         <f>[1]Demands!AD66</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C53" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32" t="str">
-        <f t="shared" si="6"/>
+    <row r="73" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>69</v>
+      </c>
+      <c r="L73" s="34"/>
+      <c r="M73" s="34"/>
+      <c r="N73" s="35"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="35"/>
+      <c r="Q73" s="35"/>
+      <c r="R73" s="35"/>
+      <c r="S73" s="35"/>
+      <c r="T73" s="35"/>
+      <c r="U73" s="35"/>
+      <c r="V73" s="35"/>
+      <c r="W73" s="35"/>
+      <c r="X73" s="35"/>
+      <c r="Y73" s="35"/>
+      <c r="Z73" s="35"/>
+      <c r="AA73" s="35"/>
+      <c r="AB73" s="35"/>
+      <c r="AC73" s="35"/>
+      <c r="AD73" s="35"/>
+      <c r="AE73" s="35"/>
+      <c r="AF73" s="35"/>
+      <c r="AG73" s="35"/>
+      <c r="AH73" s="35"/>
+      <c r="AI73" s="35"/>
+      <c r="AJ73" s="35"/>
+      <c r="AK73" s="35"/>
+      <c r="AL73" s="35"/>
+      <c r="AM73" s="35"/>
+      <c r="AN73" s="35"/>
+      <c r="AO73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C74" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32" t="str">
+        <f t="shared" ref="H74" si="5">H72</f>
         <v>TRAPL</v>
       </c>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32">
+      <c r="I74" s="32"/>
+      <c r="J74" s="32">
         <v>2018</v>
       </c>
-      <c r="K53" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="L53" s="32">
+      <c r="K74" t="s">
+        <v>69</v>
+      </c>
+      <c r="L74" s="32">
         <v>-1</v>
       </c>
-      <c r="M53" s="32" t="str">
-        <f t="shared" si="5"/>
+      <c r="M74" s="32" t="str">
+        <f t="shared" ref="M74" si="6">M49</f>
         <v>Train</v>
       </c>
-      <c r="N53" s="33">
+      <c r="N74" s="33">
         <f>[1]Demands!C63</f>
         <v>8.4074838493522847E-2</v>
       </c>
-      <c r="O53" s="33">
+      <c r="O74" s="33">
         <f>[1]Demands!D63</f>
         <v>7.2940360290157685E-2</v>
       </c>
-      <c r="P53" s="33">
+      <c r="P74" s="33">
         <f>[1]Demands!E63</f>
         <v>9.6900168790040125E-2</v>
       </c>
-      <c r="Q53" s="33">
+      <c r="Q74" s="33">
         <f>[1]Demands!F63</f>
         <v>7.91995412085085E-2</v>
       </c>
-      <c r="R53" s="33">
+      <c r="R74" s="33">
         <f>[1]Demands!G63</f>
         <v>7.3350678459075919E-2</v>
       </c>
-      <c r="S53" s="33">
+      <c r="S74" s="33">
         <f>[1]Demands!H63</f>
         <v>8.426286570298451E-2</v>
       </c>
-      <c r="T53" s="33">
+      <c r="T74" s="33">
         <f>[1]Demands!I63</f>
         <v>7.8971697728025606E-2</v>
       </c>
-      <c r="U53" s="33">
+      <c r="U74" s="33">
         <f>[1]Demands!J63</f>
         <v>9.1644108987707917E-2</v>
       </c>
-      <c r="V53" s="33">
+      <c r="V74" s="33">
         <f>[1]Demands!K63</f>
         <v>8.1556381609468237E-2</v>
       </c>
-      <c r="W53" s="33">
+      <c r="W74" s="33">
         <f>[1]Demands!L63</f>
         <v>7.5632388860092645E-2</v>
       </c>
-      <c r="X53" s="33">
+      <c r="X74" s="33">
         <f>[1]Demands!M63</f>
         <v>7.7708207344464181E-2</v>
       </c>
-      <c r="Y53" s="33">
+      <c r="Y74" s="33">
         <f>[1]Demands!N63</f>
         <v>7.3740069944264783E-2</v>
       </c>
-      <c r="Z53" s="33">
+      <c r="Z74" s="33">
         <f>[1]Demands!O63</f>
         <v>8.1917381458864319E-2</v>
       </c>
-      <c r="AA53" s="33">
+      <c r="AA74" s="33">
         <f>[1]Demands!P63</f>
         <v>7.6219960425357156E-2</v>
       </c>
-      <c r="AB53" s="33">
+      <c r="AB74" s="33">
         <f>[1]Demands!Q63</f>
         <v>8.5404192532583911E-2</v>
       </c>
-      <c r="AC53" s="33">
+      <c r="AC74" s="33">
         <f>[1]Demands!R63</f>
         <v>6.987313824182402E-2</v>
       </c>
-      <c r="AD53" s="33">
+      <c r="AD74" s="33">
         <f>[1]Demands!S63</f>
         <v>8.3227436019752521E-2</v>
       </c>
-      <c r="AE53" s="33">
+      <c r="AE74" s="33">
         <f>[1]Demands!T63</f>
         <v>7.0427469521239974E-2</v>
       </c>
-      <c r="AF53" s="33">
+      <c r="AF74" s="33">
         <f>[1]Demands!U63</f>
         <v>8.1430456922674907E-2</v>
       </c>
-      <c r="AG53" s="33">
+      <c r="AG74" s="33">
         <f>[1]Demands!V63</f>
         <v>7.9612717838730945E-2</v>
       </c>
-      <c r="AH53" s="33">
+      <c r="AH74" s="33">
         <f>[1]Demands!W63</f>
         <v>7.6629394715590618E-2</v>
       </c>
-      <c r="AI53" s="33">
+      <c r="AI74" s="33">
         <f>[1]Demands!X63</f>
         <v>7.2607758830443E-2</v>
       </c>
-      <c r="AJ53" s="33">
+      <c r="AJ74" s="33">
         <f>[1]Demands!Y63</f>
         <v>6.8507648625875522E-2</v>
       </c>
-      <c r="AK53" s="33">
+      <c r="AK74" s="33">
         <f>[1]Demands!Z63</f>
         <v>8.3453986180072076E-2</v>
       </c>
-      <c r="AL53" s="33">
+      <c r="AL74" s="33">
         <f>[1]Demands!AA63</f>
         <v>9.070115859164736E-2</v>
       </c>
-      <c r="AM53" s="33">
+      <c r="AM74" s="33">
         <f>[1]Demands!AB63</f>
         <v>0.10289850788887757</v>
       </c>
-      <c r="AN53" s="33">
+      <c r="AN74" s="33">
         <f>[1]Demands!AC63</f>
         <v>6.8690270774633036E-2</v>
       </c>
-      <c r="AO53" s="33">
+      <c r="AO74" s="33">
         <f>[1]Demands!AD67</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="J75" s="36">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO75">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -8183,33 +9075,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -8267,33 +9159,33 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -8349,32 +9241,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -8432,12 +9324,12 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>16</v>
       </c>
@@ -8472,7 +9364,7 @@
       <c r="AF2" s="15"/>
       <c r="AG2" s="15"/>
     </row>
-    <row r="3" spans="2:33" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
         <v>17</v>
       </c>
@@ -8597,7 +9489,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15" t="s">
@@ -8718,7 +9610,7 @@
         <v>0.20769618859639608</v>
       </c>
     </row>
-    <row r="5" spans="2:33" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15" t="s">
@@ -8839,7 +9731,7 @@
         <v>0.2284658074560357</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
@@ -8960,7 +9852,7 @@
         <v>0.47664625412085693</v>
       </c>
     </row>
-    <row r="7" spans="2:33" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
@@ -9081,7 +9973,7 @@
         <v>0.52431087953294264</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
@@ -9202,7 +10094,7 @@
         <v>0.42809298937083867</v>
       </c>
     </row>
-    <row r="9" spans="2:33" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22" t="s">
@@ -9323,29 +10215,29 @@
         <v>0.47090228830792258</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
         <v>64</v>
       </c>
@@ -9356,7 +10248,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
         <v>65</v>
       </c>
@@ -9367,7 +10259,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
         <v>66</v>
       </c>
@@ -9378,7 +10270,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
         <v>67</v>
       </c>
@@ -9389,137 +10281,137 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D38" s="15"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D39" s="15"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D40" s="15"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D41" s="15"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D42" s="15"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D43" s="15"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D44" s="15"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D45" s="15"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D46" s="15"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D47" s="15"/>
     </row>
-    <row r="52" spans="5:33" x14ac:dyDescent="0.45">
+    <row r="52" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
@@ -9550,7 +10442,7 @@
       <c r="AF52" s="15"/>
       <c r="AG52" s="15"/>
     </row>
-    <row r="53" spans="5:33" x14ac:dyDescent="0.45">
+    <row r="53" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
@@ -9581,7 +10473,7 @@
       <c r="AF53" s="15"/>
       <c r="AG53" s="15"/>
     </row>
-    <row r="54" spans="5:33" x14ac:dyDescent="0.45">
+    <row r="54" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
@@ -9612,7 +10504,7 @@
       <c r="AF54" s="15"/>
       <c r="AG54" s="15"/>
     </row>
-    <row r="55" spans="5:33" x14ac:dyDescent="0.45">
+    <row r="55" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
@@ -9643,7 +10535,7 @@
       <c r="AF55" s="15"/>
       <c r="AG55" s="15"/>
     </row>
-    <row r="56" spans="5:33" x14ac:dyDescent="0.45">
+    <row r="56" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
@@ -9674,7 +10566,7 @@
       <c r="AF56" s="15"/>
       <c r="AG56" s="15"/>
     </row>
-    <row r="57" spans="5:33" x14ac:dyDescent="0.45">
+    <row r="57" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
@@ -9705,7 +10597,7 @@
       <c r="AF57" s="15"/>
       <c r="AG57" s="15"/>
     </row>
-    <row r="58" spans="5:33" x14ac:dyDescent="0.45">
+    <row r="58" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
@@ -9736,7 +10628,7 @@
       <c r="AF58" s="15"/>
       <c r="AG58" s="15"/>
     </row>
-    <row r="59" spans="5:33" x14ac:dyDescent="0.45">
+    <row r="59" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
@@ -9767,7 +10659,7 @@
       <c r="AF59" s="15"/>
       <c r="AG59" s="15"/>
     </row>
-    <row r="60" spans="5:33" x14ac:dyDescent="0.45">
+    <row r="60" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
@@ -9798,7 +10690,7 @@
       <c r="AF60" s="15"/>
       <c r="AG60" s="15"/>
     </row>
-    <row r="61" spans="5:33" x14ac:dyDescent="0.45">
+    <row r="61" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -9829,7 +10721,7 @@
       <c r="AF61" s="15"/>
       <c r="AG61" s="15"/>
     </row>
-    <row r="62" spans="5:33" x14ac:dyDescent="0.45">
+    <row r="62" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
@@ -9860,7 +10752,7 @@
       <c r="AF62" s="15"/>
       <c r="AG62" s="15"/>
     </row>
-    <row r="63" spans="5:33" x14ac:dyDescent="0.45">
+    <row r="63" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>

--- a/SuppXLS/Scen_TRA_Demand.xlsx
+++ b/SuppXLS/Scen_TRA_Demand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F677EC0-8A04-4B6B-9F7E-6E7A055D23D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C5E2BF-C85F-4397-BB55-3378C24B954A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="96">
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
@@ -4299,8 +4299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B6:AO75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM7" sqref="AM7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4831,8 +4831,8 @@
         <v>74</v>
       </c>
       <c r="E15" t="str">
-        <f>[1]Commodities!$K$11</f>
-        <v>TMOT_GSL_00</v>
+        <f>LEFT([1]Commodities!$K$11,4)&amp;"*"</f>
+        <v>TMOT*</v>
       </c>
       <c r="H15" t="str">
         <f>H13</f>
@@ -5354,8 +5354,8 @@
         <v>77</v>
       </c>
       <c r="E21" t="str">
-        <f>[1]Commodities!$K$27</f>
-        <v>TBUS_ICE_DST_00</v>
+        <f>LEFT([1]Commodities!$K$27,4)&amp;"*"</f>
+        <v>TBUS*</v>
       </c>
       <c r="H21" t="str">
         <f>H19</f>
@@ -5529,8 +5529,8 @@
         <v>93</v>
       </c>
       <c r="E23" t="str">
-        <f>[1]Commodities!$K$29</f>
-        <v>TLRAIL_ELC_00</v>
+        <f>LEFT([1]Commodities!$K$29,5)&amp;"*"</f>
+        <v>TLRAI*</v>
       </c>
       <c r="H23" t="str">
         <f>H21</f>
@@ -6019,7 +6019,7 @@
         <v>79</v>
       </c>
       <c r="E35" t="str">
-        <f>[1]Commodities!$K$8</f>
+        <f>E11</f>
         <v>TWLK_WLK</v>
       </c>
       <c r="H35" t="str">
@@ -6195,7 +6195,7 @@
         <v>80</v>
       </c>
       <c r="E37" t="str">
-        <f>[1]Commodities!$K$9</f>
+        <f t="shared" ref="E36:E49" si="2">E13</f>
         <v>TCYC_CYC</v>
       </c>
       <c r="H37" t="str">
@@ -6371,8 +6371,8 @@
         <v>81</v>
       </c>
       <c r="E39" t="str">
-        <f>[1]Commodities!$K$11</f>
-        <v>TMOT_GSL_00</v>
+        <f t="shared" si="2"/>
+        <v>TMOT*</v>
       </c>
       <c r="H39" t="str">
         <f>H37</f>
@@ -6546,8 +6546,9 @@
       <c r="C41" t="s">
         <v>82</v>
       </c>
-      <c r="E41" t="s">
-        <v>70</v>
+      <c r="E41" t="str">
+        <f t="shared" si="2"/>
+        <v>TCAR*</v>
       </c>
       <c r="H41" t="str">
         <f>H39</f>
@@ -6721,8 +6722,9 @@
       <c r="C43" t="s">
         <v>83</v>
       </c>
-      <c r="E43" t="s">
-        <v>71</v>
+      <c r="E43" t="str">
+        <f t="shared" si="2"/>
+        <v>TTAXI*</v>
       </c>
       <c r="H43" t="str">
         <f>H41</f>
@@ -6897,8 +6899,8 @@
         <v>84</v>
       </c>
       <c r="E45" t="str">
-        <f>[1]Commodities!$K$27</f>
-        <v>TBUS_ICE_DST_00</v>
+        <f t="shared" si="2"/>
+        <v>TBUS*</v>
       </c>
       <c r="H45" t="str">
         <f>H43</f>
@@ -7073,8 +7075,8 @@
         <v>93</v>
       </c>
       <c r="E47" t="str">
-        <f>[1]Commodities!$K$29</f>
-        <v>TLRAIL_ELC_00</v>
+        <f t="shared" si="2"/>
+        <v>TLRAI*</v>
       </c>
       <c r="H47" t="str">
         <f>H45</f>
@@ -7249,13 +7251,14 @@
         <v>85</v>
       </c>
       <c r="D49" s="32"/>
-      <c r="E49" s="32" t="s">
-        <v>72</v>
+      <c r="E49" t="str">
+        <f t="shared" si="2"/>
+        <v>THRAIL*</v>
       </c>
       <c r="F49" s="32"/>
       <c r="G49" s="32"/>
       <c r="H49" s="32" t="str">
-        <f t="shared" ref="H49" si="2">H47</f>
+        <f t="shared" ref="H49" si="3">H47</f>
         <v>TRAPM</v>
       </c>
       <c r="I49" s="32"/>
@@ -7269,7 +7272,7 @@
         <v>-1</v>
       </c>
       <c r="M49" s="32" t="str">
-        <f t="shared" ref="M49" si="3">M25</f>
+        <f t="shared" ref="M49" si="4">M25</f>
         <v>Train</v>
       </c>
       <c r="N49" s="33">
@@ -7484,107 +7487,107 @@
         <v>*National</v>
       </c>
       <c r="O59" s="5" t="str">
-        <f t="shared" ref="O59:AN59" si="4">O34</f>
+        <f t="shared" ref="O59:AN59" si="5">O34</f>
         <v>IE-CW</v>
       </c>
       <c r="P59" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IE-D</v>
       </c>
       <c r="Q59" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IE-KE</v>
       </c>
       <c r="R59" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IE-KK</v>
       </c>
       <c r="S59" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IE-LS</v>
       </c>
       <c r="T59" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IE-LD</v>
       </c>
       <c r="U59" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IE-LH</v>
       </c>
       <c r="V59" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IE-MH</v>
       </c>
       <c r="W59" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IE-OY</v>
       </c>
       <c r="X59" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IE-WH</v>
       </c>
       <c r="Y59" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IE-WX</v>
       </c>
       <c r="Z59" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IE-WW</v>
       </c>
       <c r="AA59" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IE-CE</v>
       </c>
       <c r="AB59" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IE-CO</v>
       </c>
       <c r="AC59" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IE-KY</v>
       </c>
       <c r="AD59" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IE-LK</v>
       </c>
       <c r="AE59" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IE-TA</v>
       </c>
       <c r="AF59" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IE-WD</v>
       </c>
       <c r="AG59" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IE-G</v>
       </c>
       <c r="AH59" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IE-LM</v>
       </c>
       <c r="AI59" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IE-MO</v>
       </c>
       <c r="AJ59" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IE-RN</v>
       </c>
       <c r="AK59" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IE-SO</v>
       </c>
       <c r="AL59" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IE-CN</v>
       </c>
       <c r="AM59" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IE-DL</v>
       </c>
       <c r="AN59" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IE-MN</v>
       </c>
       <c r="AO59" s="5" t="s">
@@ -7597,7 +7600,7 @@
       </c>
       <c r="D60" s="34"/>
       <c r="E60" s="34" t="str">
-        <f>[1]Commodities!$K$8</f>
+        <f>E35</f>
         <v>TWLK_WLK</v>
       </c>
       <c r="F60" s="34"/>
@@ -7786,7 +7789,7 @@
       </c>
       <c r="D62" s="34"/>
       <c r="E62" s="34" t="str">
-        <f>[1]Commodities!$K$9</f>
+        <f t="shared" ref="E61:E74" si="6">E37</f>
         <v>TCYC_CYC</v>
       </c>
       <c r="F62" s="34"/>
@@ -7975,8 +7978,8 @@
       </c>
       <c r="D64" s="34"/>
       <c r="E64" s="34" t="str">
-        <f>[1]Commodities!$K$11</f>
-        <v>TMOT_GSL_00</v>
+        <f t="shared" si="6"/>
+        <v>TMOT*</v>
       </c>
       <c r="F64" s="34"/>
       <c r="G64" s="34"/>
@@ -8163,8 +8166,9 @@
         <v>89</v>
       </c>
       <c r="D66" s="34"/>
-      <c r="E66" s="34" t="s">
-        <v>70</v>
+      <c r="E66" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v>TCAR*</v>
       </c>
       <c r="F66" s="34"/>
       <c r="G66" s="34"/>
@@ -8351,8 +8355,9 @@
         <v>90</v>
       </c>
       <c r="D68" s="34"/>
-      <c r="E68" s="34" t="s">
-        <v>71</v>
+      <c r="E68" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v>TTAXI*</v>
       </c>
       <c r="F68" s="34"/>
       <c r="G68" s="34"/>
@@ -8540,8 +8545,8 @@
       </c>
       <c r="D70" s="34"/>
       <c r="E70" s="34" t="str">
-        <f>[1]Commodities!$K$27</f>
-        <v>TBUS_ICE_DST_00</v>
+        <f t="shared" si="6"/>
+        <v>TBUS*</v>
       </c>
       <c r="F70" s="34"/>
       <c r="G70" s="34"/>
@@ -8729,8 +8734,8 @@
       </c>
       <c r="D72" s="34"/>
       <c r="E72" s="34" t="str">
-        <f>[1]Commodities!$K$29</f>
-        <v>TLRAIL_ELC_00</v>
+        <f t="shared" si="6"/>
+        <v>TLRAI*</v>
       </c>
       <c r="F72" s="34"/>
       <c r="G72" s="34"/>
@@ -8916,13 +8921,14 @@
         <v>92</v>
       </c>
       <c r="D74" s="32"/>
-      <c r="E74" s="32" t="s">
-        <v>72</v>
+      <c r="E74" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v>THRAIL*</v>
       </c>
       <c r="F74" s="32"/>
       <c r="G74" s="32"/>
       <c r="H74" s="32" t="str">
-        <f t="shared" ref="H74" si="5">H72</f>
+        <f t="shared" ref="H74" si="7">H72</f>
         <v>TRAPL</v>
       </c>
       <c r="I74" s="32"/>
@@ -8936,7 +8942,7 @@
         <v>-1</v>
       </c>
       <c r="M74" s="32" t="str">
-        <f t="shared" ref="M74" si="6">M49</f>
+        <f t="shared" ref="M74" si="8">M49</f>
         <v>Train</v>
       </c>
       <c r="N74" s="33">

--- a/SuppXLS/Scen_TRA_Demand.xlsx
+++ b/SuppXLS/Scen_TRA_Demand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C5E2BF-C85F-4397-BB55-3378C24B954A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C99FC41-F71A-4174-B57C-CE7CE99F20F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS" sheetId="2" r:id="rId1"/>
@@ -4299,7 +4299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B6:AO75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
@@ -6195,7 +6195,7 @@
         <v>80</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" ref="E36:E49" si="2">E13</f>
+        <f t="shared" ref="E37:E49" si="2">E13</f>
         <v>TCYC_CYC</v>
       </c>
       <c r="H37" t="str">
@@ -7789,7 +7789,7 @@
       </c>
       <c r="D62" s="34"/>
       <c r="E62" s="34" t="str">
-        <f t="shared" ref="E61:E74" si="6">E37</f>
+        <f t="shared" ref="E62:E74" si="6">E37</f>
         <v>TCYC_CYC</v>
       </c>
       <c r="F62" s="34"/>
@@ -9326,8 +9326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:AG63"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9630,111 +9630,111 @@
       </c>
       <c r="G5" s="21">
         <f>G4*$D15</f>
-        <v>16.012217201636918</v>
+        <v>21.834841638595794</v>
       </c>
       <c r="H5" s="21">
         <f t="shared" ref="H5:AG5" si="0">H4*$D$15</f>
-        <v>0.20983396862552597</v>
+        <v>0.28613722994389901</v>
       </c>
       <c r="I5" s="21">
         <f t="shared" si="0"/>
-        <v>4.1952551989113713</v>
+        <v>5.7208025439700512</v>
       </c>
       <c r="J5" s="21">
         <f t="shared" si="0"/>
-        <v>0.77367771980355404</v>
+        <v>1.0550150724593919</v>
       </c>
       <c r="K5" s="21">
         <f t="shared" si="0"/>
-        <v>0.35893652651093944</v>
+        <v>0.48945889978764467</v>
       </c>
       <c r="L5" s="21">
         <f t="shared" si="0"/>
-        <v>0.28298540840344738</v>
+        <v>0.38588919327742821</v>
       </c>
       <c r="M5" s="21">
         <f t="shared" si="0"/>
-        <v>0.14219051670316582</v>
+        <v>0.19389615914068065</v>
       </c>
       <c r="N5" s="21">
         <f t="shared" si="0"/>
-        <v>0.40773306592447239</v>
+        <v>0.55599963535155317</v>
       </c>
       <c r="O5" s="21">
         <f t="shared" si="0"/>
-        <v>0.67113906793043354</v>
+        <v>0.91518963808695464</v>
       </c>
       <c r="P5" s="21">
         <f t="shared" si="0"/>
-        <v>0.27781993609744143</v>
+        <v>0.37884536740560193</v>
       </c>
       <c r="Q5" s="21">
         <f t="shared" si="0"/>
-        <v>0.3149058936825973</v>
+        <v>0.42941712774899626</v>
       </c>
       <c r="R5" s="21">
         <f t="shared" si="0"/>
-        <v>0.54807410943065382</v>
+        <v>0.74737378558725509</v>
       </c>
       <c r="S5" s="21">
         <f t="shared" si="0"/>
-        <v>0.48480041388583212</v>
+        <v>0.66109147348068009</v>
       </c>
       <c r="T5" s="21">
         <f t="shared" si="0"/>
-        <v>0.42668359796720196</v>
+        <v>0.5818412699552753</v>
       </c>
       <c r="U5" s="21">
         <f t="shared" si="0"/>
-        <v>1.8043881599074068</v>
+        <v>2.4605293089646452</v>
       </c>
       <c r="V5" s="21">
         <f t="shared" si="0"/>
-        <v>0.55246142910486684</v>
+        <v>0.75335649423390927</v>
       </c>
       <c r="W5" s="21">
         <f t="shared" si="0"/>
-        <v>0.65876549773751403</v>
+        <v>0.89831658782388257</v>
       </c>
       <c r="X5" s="21">
         <f t="shared" si="0"/>
-        <v>0.60057682475721741</v>
+        <v>0.81896839739620553</v>
       </c>
       <c r="Y5" s="21">
         <f t="shared" si="0"/>
-        <v>0.39880230187357957</v>
+        <v>0.54382132073669931</v>
       </c>
       <c r="Z5" s="21">
         <f t="shared" si="0"/>
-        <v>0.89134989399346054</v>
+        <v>1.2154771281729007</v>
       </c>
       <c r="AA5" s="21">
         <f t="shared" si="0"/>
-        <v>0.11422139515209273</v>
+        <v>0.15575644793467192</v>
       </c>
       <c r="AB5" s="21">
         <f t="shared" si="0"/>
-        <v>0.47736120614914374</v>
+        <v>0.65094709929428685</v>
       </c>
       <c r="AC5" s="21">
         <f t="shared" si="0"/>
-        <v>0.2497124333355627</v>
+        <v>0.34051695454849457</v>
       </c>
       <c r="AD5" s="21">
         <f t="shared" si="0"/>
-        <v>0.22015863660267732</v>
+        <v>0.30021632264001447</v>
       </c>
       <c r="AE5" s="21">
         <f t="shared" si="0"/>
-        <v>0.24556481333974389</v>
+        <v>0.33486110909965072</v>
       </c>
       <c r="AF5" s="21">
         <f t="shared" si="0"/>
-        <v>0.47635337835098107</v>
+        <v>0.64957278866042867</v>
       </c>
       <c r="AG5" s="21">
         <f t="shared" si="0"/>
-        <v>0.2284658074560357</v>
+        <v>0.31154428289459413</v>
       </c>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.3">
@@ -9872,111 +9872,111 @@
       </c>
       <c r="G7" s="21">
         <f t="shared" ref="G7:AG7" si="1">G6*$D$16</f>
-        <v>34.403730394309086</v>
+        <v>46.914177810421478</v>
       </c>
       <c r="H7" s="21">
         <f t="shared" si="1"/>
-        <v>0.47871064324101847</v>
+        <v>0.65278724078320693</v>
       </c>
       <c r="I7" s="21">
         <f t="shared" si="1"/>
-        <v>8.3843023671630519</v>
+        <v>11.433139591585979</v>
       </c>
       <c r="J7" s="21">
         <f t="shared" si="1"/>
-        <v>1.7071003210444124</v>
+        <v>2.3278640741514716</v>
       </c>
       <c r="K7" s="21">
         <f t="shared" si="1"/>
-        <v>0.81073510768536827</v>
+        <v>1.1055478741164111</v>
       </c>
       <c r="L7" s="21">
         <f t="shared" si="1"/>
-        <v>0.60996884959951303</v>
+        <v>0.83177570399933587</v>
       </c>
       <c r="M7" s="21">
         <f t="shared" si="1"/>
-        <v>0.31425280984656567</v>
+        <v>0.42852655888168045</v>
       </c>
       <c r="N7" s="21">
         <f t="shared" si="1"/>
-        <v>0.8464563488977358</v>
+        <v>1.1542586575878215</v>
       </c>
       <c r="O7" s="21">
         <f t="shared" si="1"/>
-        <v>1.4695449778075527</v>
+        <v>2.0039249697375716</v>
       </c>
       <c r="P7" s="21">
         <f t="shared" si="1"/>
-        <v>0.62277952379238533</v>
+        <v>0.84924480517143441</v>
       </c>
       <c r="Q7" s="21">
         <f t="shared" si="1"/>
-        <v>0.70302304432187335</v>
+        <v>0.9586677877116454</v>
       </c>
       <c r="R7" s="21">
         <f t="shared" si="1"/>
-        <v>1.2468297610707821</v>
+        <v>1.7002224014601575</v>
       </c>
       <c r="S7" s="21">
         <f t="shared" si="1"/>
-        <v>1.0580453226412441</v>
+        <v>1.442789076328969</v>
       </c>
       <c r="T7" s="21">
         <f t="shared" si="1"/>
-        <v>0.95959447198102665</v>
+        <v>1.3085379163377635</v>
       </c>
       <c r="U7" s="21">
         <f t="shared" si="1"/>
-        <v>3.8780223952990607</v>
+        <v>5.2882123572259916</v>
       </c>
       <c r="V7" s="21">
         <f t="shared" si="1"/>
-        <v>1.2692756872403912</v>
+        <v>1.7308304826005334</v>
       </c>
       <c r="W7" s="21">
         <f t="shared" si="1"/>
-        <v>1.4295310338442575</v>
+        <v>1.9493605006967147</v>
       </c>
       <c r="X7" s="21">
         <f t="shared" si="1"/>
-        <v>1.3864757262854286</v>
+        <v>1.8906487176619478</v>
       </c>
       <c r="Y7" s="21">
         <f t="shared" si="1"/>
-        <v>0.87469566859424497</v>
+        <v>1.1927668208103339</v>
       </c>
       <c r="Z7" s="21">
         <f t="shared" si="1"/>
-        <v>1.9583909606644367</v>
+        <v>2.6705331281787772</v>
       </c>
       <c r="AA7" s="21">
         <f t="shared" si="1"/>
-        <v>0.25563768368346762</v>
+        <v>0.34859684138654673</v>
       </c>
       <c r="AB7" s="21">
         <f t="shared" si="1"/>
-        <v>1.0846175768787842</v>
+        <v>1.4790239684710693</v>
       </c>
       <c r="AC7" s="21">
         <f t="shared" si="1"/>
-        <v>0.58399154298891132</v>
+        <v>0.79635210407578816</v>
       </c>
       <c r="AD7" s="21">
         <f t="shared" si="1"/>
-        <v>0.4764175092080235</v>
+        <v>0.64966023982912291</v>
       </c>
       <c r="AE7" s="21">
         <f t="shared" si="1"/>
-        <v>0.51766194996314674</v>
+        <v>0.70590265904065452</v>
       </c>
       <c r="AF7" s="21">
         <f t="shared" si="1"/>
-        <v>0.95335823103346284</v>
+        <v>1.3000339514092674</v>
       </c>
       <c r="AG7" s="21">
         <f t="shared" si="1"/>
-        <v>0.52431087953294264</v>
+        <v>0.71496938118128539</v>
       </c>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.3">
@@ -10114,111 +10114,111 @@
       </c>
       <c r="G9" s="24">
         <f t="shared" ref="G9:AG9" si="2">G8*$D$17</f>
-        <v>29.844735297271004</v>
+        <v>40.697366314460453</v>
       </c>
       <c r="H9" s="24">
         <f t="shared" si="2"/>
-        <v>0.41128723501247255</v>
+        <v>0.56084622956246255</v>
       </c>
       <c r="I9" s="24">
         <f t="shared" si="2"/>
-        <v>7.3268194274384939</v>
+        <v>9.9911174010524899</v>
       </c>
       <c r="J9" s="24">
         <f t="shared" si="2"/>
-        <v>1.4803753711235563</v>
+        <v>2.0186936878957584</v>
       </c>
       <c r="K9" s="24">
         <f t="shared" si="2"/>
-        <v>0.7128600939601597</v>
+        <v>0.97208194630930866</v>
       </c>
       <c r="L9" s="24">
         <f t="shared" si="2"/>
-        <v>0.52964941494557471</v>
+        <v>0.72224920219851085</v>
       </c>
       <c r="M9" s="24">
         <f t="shared" si="2"/>
-        <v>0.27272298073755386</v>
+        <v>0.37189497373302793</v>
       </c>
       <c r="N9" s="24">
         <f t="shared" si="2"/>
-        <v>0.7410562036587367</v>
+        <v>1.0105311868073681</v>
       </c>
       <c r="O9" s="24">
         <f t="shared" si="2"/>
-        <v>1.2601763934251635</v>
+        <v>1.7184223546706776</v>
       </c>
       <c r="P9" s="24">
         <f t="shared" si="2"/>
-        <v>0.54315812124004015</v>
+        <v>0.74067016532732755</v>
       </c>
       <c r="Q9" s="24">
         <f t="shared" si="2"/>
-        <v>0.60194390830960576</v>
+        <v>0.82083260224037136</v>
       </c>
       <c r="R9" s="24">
         <f t="shared" si="2"/>
-        <v>1.0698891143433387</v>
+        <v>1.4589397013772798</v>
       </c>
       <c r="S9" s="24">
         <f t="shared" si="2"/>
-        <v>0.91615058012436079</v>
+        <v>1.2492962456241283</v>
       </c>
       <c r="T9" s="24">
         <f t="shared" si="2"/>
-        <v>0.82142243054573949</v>
+        <v>1.1201214961987356</v>
       </c>
       <c r="U9" s="24">
         <f t="shared" si="2"/>
-        <v>3.349436476598489</v>
+        <v>4.5674133771797569</v>
       </c>
       <c r="V9" s="24">
         <f t="shared" si="2"/>
-        <v>1.1139033814470418</v>
+        <v>1.5189591565186933</v>
       </c>
       <c r="W9" s="24">
         <f t="shared" si="2"/>
-        <v>1.2339563278145593</v>
+        <v>1.6826677197471263</v>
       </c>
       <c r="X9" s="24">
         <f t="shared" si="2"/>
-        <v>1.1937670412131709</v>
+        <v>1.6278641471088693</v>
       </c>
       <c r="Y9" s="24">
         <f t="shared" si="2"/>
-        <v>0.75177216553984438</v>
+        <v>1.0251438620997877</v>
       </c>
       <c r="Z9" s="24">
         <f t="shared" si="2"/>
-        <v>1.7080145698558946</v>
+        <v>2.3291107770762198</v>
       </c>
       <c r="AA9" s="24">
         <f t="shared" si="2"/>
-        <v>0.2203474465222453</v>
+        <v>0.30047379071215263</v>
       </c>
       <c r="AB9" s="24">
         <f t="shared" si="2"/>
-        <v>0.94712536805512415</v>
+        <v>1.2915345928024418</v>
       </c>
       <c r="AC9" s="24">
         <f t="shared" si="2"/>
-        <v>0.49644770701777519</v>
+        <v>0.67697414593332972</v>
       </c>
       <c r="AD9" s="24">
         <f t="shared" si="2"/>
-        <v>0.41379278349545057</v>
+        <v>0.56426288658470525</v>
       </c>
       <c r="AE9" s="24">
         <f t="shared" si="2"/>
-        <v>0.44254967244935983</v>
+        <v>0.6034768260673089</v>
       </c>
       <c r="AF9" s="24">
         <f t="shared" si="2"/>
-        <v>0.81520879408932867</v>
+        <v>1.1116483555763572</v>
       </c>
       <c r="AG9" s="24">
         <f t="shared" si="2"/>
-        <v>0.47090228830792258</v>
+        <v>0.64213948405625798</v>
       </c>
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.3">
@@ -10262,7 +10262,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="15">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.3">
@@ -10273,7 +10273,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="15">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -10284,7 +10284,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="15">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">

--- a/SuppXLS/Scen_TRA_Demand.xlsx
+++ b/SuppXLS/Scen_TRA_Demand.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Irish-TIMES-model\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C99FC41-F71A-4174-B57C-CE7CE99F20F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973F78EC-77BF-436E-A93E-72AB8BDCCAF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS" sheetId="2" r:id="rId1"/>
@@ -421,14 +421,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-"/>
-    <numFmt numFmtId="168" formatCode="#,##0;\-\ #,##0;_-\ &quot;- &quot;"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,19 +434,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -495,137 +480,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <charset val="161"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -655,134 +509,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -826,147 +558,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -990,200 +587,62 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="64">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="27" fillId="20" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="27" fillId="20" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="28" fillId="0" borderId="0" applyBorder="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="28" fillId="0" borderId="1" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="55" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="55" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="46"/>
-    <xf numFmtId="165" fontId="31" fillId="29" borderId="13" xfId="20" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" xfId="46" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="32" fillId="32" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="46" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="32" fillId="32" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="46" applyBorder="1"/>
-    <xf numFmtId="1" fontId="32" fillId="32" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="32" fillId="32" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" xfId="46" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="34" fillId="32" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="34" fillId="32" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="11" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="64">
-    <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent6 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - Accent3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - Accent4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - Accent5 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - Accent6 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="5x indented GHG Textfiels" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Accent1 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Accent2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Accent3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Accent4 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Accent5 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Accent6 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="AggOrange_CRFReport-template" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="AggOrange9_CRFReport-template" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Bad 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Calculation 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Check Cell 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Comma [0] 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="CustomizationCells" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Euro" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Explanatory Text 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Good 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Heading 1 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Heading 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Heading 3 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Heading 4 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Input 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="InputCells" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Linked Cell 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Neutral 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+  <cellStyles count="2">
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="45" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Normal 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Normal 2 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Normal 3" xfId="48" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Normal 4" xfId="49" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Normal 4 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Normal 5" xfId="51" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Normal GHG Numbers (0.00)" xfId="52" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Normal GHG Textfiels Bold" xfId="53" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Normal GHG-Shade" xfId="54" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="55" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Note 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Nuovo" xfId="57" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Output 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Percent 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Title 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Total 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Warning Text 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Обычный_CRF2002 (1)" xfId="63" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3949,36 +3408,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.53125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="34" width="10.6640625" customWidth="1"/>
     <col min="35" max="35" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.53125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="8.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.45">
       <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
@@ -3991,7 +3451,7 @@
       <c r="AO2" s="11"/>
       <c r="AP2" s="11"/>
     </row>
-    <row r="3" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
@@ -4124,34 +3584,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AP3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.53125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="34" width="10.6640625" customWidth="1"/>
     <col min="35" max="35" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.53125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="8.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.45">
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
@@ -4164,7 +3625,7 @@
       <c r="AO2" s="11"/>
       <c r="AP2" s="11"/>
     </row>
-    <row r="3" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
@@ -4297,40 +3758,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B6:AO75"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.796875" customWidth="1"/>
+    <col min="14" max="14" width="10.53125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:41" x14ac:dyDescent="0.45">
       <c r="C7" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:41" x14ac:dyDescent="0.45">
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:41" x14ac:dyDescent="0.45">
       <c r="K9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:41" x14ac:dyDescent="0.45">
       <c r="C10" s="28" t="s">
         <v>1</v>
       </c>
@@ -4476,7 +3938,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:41" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>94</v>
       </c>
@@ -4613,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:41" x14ac:dyDescent="0.45">
       <c r="J12">
         <v>0</v>
       </c>
@@ -4651,7 +4113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:41" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>73</v>
       </c>
@@ -4788,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:41" x14ac:dyDescent="0.45">
       <c r="J14">
         <v>0</v>
       </c>
@@ -4826,7 +4288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:41" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
         <v>74</v>
       </c>
@@ -4963,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:41" x14ac:dyDescent="0.45">
       <c r="J16">
         <v>0</v>
       </c>
@@ -5001,7 +4463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>75</v>
       </c>
@@ -5137,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:41" x14ac:dyDescent="0.45">
       <c r="J18">
         <v>0</v>
       </c>
@@ -5175,7 +4637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>76</v>
       </c>
@@ -5311,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:41" x14ac:dyDescent="0.45">
       <c r="J20">
         <v>0</v>
       </c>
@@ -5349,7 +4811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>77</v>
       </c>
@@ -5486,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:41" x14ac:dyDescent="0.45">
       <c r="J22">
         <v>0</v>
       </c>
@@ -5524,7 +4986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
         <v>93</v>
       </c>
@@ -5661,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:41" x14ac:dyDescent="0.45">
       <c r="J24">
         <v>0</v>
       </c>
@@ -5699,7 +5161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C25" s="32" t="s">
         <v>78</v>
       </c>
@@ -5839,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:41" x14ac:dyDescent="0.45">
       <c r="J26" s="36">
         <v>0</v>
       </c>
@@ -5851,24 +5313,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:41" x14ac:dyDescent="0.45">
       <c r="N27" s="31"/>
     </row>
-    <row r="28" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:41" x14ac:dyDescent="0.45">
       <c r="N28" s="31"/>
     </row>
-    <row r="31" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C32" s="7"/>
     </row>
-    <row r="33" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:41" x14ac:dyDescent="0.45">
       <c r="K33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C34" s="28" t="s">
         <v>1</v>
       </c>
@@ -6014,7 +5476,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
         <v>79</v>
       </c>
@@ -6152,7 +5614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:41" x14ac:dyDescent="0.45">
       <c r="J36">
         <v>0</v>
       </c>
@@ -6190,7 +5652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
         <v>80</v>
       </c>
@@ -6328,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:41" x14ac:dyDescent="0.45">
       <c r="J38">
         <v>0</v>
       </c>
@@ -6366,7 +5828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C39" t="s">
         <v>81</v>
       </c>
@@ -6504,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:41" x14ac:dyDescent="0.45">
       <c r="J40">
         <v>0</v>
       </c>
@@ -6542,7 +6004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C41" t="s">
         <v>82</v>
       </c>
@@ -6680,7 +6142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:41" x14ac:dyDescent="0.45">
       <c r="J42">
         <v>0</v>
       </c>
@@ -6718,7 +6180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C43" t="s">
         <v>83</v>
       </c>
@@ -6856,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:41" x14ac:dyDescent="0.45">
       <c r="J44">
         <v>0</v>
       </c>
@@ -6894,7 +6356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="3:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C45" t="s">
         <v>84</v>
       </c>
@@ -7032,7 +6494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J46">
         <v>0</v>
       </c>
@@ -7070,7 +6532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C47" t="s">
         <v>93</v>
       </c>
@@ -7208,7 +6670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:41" x14ac:dyDescent="0.45">
       <c r="J48">
         <v>0</v>
       </c>
@@ -7246,7 +6708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C49" s="32" t="s">
         <v>85</v>
       </c>
@@ -7388,7 +6850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:41" x14ac:dyDescent="0.45">
       <c r="J50" s="36">
         <v>0</v>
       </c>
@@ -7399,13 +6861,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C56" s="7"/>
     </row>
-    <row r="57" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C57" s="7"/>
     </row>
-    <row r="58" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C58" s="34"/>
       <c r="D58" s="34"/>
       <c r="E58" s="34"/>
@@ -7448,7 +6910,7 @@
       <c r="AN58" s="34"/>
       <c r="AO58" s="34"/>
     </row>
-    <row r="59" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C59" s="5" t="s">
         <v>1</v>
       </c>
@@ -7594,7 +7056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C60" s="34" t="s">
         <v>86</v>
       </c>
@@ -7736,7 +7198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C61" s="34"/>
       <c r="D61" s="34"/>
       <c r="E61" s="34"/>
@@ -7783,7 +7245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C62" s="34" t="s">
         <v>87</v>
       </c>
@@ -7925,7 +7387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C63" s="34"/>
       <c r="D63" s="34"/>
       <c r="E63" s="34"/>
@@ -7972,7 +7434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C64" s="34" t="s">
         <v>88</v>
       </c>
@@ -8114,7 +7576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C65" s="34"/>
       <c r="D65" s="34"/>
       <c r="E65" s="34"/>
@@ -8161,7 +7623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C66" s="34" t="s">
         <v>89</v>
       </c>
@@ -8303,7 +7765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C67" s="34"/>
       <c r="D67" s="34"/>
       <c r="E67" s="34"/>
@@ -8350,7 +7812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C68" s="34" t="s">
         <v>90</v>
       </c>
@@ -8492,7 +7954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C69" s="34"/>
       <c r="D69" s="34"/>
       <c r="E69" s="34"/>
@@ -8539,7 +8001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C70" s="34" t="s">
         <v>91</v>
       </c>
@@ -8681,7 +8143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C71" s="34"/>
       <c r="D71" s="34"/>
       <c r="E71" s="34"/>
@@ -8728,7 +8190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C72" t="s">
         <v>93</v>
       </c>
@@ -8870,7 +8332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:41" x14ac:dyDescent="0.45">
       <c r="D73" s="34"/>
       <c r="E73" s="34"/>
       <c r="F73" s="34"/>
@@ -8916,7 +8378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C74" s="32" t="s">
         <v>92</v>
       </c>
@@ -9058,7 +8520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:41" x14ac:dyDescent="0.45">
       <c r="J75" s="36">
         <v>0</v>
       </c>
@@ -9077,37 +8539,38 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.53125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B3" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -9159,39 +8622,40 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.53125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -9243,36 +8707,37 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B3" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -9324,18 +8789,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:AG63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D15" sqref="D15:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B2" s="16" t="s">
         <v>16</v>
       </c>
@@ -9370,7 +8836,7 @@
       <c r="AF2" s="15"/>
       <c r="AG2" s="15"/>
     </row>
-    <row r="3" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:33" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="17" t="s">
         <v>17</v>
       </c>
@@ -9495,7 +8961,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15" t="s">
@@ -9616,7 +9082,7 @@
         <v>0.20769618859639608</v>
       </c>
     </row>
-    <row r="5" spans="2:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:33" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15" t="s">
@@ -9737,7 +9203,7 @@
         <v>0.31154428289459413</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
@@ -9858,7 +9324,7 @@
         <v>0.47664625412085693</v>
       </c>
     </row>
-    <row r="7" spans="2:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:33" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
@@ -9979,7 +9445,7 @@
         <v>0.71496938118128539</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
@@ -10100,7 +9566,7 @@
         <v>0.42809298937083867</v>
       </c>
     </row>
-    <row r="9" spans="2:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:33" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22" t="s">
@@ -10221,29 +9687,29 @@
         <v>0.64213948405625798</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B13" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B14" s="15" t="s">
         <v>64</v>
       </c>
@@ -10254,7 +9720,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B15" s="15" t="s">
         <v>65</v>
       </c>
@@ -10265,7 +9731,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B16" s="15" t="s">
         <v>66</v>
       </c>
@@ -10276,7 +9742,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="15" t="s">
         <v>67</v>
       </c>
@@ -10287,137 +9753,137 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D38" s="15"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D39" s="15"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D40" s="15"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D41" s="15"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D42" s="15"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D43" s="15"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D44" s="15"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D45" s="15"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D46" s="15"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D47" s="15"/>
     </row>
-    <row r="52" spans="5:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:33" x14ac:dyDescent="0.45">
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
@@ -10448,7 +9914,7 @@
       <c r="AF52" s="15"/>
       <c r="AG52" s="15"/>
     </row>
-    <row r="53" spans="5:33" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:33" x14ac:dyDescent="0.45">
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
@@ -10479,7 +9945,7 @@
       <c r="AF53" s="15"/>
       <c r="AG53" s="15"/>
     </row>
-    <row r="54" spans="5:33" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:33" x14ac:dyDescent="0.45">
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
@@ -10510,7 +9976,7 @@
       <c r="AF54" s="15"/>
       <c r="AG54" s="15"/>
     </row>
-    <row r="55" spans="5:33" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:33" x14ac:dyDescent="0.45">
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
@@ -10541,7 +10007,7 @@
       <c r="AF55" s="15"/>
       <c r="AG55" s="15"/>
     </row>
-    <row r="56" spans="5:33" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:33" x14ac:dyDescent="0.45">
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
@@ -10572,7 +10038,7 @@
       <c r="AF56" s="15"/>
       <c r="AG56" s="15"/>
     </row>
-    <row r="57" spans="5:33" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:33" x14ac:dyDescent="0.45">
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
@@ -10603,7 +10069,7 @@
       <c r="AF57" s="15"/>
       <c r="AG57" s="15"/>
     </row>
-    <row r="58" spans="5:33" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:33" x14ac:dyDescent="0.45">
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
@@ -10634,7 +10100,7 @@
       <c r="AF58" s="15"/>
       <c r="AG58" s="15"/>
     </row>
-    <row r="59" spans="5:33" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:33" x14ac:dyDescent="0.45">
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
@@ -10665,7 +10131,7 @@
       <c r="AF59" s="15"/>
       <c r="AG59" s="15"/>
     </row>
-    <row r="60" spans="5:33" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:33" x14ac:dyDescent="0.45">
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
@@ -10696,7 +10162,7 @@
       <c r="AF60" s="15"/>
       <c r="AG60" s="15"/>
     </row>
-    <row r="61" spans="5:33" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:33" x14ac:dyDescent="0.45">
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -10727,7 +10193,7 @@
       <c r="AF61" s="15"/>
       <c r="AG61" s="15"/>
     </row>
-    <row r="62" spans="5:33" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:33" x14ac:dyDescent="0.45">
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
@@ -10758,7 +10224,7 @@
       <c r="AF62" s="15"/>
       <c r="AG62" s="15"/>
     </row>
-    <row r="63" spans="5:33" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:33" x14ac:dyDescent="0.45">
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>

--- a/SuppXLS/Scen_TRA_Demand.xlsx
+++ b/SuppXLS/Scen_TRA_Demand.xlsx
@@ -8,22 +8,42 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973F78EC-77BF-436E-A93E-72AB8BDCCAF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B099D7-9FC0-4964-A0D4-756E1A2669BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6165" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="INS" sheetId="2" r:id="rId1"/>
-    <sheet name="UPD" sheetId="11" r:id="rId2"/>
-    <sheet name="UCT1" sheetId="1" r:id="rId3"/>
-    <sheet name="UCT2" sheetId="12" r:id="rId4"/>
-    <sheet name="UCT3" sheetId="13" r:id="rId5"/>
-    <sheet name="UCT4" sheetId="14" r:id="rId6"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId7"/>
+    <sheet name="Regions" sheetId="15" r:id="rId1"/>
+    <sheet name="INS" sheetId="2" r:id="rId2"/>
+    <sheet name="UPD" sheetId="11" r:id="rId3"/>
+    <sheet name="UCT1" sheetId="1" r:id="rId4"/>
+    <sheet name="UCT2" sheetId="12" r:id="rId5"/>
+    <sheet name="UCT3" sheetId="13" r:id="rId6"/>
+    <sheet name="UCT4" sheetId="14" r:id="rId7"/>
+    <sheet name="COM_PROJ" sheetId="9" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_Y" hidden="1">#REF!</definedName>
+    <definedName name="aa" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="table6" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="table6" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -60,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="AJ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="AO2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -126,8 +146,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="130">
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
@@ -415,6 +457,128 @@
   </si>
   <si>
     <t>~UC_Sets: R_E:AllRegions</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Single-region</t>
+  </si>
+  <si>
+    <t>Multi-region</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>County name</t>
+  </si>
+  <si>
+    <t>IE-CW</t>
+  </si>
+  <si>
+    <t>IE-CN</t>
+  </si>
+  <si>
+    <t>IE-CE</t>
+  </si>
+  <si>
+    <t>IE-CO</t>
+  </si>
+  <si>
+    <t>IE-DL</t>
+  </si>
+  <si>
+    <t>IE-D</t>
+  </si>
+  <si>
+    <t>IE-G</t>
+  </si>
+  <si>
+    <t>IE-KY</t>
+  </si>
+  <si>
+    <t>IE-KE</t>
+  </si>
+  <si>
+    <t>IE-KK</t>
+  </si>
+  <si>
+    <t>IE-LS</t>
+  </si>
+  <si>
+    <t>IE-LM</t>
+  </si>
+  <si>
+    <t>IE-LK</t>
+  </si>
+  <si>
+    <t>IE-LD</t>
+  </si>
+  <si>
+    <t>IE-LH</t>
+  </si>
+  <si>
+    <t>IE-MO</t>
+  </si>
+  <si>
+    <t>IE-MH</t>
+  </si>
+  <si>
+    <t>IE-MN</t>
+  </si>
+  <si>
+    <t>IE-OY</t>
+  </si>
+  <si>
+    <t>IE-RN</t>
+  </si>
+  <si>
+    <t>IE-SO</t>
+  </si>
+  <si>
+    <t>IE-TA</t>
+  </si>
+  <si>
+    <t>IE-WD</t>
+  </si>
+  <si>
+    <t>IE-WH</t>
+  </si>
+  <si>
+    <t>IE-WX</t>
+  </si>
+  <si>
+    <t>IE-WW</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://en.wikipedia.org/wiki/ISO_3166-2:IE</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -509,7 +673,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,8 +721,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -586,12 +762,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -639,6 +854,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -655,6 +881,73 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="39" fmlaLink="$A$4" fmlaRange="$A$5:$A$7" noThreeD="1" sel="1" val="0"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>23813</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="Drop Down 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D7D1DE-A57F-4A1E-A59C-B32892A80E9E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -686,84 +979,6 @@
           <cell r="B2" t="str">
             <v>*National</v>
           </cell>
-          <cell r="C2" t="str">
-            <v>IE-CW</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>IE-D</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>IE-KE</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>IE-KK</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>IE-LS</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>IE-LD</v>
-          </cell>
-          <cell r="I2" t="str">
-            <v>IE-LH</v>
-          </cell>
-          <cell r="J2" t="str">
-            <v>IE-MH</v>
-          </cell>
-          <cell r="K2" t="str">
-            <v>IE-OY</v>
-          </cell>
-          <cell r="L2" t="str">
-            <v>IE-WH</v>
-          </cell>
-          <cell r="M2" t="str">
-            <v>IE-WX</v>
-          </cell>
-          <cell r="N2" t="str">
-            <v>IE-WW</v>
-          </cell>
-          <cell r="O2" t="str">
-            <v>IE-CE</v>
-          </cell>
-          <cell r="P2" t="str">
-            <v>IE-CO</v>
-          </cell>
-          <cell r="Q2" t="str">
-            <v>IE-KY</v>
-          </cell>
-          <cell r="R2" t="str">
-            <v>IE-LK</v>
-          </cell>
-          <cell r="S2" t="str">
-            <v>IE-TA</v>
-          </cell>
-          <cell r="T2" t="str">
-            <v>IE-WD</v>
-          </cell>
-          <cell r="U2" t="str">
-            <v>IE-G</v>
-          </cell>
-          <cell r="V2" t="str">
-            <v>IE-LM</v>
-          </cell>
-          <cell r="W2" t="str">
-            <v>IE-MO</v>
-          </cell>
-          <cell r="X2" t="str">
-            <v>IE-RN</v>
-          </cell>
-          <cell r="Y2" t="str">
-            <v>IE-SO</v>
-          </cell>
-          <cell r="Z2" t="str">
-            <v>IE-CN</v>
-          </cell>
-          <cell r="AA2" t="str">
-            <v>IE-DL</v>
-          </cell>
-          <cell r="AB2" t="str">
-            <v>IE-MN</v>
-          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5"/>
@@ -3078,6 +3293,45 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover"/>
+      <sheetName val="Intro"/>
+      <sheetName val="Notes"/>
+      <sheetName val="EB2018"/>
+      <sheetName val="Regions"/>
+      <sheetName val="Primary"/>
+      <sheetName val="Secondary"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="Stock"/>
+      <sheetName val="Demands"/>
+      <sheetName val="On-Road Fac."/>
+      <sheetName val="ACT2FLO"/>
+      <sheetName val="Efficiency"/>
+      <sheetName val="AF"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
@@ -3407,12 +3661,985 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C030FF-C503-4743-9DBD-437AEB1E949D}">
+  <dimension ref="A3:AD37"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.1328125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="3.1328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.53125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.46484375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.9296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.73046875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.86328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.46484375" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.73046875" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.59765625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.06640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.53125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.19921875" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.06640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.796875" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.59765625" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.86328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.9296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.53125" style="15" customWidth="1"/>
+    <col min="25" max="25" width="6.73046875" style="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.06640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="6" style="15" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.73046875" style="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.06640625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="C3" s="37" t="str" cm="1">
+        <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
+        <v>IE</v>
+      </c>
+      <c r="D3" s="37" t="str" cm="1">
+        <f t="array" ref="D3">INDEX(D5:D7,$A$4)</f>
+        <v>National</v>
+      </c>
+      <c r="E3" s="37" t="str" cm="1">
+        <f t="array" ref="E3">INDEX(E5:E7,$A$4)</f>
+        <v>IE-CW</v>
+      </c>
+      <c r="F3" s="37" t="str" cm="1">
+        <f t="array" ref="F3">INDEX(F5:F7,$A$4)</f>
+        <v>IE-D</v>
+      </c>
+      <c r="G3" s="37" t="str" cm="1">
+        <f t="array" ref="G3">INDEX(G5:G7,$A$4)</f>
+        <v>IE-KE</v>
+      </c>
+      <c r="H3" s="37" t="str" cm="1">
+        <f t="array" ref="H3">INDEX(H5:H7,$A$4)</f>
+        <v>IE-KK</v>
+      </c>
+      <c r="I3" s="37" t="str" cm="1">
+        <f t="array" ref="I3">INDEX(I5:I7,$A$4)</f>
+        <v>IE-LS</v>
+      </c>
+      <c r="J3" s="37" t="str" cm="1">
+        <f t="array" ref="J3">INDEX(J5:J7,$A$4)</f>
+        <v>IE-LD</v>
+      </c>
+      <c r="K3" s="37" t="str" cm="1">
+        <f t="array" ref="K3">INDEX(K5:K7,$A$4)</f>
+        <v>IE-LH</v>
+      </c>
+      <c r="L3" s="37" t="str" cm="1">
+        <f t="array" ref="L3">INDEX(L5:L7,$A$4)</f>
+        <v>IE-MH</v>
+      </c>
+      <c r="M3" s="37" t="str" cm="1">
+        <f t="array" ref="M3">INDEX(M5:M7,$A$4)</f>
+        <v>IE-OY</v>
+      </c>
+      <c r="N3" s="37" t="str" cm="1">
+        <f t="array" ref="N3">INDEX(N5:N7,$A$4)</f>
+        <v>IE-WH</v>
+      </c>
+      <c r="O3" s="37" t="str" cm="1">
+        <f t="array" ref="O3">INDEX(O5:O7,$A$4)</f>
+        <v>IE-WX</v>
+      </c>
+      <c r="P3" s="37" t="str" cm="1">
+        <f t="array" ref="P3">INDEX(P5:P7,$A$4)</f>
+        <v>IE-WW</v>
+      </c>
+      <c r="Q3" s="37" t="str" cm="1">
+        <f t="array" ref="Q3">INDEX(Q5:Q7,$A$4)</f>
+        <v>IE-CE</v>
+      </c>
+      <c r="R3" s="37" t="str" cm="1">
+        <f t="array" ref="R3">INDEX(R5:R7,$A$4)</f>
+        <v>IE-CO</v>
+      </c>
+      <c r="S3" s="37" t="str" cm="1">
+        <f t="array" ref="S3">INDEX(S5:S7,$A$4)</f>
+        <v>IE-KY</v>
+      </c>
+      <c r="T3" s="37" t="str" cm="1">
+        <f t="array" ref="T3">INDEX(T5:T7,$A$4)</f>
+        <v>IE-LK</v>
+      </c>
+      <c r="U3" s="37" t="str" cm="1">
+        <f t="array" ref="U3">INDEX(U5:U7,$A$4)</f>
+        <v>IE-TA</v>
+      </c>
+      <c r="V3" s="37" t="str" cm="1">
+        <f t="array" ref="V3">INDEX(V5:V7,$A$4)</f>
+        <v>IE-WD</v>
+      </c>
+      <c r="W3" s="37" t="str" cm="1">
+        <f t="array" ref="W3">INDEX(W5:W7,$A$4)</f>
+        <v>IE-G</v>
+      </c>
+      <c r="X3" s="37" t="str" cm="1">
+        <f t="array" ref="X3">INDEX(X5:X7,$A$4)</f>
+        <v>IE-LM</v>
+      </c>
+      <c r="Y3" s="37" t="str" cm="1">
+        <f t="array" ref="Y3">INDEX(Y5:Y7,$A$4)</f>
+        <v>IE-MO</v>
+      </c>
+      <c r="Z3" s="37" t="str" cm="1">
+        <f t="array" ref="Z3">INDEX(Z5:Z7,$A$4)</f>
+        <v>IE-RN</v>
+      </c>
+      <c r="AA3" s="37" t="str" cm="1">
+        <f t="array" ref="AA3">INDEX(AA5:AA7,$A$4)</f>
+        <v>IE-SO</v>
+      </c>
+      <c r="AB3" s="37" t="str" cm="1">
+        <f t="array" ref="AB3">INDEX(AB5:AB7,$A$4)</f>
+        <v>IE-CN</v>
+      </c>
+      <c r="AC3" s="37" t="str" cm="1">
+        <f t="array" ref="AC3">INDEX(AC5:AC7,$A$4)</f>
+        <v>IE-DL</v>
+      </c>
+      <c r="AD3" s="37" t="str" cm="1">
+        <f t="array" ref="AD3">INDEX(AD5:AD7,$A$4)</f>
+        <v>IE-MN</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A4" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="37" t="str">
+        <f>Regions!A11</f>
+        <v>IE-CW</v>
+      </c>
+      <c r="F5" s="37" t="str">
+        <f>Regions!A16</f>
+        <v>IE-D</v>
+      </c>
+      <c r="G5" s="37" t="str">
+        <f>Regions!A19</f>
+        <v>IE-KE</v>
+      </c>
+      <c r="H5" s="37" t="str">
+        <f>Regions!A20</f>
+        <v>IE-KK</v>
+      </c>
+      <c r="I5" s="37" t="str">
+        <f>Regions!A21</f>
+        <v>IE-LS</v>
+      </c>
+      <c r="J5" s="37" t="str">
+        <f>Regions!A24</f>
+        <v>IE-LD</v>
+      </c>
+      <c r="K5" s="37" t="str">
+        <f>Regions!A25</f>
+        <v>IE-LH</v>
+      </c>
+      <c r="L5" s="37" t="str">
+        <f>Regions!A27</f>
+        <v>IE-MH</v>
+      </c>
+      <c r="M5" s="37" t="str">
+        <f>Regions!A29</f>
+        <v>IE-OY</v>
+      </c>
+      <c r="N5" s="37" t="str">
+        <f>Regions!A34</f>
+        <v>IE-WH</v>
+      </c>
+      <c r="O5" s="37" t="str">
+        <f>Regions!A35</f>
+        <v>IE-WX</v>
+      </c>
+      <c r="P5" s="37" t="str">
+        <f>Regions!A36</f>
+        <v>IE-WW</v>
+      </c>
+      <c r="Q5" s="37" t="str">
+        <f>Regions!A13</f>
+        <v>IE-CE</v>
+      </c>
+      <c r="R5" s="37" t="str">
+        <f>Regions!A14</f>
+        <v>IE-CO</v>
+      </c>
+      <c r="S5" s="37" t="str">
+        <f>Regions!A18</f>
+        <v>IE-KY</v>
+      </c>
+      <c r="T5" s="37" t="str">
+        <f>Regions!A23</f>
+        <v>IE-LK</v>
+      </c>
+      <c r="U5" s="37" t="str">
+        <f>Regions!A32</f>
+        <v>IE-TA</v>
+      </c>
+      <c r="V5" s="37" t="str">
+        <f>Regions!A33</f>
+        <v>IE-WD</v>
+      </c>
+      <c r="W5" s="37" t="str">
+        <f>Regions!A17</f>
+        <v>IE-G</v>
+      </c>
+      <c r="X5" s="37" t="str">
+        <f>Regions!A22</f>
+        <v>IE-LM</v>
+      </c>
+      <c r="Y5" s="37" t="str">
+        <f>Regions!A26</f>
+        <v>IE-MO</v>
+      </c>
+      <c r="Z5" s="37" t="str">
+        <f>Regions!A30</f>
+        <v>IE-RN</v>
+      </c>
+      <c r="AA5" s="37" t="str">
+        <f>Regions!A31</f>
+        <v>IE-SO</v>
+      </c>
+      <c r="AB5" s="37" t="str">
+        <f>Regions!A12</f>
+        <v>IE-CN</v>
+      </c>
+      <c r="AC5" s="37" t="str">
+        <f>Regions!A15</f>
+        <v>IE-DL</v>
+      </c>
+      <c r="AD5" s="37" t="str">
+        <f>Regions!A28</f>
+        <v>IE-MN</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A6" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="37" t="str">
+        <f>C5</f>
+        <v>IE</v>
+      </c>
+      <c r="D6" s="37" t="str">
+        <f>"*"&amp;D5</f>
+        <v>*National</v>
+      </c>
+      <c r="E6" s="37" t="str">
+        <f t="shared" ref="E6:AD6" si="0">"*"&amp;E5</f>
+        <v>*IE-CW</v>
+      </c>
+      <c r="F6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-D</v>
+      </c>
+      <c r="G6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-KE</v>
+      </c>
+      <c r="H6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-KK</v>
+      </c>
+      <c r="I6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-LS</v>
+      </c>
+      <c r="J6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-LD</v>
+      </c>
+      <c r="K6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-LH</v>
+      </c>
+      <c r="L6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-MH</v>
+      </c>
+      <c r="M6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-OY</v>
+      </c>
+      <c r="N6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-WH</v>
+      </c>
+      <c r="O6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-WX</v>
+      </c>
+      <c r="P6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-WW</v>
+      </c>
+      <c r="Q6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-CE</v>
+      </c>
+      <c r="R6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-CO</v>
+      </c>
+      <c r="S6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-KY</v>
+      </c>
+      <c r="T6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-LK</v>
+      </c>
+      <c r="U6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-TA</v>
+      </c>
+      <c r="V6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-WD</v>
+      </c>
+      <c r="W6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-G</v>
+      </c>
+      <c r="X6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-LM</v>
+      </c>
+      <c r="Y6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-MO</v>
+      </c>
+      <c r="Z6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-RN</v>
+      </c>
+      <c r="AA6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-SO</v>
+      </c>
+      <c r="AB6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-CN</v>
+      </c>
+      <c r="AC6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-DL</v>
+      </c>
+      <c r="AD6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-MN</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A7" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="37" t="str">
+        <f>"*"&amp;C5</f>
+        <v>*IE</v>
+      </c>
+      <c r="D7" s="37" t="str">
+        <f>D5</f>
+        <v>National</v>
+      </c>
+      <c r="E7" s="37" t="str">
+        <f t="shared" ref="E7:AD7" si="1">E5</f>
+        <v>IE-CW</v>
+      </c>
+      <c r="F7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-D</v>
+      </c>
+      <c r="G7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-KE</v>
+      </c>
+      <c r="H7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-KK</v>
+      </c>
+      <c r="I7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-LS</v>
+      </c>
+      <c r="J7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-LD</v>
+      </c>
+      <c r="K7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-LH</v>
+      </c>
+      <c r="L7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-MH</v>
+      </c>
+      <c r="M7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-OY</v>
+      </c>
+      <c r="N7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-WH</v>
+      </c>
+      <c r="O7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-WX</v>
+      </c>
+      <c r="P7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-WW</v>
+      </c>
+      <c r="Q7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-CE</v>
+      </c>
+      <c r="R7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-CO</v>
+      </c>
+      <c r="S7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-KY</v>
+      </c>
+      <c r="T7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-LK</v>
+      </c>
+      <c r="U7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-TA</v>
+      </c>
+      <c r="V7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-WD</v>
+      </c>
+      <c r="W7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-G</v>
+      </c>
+      <c r="X7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-LM</v>
+      </c>
+      <c r="Y7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-MO</v>
+      </c>
+      <c r="Z7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-RN</v>
+      </c>
+      <c r="AA7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-SO</v>
+      </c>
+      <c r="AB7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-CN</v>
+      </c>
+      <c r="AC7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-DL</v>
+      </c>
+      <c r="AD7" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-MN</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A11" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A12" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A13" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A14" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A15" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A16" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="42" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3073" r:id="rId4" name="Drop Down 1">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>23813</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AP3"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:AI3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="34" width="10.6640625" customWidth="1"/>
+    <col min="35" max="35" width="10.6640625" style="15" customWidth="1"/>
+    <col min="36" max="36" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.53125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="8.46484375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="B2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="11"/>
+    </row>
+    <row r="3" spans="1:43" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="13" t="str">
+        <f>Regions!C$3</f>
+        <v>IE</v>
+      </c>
+      <c r="J3" s="13" t="str">
+        <f>Regions!E$3</f>
+        <v>IE-CW</v>
+      </c>
+      <c r="K3" s="13" t="str">
+        <f>Regions!F$3</f>
+        <v>IE-D</v>
+      </c>
+      <c r="L3" s="13" t="str">
+        <f>Regions!G$3</f>
+        <v>IE-KE</v>
+      </c>
+      <c r="M3" s="13" t="str">
+        <f>Regions!H$3</f>
+        <v>IE-KK</v>
+      </c>
+      <c r="N3" s="13" t="str">
+        <f>Regions!I$3</f>
+        <v>IE-LS</v>
+      </c>
+      <c r="O3" s="13" t="str">
+        <f>Regions!J$3</f>
+        <v>IE-LD</v>
+      </c>
+      <c r="P3" s="13" t="str">
+        <f>Regions!K$3</f>
+        <v>IE-LH</v>
+      </c>
+      <c r="Q3" s="13" t="str">
+        <f>Regions!L$3</f>
+        <v>IE-MH</v>
+      </c>
+      <c r="R3" s="13" t="str">
+        <f>Regions!M$3</f>
+        <v>IE-OY</v>
+      </c>
+      <c r="S3" s="13" t="str">
+        <f>Regions!N$3</f>
+        <v>IE-WH</v>
+      </c>
+      <c r="T3" s="13" t="str">
+        <f>Regions!O$3</f>
+        <v>IE-WX</v>
+      </c>
+      <c r="U3" s="13" t="str">
+        <f>Regions!P$3</f>
+        <v>IE-WW</v>
+      </c>
+      <c r="V3" s="13" t="str">
+        <f>Regions!Q$3</f>
+        <v>IE-CE</v>
+      </c>
+      <c r="W3" s="13" t="str">
+        <f>Regions!R$3</f>
+        <v>IE-CO</v>
+      </c>
+      <c r="X3" s="13" t="str">
+        <f>Regions!S$3</f>
+        <v>IE-KY</v>
+      </c>
+      <c r="Y3" s="13" t="str">
+        <f>Regions!T$3</f>
+        <v>IE-LK</v>
+      </c>
+      <c r="Z3" s="13" t="str">
+        <f>Regions!U$3</f>
+        <v>IE-TA</v>
+      </c>
+      <c r="AA3" s="13" t="str">
+        <f>Regions!V$3</f>
+        <v>IE-WD</v>
+      </c>
+      <c r="AB3" s="13" t="str">
+        <f>Regions!W$3</f>
+        <v>IE-G</v>
+      </c>
+      <c r="AC3" s="13" t="str">
+        <f>Regions!X$3</f>
+        <v>IE-LM</v>
+      </c>
+      <c r="AD3" s="13" t="str">
+        <f>Regions!Y$3</f>
+        <v>IE-MO</v>
+      </c>
+      <c r="AE3" s="13" t="str">
+        <f>Regions!Z$3</f>
+        <v>IE-RN</v>
+      </c>
+      <c r="AF3" s="13" t="str">
+        <f>Regions!AA$3</f>
+        <v>IE-SO</v>
+      </c>
+      <c r="AG3" s="13" t="str">
+        <f>Regions!AB$3</f>
+        <v>IE-CN</v>
+      </c>
+      <c r="AH3" s="13" t="str">
+        <f>Regions!AC$3</f>
+        <v>IE-DL</v>
+      </c>
+      <c r="AI3" s="13" t="str">
+        <f>Regions!AD$3</f>
+        <v>IE-MN</v>
+      </c>
+      <c r="AJ3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ3" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:AQ3"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3433,14 +4660,14 @@
     <col min="41" max="42" width="8.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
       <c r="B2" s="9" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AI2" s="10"/>
       <c r="AJ2" s="11"/>
@@ -3451,7 +4678,7 @@
       <c r="AO2" s="11"/>
       <c r="AP2" s="11"/>
     </row>
-    <row r="3" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:43" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
@@ -3473,106 +4700,136 @@
       <c r="H3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="W3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="X3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z3" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA3" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI3" s="14" t="s">
+      <c r="I3" s="13" t="str">
+        <f>Regions!C$3</f>
+        <v>IE</v>
+      </c>
+      <c r="J3" s="13" t="str">
+        <f>Regions!E$3</f>
+        <v>IE-CW</v>
+      </c>
+      <c r="K3" s="13" t="str">
+        <f>Regions!F$3</f>
+        <v>IE-D</v>
+      </c>
+      <c r="L3" s="13" t="str">
+        <f>Regions!G$3</f>
+        <v>IE-KE</v>
+      </c>
+      <c r="M3" s="13" t="str">
+        <f>Regions!H$3</f>
+        <v>IE-KK</v>
+      </c>
+      <c r="N3" s="13" t="str">
+        <f>Regions!I$3</f>
+        <v>IE-LS</v>
+      </c>
+      <c r="O3" s="13" t="str">
+        <f>Regions!J$3</f>
+        <v>IE-LD</v>
+      </c>
+      <c r="P3" s="13" t="str">
+        <f>Regions!K$3</f>
+        <v>IE-LH</v>
+      </c>
+      <c r="Q3" s="13" t="str">
+        <f>Regions!L$3</f>
+        <v>IE-MH</v>
+      </c>
+      <c r="R3" s="13" t="str">
+        <f>Regions!M$3</f>
+        <v>IE-OY</v>
+      </c>
+      <c r="S3" s="13" t="str">
+        <f>Regions!N$3</f>
+        <v>IE-WH</v>
+      </c>
+      <c r="T3" s="13" t="str">
+        <f>Regions!O$3</f>
+        <v>IE-WX</v>
+      </c>
+      <c r="U3" s="13" t="str">
+        <f>Regions!P$3</f>
+        <v>IE-WW</v>
+      </c>
+      <c r="V3" s="13" t="str">
+        <f>Regions!Q$3</f>
+        <v>IE-CE</v>
+      </c>
+      <c r="W3" s="13" t="str">
+        <f>Regions!R$3</f>
+        <v>IE-CO</v>
+      </c>
+      <c r="X3" s="13" t="str">
+        <f>Regions!S$3</f>
+        <v>IE-KY</v>
+      </c>
+      <c r="Y3" s="13" t="str">
+        <f>Regions!T$3</f>
+        <v>IE-LK</v>
+      </c>
+      <c r="Z3" s="13" t="str">
+        <f>Regions!U$3</f>
+        <v>IE-TA</v>
+      </c>
+      <c r="AA3" s="13" t="str">
+        <f>Regions!V$3</f>
+        <v>IE-WD</v>
+      </c>
+      <c r="AB3" s="13" t="str">
+        <f>Regions!W$3</f>
+        <v>IE-G</v>
+      </c>
+      <c r="AC3" s="13" t="str">
+        <f>Regions!X$3</f>
+        <v>IE-LM</v>
+      </c>
+      <c r="AD3" s="13" t="str">
+        <f>Regions!Y$3</f>
+        <v>IE-MO</v>
+      </c>
+      <c r="AE3" s="13" t="str">
+        <f>Regions!Z$3</f>
+        <v>IE-RN</v>
+      </c>
+      <c r="AF3" s="13" t="str">
+        <f>Regions!AA$3</f>
+        <v>IE-SO</v>
+      </c>
+      <c r="AG3" s="13" t="str">
+        <f>Regions!AB$3</f>
+        <v>IE-CN</v>
+      </c>
+      <c r="AH3" s="13" t="str">
+        <f>Regions!AC$3</f>
+        <v>IE-DL</v>
+      </c>
+      <c r="AI3" s="13" t="str">
+        <f>Regions!AD$3</f>
+        <v>IE-MN</v>
+      </c>
+      <c r="AJ3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AJ3" s="14" t="s">
+      <c r="AK3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AK3" s="14" t="s">
+      <c r="AL3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="14" t="s">
+      <c r="AM3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AM3" s="14" t="s">
+      <c r="AN3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="14" t="s">
+      <c r="AO3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AO3" s="14" t="s">
+      <c r="AP3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AP3" s="14" t="s">
+      <c r="AQ3" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3582,187 +4839,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AP3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="34" width="10.6640625" customWidth="1"/>
-    <col min="35" max="35" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.53125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="8.46484375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.45">
-      <c r="B2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-    </row>
-    <row r="3" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="W3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="X3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z3" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA3" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="AP3" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B6:AO75"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3827,111 +4910,111 @@
         <v>14</v>
       </c>
       <c r="N10" s="28" t="str">
-        <f>[1]Regions!B2</f>
-        <v>*National</v>
+        <f>Regions!C$3</f>
+        <v>IE</v>
       </c>
       <c r="O10" s="28" t="str">
-        <f>[1]Regions!C2</f>
+        <f>Regions!E$3</f>
         <v>IE-CW</v>
       </c>
       <c r="P10" s="28" t="str">
-        <f>[1]Regions!D2</f>
+        <f>Regions!F$3</f>
         <v>IE-D</v>
       </c>
       <c r="Q10" s="28" t="str">
-        <f>[1]Regions!E2</f>
+        <f>Regions!G$3</f>
         <v>IE-KE</v>
       </c>
       <c r="R10" s="28" t="str">
-        <f>[1]Regions!F2</f>
+        <f>Regions!H$3</f>
         <v>IE-KK</v>
       </c>
       <c r="S10" s="28" t="str">
-        <f>[1]Regions!G2</f>
+        <f>Regions!I$3</f>
         <v>IE-LS</v>
       </c>
       <c r="T10" s="28" t="str">
-        <f>[1]Regions!H2</f>
+        <f>Regions!J$3</f>
         <v>IE-LD</v>
       </c>
       <c r="U10" s="28" t="str">
-        <f>[1]Regions!I2</f>
+        <f>Regions!K$3</f>
         <v>IE-LH</v>
       </c>
       <c r="V10" s="28" t="str">
-        <f>[1]Regions!J2</f>
+        <f>Regions!L$3</f>
         <v>IE-MH</v>
       </c>
       <c r="W10" s="28" t="str">
-        <f>[1]Regions!K2</f>
+        <f>Regions!M$3</f>
         <v>IE-OY</v>
       </c>
       <c r="X10" s="28" t="str">
-        <f>[1]Regions!L2</f>
+        <f>Regions!N$3</f>
         <v>IE-WH</v>
       </c>
       <c r="Y10" s="28" t="str">
-        <f>[1]Regions!M2</f>
+        <f>Regions!O$3</f>
         <v>IE-WX</v>
       </c>
       <c r="Z10" s="28" t="str">
-        <f>[1]Regions!N2</f>
+        <f>Regions!P$3</f>
         <v>IE-WW</v>
       </c>
       <c r="AA10" s="28" t="str">
-        <f>[1]Regions!O2</f>
+        <f>Regions!Q$3</f>
         <v>IE-CE</v>
       </c>
       <c r="AB10" s="28" t="str">
-        <f>[1]Regions!P2</f>
+        <f>Regions!R$3</f>
         <v>IE-CO</v>
       </c>
       <c r="AC10" s="28" t="str">
-        <f>[1]Regions!Q2</f>
+        <f>Regions!S$3</f>
         <v>IE-KY</v>
       </c>
       <c r="AD10" s="28" t="str">
-        <f>[1]Regions!R2</f>
+        <f>Regions!T$3</f>
         <v>IE-LK</v>
       </c>
       <c r="AE10" s="28" t="str">
-        <f>[1]Regions!S2</f>
+        <f>Regions!U$3</f>
         <v>IE-TA</v>
       </c>
       <c r="AF10" s="28" t="str">
-        <f>[1]Regions!T2</f>
+        <f>Regions!V$3</f>
         <v>IE-WD</v>
       </c>
       <c r="AG10" s="28" t="str">
-        <f>[1]Regions!U2</f>
+        <f>Regions!W$3</f>
         <v>IE-G</v>
       </c>
       <c r="AH10" s="28" t="str">
-        <f>[1]Regions!V2</f>
+        <f>Regions!X$3</f>
         <v>IE-LM</v>
       </c>
       <c r="AI10" s="28" t="str">
-        <f>[1]Regions!W2</f>
+        <f>Regions!Y$3</f>
         <v>IE-MO</v>
       </c>
       <c r="AJ10" s="28" t="str">
-        <f>[1]Regions!X2</f>
+        <f>Regions!Z$3</f>
         <v>IE-RN</v>
       </c>
       <c r="AK10" s="28" t="str">
-        <f>[1]Regions!Y2</f>
+        <f>Regions!AA$3</f>
         <v>IE-SO</v>
       </c>
       <c r="AL10" s="28" t="str">
-        <f>[1]Regions!Z2</f>
+        <f>Regions!AB$3</f>
         <v>IE-CN</v>
       </c>
       <c r="AM10" s="28" t="str">
-        <f>[1]Regions!AA2</f>
+        <f>Regions!AC$3</f>
         <v>IE-DL</v>
       </c>
       <c r="AN10" s="28" t="str">
-        <f>[1]Regions!AB2</f>
+        <f>Regions!AD$3</f>
         <v>IE-MN</v>
       </c>
       <c r="AO10" s="28" t="s">
@@ -5365,111 +6448,111 @@
         <v>14</v>
       </c>
       <c r="N34" s="28" t="str">
-        <f>N10</f>
-        <v>*National</v>
+        <f>Regions!C$3</f>
+        <v>IE</v>
       </c>
       <c r="O34" s="28" t="str">
-        <f t="shared" ref="O34:AN34" si="1">O10</f>
+        <f>Regions!E$3</f>
         <v>IE-CW</v>
       </c>
       <c r="P34" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>Regions!F$3</f>
         <v>IE-D</v>
       </c>
       <c r="Q34" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>Regions!G$3</f>
         <v>IE-KE</v>
       </c>
       <c r="R34" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>Regions!H$3</f>
         <v>IE-KK</v>
       </c>
       <c r="S34" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>Regions!I$3</f>
         <v>IE-LS</v>
       </c>
       <c r="T34" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>Regions!J$3</f>
         <v>IE-LD</v>
       </c>
       <c r="U34" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>Regions!K$3</f>
         <v>IE-LH</v>
       </c>
       <c r="V34" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>Regions!L$3</f>
         <v>IE-MH</v>
       </c>
       <c r="W34" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>Regions!M$3</f>
         <v>IE-OY</v>
       </c>
       <c r="X34" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>Regions!N$3</f>
         <v>IE-WH</v>
       </c>
       <c r="Y34" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>Regions!O$3</f>
         <v>IE-WX</v>
       </c>
       <c r="Z34" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>Regions!P$3</f>
         <v>IE-WW</v>
       </c>
       <c r="AA34" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>Regions!Q$3</f>
         <v>IE-CE</v>
       </c>
       <c r="AB34" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>Regions!R$3</f>
         <v>IE-CO</v>
       </c>
       <c r="AC34" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>Regions!S$3</f>
         <v>IE-KY</v>
       </c>
       <c r="AD34" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>Regions!T$3</f>
         <v>IE-LK</v>
       </c>
       <c r="AE34" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>Regions!U$3</f>
         <v>IE-TA</v>
       </c>
       <c r="AF34" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>Regions!V$3</f>
         <v>IE-WD</v>
       </c>
       <c r="AG34" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>Regions!W$3</f>
         <v>IE-G</v>
       </c>
       <c r="AH34" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>Regions!X$3</f>
         <v>IE-LM</v>
       </c>
       <c r="AI34" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>Regions!Y$3</f>
         <v>IE-MO</v>
       </c>
       <c r="AJ34" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>Regions!Z$3</f>
         <v>IE-RN</v>
       </c>
       <c r="AK34" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>Regions!AA$3</f>
         <v>IE-SO</v>
       </c>
       <c r="AL34" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>Regions!AB$3</f>
         <v>IE-CN</v>
       </c>
       <c r="AM34" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>Regions!AC$3</f>
         <v>IE-DL</v>
       </c>
       <c r="AN34" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f>Regions!AD$3</f>
         <v>IE-MN</v>
       </c>
       <c r="AO34" s="28" t="s">
@@ -5657,7 +6740,7 @@
         <v>80</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" ref="E37:E49" si="2">E13</f>
+        <f t="shared" ref="E37:E49" si="1">E13</f>
         <v>TCYC_CYC</v>
       </c>
       <c r="H37" t="str">
@@ -5833,7 +6916,7 @@
         <v>81</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>TMOT*</v>
       </c>
       <c r="H39" t="str">
@@ -6009,7 +7092,7 @@
         <v>82</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>TCAR*</v>
       </c>
       <c r="H41" t="str">
@@ -6185,7 +7268,7 @@
         <v>83</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>TTAXI*</v>
       </c>
       <c r="H43" t="str">
@@ -6361,7 +7444,7 @@
         <v>84</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>TBUS*</v>
       </c>
       <c r="H45" t="str">
@@ -6537,7 +7620,7 @@
         <v>93</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>TLRAI*</v>
       </c>
       <c r="H47" t="str">
@@ -6714,13 +7797,13 @@
       </c>
       <c r="D49" s="32"/>
       <c r="E49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>THRAIL*</v>
       </c>
       <c r="F49" s="32"/>
       <c r="G49" s="32"/>
       <c r="H49" s="32" t="str">
-        <f t="shared" ref="H49" si="3">H47</f>
+        <f t="shared" ref="H49" si="2">H47</f>
         <v>TRAPM</v>
       </c>
       <c r="I49" s="32"/>
@@ -6734,7 +7817,7 @@
         <v>-1</v>
       </c>
       <c r="M49" s="32" t="str">
-        <f t="shared" ref="M49" si="4">M25</f>
+        <f t="shared" ref="M49" si="3">M25</f>
         <v>Train</v>
       </c>
       <c r="N49" s="33">
@@ -6944,112 +8027,112 @@
       <c r="M59" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N59" s="5" t="str">
-        <f>N34</f>
-        <v>*National</v>
-      </c>
-      <c r="O59" s="5" t="str">
-        <f t="shared" ref="O59:AN59" si="5">O34</f>
+      <c r="N59" s="28" t="str">
+        <f>Regions!C$3</f>
+        <v>IE</v>
+      </c>
+      <c r="O59" s="28" t="str">
+        <f>Regions!E$3</f>
         <v>IE-CW</v>
       </c>
-      <c r="P59" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="P59" s="28" t="str">
+        <f>Regions!F$3</f>
         <v>IE-D</v>
       </c>
-      <c r="Q59" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="Q59" s="28" t="str">
+        <f>Regions!G$3</f>
         <v>IE-KE</v>
       </c>
-      <c r="R59" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="R59" s="28" t="str">
+        <f>Regions!H$3</f>
         <v>IE-KK</v>
       </c>
-      <c r="S59" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="S59" s="28" t="str">
+        <f>Regions!I$3</f>
         <v>IE-LS</v>
       </c>
-      <c r="T59" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="T59" s="28" t="str">
+        <f>Regions!J$3</f>
         <v>IE-LD</v>
       </c>
-      <c r="U59" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="U59" s="28" t="str">
+        <f>Regions!K$3</f>
         <v>IE-LH</v>
       </c>
-      <c r="V59" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="V59" s="28" t="str">
+        <f>Regions!L$3</f>
         <v>IE-MH</v>
       </c>
-      <c r="W59" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="W59" s="28" t="str">
+        <f>Regions!M$3</f>
         <v>IE-OY</v>
       </c>
-      <c r="X59" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="X59" s="28" t="str">
+        <f>Regions!N$3</f>
         <v>IE-WH</v>
       </c>
-      <c r="Y59" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="Y59" s="28" t="str">
+        <f>Regions!O$3</f>
         <v>IE-WX</v>
       </c>
-      <c r="Z59" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="Z59" s="28" t="str">
+        <f>Regions!P$3</f>
         <v>IE-WW</v>
       </c>
-      <c r="AA59" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="AA59" s="28" t="str">
+        <f>Regions!Q$3</f>
         <v>IE-CE</v>
       </c>
-      <c r="AB59" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="AB59" s="28" t="str">
+        <f>Regions!R$3</f>
         <v>IE-CO</v>
       </c>
-      <c r="AC59" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="AC59" s="28" t="str">
+        <f>Regions!S$3</f>
         <v>IE-KY</v>
       </c>
-      <c r="AD59" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="AD59" s="28" t="str">
+        <f>Regions!T$3</f>
         <v>IE-LK</v>
       </c>
-      <c r="AE59" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="AE59" s="28" t="str">
+        <f>Regions!U$3</f>
         <v>IE-TA</v>
       </c>
-      <c r="AF59" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="AF59" s="28" t="str">
+        <f>Regions!V$3</f>
         <v>IE-WD</v>
       </c>
-      <c r="AG59" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="AG59" s="28" t="str">
+        <f>Regions!W$3</f>
         <v>IE-G</v>
       </c>
-      <c r="AH59" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="AH59" s="28" t="str">
+        <f>Regions!X$3</f>
         <v>IE-LM</v>
       </c>
-      <c r="AI59" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="AI59" s="28" t="str">
+        <f>Regions!Y$3</f>
         <v>IE-MO</v>
       </c>
-      <c r="AJ59" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="AJ59" s="28" t="str">
+        <f>Regions!Z$3</f>
         <v>IE-RN</v>
       </c>
-      <c r="AK59" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="AK59" s="28" t="str">
+        <f>Regions!AA$3</f>
         <v>IE-SO</v>
       </c>
-      <c r="AL59" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="AL59" s="28" t="str">
+        <f>Regions!AB$3</f>
         <v>IE-CN</v>
       </c>
-      <c r="AM59" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="AM59" s="28" t="str">
+        <f>Regions!AC$3</f>
         <v>IE-DL</v>
       </c>
-      <c r="AN59" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="AN59" s="28" t="str">
+        <f>Regions!AD$3</f>
         <v>IE-MN</v>
       </c>
       <c r="AO59" s="5" t="s">
@@ -7251,7 +8334,7 @@
       </c>
       <c r="D62" s="34"/>
       <c r="E62" s="34" t="str">
-        <f t="shared" ref="E62:E74" si="6">E37</f>
+        <f t="shared" ref="E62:E74" si="4">E37</f>
         <v>TCYC_CYC</v>
       </c>
       <c r="F62" s="34"/>
@@ -7440,7 +8523,7 @@
       </c>
       <c r="D64" s="34"/>
       <c r="E64" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>TMOT*</v>
       </c>
       <c r="F64" s="34"/>
@@ -7629,7 +8712,7 @@
       </c>
       <c r="D66" s="34"/>
       <c r="E66" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>TCAR*</v>
       </c>
       <c r="F66" s="34"/>
@@ -7818,7 +8901,7 @@
       </c>
       <c r="D68" s="34"/>
       <c r="E68" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>TTAXI*</v>
       </c>
       <c r="F68" s="34"/>
@@ -8007,7 +9090,7 @@
       </c>
       <c r="D70" s="34"/>
       <c r="E70" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>TBUS*</v>
       </c>
       <c r="F70" s="34"/>
@@ -8196,7 +9279,7 @@
       </c>
       <c r="D72" s="34"/>
       <c r="E72" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>TLRAI*</v>
       </c>
       <c r="F72" s="34"/>
@@ -8384,13 +9467,13 @@
       </c>
       <c r="D74" s="32"/>
       <c r="E74" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>THRAIL*</v>
       </c>
       <c r="F74" s="32"/>
       <c r="G74" s="32"/>
       <c r="H74" s="32" t="str">
-        <f t="shared" ref="H74" si="7">H72</f>
+        <f t="shared" ref="H74" si="5">H72</f>
         <v>TRAPL</v>
       </c>
       <c r="I74" s="32"/>
@@ -8404,7 +9487,7 @@
         <v>-1</v>
       </c>
       <c r="M74" s="32" t="str">
-        <f t="shared" ref="M74" si="8">M49</f>
+        <f t="shared" ref="M74" si="6">M49</f>
         <v>Train</v>
       </c>
       <c r="N74" s="33">
@@ -8537,12 +9620,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -8620,7 +9705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O5"/>
@@ -8705,7 +9790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:O5"/>
@@ -8787,13 +9872,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:AG63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8852,112 +9937,112 @@
       <c r="F3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="17" t="str">
-        <f>[1]Regions!B2</f>
-        <v>*National</v>
-      </c>
-      <c r="H3" s="17" t="str">
-        <f>[1]Regions!C2</f>
+      <c r="G3" s="13" t="str">
+        <f>Regions!C$3</f>
+        <v>IE</v>
+      </c>
+      <c r="H3" s="13" t="str">
+        <f>Regions!E$3</f>
         <v>IE-CW</v>
       </c>
-      <c r="I3" s="17" t="str">
-        <f>[1]Regions!D2</f>
+      <c r="I3" s="13" t="str">
+        <f>Regions!F$3</f>
         <v>IE-D</v>
       </c>
-      <c r="J3" s="17" t="str">
-        <f>[1]Regions!E2</f>
+      <c r="J3" s="13" t="str">
+        <f>Regions!G$3</f>
         <v>IE-KE</v>
       </c>
-      <c r="K3" s="17" t="str">
-        <f>[1]Regions!F2</f>
+      <c r="K3" s="13" t="str">
+        <f>Regions!H$3</f>
         <v>IE-KK</v>
       </c>
-      <c r="L3" s="17" t="str">
-        <f>[1]Regions!G2</f>
+      <c r="L3" s="13" t="str">
+        <f>Regions!I$3</f>
         <v>IE-LS</v>
       </c>
-      <c r="M3" s="17" t="str">
-        <f>[1]Regions!H2</f>
+      <c r="M3" s="13" t="str">
+        <f>Regions!J$3</f>
         <v>IE-LD</v>
       </c>
-      <c r="N3" s="17" t="str">
-        <f>[1]Regions!I2</f>
+      <c r="N3" s="13" t="str">
+        <f>Regions!K$3</f>
         <v>IE-LH</v>
       </c>
-      <c r="O3" s="17" t="str">
-        <f>[1]Regions!J2</f>
+      <c r="O3" s="13" t="str">
+        <f>Regions!L$3</f>
         <v>IE-MH</v>
       </c>
-      <c r="P3" s="17" t="str">
-        <f>[1]Regions!K2</f>
+      <c r="P3" s="13" t="str">
+        <f>Regions!M$3</f>
         <v>IE-OY</v>
       </c>
-      <c r="Q3" s="17" t="str">
-        <f>[1]Regions!L2</f>
+      <c r="Q3" s="13" t="str">
+        <f>Regions!N$3</f>
         <v>IE-WH</v>
       </c>
-      <c r="R3" s="17" t="str">
-        <f>[1]Regions!M2</f>
+      <c r="R3" s="13" t="str">
+        <f>Regions!O$3</f>
         <v>IE-WX</v>
       </c>
-      <c r="S3" s="17" t="str">
-        <f>[1]Regions!N2</f>
+      <c r="S3" s="13" t="str">
+        <f>Regions!P$3</f>
         <v>IE-WW</v>
       </c>
-      <c r="T3" s="17" t="str">
-        <f>[1]Regions!O2</f>
+      <c r="T3" s="13" t="str">
+        <f>Regions!Q$3</f>
         <v>IE-CE</v>
       </c>
-      <c r="U3" s="17" t="str">
-        <f>[1]Regions!P2</f>
+      <c r="U3" s="13" t="str">
+        <f>Regions!R$3</f>
         <v>IE-CO</v>
       </c>
-      <c r="V3" s="17" t="str">
-        <f>[1]Regions!Q2</f>
+      <c r="V3" s="13" t="str">
+        <f>Regions!S$3</f>
         <v>IE-KY</v>
       </c>
-      <c r="W3" s="17" t="str">
-        <f>[1]Regions!R2</f>
+      <c r="W3" s="13" t="str">
+        <f>Regions!T$3</f>
         <v>IE-LK</v>
       </c>
-      <c r="X3" s="17" t="str">
-        <f>[1]Regions!S2</f>
+      <c r="X3" s="13" t="str">
+        <f>Regions!U$3</f>
         <v>IE-TA</v>
       </c>
-      <c r="Y3" s="17" t="str">
-        <f>[1]Regions!T2</f>
+      <c r="Y3" s="13" t="str">
+        <f>Regions!V$3</f>
         <v>IE-WD</v>
       </c>
-      <c r="Z3" s="17" t="str">
-        <f>[1]Regions!U2</f>
+      <c r="Z3" s="13" t="str">
+        <f>Regions!W$3</f>
         <v>IE-G</v>
       </c>
-      <c r="AA3" s="17" t="str">
-        <f>[1]Regions!V2</f>
+      <c r="AA3" s="13" t="str">
+        <f>Regions!X$3</f>
         <v>IE-LM</v>
       </c>
-      <c r="AB3" s="17" t="str">
-        <f>[1]Regions!W2</f>
+      <c r="AB3" s="13" t="str">
+        <f>Regions!Y$3</f>
         <v>IE-MO</v>
       </c>
-      <c r="AC3" s="17" t="str">
-        <f>[1]Regions!X2</f>
+      <c r="AC3" s="13" t="str">
+        <f>Regions!Z$3</f>
         <v>IE-RN</v>
       </c>
-      <c r="AD3" s="17" t="str">
-        <f>[1]Regions!Y2</f>
+      <c r="AD3" s="13" t="str">
+        <f>Regions!AA$3</f>
         <v>IE-SO</v>
       </c>
-      <c r="AE3" s="17" t="str">
-        <f>[1]Regions!Z2</f>
+      <c r="AE3" s="13" t="str">
+        <f>Regions!AB$3</f>
         <v>IE-CN</v>
       </c>
-      <c r="AF3" s="17" t="str">
-        <f>[1]Regions!AA2</f>
+      <c r="AF3" s="13" t="str">
+        <f>Regions!AC$3</f>
         <v>IE-DL</v>
       </c>
-      <c r="AG3" s="17" t="str">
-        <f>[1]Regions!AB2</f>
+      <c r="AG3" s="13" t="str">
+        <f>Regions!AD$3</f>
         <v>IE-MN</v>
       </c>
     </row>
@@ -9719,6 +10804,31 @@
       <c r="D14" s="15">
         <v>2050</v>
       </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B15" s="15" t="s">

--- a/SuppXLS/Scen_TRA_Demand.xlsx
+++ b/SuppXLS/Scen_TRA_Demand.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B099D7-9FC0-4964-A0D4-756E1A2669BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF603213-9CB2-4AAE-8DF1-44A288A88349}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6165" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="131">
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
@@ -579,6 +579,9 @@
       </rPr>
       <t>https://en.wikipedia.org/wiki/ISO_3166-2:IE</t>
     </r>
+  </si>
+  <si>
+    <t>TFGV</t>
   </si>
 </sst>
 </file>
@@ -806,7 +809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -839,7 +842,6 @@
     <xf numFmtId="1" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -853,7 +855,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -865,6 +866,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -900,7 +909,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>23813</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -912,7 +921,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D7D1DE-A57F-4A1E-A59C-B32892A80E9E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -974,13 +983,7 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>*National</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7">
@@ -3331,7 +3334,91 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="9">
+        <row r="7">
+          <cell r="C7">
+            <v>11.536999999999999</v>
+          </cell>
+          <cell r="D7">
+            <v>0.17794099599204954</v>
+          </cell>
+          <cell r="E7">
+            <v>2.6292279716035631</v>
+          </cell>
+          <cell r="F7">
+            <v>0.48228404218784626</v>
+          </cell>
+          <cell r="G7">
+            <v>0.31014966827589163</v>
+          </cell>
+          <cell r="H7">
+            <v>0.22090468018989404</v>
+          </cell>
+          <cell r="I7">
+            <v>0.10660397645018758</v>
+          </cell>
+          <cell r="J7">
+            <v>0.27935990585939297</v>
+          </cell>
+          <cell r="K7">
+            <v>0.42276367492038924</v>
+          </cell>
+          <cell r="L7">
+            <v>0.20333600685129727</v>
+          </cell>
+          <cell r="M7">
+            <v>0.23152778091853185</v>
+          </cell>
+          <cell r="N7">
+            <v>0.46795618987426485</v>
+          </cell>
+          <cell r="O7">
+            <v>0.30871042636808321</v>
+          </cell>
+          <cell r="P7">
+            <v>0.30378726686741447</v>
+          </cell>
+          <cell r="Q7">
+            <v>1.625427705266085</v>
+          </cell>
+          <cell r="R7">
+            <v>0.44225677339931185</v>
+          </cell>
+          <cell r="S7">
+            <v>0.49831113834882401</v>
+          </cell>
+          <cell r="T7">
+            <v>0.40793968700183131</v>
+          </cell>
+          <cell r="U7">
+            <v>0.36310814920207179</v>
+          </cell>
+          <cell r="V7">
+            <v>0.60506096800451603</v>
+          </cell>
+          <cell r="W7">
+            <v>8.0693470189707711E-2</v>
+          </cell>
+          <cell r="X7">
+            <v>0.30599590693319084</v>
+          </cell>
+          <cell r="Y7">
+            <v>0.1513344097795204</v>
+          </cell>
+          <cell r="Z7">
+            <v>0.16503078794415471</v>
+          </cell>
+          <cell r="AA7">
+            <v>0.19182704360164693</v>
+          </cell>
+          <cell r="AB7">
+            <v>0.40087863270627727</v>
+          </cell>
+          <cell r="AC7">
+            <v>0.15458274126405555</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
@@ -3668,725 +3755,725 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1328125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="15" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="3.1328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.53125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.46484375" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.9296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.73046875" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.86328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.46484375" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.73046875" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.59765625" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.06640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.53125" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.19921875" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.21875" style="15" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.06640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.796875" style="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.59765625" style="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.86328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.88671875" style="15" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.9296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.53125" style="15" customWidth="1"/>
-    <col min="25" max="25" width="6.73046875" style="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.06640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5546875" style="15" customWidth="1"/>
+    <col min="25" max="25" width="6.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.109375" style="15" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.73046875" style="15" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.77734375" style="15" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.06640625" style="15"/>
+    <col min="31" max="16384" width="9.109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="C3" s="37" t="str" cm="1">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C3" s="35" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
       </c>
-      <c r="D3" s="37" t="str" cm="1">
+      <c r="D3" s="35" t="str" cm="1">
         <f t="array" ref="D3">INDEX(D5:D7,$A$4)</f>
         <v>National</v>
       </c>
-      <c r="E3" s="37" t="str" cm="1">
+      <c r="E3" s="35" t="str" cm="1">
         <f t="array" ref="E3">INDEX(E5:E7,$A$4)</f>
         <v>IE-CW</v>
       </c>
-      <c r="F3" s="37" t="str" cm="1">
+      <c r="F3" s="35" t="str" cm="1">
         <f t="array" ref="F3">INDEX(F5:F7,$A$4)</f>
         <v>IE-D</v>
       </c>
-      <c r="G3" s="37" t="str" cm="1">
+      <c r="G3" s="35" t="str" cm="1">
         <f t="array" ref="G3">INDEX(G5:G7,$A$4)</f>
         <v>IE-KE</v>
       </c>
-      <c r="H3" s="37" t="str" cm="1">
+      <c r="H3" s="35" t="str" cm="1">
         <f t="array" ref="H3">INDEX(H5:H7,$A$4)</f>
         <v>IE-KK</v>
       </c>
-      <c r="I3" s="37" t="str" cm="1">
+      <c r="I3" s="35" t="str" cm="1">
         <f t="array" ref="I3">INDEX(I5:I7,$A$4)</f>
         <v>IE-LS</v>
       </c>
-      <c r="J3" s="37" t="str" cm="1">
+      <c r="J3" s="35" t="str" cm="1">
         <f t="array" ref="J3">INDEX(J5:J7,$A$4)</f>
         <v>IE-LD</v>
       </c>
-      <c r="K3" s="37" t="str" cm="1">
+      <c r="K3" s="35" t="str" cm="1">
         <f t="array" ref="K3">INDEX(K5:K7,$A$4)</f>
         <v>IE-LH</v>
       </c>
-      <c r="L3" s="37" t="str" cm="1">
+      <c r="L3" s="35" t="str" cm="1">
         <f t="array" ref="L3">INDEX(L5:L7,$A$4)</f>
         <v>IE-MH</v>
       </c>
-      <c r="M3" s="37" t="str" cm="1">
+      <c r="M3" s="35" t="str" cm="1">
         <f t="array" ref="M3">INDEX(M5:M7,$A$4)</f>
         <v>IE-OY</v>
       </c>
-      <c r="N3" s="37" t="str" cm="1">
+      <c r="N3" s="35" t="str" cm="1">
         <f t="array" ref="N3">INDEX(N5:N7,$A$4)</f>
         <v>IE-WH</v>
       </c>
-      <c r="O3" s="37" t="str" cm="1">
+      <c r="O3" s="35" t="str" cm="1">
         <f t="array" ref="O3">INDEX(O5:O7,$A$4)</f>
         <v>IE-WX</v>
       </c>
-      <c r="P3" s="37" t="str" cm="1">
+      <c r="P3" s="35" t="str" cm="1">
         <f t="array" ref="P3">INDEX(P5:P7,$A$4)</f>
         <v>IE-WW</v>
       </c>
-      <c r="Q3" s="37" t="str" cm="1">
+      <c r="Q3" s="35" t="str" cm="1">
         <f t="array" ref="Q3">INDEX(Q5:Q7,$A$4)</f>
         <v>IE-CE</v>
       </c>
-      <c r="R3" s="37" t="str" cm="1">
+      <c r="R3" s="35" t="str" cm="1">
         <f t="array" ref="R3">INDEX(R5:R7,$A$4)</f>
         <v>IE-CO</v>
       </c>
-      <c r="S3" s="37" t="str" cm="1">
+      <c r="S3" s="35" t="str" cm="1">
         <f t="array" ref="S3">INDEX(S5:S7,$A$4)</f>
         <v>IE-KY</v>
       </c>
-      <c r="T3" s="37" t="str" cm="1">
+      <c r="T3" s="35" t="str" cm="1">
         <f t="array" ref="T3">INDEX(T5:T7,$A$4)</f>
         <v>IE-LK</v>
       </c>
-      <c r="U3" s="37" t="str" cm="1">
+      <c r="U3" s="35" t="str" cm="1">
         <f t="array" ref="U3">INDEX(U5:U7,$A$4)</f>
         <v>IE-TA</v>
       </c>
-      <c r="V3" s="37" t="str" cm="1">
+      <c r="V3" s="35" t="str" cm="1">
         <f t="array" ref="V3">INDEX(V5:V7,$A$4)</f>
         <v>IE-WD</v>
       </c>
-      <c r="W3" s="37" t="str" cm="1">
+      <c r="W3" s="35" t="str" cm="1">
         <f t="array" ref="W3">INDEX(W5:W7,$A$4)</f>
         <v>IE-G</v>
       </c>
-      <c r="X3" s="37" t="str" cm="1">
+      <c r="X3" s="35" t="str" cm="1">
         <f t="array" ref="X3">INDEX(X5:X7,$A$4)</f>
         <v>IE-LM</v>
       </c>
-      <c r="Y3" s="37" t="str" cm="1">
+      <c r="Y3" s="35" t="str" cm="1">
         <f t="array" ref="Y3">INDEX(Y5:Y7,$A$4)</f>
         <v>IE-MO</v>
       </c>
-      <c r="Z3" s="37" t="str" cm="1">
+      <c r="Z3" s="35" t="str" cm="1">
         <f t="array" ref="Z3">INDEX(Z5:Z7,$A$4)</f>
         <v>IE-RN</v>
       </c>
-      <c r="AA3" s="37" t="str" cm="1">
+      <c r="AA3" s="35" t="str" cm="1">
         <f t="array" ref="AA3">INDEX(AA5:AA7,$A$4)</f>
         <v>IE-SO</v>
       </c>
-      <c r="AB3" s="37" t="str" cm="1">
+      <c r="AB3" s="35" t="str" cm="1">
         <f t="array" ref="AB3">INDEX(AB5:AB7,$A$4)</f>
         <v>IE-CN</v>
       </c>
-      <c r="AC3" s="37" t="str" cm="1">
+      <c r="AC3" s="35" t="str" cm="1">
         <f t="array" ref="AC3">INDEX(AC5:AC7,$A$4)</f>
         <v>IE-DL</v>
       </c>
-      <c r="AD3" s="37" t="str" cm="1">
+      <c r="AD3" s="35" t="str" cm="1">
         <f t="array" ref="AD3">INDEX(AD5:AD7,$A$4)</f>
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="37" t="str">
+      <c r="E5" s="35" t="str">
         <f>Regions!A11</f>
         <v>IE-CW</v>
       </c>
-      <c r="F5" s="37" t="str">
+      <c r="F5" s="35" t="str">
         <f>Regions!A16</f>
         <v>IE-D</v>
       </c>
-      <c r="G5" s="37" t="str">
+      <c r="G5" s="35" t="str">
         <f>Regions!A19</f>
         <v>IE-KE</v>
       </c>
-      <c r="H5" s="37" t="str">
+      <c r="H5" s="35" t="str">
         <f>Regions!A20</f>
         <v>IE-KK</v>
       </c>
-      <c r="I5" s="37" t="str">
+      <c r="I5" s="35" t="str">
         <f>Regions!A21</f>
         <v>IE-LS</v>
       </c>
-      <c r="J5" s="37" t="str">
+      <c r="J5" s="35" t="str">
         <f>Regions!A24</f>
         <v>IE-LD</v>
       </c>
-      <c r="K5" s="37" t="str">
+      <c r="K5" s="35" t="str">
         <f>Regions!A25</f>
         <v>IE-LH</v>
       </c>
-      <c r="L5" s="37" t="str">
+      <c r="L5" s="35" t="str">
         <f>Regions!A27</f>
         <v>IE-MH</v>
       </c>
-      <c r="M5" s="37" t="str">
+      <c r="M5" s="35" t="str">
         <f>Regions!A29</f>
         <v>IE-OY</v>
       </c>
-      <c r="N5" s="37" t="str">
+      <c r="N5" s="35" t="str">
         <f>Regions!A34</f>
         <v>IE-WH</v>
       </c>
-      <c r="O5" s="37" t="str">
+      <c r="O5" s="35" t="str">
         <f>Regions!A35</f>
         <v>IE-WX</v>
       </c>
-      <c r="P5" s="37" t="str">
+      <c r="P5" s="35" t="str">
         <f>Regions!A36</f>
         <v>IE-WW</v>
       </c>
-      <c r="Q5" s="37" t="str">
+      <c r="Q5" s="35" t="str">
         <f>Regions!A13</f>
         <v>IE-CE</v>
       </c>
-      <c r="R5" s="37" t="str">
+      <c r="R5" s="35" t="str">
         <f>Regions!A14</f>
         <v>IE-CO</v>
       </c>
-      <c r="S5" s="37" t="str">
+      <c r="S5" s="35" t="str">
         <f>Regions!A18</f>
         <v>IE-KY</v>
       </c>
-      <c r="T5" s="37" t="str">
+      <c r="T5" s="35" t="str">
         <f>Regions!A23</f>
         <v>IE-LK</v>
       </c>
-      <c r="U5" s="37" t="str">
+      <c r="U5" s="35" t="str">
         <f>Regions!A32</f>
         <v>IE-TA</v>
       </c>
-      <c r="V5" s="37" t="str">
+      <c r="V5" s="35" t="str">
         <f>Regions!A33</f>
         <v>IE-WD</v>
       </c>
-      <c r="W5" s="37" t="str">
+      <c r="W5" s="35" t="str">
         <f>Regions!A17</f>
         <v>IE-G</v>
       </c>
-      <c r="X5" s="37" t="str">
+      <c r="X5" s="35" t="str">
         <f>Regions!A22</f>
         <v>IE-LM</v>
       </c>
-      <c r="Y5" s="37" t="str">
+      <c r="Y5" s="35" t="str">
         <f>Regions!A26</f>
         <v>IE-MO</v>
       </c>
-      <c r="Z5" s="37" t="str">
+      <c r="Z5" s="35" t="str">
         <f>Regions!A30</f>
         <v>IE-RN</v>
       </c>
-      <c r="AA5" s="37" t="str">
+      <c r="AA5" s="35" t="str">
         <f>Regions!A31</f>
         <v>IE-SO</v>
       </c>
-      <c r="AB5" s="37" t="str">
+      <c r="AB5" s="35" t="str">
         <f>Regions!A12</f>
         <v>IE-CN</v>
       </c>
-      <c r="AC5" s="37" t="str">
+      <c r="AC5" s="35" t="str">
         <f>Regions!A15</f>
         <v>IE-DL</v>
       </c>
-      <c r="AD5" s="37" t="str">
+      <c r="AD5" s="35" t="str">
         <f>Regions!A28</f>
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="37" t="str">
+      <c r="C6" s="35" t="str">
         <f>C5</f>
         <v>IE</v>
       </c>
-      <c r="D6" s="37" t="str">
+      <c r="D6" s="35" t="str">
         <f>"*"&amp;D5</f>
         <v>*National</v>
       </c>
-      <c r="E6" s="37" t="str">
+      <c r="E6" s="35" t="str">
         <f t="shared" ref="E6:AD6" si="0">"*"&amp;E5</f>
         <v>*IE-CW</v>
       </c>
-      <c r="F6" s="37" t="str">
+      <c r="F6" s="35" t="str">
         <f t="shared" si="0"/>
         <v>*IE-D</v>
       </c>
-      <c r="G6" s="37" t="str">
+      <c r="G6" s="35" t="str">
         <f t="shared" si="0"/>
         <v>*IE-KE</v>
       </c>
-      <c r="H6" s="37" t="str">
+      <c r="H6" s="35" t="str">
         <f t="shared" si="0"/>
         <v>*IE-KK</v>
       </c>
-      <c r="I6" s="37" t="str">
+      <c r="I6" s="35" t="str">
         <f t="shared" si="0"/>
         <v>*IE-LS</v>
       </c>
-      <c r="J6" s="37" t="str">
+      <c r="J6" s="35" t="str">
         <f t="shared" si="0"/>
         <v>*IE-LD</v>
       </c>
-      <c r="K6" s="37" t="str">
+      <c r="K6" s="35" t="str">
         <f t="shared" si="0"/>
         <v>*IE-LH</v>
       </c>
-      <c r="L6" s="37" t="str">
+      <c r="L6" s="35" t="str">
         <f t="shared" si="0"/>
         <v>*IE-MH</v>
       </c>
-      <c r="M6" s="37" t="str">
+      <c r="M6" s="35" t="str">
         <f t="shared" si="0"/>
         <v>*IE-OY</v>
       </c>
-      <c r="N6" s="37" t="str">
+      <c r="N6" s="35" t="str">
         <f t="shared" si="0"/>
         <v>*IE-WH</v>
       </c>
-      <c r="O6" s="37" t="str">
+      <c r="O6" s="35" t="str">
         <f t="shared" si="0"/>
         <v>*IE-WX</v>
       </c>
-      <c r="P6" s="37" t="str">
+      <c r="P6" s="35" t="str">
         <f t="shared" si="0"/>
         <v>*IE-WW</v>
       </c>
-      <c r="Q6" s="37" t="str">
+      <c r="Q6" s="35" t="str">
         <f t="shared" si="0"/>
         <v>*IE-CE</v>
       </c>
-      <c r="R6" s="37" t="str">
+      <c r="R6" s="35" t="str">
         <f t="shared" si="0"/>
         <v>*IE-CO</v>
       </c>
-      <c r="S6" s="37" t="str">
+      <c r="S6" s="35" t="str">
         <f t="shared" si="0"/>
         <v>*IE-KY</v>
       </c>
-      <c r="T6" s="37" t="str">
+      <c r="T6" s="35" t="str">
         <f t="shared" si="0"/>
         <v>*IE-LK</v>
       </c>
-      <c r="U6" s="37" t="str">
+      <c r="U6" s="35" t="str">
         <f t="shared" si="0"/>
         <v>*IE-TA</v>
       </c>
-      <c r="V6" s="37" t="str">
+      <c r="V6" s="35" t="str">
         <f t="shared" si="0"/>
         <v>*IE-WD</v>
       </c>
-      <c r="W6" s="37" t="str">
+      <c r="W6" s="35" t="str">
         <f t="shared" si="0"/>
         <v>*IE-G</v>
       </c>
-      <c r="X6" s="37" t="str">
+      <c r="X6" s="35" t="str">
         <f t="shared" si="0"/>
         <v>*IE-LM</v>
       </c>
-      <c r="Y6" s="37" t="str">
+      <c r="Y6" s="35" t="str">
         <f t="shared" si="0"/>
         <v>*IE-MO</v>
       </c>
-      <c r="Z6" s="37" t="str">
+      <c r="Z6" s="35" t="str">
         <f t="shared" si="0"/>
         <v>*IE-RN</v>
       </c>
-      <c r="AA6" s="37" t="str">
+      <c r="AA6" s="35" t="str">
         <f t="shared" si="0"/>
         <v>*IE-SO</v>
       </c>
-      <c r="AB6" s="37" t="str">
+      <c r="AB6" s="35" t="str">
         <f t="shared" si="0"/>
         <v>*IE-CN</v>
       </c>
-      <c r="AC6" s="37" t="str">
+      <c r="AC6" s="35" t="str">
         <f t="shared" si="0"/>
         <v>*IE-DL</v>
       </c>
-      <c r="AD6" s="37" t="str">
+      <c r="AD6" s="35" t="str">
         <f t="shared" si="0"/>
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="37" t="str">
+      <c r="C7" s="35" t="str">
         <f>"*"&amp;C5</f>
         <v>*IE</v>
       </c>
-      <c r="D7" s="37" t="str">
+      <c r="D7" s="35" t="str">
         <f>D5</f>
         <v>National</v>
       </c>
-      <c r="E7" s="37" t="str">
+      <c r="E7" s="35" t="str">
         <f t="shared" ref="E7:AD7" si="1">E5</f>
         <v>IE-CW</v>
       </c>
-      <c r="F7" s="37" t="str">
+      <c r="F7" s="35" t="str">
         <f t="shared" si="1"/>
         <v>IE-D</v>
       </c>
-      <c r="G7" s="37" t="str">
+      <c r="G7" s="35" t="str">
         <f t="shared" si="1"/>
         <v>IE-KE</v>
       </c>
-      <c r="H7" s="37" t="str">
+      <c r="H7" s="35" t="str">
         <f t="shared" si="1"/>
         <v>IE-KK</v>
       </c>
-      <c r="I7" s="37" t="str">
+      <c r="I7" s="35" t="str">
         <f t="shared" si="1"/>
         <v>IE-LS</v>
       </c>
-      <c r="J7" s="37" t="str">
+      <c r="J7" s="35" t="str">
         <f t="shared" si="1"/>
         <v>IE-LD</v>
       </c>
-      <c r="K7" s="37" t="str">
+      <c r="K7" s="35" t="str">
         <f t="shared" si="1"/>
         <v>IE-LH</v>
       </c>
-      <c r="L7" s="37" t="str">
+      <c r="L7" s="35" t="str">
         <f t="shared" si="1"/>
         <v>IE-MH</v>
       </c>
-      <c r="M7" s="37" t="str">
+      <c r="M7" s="35" t="str">
         <f t="shared" si="1"/>
         <v>IE-OY</v>
       </c>
-      <c r="N7" s="37" t="str">
+      <c r="N7" s="35" t="str">
         <f t="shared" si="1"/>
         <v>IE-WH</v>
       </c>
-      <c r="O7" s="37" t="str">
+      <c r="O7" s="35" t="str">
         <f t="shared" si="1"/>
         <v>IE-WX</v>
       </c>
-      <c r="P7" s="37" t="str">
+      <c r="P7" s="35" t="str">
         <f t="shared" si="1"/>
         <v>IE-WW</v>
       </c>
-      <c r="Q7" s="37" t="str">
+      <c r="Q7" s="35" t="str">
         <f t="shared" si="1"/>
         <v>IE-CE</v>
       </c>
-      <c r="R7" s="37" t="str">
+      <c r="R7" s="35" t="str">
         <f t="shared" si="1"/>
         <v>IE-CO</v>
       </c>
-      <c r="S7" s="37" t="str">
+      <c r="S7" s="35" t="str">
         <f t="shared" si="1"/>
         <v>IE-KY</v>
       </c>
-      <c r="T7" s="37" t="str">
+      <c r="T7" s="35" t="str">
         <f t="shared" si="1"/>
         <v>IE-LK</v>
       </c>
-      <c r="U7" s="37" t="str">
+      <c r="U7" s="35" t="str">
         <f t="shared" si="1"/>
         <v>IE-TA</v>
       </c>
-      <c r="V7" s="37" t="str">
+      <c r="V7" s="35" t="str">
         <f t="shared" si="1"/>
         <v>IE-WD</v>
       </c>
-      <c r="W7" s="37" t="str">
+      <c r="W7" s="35" t="str">
         <f t="shared" si="1"/>
         <v>IE-G</v>
       </c>
-      <c r="X7" s="37" t="str">
+      <c r="X7" s="35" t="str">
         <f t="shared" si="1"/>
         <v>IE-LM</v>
       </c>
-      <c r="Y7" s="37" t="str">
+      <c r="Y7" s="35" t="str">
         <f t="shared" si="1"/>
         <v>IE-MO</v>
       </c>
-      <c r="Z7" s="37" t="str">
+      <c r="Z7" s="35" t="str">
         <f t="shared" si="1"/>
         <v>IE-RN</v>
       </c>
-      <c r="AA7" s="37" t="str">
+      <c r="AA7" s="35" t="str">
         <f t="shared" si="1"/>
         <v>IE-SO</v>
       </c>
-      <c r="AB7" s="37" t="str">
+      <c r="AB7" s="35" t="str">
         <f t="shared" si="1"/>
         <v>IE-CN</v>
       </c>
-      <c r="AC7" s="37" t="str">
+      <c r="AC7" s="35" t="str">
         <f t="shared" si="1"/>
         <v>IE-DL</v>
       </c>
-      <c r="AD7" s="37" t="str">
+      <c r="AD7" s="35" t="str">
         <f t="shared" si="1"/>
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="39" t="s">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="37" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A11" s="40" t="s">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A12" s="41" t="s">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A12" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="39" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A13" s="41" t="s">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A14" s="41" t="s">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="39" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A15" s="41" t="s">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A16" s="41" t="s">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="41" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="41" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="41" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="39" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="41" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="41" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="39" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="41" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="39" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="41" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="41" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="41" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="41" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="41" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="41" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="39" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="41" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="41" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="41" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="41" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="41" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="41" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="41" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="41" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="42" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="40" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4411,7 +4498,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>23813</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -4431,35 +4518,35 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AQ3"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3:AI3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="34" width="10.6640625" customWidth="1"/>
     <col min="35" max="35" width="10.6640625" style="15" customWidth="1"/>
     <col min="36" max="36" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.53125" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
@@ -4472,7 +4559,7 @@
       <c r="AP2" s="11"/>
       <c r="AQ2" s="11"/>
     </row>
-    <row r="3" spans="1:43" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
@@ -4642,30 +4729,30 @@
       <selection activeCell="I3" sqref="I3:AI3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="34" width="10.6640625" customWidth="1"/>
     <col min="35" max="35" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.53125" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
@@ -4678,7 +4765,7 @@
       <c r="AO2" s="11"/>
       <c r="AP2" s="11"/>
     </row>
-    <row r="3" spans="1:43" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
@@ -4844,184 +4931,184 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B6:AO75"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.796875" customWidth="1"/>
-    <col min="14" max="14" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:41" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:41" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="2:41" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:41" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:41" x14ac:dyDescent="0.3">
       <c r="K9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="2:41" x14ac:dyDescent="0.45">
-      <c r="C10" s="28" t="s">
+    <row r="10" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="C10" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="K10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="30" t="s">
+      <c r="L10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="M10" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="28" t="str">
+      <c r="N10" s="27" t="str">
         <f>Regions!C$3</f>
         <v>IE</v>
       </c>
-      <c r="O10" s="28" t="str">
+      <c r="O10" s="27" t="str">
         <f>Regions!E$3</f>
         <v>IE-CW</v>
       </c>
-      <c r="P10" s="28" t="str">
+      <c r="P10" s="27" t="str">
         <f>Regions!F$3</f>
         <v>IE-D</v>
       </c>
-      <c r="Q10" s="28" t="str">
+      <c r="Q10" s="27" t="str">
         <f>Regions!G$3</f>
         <v>IE-KE</v>
       </c>
-      <c r="R10" s="28" t="str">
+      <c r="R10" s="27" t="str">
         <f>Regions!H$3</f>
         <v>IE-KK</v>
       </c>
-      <c r="S10" s="28" t="str">
+      <c r="S10" s="27" t="str">
         <f>Regions!I$3</f>
         <v>IE-LS</v>
       </c>
-      <c r="T10" s="28" t="str">
+      <c r="T10" s="27" t="str">
         <f>Regions!J$3</f>
         <v>IE-LD</v>
       </c>
-      <c r="U10" s="28" t="str">
+      <c r="U10" s="27" t="str">
         <f>Regions!K$3</f>
         <v>IE-LH</v>
       </c>
-      <c r="V10" s="28" t="str">
+      <c r="V10" s="27" t="str">
         <f>Regions!L$3</f>
         <v>IE-MH</v>
       </c>
-      <c r="W10" s="28" t="str">
+      <c r="W10" s="27" t="str">
         <f>Regions!M$3</f>
         <v>IE-OY</v>
       </c>
-      <c r="X10" s="28" t="str">
+      <c r="X10" s="27" t="str">
         <f>Regions!N$3</f>
         <v>IE-WH</v>
       </c>
-      <c r="Y10" s="28" t="str">
+      <c r="Y10" s="27" t="str">
         <f>Regions!O$3</f>
         <v>IE-WX</v>
       </c>
-      <c r="Z10" s="28" t="str">
+      <c r="Z10" s="27" t="str">
         <f>Regions!P$3</f>
         <v>IE-WW</v>
       </c>
-      <c r="AA10" s="28" t="str">
+      <c r="AA10" s="27" t="str">
         <f>Regions!Q$3</f>
         <v>IE-CE</v>
       </c>
-      <c r="AB10" s="28" t="str">
+      <c r="AB10" s="27" t="str">
         <f>Regions!R$3</f>
         <v>IE-CO</v>
       </c>
-      <c r="AC10" s="28" t="str">
+      <c r="AC10" s="27" t="str">
         <f>Regions!S$3</f>
         <v>IE-KY</v>
       </c>
-      <c r="AD10" s="28" t="str">
+      <c r="AD10" s="27" t="str">
         <f>Regions!T$3</f>
         <v>IE-LK</v>
       </c>
-      <c r="AE10" s="28" t="str">
+      <c r="AE10" s="27" t="str">
         <f>Regions!U$3</f>
         <v>IE-TA</v>
       </c>
-      <c r="AF10" s="28" t="str">
+      <c r="AF10" s="27" t="str">
         <f>Regions!V$3</f>
         <v>IE-WD</v>
       </c>
-      <c r="AG10" s="28" t="str">
+      <c r="AG10" s="27" t="str">
         <f>Regions!W$3</f>
         <v>IE-G</v>
       </c>
-      <c r="AH10" s="28" t="str">
+      <c r="AH10" s="27" t="str">
         <f>Regions!X$3</f>
         <v>IE-LM</v>
       </c>
-      <c r="AI10" s="28" t="str">
+      <c r="AI10" s="27" t="str">
         <f>Regions!Y$3</f>
         <v>IE-MO</v>
       </c>
-      <c r="AJ10" s="28" t="str">
+      <c r="AJ10" s="27" t="str">
         <f>Regions!Z$3</f>
         <v>IE-RN</v>
       </c>
-      <c r="AK10" s="28" t="str">
+      <c r="AK10" s="27" t="str">
         <f>Regions!AA$3</f>
         <v>IE-SO</v>
       </c>
-      <c r="AL10" s="28" t="str">
+      <c r="AL10" s="27" t="str">
         <f>Regions!AB$3</f>
         <v>IE-CN</v>
       </c>
-      <c r="AM10" s="28" t="str">
+      <c r="AM10" s="27" t="str">
         <f>Regions!AC$3</f>
         <v>IE-DL</v>
       </c>
-      <c r="AN10" s="28" t="str">
+      <c r="AN10" s="27" t="str">
         <f>Regions!AD$3</f>
         <v>IE-MN</v>
       </c>
-      <c r="AO10" s="28" t="s">
+      <c r="AO10" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:41" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>94</v>
       </c>
@@ -5046,157 +5133,157 @@
         <f>[1]Demands!B28</f>
         <v>Walk</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="30">
         <f>[1]Demands!C28</f>
         <v>0.32377983784854231</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="30">
         <f>[1]Demands!D28</f>
         <v>0.29539615700051852</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="30">
         <f>[1]Demands!E28</f>
         <v>0.34966256439645477</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="30">
         <f>[1]Demands!F28</f>
         <v>0.31311359703458036</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="30">
         <f>[1]Demands!G28</f>
         <v>0.30099430857485032</v>
       </c>
-      <c r="S11" s="31">
+      <c r="S11" s="30">
         <f>[1]Demands!H28</f>
         <v>0.32585784427063491</v>
       </c>
-      <c r="T11" s="31">
+      <c r="T11" s="30">
         <f>[1]Demands!I28</f>
         <v>0.31296089693181006</v>
       </c>
-      <c r="U11" s="31">
+      <c r="U11" s="30">
         <f>[1]Demands!J28</f>
         <v>0.34414959934244926</v>
       </c>
-      <c r="V11" s="31">
+      <c r="V11" s="30">
         <f>[1]Demands!K28</f>
         <v>0.31640567871855385</v>
       </c>
-      <c r="W11" s="31">
+      <c r="W11" s="30">
         <f>[1]Demands!L28</f>
         <v>0.30551897544605799</v>
       </c>
-      <c r="X11" s="31">
+      <c r="X11" s="30">
         <f>[1]Demands!M28</f>
         <v>0.30690900126975923</v>
       </c>
-      <c r="Y11" s="31">
+      <c r="Y11" s="30">
         <f>[1]Demands!N28</f>
         <v>0.29742024558167873</v>
       </c>
-      <c r="Z11" s="31">
+      <c r="Z11" s="30">
         <f>[1]Demands!O28</f>
         <v>0.31985079986061538</v>
       </c>
-      <c r="AA11" s="31">
+      <c r="AA11" s="30">
         <f>[1]Demands!P28</f>
         <v>0.30317740338092081</v>
       </c>
-      <c r="AB11" s="31">
+      <c r="AB11" s="30">
         <f>[1]Demands!Q28</f>
         <v>0.32755819451934742</v>
       </c>
-      <c r="AC11" s="31">
+      <c r="AC11" s="30">
         <f>[1]Demands!R28</f>
         <v>0.29108733491927802</v>
       </c>
-      <c r="AD11" s="31">
+      <c r="AD11" s="30">
         <f>[1]Demands!S28</f>
         <v>0.32210907481657336</v>
       </c>
-      <c r="AE11" s="31">
+      <c r="AE11" s="30">
         <f>[1]Demands!T28</f>
         <v>0.28924149649685427</v>
       </c>
-      <c r="AF11" s="31">
+      <c r="AF11" s="30">
         <f>[1]Demands!U28</f>
         <v>0.31716332192128543</v>
       </c>
-      <c r="AG11" s="31">
+      <c r="AG11" s="30">
         <f>[1]Demands!V28</f>
         <v>0.31520515014132622</v>
       </c>
-      <c r="AH11" s="31">
+      <c r="AH11" s="30">
         <f>[1]Demands!W28</f>
         <v>0.30543827437637427</v>
       </c>
-      <c r="AI11" s="31">
+      <c r="AI11" s="30">
         <f>[1]Demands!X28</f>
         <v>0.29765342162432462</v>
       </c>
-      <c r="AJ11" s="31">
+      <c r="AJ11" s="30">
         <f>[1]Demands!Y28</f>
         <v>0.28141024531167946</v>
       </c>
-      <c r="AK11" s="31">
+      <c r="AK11" s="30">
         <f>[1]Demands!Z28</f>
         <v>0.32408712009988533</v>
       </c>
-      <c r="AL11" s="31">
+      <c r="AL11" s="30">
         <f>[1]Demands!AA28</f>
         <v>0.33773511822059504</v>
       </c>
-      <c r="AM11" s="31">
+      <c r="AM11" s="30">
         <f>[1]Demands!AB28</f>
         <v>0.36384480991771728</v>
       </c>
-      <c r="AN11" s="31">
+      <c r="AN11" s="30">
         <f>[1]Demands!AC28</f>
         <v>0.29253128431407999</v>
       </c>
-      <c r="AO11" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:41" x14ac:dyDescent="0.45">
+      <c r="AO11" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:41" x14ac:dyDescent="0.3">
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
         <v>69</v>
       </c>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="31"/>
-      <c r="AH12" s="31"/>
-      <c r="AI12" s="31"/>
-      <c r="AJ12" s="31"/>
-      <c r="AK12" s="31"/>
-      <c r="AL12" s="31"/>
-      <c r="AM12" s="31"/>
-      <c r="AN12" s="31"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="30"/>
+      <c r="AN12" s="30"/>
       <c r="AO12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:41" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>73</v>
       </c>
@@ -5221,157 +5308,157 @@
         <f>[1]Demands!B29</f>
         <v>Bike</v>
       </c>
-      <c r="N13" s="31">
+      <c r="N13" s="30">
         <f>[1]Demands!C29</f>
         <v>5.3963306308090382E-2</v>
       </c>
-      <c r="O13" s="31">
+      <c r="O13" s="30">
         <f>[1]Demands!D29</f>
         <v>4.9232692833419758E-2</v>
       </c>
-      <c r="P13" s="31">
+      <c r="P13" s="30">
         <f>[1]Demands!E29</f>
         <v>5.8277094066075792E-2</v>
       </c>
-      <c r="Q13" s="31">
+      <c r="Q13" s="30">
         <f>[1]Demands!F29</f>
         <v>5.2185599505763403E-2</v>
       </c>
-      <c r="R13" s="31">
+      <c r="R13" s="30">
         <f>[1]Demands!G29</f>
         <v>5.016571809580838E-2</v>
       </c>
-      <c r="S13" s="31">
+      <c r="S13" s="30">
         <f>[1]Demands!H29</f>
         <v>5.4309640711772487E-2</v>
       </c>
-      <c r="T13" s="31">
+      <c r="T13" s="30">
         <f>[1]Demands!I29</f>
         <v>5.216014948863501E-2</v>
       </c>
-      <c r="U13" s="31">
+      <c r="U13" s="30">
         <f>[1]Demands!J29</f>
         <v>5.7358266557074891E-2</v>
       </c>
-      <c r="V13" s="31">
+      <c r="V13" s="30">
         <f>[1]Demands!K29</f>
         <v>5.2734279786425649E-2</v>
       </c>
-      <c r="W13" s="31">
+      <c r="W13" s="30">
         <f>[1]Demands!L29</f>
         <v>5.0919829241009663E-2</v>
       </c>
-      <c r="X13" s="31">
+      <c r="X13" s="30">
         <f>[1]Demands!M29</f>
         <v>5.1151500211626538E-2</v>
       </c>
-      <c r="Y13" s="31">
+      <c r="Y13" s="30">
         <f>[1]Demands!N29</f>
         <v>4.95700409302798E-2</v>
       </c>
-      <c r="Z13" s="31">
+      <c r="Z13" s="30">
         <f>[1]Demands!O29</f>
         <v>5.3308466643435894E-2</v>
       </c>
-      <c r="AA13" s="31">
+      <c r="AA13" s="30">
         <f>[1]Demands!P29</f>
         <v>5.052956723015347E-2</v>
       </c>
-      <c r="AB13" s="31">
+      <c r="AB13" s="30">
         <f>[1]Demands!Q29</f>
         <v>5.459303241989124E-2</v>
       </c>
-      <c r="AC13" s="31">
+      <c r="AC13" s="30">
         <f>[1]Demands!R29</f>
         <v>4.8514555819879672E-2</v>
       </c>
-      <c r="AD13" s="31">
+      <c r="AD13" s="30">
         <f>[1]Demands!S29</f>
         <v>5.3684845802762227E-2</v>
       </c>
-      <c r="AE13" s="31">
+      <c r="AE13" s="30">
         <f>[1]Demands!T29</f>
         <v>4.8206916082809047E-2</v>
       </c>
-      <c r="AF13" s="31">
+      <c r="AF13" s="30">
         <f>[1]Demands!U29</f>
         <v>5.2860553653547575E-2</v>
       </c>
-      <c r="AG13" s="31">
+      <c r="AG13" s="30">
         <f>[1]Demands!V29</f>
         <v>5.2534191690221041E-2</v>
       </c>
-      <c r="AH13" s="31">
+      <c r="AH13" s="30">
         <f>[1]Demands!W29</f>
         <v>5.0906379062729046E-2</v>
       </c>
-      <c r="AI13" s="31">
+      <c r="AI13" s="30">
         <f>[1]Demands!X29</f>
         <v>4.9608903604054101E-2</v>
       </c>
-      <c r="AJ13" s="31">
+      <c r="AJ13" s="30">
         <f>[1]Demands!Y29</f>
         <v>4.690170755194658E-2</v>
       </c>
-      <c r="AK13" s="31">
+      <c r="AK13" s="30">
         <f>[1]Demands!Z29</f>
         <v>5.4014520016647569E-2</v>
       </c>
-      <c r="AL13" s="31">
+      <c r="AL13" s="30">
         <f>[1]Demands!AA29</f>
         <v>5.6289186370099165E-2</v>
       </c>
-      <c r="AM13" s="31">
+      <c r="AM13" s="30">
         <f>[1]Demands!AB29</f>
         <v>6.064080165295288E-2</v>
       </c>
-      <c r="AN13" s="31">
+      <c r="AN13" s="30">
         <f>[1]Demands!AC29</f>
         <v>4.8755214052346667E-2</v>
       </c>
-      <c r="AO13" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:41" x14ac:dyDescent="0.45">
+      <c r="AO13" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:41" x14ac:dyDescent="0.3">
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14" t="s">
         <v>69</v>
       </c>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="31"/>
-      <c r="AI14" s="31"/>
-      <c r="AJ14" s="31"/>
-      <c r="AK14" s="31"/>
-      <c r="AL14" s="31"/>
-      <c r="AM14" s="31"/>
-      <c r="AN14" s="31"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="30"/>
       <c r="AO14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:41" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>74</v>
       </c>
@@ -5396,157 +5483,157 @@
         <f>[1]Demands!B30</f>
         <v>2-wheelers</v>
       </c>
-      <c r="N15" s="31">
+      <c r="N15" s="30">
         <f>[1]Demands!C30</f>
         <v>1.2024577456126329E-3</v>
       </c>
-      <c r="O15" s="31">
+      <c r="O15" s="30">
         <f>[1]Demands!D30</f>
         <v>8.4181954391599476E-4</v>
       </c>
-      <c r="P15" s="31">
+      <c r="P15" s="30">
         <f>[1]Demands!E30</f>
         <v>1.4736843073167786E-3</v>
       </c>
-      <c r="Q15" s="31">
+      <c r="Q15" s="30">
         <f>[1]Demands!F30</f>
         <v>1.3698908311171865E-3</v>
       </c>
-      <c r="R15" s="31">
+      <c r="R15" s="30">
         <f>[1]Demands!G30</f>
         <v>9.8425388735709995E-4</v>
       </c>
-      <c r="S15" s="31">
+      <c r="S15" s="30">
         <f>[1]Demands!H30</f>
         <v>6.2421004942624992E-4</v>
       </c>
-      <c r="T15" s="31">
+      <c r="T15" s="30">
         <f>[1]Demands!I30</f>
         <v>1.2422933671109623E-3</v>
       </c>
-      <c r="U15" s="31">
+      <c r="U15" s="30">
         <f>[1]Demands!J30</f>
         <v>8.6646068484003841E-4</v>
       </c>
-      <c r="V15" s="31">
+      <c r="V15" s="30">
         <f>[1]Demands!K30</f>
         <v>1.3159890714686659E-3</v>
       </c>
-      <c r="W15" s="31">
+      <c r="W15" s="30">
         <f>[1]Demands!L30</f>
         <v>1.2716318220191991E-3</v>
       </c>
-      <c r="X15" s="31">
+      <c r="X15" s="30">
         <f>[1]Demands!M30</f>
         <v>1.1218737998245681E-3</v>
       </c>
-      <c r="Y15" s="31">
+      <c r="Y15" s="30">
         <f>[1]Demands!N30</f>
         <v>1.2891857705150252E-3</v>
       </c>
-      <c r="Z15" s="31">
+      <c r="Z15" s="30">
         <f>[1]Demands!O30</f>
         <v>1.4574437703184118E-3</v>
       </c>
-      <c r="AA15" s="31">
+      <c r="AA15" s="30">
         <f>[1]Demands!P30</f>
         <v>1.2419671387040388E-3</v>
       </c>
-      <c r="AB15" s="31">
+      <c r="AB15" s="30">
         <f>[1]Demands!Q30</f>
         <v>1.4684396048311016E-3</v>
       </c>
-      <c r="AC15" s="31">
+      <c r="AC15" s="30">
         <f>[1]Demands!R30</f>
         <v>9.5921086863546602E-4</v>
       </c>
-      <c r="AD15" s="31">
+      <c r="AD15" s="30">
         <f>[1]Demands!S30</f>
         <v>1.0725657999581929E-3</v>
       </c>
-      <c r="AE15" s="31">
+      <c r="AE15" s="30">
         <f>[1]Demands!T30</f>
         <v>1.1764845294377178E-3</v>
       </c>
-      <c r="AF15" s="31">
+      <c r="AF15" s="30">
         <f>[1]Demands!U30</f>
         <v>1.3287962602263445E-3</v>
       </c>
-      <c r="AG15" s="31">
+      <c r="AG15" s="30">
         <f>[1]Demands!V30</f>
         <v>7.9269582890742734E-4</v>
       </c>
-      <c r="AH15" s="31">
+      <c r="AH15" s="30">
         <f>[1]Demands!W30</f>
         <v>0</v>
       </c>
-      <c r="AI15" s="31">
+      <c r="AI15" s="30">
         <f>[1]Demands!X30</f>
         <v>7.4007830335184128E-4</v>
       </c>
-      <c r="AJ15" s="31">
+      <c r="AJ15" s="30">
         <f>[1]Demands!Y30</f>
         <v>7.0738302217035411E-4</v>
       </c>
-      <c r="AK15" s="31">
+      <c r="AK15" s="30">
         <f>[1]Demands!Z30</f>
         <v>8.0234115950314402E-4</v>
       </c>
-      <c r="AL15" s="31">
+      <c r="AL15" s="30">
         <f>[1]Demands!AA30</f>
         <v>7.1933080869381386E-4</v>
       </c>
-      <c r="AM15" s="31">
+      <c r="AM15" s="30">
         <f>[1]Demands!AB30</f>
         <v>7.4164409782466955E-4</v>
       </c>
-      <c r="AN15" s="31">
+      <c r="AN15" s="30">
         <f>[1]Demands!AC30</f>
         <v>7.7316749378532367E-4</v>
       </c>
-      <c r="AO15" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:41" x14ac:dyDescent="0.45">
+      <c r="AO15" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:41" x14ac:dyDescent="0.3">
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16" t="s">
         <v>69</v>
       </c>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31"/>
-      <c r="AG16" s="31"/>
-      <c r="AH16" s="31"/>
-      <c r="AI16" s="31"/>
-      <c r="AJ16" s="31"/>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="31"/>
-      <c r="AM16" s="31"/>
-      <c r="AN16" s="31"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="30"/>
+      <c r="AM16" s="30"/>
+      <c r="AN16" s="30"/>
       <c r="AO16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>75</v>
       </c>
@@ -5570,157 +5657,157 @@
         <f>[1]Demands!B31</f>
         <v>LDV</v>
       </c>
-      <c r="N17" s="31">
+      <c r="N17" s="30">
         <f>[1]Demands!C31</f>
         <v>0.51421690231633799</v>
       </c>
-      <c r="O17" s="31">
+      <c r="O17" s="30">
         <f>[1]Demands!D31</f>
         <v>0.57696936147650701</v>
       </c>
-      <c r="P17" s="31">
+      <c r="P17" s="30">
         <f>[1]Demands!E31</f>
         <v>0.41519891685215071</v>
       </c>
-      <c r="Q17" s="31">
+      <c r="Q17" s="30">
         <f>[1]Demands!F31</f>
         <v>0.53837411623785481</v>
       </c>
-      <c r="R17" s="31">
+      <c r="R17" s="30">
         <f>[1]Demands!G31</f>
         <v>0.5273035898540861</v>
       </c>
-      <c r="S17" s="31">
+      <c r="S17" s="30">
         <f>[1]Demands!H31</f>
         <v>0.54428190464659498</v>
       </c>
-      <c r="T17" s="31">
+      <c r="T17" s="30">
         <f>[1]Demands!I31</f>
         <v>0.54724418926165252</v>
       </c>
-      <c r="U17" s="31">
+      <c r="U17" s="30">
         <f>[1]Demands!J31</f>
         <v>0.50629481396736598</v>
       </c>
-      <c r="V17" s="31">
+      <c r="V17" s="30">
         <f>[1]Demands!K31</f>
         <v>0.54969956239724382</v>
       </c>
-      <c r="W17" s="31">
+      <c r="W17" s="30">
         <f>[1]Demands!L31</f>
         <v>0.54286879912927866</v>
       </c>
-      <c r="X17" s="31">
+      <c r="X17" s="30">
         <f>[1]Demands!M31</f>
         <v>0.57050800443626981</v>
       </c>
-      <c r="Y17" s="31">
+      <c r="Y17" s="30">
         <f>[1]Demands!N31</f>
         <v>0.57834017325166753</v>
       </c>
-      <c r="Z17" s="31">
+      <c r="Z17" s="30">
         <f>[1]Demands!O31</f>
         <v>0.54807767476728875</v>
       </c>
-      <c r="AA17" s="31">
+      <c r="AA17" s="30">
         <f>[1]Demands!P31</f>
         <v>0.57445550608131724</v>
       </c>
-      <c r="AB17" s="31">
+      <c r="AB17" s="30">
         <f>[1]Demands!Q31</f>
         <v>0.54514159019281827</v>
       </c>
-      <c r="AC17" s="31">
+      <c r="AC17" s="30">
         <f>[1]Demands!R31</f>
         <v>0.52942173322971142</v>
       </c>
-      <c r="AD17" s="31">
+      <c r="AD17" s="30">
         <f>[1]Demands!S31</f>
         <v>0.54890743812317566</v>
       </c>
-      <c r="AE17" s="31">
+      <c r="AE17" s="30">
         <f>[1]Demands!T31</f>
         <v>0.57655830557717536</v>
       </c>
-      <c r="AF17" s="31">
+      <c r="AF17" s="30">
         <f>[1]Demands!U31</f>
         <v>0.56469028513375741</v>
       </c>
-      <c r="AG17" s="31">
+      <c r="AG17" s="30">
         <f>[1]Demands!V31</f>
         <v>0.5314898835087899</v>
       </c>
-      <c r="AH17" s="31">
+      <c r="AH17" s="30">
         <f>[1]Demands!W31</f>
         <v>0.5710449216561202</v>
       </c>
-      <c r="AI17" s="31">
+      <c r="AI17" s="30">
         <f>[1]Demands!X31</f>
         <v>0.54463316447281129</v>
       </c>
-      <c r="AJ17" s="31">
+      <c r="AJ17" s="30">
         <f>[1]Demands!Y31</f>
         <v>0.60580683229929833</v>
       </c>
-      <c r="AK17" s="31">
+      <c r="AK17" s="30">
         <f>[1]Demands!Z31</f>
         <v>0.54575340066281097</v>
       </c>
-      <c r="AL17" s="31">
+      <c r="AL17" s="30">
         <f>[1]Demands!AA31</f>
         <v>0.57130392959697351</v>
       </c>
-      <c r="AM17" s="31">
+      <c r="AM17" s="30">
         <f>[1]Demands!AB31</f>
         <v>0.56067924597798535</v>
       </c>
-      <c r="AN17" s="31">
+      <c r="AN17" s="30">
         <f>[1]Demands!AC31</f>
         <v>0.49285227418620653</v>
       </c>
-      <c r="AO17" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:41" x14ac:dyDescent="0.45">
+      <c r="AO17" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:41" x14ac:dyDescent="0.3">
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18" t="s">
         <v>69</v>
       </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="31"/>
-      <c r="AI18" s="31"/>
-      <c r="AJ18" s="31"/>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="31"/>
-      <c r="AM18" s="31"/>
-      <c r="AN18" s="31"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="30"/>
+      <c r="AJ18" s="30"/>
+      <c r="AK18" s="30"/>
+      <c r="AL18" s="30"/>
+      <c r="AM18" s="30"/>
+      <c r="AN18" s="30"/>
       <c r="AO18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>76</v>
       </c>
@@ -5744,157 +5831,157 @@
         <f>[1]Demands!B32</f>
         <v>Taxis</v>
       </c>
-      <c r="N19" s="31">
+      <c r="N19" s="30">
         <f>[1]Demands!C32</f>
         <v>1.6399604421517593E-2</v>
       </c>
-      <c r="O19" s="31">
+      <c r="O19" s="30">
         <f>[1]Demands!D32</f>
         <v>7.4490307781118984E-3</v>
       </c>
-      <c r="P19" s="31">
+      <c r="P19" s="30">
         <f>[1]Demands!E32</f>
         <v>3.2041705931306341E-2</v>
       </c>
-      <c r="Q19" s="31">
+      <c r="Q19" s="30">
         <f>[1]Demands!F32</f>
         <v>1.4142087272297982E-2</v>
       </c>
-      <c r="R19" s="31">
+      <c r="R19" s="30">
         <f>[1]Demands!G32</f>
         <v>7.8384539751406128E-3</v>
       </c>
-      <c r="S19" s="31">
+      <c r="S19" s="30">
         <f>[1]Demands!H32</f>
         <v>9.942235039347571E-3</v>
       </c>
-      <c r="T19" s="31">
+      <c r="T19" s="30">
         <f>[1]Demands!I32</f>
         <v>8.7941712391293846E-3</v>
       </c>
-      <c r="U19" s="31">
+      <c r="U19" s="30">
         <f>[1]Demands!J32</f>
         <v>1.9167683727598969E-2</v>
       </c>
-      <c r="V19" s="31">
+      <c r="V19" s="30">
         <f>[1]Demands!K32</f>
         <v>1.9563309645198885E-2</v>
       </c>
-      <c r="W19" s="31">
+      <c r="W19" s="30">
         <f>[1]Demands!L32</f>
         <v>6.7513932047123726E-3</v>
       </c>
-      <c r="X19" s="31">
+      <c r="X19" s="30">
         <f>[1]Demands!M32</f>
         <v>1.1912585101328303E-2</v>
       </c>
-      <c r="Y19" s="31">
+      <c r="Y19" s="30">
         <f>[1]Demands!N32</f>
         <v>6.2742086519266488E-3</v>
       </c>
-      <c r="Z19" s="31">
+      <c r="Z19" s="30">
         <f>[1]Demands!O32</f>
         <v>9.0275647633180547E-3</v>
       </c>
-      <c r="AA19" s="31">
+      <c r="AA19" s="30">
         <f>[1]Demands!P32</f>
         <v>1.0257172186811273E-2</v>
       </c>
-      <c r="AB19" s="31">
+      <c r="AB19" s="30">
         <f>[1]Demands!Q32</f>
         <v>1.2127565539618518E-2</v>
       </c>
-      <c r="AC19" s="31">
+      <c r="AC19" s="30">
         <f>[1]Demands!R32</f>
         <v>1.0185353383353699E-2</v>
       </c>
-      <c r="AD19" s="31">
+      <c r="AD19" s="30">
         <f>[1]Demands!S32</f>
         <v>1.2812635692286438E-2</v>
       </c>
-      <c r="AE19" s="31">
+      <c r="AE19" s="30">
         <f>[1]Demands!T32</f>
         <v>5.2051948265462115E-3</v>
       </c>
-      <c r="AF19" s="31">
+      <c r="AF19" s="30">
         <f>[1]Demands!U32</f>
         <v>8.6226466174633056E-3</v>
       </c>
-      <c r="AG19" s="31">
+      <c r="AG19" s="30">
         <f>[1]Demands!V32</f>
         <v>1.3327262086971724E-2</v>
       </c>
-      <c r="AH19" s="31">
+      <c r="AH19" s="30">
         <f>[1]Demands!W32</f>
         <v>8.2106842864435349E-3</v>
       </c>
-      <c r="AI19" s="31">
+      <c r="AI19" s="30">
         <f>[1]Demands!X32</f>
         <v>7.2036254203120672E-3</v>
       </c>
-      <c r="AJ19" s="31">
+      <c r="AJ19" s="30">
         <f>[1]Demands!Y32</f>
         <v>6.2594387860714779E-3</v>
       </c>
-      <c r="AK19" s="31">
+      <c r="AK19" s="30">
         <f>[1]Demands!Z32</f>
         <v>8.5196368293601697E-3</v>
       </c>
-      <c r="AL19" s="31">
+      <c r="AL19" s="30">
         <f>[1]Demands!AA32</f>
         <v>8.9112260712667282E-3</v>
       </c>
-      <c r="AM19" s="31">
+      <c r="AM19" s="30">
         <f>[1]Demands!AB32</f>
         <v>9.8439085033626087E-3</v>
       </c>
-      <c r="AN19" s="31">
+      <c r="AN19" s="30">
         <f>[1]Demands!AC32</f>
         <v>4.1049285439853662E-3</v>
       </c>
-      <c r="AO19" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:41" x14ac:dyDescent="0.45">
+      <c r="AO19" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:41" x14ac:dyDescent="0.3">
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20" t="s">
         <v>69</v>
       </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="31"/>
-      <c r="AE20" s="31"/>
-      <c r="AF20" s="31"/>
-      <c r="AG20" s="31"/>
-      <c r="AH20" s="31"/>
-      <c r="AI20" s="31"/>
-      <c r="AJ20" s="31"/>
-      <c r="AK20" s="31"/>
-      <c r="AL20" s="31"/>
-      <c r="AM20" s="31"/>
-      <c r="AN20" s="31"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="30"/>
+      <c r="AJ20" s="30"/>
+      <c r="AK20" s="30"/>
+      <c r="AL20" s="30"/>
+      <c r="AM20" s="30"/>
+      <c r="AN20" s="30"/>
       <c r="AO20">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>77</v>
       </c>
@@ -5919,157 +6006,157 @@
         <f>[1]Demands!B33</f>
         <v>BUS</v>
       </c>
-      <c r="N21" s="31">
+      <c r="N21" s="30">
         <f>[1]Demands!C33</f>
         <v>8.2740995898888392E-2</v>
       </c>
-      <c r="O21" s="31">
+      <c r="O21" s="30">
         <f>[1]Demands!D33</f>
         <v>7.0110938367526743E-2</v>
       </c>
-      <c r="P21" s="31">
+      <c r="P21" s="30">
         <f>[1]Demands!E33</f>
         <v>0.1139689510378053</v>
       </c>
-      <c r="Q21" s="31">
+      <c r="Q21" s="30">
         <f>[1]Demands!F33</f>
         <v>8.0814709118386313E-2</v>
       </c>
-      <c r="R21" s="31">
+      <c r="R21" s="30">
         <f>[1]Demands!G33</f>
         <v>0.11271367561275741</v>
       </c>
-      <c r="S21" s="31">
+      <c r="S21" s="30">
         <f>[1]Demands!H33</f>
         <v>6.4984165282223824E-2</v>
       </c>
-      <c r="T21" s="31">
+      <c r="T21" s="30">
         <f>[1]Demands!I33</f>
         <v>7.7598299711661989E-2</v>
       </c>
-      <c r="U21" s="31">
+      <c r="U21" s="30">
         <f>[1]Demands!J33</f>
         <v>7.216317572067088E-2</v>
       </c>
-      <c r="V21" s="31">
+      <c r="V21" s="30">
         <f>[1]Demands!K33</f>
         <v>6.0281180381109148E-2</v>
       </c>
-      <c r="W21" s="31">
+      <c r="W21" s="30">
         <f>[1]Demands!L33</f>
         <v>9.2669371156921962E-2</v>
       </c>
-      <c r="X21" s="31">
+      <c r="X21" s="30">
         <f>[1]Demands!M33</f>
         <v>5.839703518119168E-2</v>
       </c>
-      <c r="Y21" s="31">
+      <c r="Y21" s="30">
         <f>[1]Demands!N33</f>
         <v>6.7106145813932178E-2</v>
       </c>
-      <c r="Z21" s="31">
+      <c r="Z21" s="30">
         <f>[1]Demands!O33</f>
         <v>6.8278050195023532E-2</v>
       </c>
-      <c r="AA21" s="31">
+      <c r="AA21" s="30">
         <f>[1]Demands!P33</f>
         <v>6.0338383982093263E-2</v>
       </c>
-      <c r="AB21" s="31">
+      <c r="AB21" s="30">
         <f>[1]Demands!Q33</f>
         <v>5.9111177723493433E-2</v>
       </c>
-      <c r="AC21" s="31">
+      <c r="AC21" s="30">
         <f>[1]Demands!R33</f>
         <v>0.11983181177914175</v>
       </c>
-      <c r="AD21" s="31">
+      <c r="AD21" s="30">
         <f>[1]Demands!S33</f>
         <v>6.1413439765244195E-2</v>
       </c>
-      <c r="AE21" s="31">
+      <c r="AE21" s="30">
         <f>[1]Demands!T33</f>
         <v>7.9611602487177441E-2</v>
       </c>
-      <c r="AF21" s="31">
+      <c r="AF21" s="30">
         <f>[1]Demands!U33</f>
         <v>5.5334396413720018E-2</v>
       </c>
-      <c r="AG21" s="31">
+      <c r="AG21" s="30">
         <f>[1]Demands!V33</f>
         <v>8.6650816743783748E-2</v>
       </c>
-      <c r="AH21" s="31">
+      <c r="AH21" s="30">
         <f>[1]Demands!W33</f>
         <v>6.4399740618333048E-2</v>
       </c>
-      <c r="AI21" s="31">
+      <c r="AI21" s="30">
         <f>[1]Demands!X33</f>
         <v>0.10016080657514609</v>
       </c>
-      <c r="AJ21" s="31">
+      <c r="AJ21" s="30">
         <f>[1]Demands!Y33</f>
         <v>5.8914393028833764E-2</v>
       </c>
-      <c r="AK21" s="31">
+      <c r="AK21" s="30">
         <f>[1]Demands!Z33</f>
         <v>6.6822981231792783E-2</v>
       </c>
-      <c r="AL21" s="31">
+      <c r="AL21" s="30">
         <f>[1]Demands!AA33</f>
         <v>2.5041208932371696E-2</v>
       </c>
-      <c r="AM21" s="31">
+      <c r="AM21" s="30">
         <f>[1]Demands!AB33</f>
         <v>4.2495898501573662E-3</v>
       </c>
-      <c r="AN21" s="31">
+      <c r="AN21" s="30">
         <f>[1]Demands!AC33</f>
         <v>0.16098313140959611</v>
       </c>
-      <c r="AO21" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:41" x14ac:dyDescent="0.45">
+      <c r="AO21" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:41" x14ac:dyDescent="0.3">
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22" t="s">
         <v>69</v>
       </c>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="31"/>
-      <c r="AF22" s="31"/>
-      <c r="AG22" s="31"/>
-      <c r="AH22" s="31"/>
-      <c r="AI22" s="31"/>
-      <c r="AJ22" s="31"/>
-      <c r="AK22" s="31"/>
-      <c r="AL22" s="31"/>
-      <c r="AM22" s="31"/>
-      <c r="AN22" s="31"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="30"/>
+      <c r="AH22" s="30"/>
+      <c r="AI22" s="30"/>
+      <c r="AJ22" s="30"/>
+      <c r="AK22" s="30"/>
+      <c r="AL22" s="30"/>
+      <c r="AM22" s="30"/>
+      <c r="AN22" s="30"/>
       <c r="AO22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>93</v>
       </c>
@@ -6094,472 +6181,507 @@
         <f>[1]Demands!B34</f>
         <v>Light rail (LUAS)</v>
       </c>
-      <c r="N23" s="31">
+      <c r="N23" s="30">
         <f>[1]Demands!C34</f>
         <v>7.6968954610109105E-3</v>
       </c>
-      <c r="O23" s="31">
+      <c r="O23" s="30">
         <f>[1]Demands!D34</f>
         <v>0</v>
       </c>
-      <c r="P23" s="31">
+      <c r="P23" s="30">
         <f>[1]Demands!E34</f>
         <v>2.9377083408890298E-2</v>
       </c>
-      <c r="Q23" s="31">
+      <c r="Q23" s="30">
         <f>[1]Demands!F34</f>
         <v>0</v>
       </c>
-      <c r="R23" s="31">
+      <c r="R23" s="30">
         <f>[1]Demands!G34</f>
         <v>0</v>
       </c>
-      <c r="S23" s="31">
+      <c r="S23" s="30">
         <f>[1]Demands!H34</f>
         <v>0</v>
       </c>
-      <c r="T23" s="31">
+      <c r="T23" s="30">
         <f>[1]Demands!I34</f>
         <v>0</v>
       </c>
-      <c r="U23" s="31">
+      <c r="U23" s="30">
         <f>[1]Demands!J34</f>
         <v>0</v>
       </c>
-      <c r="V23" s="31">
+      <c r="V23" s="30">
         <f>[1]Demands!K34</f>
         <v>0</v>
       </c>
-      <c r="W23" s="31">
+      <c r="W23" s="30">
         <f>[1]Demands!L34</f>
         <v>0</v>
       </c>
-      <c r="X23" s="31">
+      <c r="X23" s="30">
         <f>[1]Demands!M34</f>
         <v>0</v>
       </c>
-      <c r="Y23" s="31">
+      <c r="Y23" s="30">
         <f>[1]Demands!N34</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="31">
+      <c r="Z23" s="30">
         <f>[1]Demands!O34</f>
         <v>0</v>
       </c>
-      <c r="AA23" s="31">
+      <c r="AA23" s="30">
         <f>[1]Demands!P34</f>
         <v>0</v>
       </c>
-      <c r="AB23" s="31">
+      <c r="AB23" s="30">
         <f>[1]Demands!Q34</f>
         <v>0</v>
       </c>
-      <c r="AC23" s="31">
+      <c r="AC23" s="30">
         <f>[1]Demands!R34</f>
         <v>0</v>
       </c>
-      <c r="AD23" s="31">
+      <c r="AD23" s="30">
         <f>[1]Demands!S34</f>
         <v>0</v>
       </c>
-      <c r="AE23" s="31">
+      <c r="AE23" s="30">
         <f>[1]Demands!T34</f>
         <v>0</v>
       </c>
-      <c r="AF23" s="31">
+      <c r="AF23" s="30">
         <f>[1]Demands!U34</f>
         <v>0</v>
       </c>
-      <c r="AG23" s="31">
+      <c r="AG23" s="30">
         <f>[1]Demands!V34</f>
         <v>0</v>
       </c>
-      <c r="AH23" s="31">
+      <c r="AH23" s="30">
         <f>[1]Demands!W34</f>
         <v>0</v>
       </c>
-      <c r="AI23" s="31">
+      <c r="AI23" s="30">
         <f>[1]Demands!X34</f>
         <v>0</v>
       </c>
-      <c r="AJ23" s="31">
+      <c r="AJ23" s="30">
         <f>[1]Demands!Y34</f>
         <v>0</v>
       </c>
-      <c r="AK23" s="31">
+      <c r="AK23" s="30">
         <f>[1]Demands!Z34</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="31">
+      <c r="AL23" s="30">
         <f>[1]Demands!AA34</f>
         <v>0</v>
       </c>
-      <c r="AM23" s="31">
+      <c r="AM23" s="30">
         <f>[1]Demands!AB34</f>
         <v>0</v>
       </c>
-      <c r="AN23" s="31">
+      <c r="AN23" s="30">
         <f>[1]Demands!AC34</f>
         <v>0</v>
       </c>
-      <c r="AO23" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:41" x14ac:dyDescent="0.45">
+      <c r="AO23" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:41" x14ac:dyDescent="0.3">
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="31"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="31"/>
-      <c r="AI24" s="31"/>
-      <c r="AJ24" s="31"/>
-      <c r="AK24" s="31"/>
-      <c r="AL24" s="31"/>
-      <c r="AM24" s="31"/>
-      <c r="AN24" s="31"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="30"/>
+      <c r="AK24" s="30"/>
+      <c r="AL24" s="30"/>
+      <c r="AM24" s="30"/>
+      <c r="AN24" s="30"/>
       <c r="AO24">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C25" s="32" t="s">
+    <row r="25" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C25" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32" t="s">
+      <c r="D25" s="33"/>
+      <c r="E25" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32" t="str">
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33" t="str">
         <f t="shared" ref="H25" si="0">H23</f>
         <v>TRAPS</v>
       </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32">
+      <c r="I25" s="33"/>
+      <c r="J25" s="33">
         <v>2018</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L25" s="32">
+      <c r="L25" s="33">
         <v>-1</v>
       </c>
-      <c r="M25" s="32" t="str">
+      <c r="M25" s="33" t="str">
         <f>[1]Demands!B35</f>
         <v>Train</v>
       </c>
-      <c r="N25" s="33">
+      <c r="N25" s="34">
         <f>[1]Demands!C35</f>
         <v>0</v>
       </c>
-      <c r="O25" s="33">
+      <c r="O25" s="34">
         <f>[1]Demands!D35</f>
         <v>0</v>
       </c>
-      <c r="P25" s="33">
+      <c r="P25" s="34">
         <f>[1]Demands!E35</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="33">
+      <c r="Q25" s="34">
         <f>[1]Demands!F35</f>
         <v>0</v>
       </c>
-      <c r="R25" s="33">
+      <c r="R25" s="34">
         <f>[1]Demands!G35</f>
         <v>0</v>
       </c>
-      <c r="S25" s="33">
+      <c r="S25" s="34">
         <f>[1]Demands!H35</f>
         <v>0</v>
       </c>
-      <c r="T25" s="33">
+      <c r="T25" s="34">
         <f>[1]Demands!I35</f>
         <v>0</v>
       </c>
-      <c r="U25" s="33">
+      <c r="U25" s="34">
         <f>[1]Demands!J35</f>
         <v>0</v>
       </c>
-      <c r="V25" s="33">
+      <c r="V25" s="34">
         <f>[1]Demands!K35</f>
         <v>0</v>
       </c>
-      <c r="W25" s="33">
+      <c r="W25" s="34">
         <f>[1]Demands!L35</f>
         <v>0</v>
       </c>
-      <c r="X25" s="33">
+      <c r="X25" s="34">
         <f>[1]Demands!M35</f>
         <v>0</v>
       </c>
-      <c r="Y25" s="33">
+      <c r="Y25" s="34">
         <f>[1]Demands!N35</f>
         <v>0</v>
       </c>
-      <c r="Z25" s="33">
+      <c r="Z25" s="34">
         <f>[1]Demands!O35</f>
         <v>0</v>
       </c>
-      <c r="AA25" s="33">
+      <c r="AA25" s="34">
         <f>[1]Demands!P35</f>
         <v>0</v>
       </c>
-      <c r="AB25" s="33">
+      <c r="AB25" s="34">
         <f>[1]Demands!Q35</f>
         <v>0</v>
       </c>
-      <c r="AC25" s="33">
+      <c r="AC25" s="34">
         <f>[1]Demands!R35</f>
         <v>0</v>
       </c>
-      <c r="AD25" s="33">
+      <c r="AD25" s="34">
         <f>[1]Demands!S35</f>
         <v>0</v>
       </c>
-      <c r="AE25" s="33">
+      <c r="AE25" s="34">
         <f>[1]Demands!T35</f>
         <v>0</v>
       </c>
-      <c r="AF25" s="33">
+      <c r="AF25" s="34">
         <f>[1]Demands!U35</f>
         <v>0</v>
       </c>
-      <c r="AG25" s="33">
+      <c r="AG25" s="34">
         <f>[1]Demands!V35</f>
         <v>0</v>
       </c>
-      <c r="AH25" s="33">
+      <c r="AH25" s="34">
         <f>[1]Demands!W35</f>
         <v>0</v>
       </c>
-      <c r="AI25" s="33">
+      <c r="AI25" s="34">
         <f>[1]Demands!X35</f>
         <v>0</v>
       </c>
-      <c r="AJ25" s="33">
+      <c r="AJ25" s="34">
         <f>[1]Demands!Y35</f>
         <v>0</v>
       </c>
-      <c r="AK25" s="33">
+      <c r="AK25" s="34">
         <f>[1]Demands!Z35</f>
         <v>0</v>
       </c>
-      <c r="AL25" s="33">
+      <c r="AL25" s="34">
         <f>[1]Demands!AA35</f>
         <v>0</v>
       </c>
-      <c r="AM25" s="33">
+      <c r="AM25" s="34">
         <f>[1]Demands!AB35</f>
         <v>0</v>
       </c>
-      <c r="AN25" s="33">
+      <c r="AN25" s="34">
         <f>[1]Demands!AC35</f>
         <v>0</v>
       </c>
-      <c r="AO25" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="J26" s="36">
-        <v>0</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="AO25" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="48">
+        <v>0</v>
+      </c>
+      <c r="K26" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="N26" s="31"/>
-      <c r="AO26">
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="31"/>
+      <c r="AF26" s="31"/>
+      <c r="AG26" s="31"/>
+      <c r="AH26" s="31"/>
+      <c r="AI26" s="31"/>
+      <c r="AJ26" s="31"/>
+      <c r="AK26" s="31"/>
+      <c r="AL26" s="31"/>
+      <c r="AM26" s="31"/>
+      <c r="AN26" s="31"/>
+      <c r="AO26" s="31">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="N27" s="31"/>
-    </row>
-    <row r="28" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="N28" s="31"/>
-    </row>
-    <row r="31" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="N27" s="30"/>
+    </row>
+    <row r="28" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="N28" s="30"/>
+    </row>
+    <row r="31" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C32" s="7"/>
     </row>
-    <row r="33" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:41" x14ac:dyDescent="0.3">
       <c r="K33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C34" s="28" t="s">
+    <row r="34" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C34" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F34" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G34" s="29" t="s">
+      <c r="G34" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="30" t="s">
+      <c r="H34" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I34" s="30" t="s">
+      <c r="I34" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="J34" s="30" t="s">
+      <c r="J34" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="K34" s="30" t="s">
+      <c r="K34" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="L34" s="30" t="s">
+      <c r="L34" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="M34" s="28" t="s">
+      <c r="M34" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="N34" s="28" t="str">
+      <c r="N34" s="27" t="str">
         <f>Regions!C$3</f>
         <v>IE</v>
       </c>
-      <c r="O34" s="28" t="str">
+      <c r="O34" s="27" t="str">
         <f>Regions!E$3</f>
         <v>IE-CW</v>
       </c>
-      <c r="P34" s="28" t="str">
+      <c r="P34" s="27" t="str">
         <f>Regions!F$3</f>
         <v>IE-D</v>
       </c>
-      <c r="Q34" s="28" t="str">
+      <c r="Q34" s="27" t="str">
         <f>Regions!G$3</f>
         <v>IE-KE</v>
       </c>
-      <c r="R34" s="28" t="str">
+      <c r="R34" s="27" t="str">
         <f>Regions!H$3</f>
         <v>IE-KK</v>
       </c>
-      <c r="S34" s="28" t="str">
+      <c r="S34" s="27" t="str">
         <f>Regions!I$3</f>
         <v>IE-LS</v>
       </c>
-      <c r="T34" s="28" t="str">
+      <c r="T34" s="27" t="str">
         <f>Regions!J$3</f>
         <v>IE-LD</v>
       </c>
-      <c r="U34" s="28" t="str">
+      <c r="U34" s="27" t="str">
         <f>Regions!K$3</f>
         <v>IE-LH</v>
       </c>
-      <c r="V34" s="28" t="str">
+      <c r="V34" s="27" t="str">
         <f>Regions!L$3</f>
         <v>IE-MH</v>
       </c>
-      <c r="W34" s="28" t="str">
+      <c r="W34" s="27" t="str">
         <f>Regions!M$3</f>
         <v>IE-OY</v>
       </c>
-      <c r="X34" s="28" t="str">
+      <c r="X34" s="27" t="str">
         <f>Regions!N$3</f>
         <v>IE-WH</v>
       </c>
-      <c r="Y34" s="28" t="str">
+      <c r="Y34" s="27" t="str">
         <f>Regions!O$3</f>
         <v>IE-WX</v>
       </c>
-      <c r="Z34" s="28" t="str">
+      <c r="Z34" s="27" t="str">
         <f>Regions!P$3</f>
         <v>IE-WW</v>
       </c>
-      <c r="AA34" s="28" t="str">
+      <c r="AA34" s="27" t="str">
         <f>Regions!Q$3</f>
         <v>IE-CE</v>
       </c>
-      <c r="AB34" s="28" t="str">
+      <c r="AB34" s="27" t="str">
         <f>Regions!R$3</f>
         <v>IE-CO</v>
       </c>
-      <c r="AC34" s="28" t="str">
+      <c r="AC34" s="27" t="str">
         <f>Regions!S$3</f>
         <v>IE-KY</v>
       </c>
-      <c r="AD34" s="28" t="str">
+      <c r="AD34" s="27" t="str">
         <f>Regions!T$3</f>
         <v>IE-LK</v>
       </c>
-      <c r="AE34" s="28" t="str">
+      <c r="AE34" s="27" t="str">
         <f>Regions!U$3</f>
         <v>IE-TA</v>
       </c>
-      <c r="AF34" s="28" t="str">
+      <c r="AF34" s="27" t="str">
         <f>Regions!V$3</f>
         <v>IE-WD</v>
       </c>
-      <c r="AG34" s="28" t="str">
+      <c r="AG34" s="27" t="str">
         <f>Regions!W$3</f>
         <v>IE-G</v>
       </c>
-      <c r="AH34" s="28" t="str">
+      <c r="AH34" s="27" t="str">
         <f>Regions!X$3</f>
         <v>IE-LM</v>
       </c>
-      <c r="AI34" s="28" t="str">
+      <c r="AI34" s="27" t="str">
         <f>Regions!Y$3</f>
         <v>IE-MO</v>
       </c>
-      <c r="AJ34" s="28" t="str">
+      <c r="AJ34" s="27" t="str">
         <f>Regions!Z$3</f>
         <v>IE-RN</v>
       </c>
-      <c r="AK34" s="28" t="str">
+      <c r="AK34" s="27" t="str">
         <f>Regions!AA$3</f>
         <v>IE-SO</v>
       </c>
-      <c r="AL34" s="28" t="str">
+      <c r="AL34" s="27" t="str">
         <f>Regions!AB$3</f>
         <v>IE-CN</v>
       </c>
-      <c r="AM34" s="28" t="str">
+      <c r="AM34" s="27" t="str">
         <f>Regions!AC$3</f>
         <v>IE-DL</v>
       </c>
-      <c r="AN34" s="28" t="str">
+      <c r="AN34" s="27" t="str">
         <f>Regions!AD$3</f>
         <v>IE-MN</v>
       </c>
-      <c r="AO34" s="28" t="s">
+      <c r="AO34" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>79</v>
       </c>
@@ -6584,158 +6706,158 @@
         <f>M11</f>
         <v>Walk</v>
       </c>
-      <c r="N35" s="31">
+      <c r="N35" s="30">
         <f>[1]Demands!C42</f>
         <v>0</v>
       </c>
-      <c r="O35" s="31">
+      <c r="O35" s="30">
         <f>[1]Demands!D42</f>
         <v>0</v>
       </c>
-      <c r="P35" s="31">
+      <c r="P35" s="30">
         <f>[1]Demands!E42</f>
         <v>0</v>
       </c>
-      <c r="Q35" s="31">
+      <c r="Q35" s="30">
         <f>[1]Demands!F42</f>
         <v>0</v>
       </c>
-      <c r="R35" s="31">
+      <c r="R35" s="30">
         <f>[1]Demands!G42</f>
         <v>0</v>
       </c>
-      <c r="S35" s="31">
+      <c r="S35" s="30">
         <f>[1]Demands!H42</f>
         <v>0</v>
       </c>
-      <c r="T35" s="31">
+      <c r="T35" s="30">
         <f>[1]Demands!I42</f>
         <v>0</v>
       </c>
-      <c r="U35" s="31">
+      <c r="U35" s="30">
         <f>[1]Demands!J42</f>
         <v>0</v>
       </c>
-      <c r="V35" s="31">
+      <c r="V35" s="30">
         <f>[1]Demands!K42</f>
         <v>0</v>
       </c>
-      <c r="W35" s="31">
+      <c r="W35" s="30">
         <f>[1]Demands!L42</f>
         <v>0</v>
       </c>
-      <c r="X35" s="31">
+      <c r="X35" s="30">
         <f>[1]Demands!M42</f>
         <v>0</v>
       </c>
-      <c r="Y35" s="31">
+      <c r="Y35" s="30">
         <f>[1]Demands!N42</f>
         <v>0</v>
       </c>
-      <c r="Z35" s="31">
+      <c r="Z35" s="30">
         <f>[1]Demands!O42</f>
         <v>0</v>
       </c>
-      <c r="AA35" s="31">
+      <c r="AA35" s="30">
         <f>[1]Demands!P42</f>
         <v>0</v>
       </c>
-      <c r="AB35" s="31">
+      <c r="AB35" s="30">
         <f>[1]Demands!Q42</f>
         <v>0</v>
       </c>
-      <c r="AC35" s="31">
+      <c r="AC35" s="30">
         <f>[1]Demands!R42</f>
         <v>0</v>
       </c>
-      <c r="AD35" s="31">
+      <c r="AD35" s="30">
         <f>[1]Demands!S42</f>
         <v>0</v>
       </c>
-      <c r="AE35" s="31">
+      <c r="AE35" s="30">
         <f>[1]Demands!T42</f>
         <v>0</v>
       </c>
-      <c r="AF35" s="31">
+      <c r="AF35" s="30">
         <f>[1]Demands!U42</f>
         <v>0</v>
       </c>
-      <c r="AG35" s="31">
+      <c r="AG35" s="30">
         <f>[1]Demands!V42</f>
         <v>0</v>
       </c>
-      <c r="AH35" s="31">
+      <c r="AH35" s="30">
         <f>[1]Demands!W42</f>
         <v>0</v>
       </c>
-      <c r="AI35" s="31">
+      <c r="AI35" s="30">
         <f>[1]Demands!X42</f>
         <v>0</v>
       </c>
-      <c r="AJ35" s="31">
+      <c r="AJ35" s="30">
         <f>[1]Demands!Y42</f>
         <v>0</v>
       </c>
-      <c r="AK35" s="31">
+      <c r="AK35" s="30">
         <f>[1]Demands!Z42</f>
         <v>0</v>
       </c>
-      <c r="AL35" s="31">
+      <c r="AL35" s="30">
         <f>[1]Demands!AA42</f>
         <v>0</v>
       </c>
-      <c r="AM35" s="31">
+      <c r="AM35" s="30">
         <f>[1]Demands!AB42</f>
         <v>0</v>
       </c>
-      <c r="AN35" s="31">
+      <c r="AN35" s="30">
         <f>[1]Demands!AC42</f>
         <v>0</v>
       </c>
-      <c r="AO35" s="31">
+      <c r="AO35" s="30">
         <f>[1]Demands!AD42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:41" x14ac:dyDescent="0.3">
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36" t="s">
         <v>69</v>
       </c>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="31"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="31"/>
-      <c r="AD36" s="31"/>
-      <c r="AE36" s="31"/>
-      <c r="AF36" s="31"/>
-      <c r="AG36" s="31"/>
-      <c r="AH36" s="31"/>
-      <c r="AI36" s="31"/>
-      <c r="AJ36" s="31"/>
-      <c r="AK36" s="31"/>
-      <c r="AL36" s="31"/>
-      <c r="AM36" s="31"/>
-      <c r="AN36" s="31"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="30"/>
+      <c r="AE36" s="30"/>
+      <c r="AF36" s="30"/>
+      <c r="AG36" s="30"/>
+      <c r="AH36" s="30"/>
+      <c r="AI36" s="30"/>
+      <c r="AJ36" s="30"/>
+      <c r="AK36" s="30"/>
+      <c r="AL36" s="30"/>
+      <c r="AM36" s="30"/>
+      <c r="AN36" s="30"/>
       <c r="AO36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>80</v>
       </c>
@@ -6760,158 +6882,158 @@
         <f>M13</f>
         <v>Bike</v>
       </c>
-      <c r="N37" s="31">
+      <c r="N37" s="30">
         <f>[1]Demands!C43</f>
         <v>0</v>
       </c>
-      <c r="O37" s="31">
+      <c r="O37" s="30">
         <f>[1]Demands!D43</f>
         <v>0</v>
       </c>
-      <c r="P37" s="31">
+      <c r="P37" s="30">
         <f>[1]Demands!E43</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="31">
+      <c r="Q37" s="30">
         <f>[1]Demands!F43</f>
         <v>0</v>
       </c>
-      <c r="R37" s="31">
+      <c r="R37" s="30">
         <f>[1]Demands!G43</f>
         <v>0</v>
       </c>
-      <c r="S37" s="31">
+      <c r="S37" s="30">
         <f>[1]Demands!H43</f>
         <v>0</v>
       </c>
-      <c r="T37" s="31">
+      <c r="T37" s="30">
         <f>[1]Demands!I43</f>
         <v>0</v>
       </c>
-      <c r="U37" s="31">
+      <c r="U37" s="30">
         <f>[1]Demands!J43</f>
         <v>0</v>
       </c>
-      <c r="V37" s="31">
+      <c r="V37" s="30">
         <f>[1]Demands!K43</f>
         <v>0</v>
       </c>
-      <c r="W37" s="31">
+      <c r="W37" s="30">
         <f>[1]Demands!L43</f>
         <v>0</v>
       </c>
-      <c r="X37" s="31">
+      <c r="X37" s="30">
         <f>[1]Demands!M43</f>
         <v>0</v>
       </c>
-      <c r="Y37" s="31">
+      <c r="Y37" s="30">
         <f>[1]Demands!N43</f>
         <v>0</v>
       </c>
-      <c r="Z37" s="31">
+      <c r="Z37" s="30">
         <f>[1]Demands!O43</f>
         <v>0</v>
       </c>
-      <c r="AA37" s="31">
+      <c r="AA37" s="30">
         <f>[1]Demands!P43</f>
         <v>0</v>
       </c>
-      <c r="AB37" s="31">
+      <c r="AB37" s="30">
         <f>[1]Demands!Q43</f>
         <v>0</v>
       </c>
-      <c r="AC37" s="31">
+      <c r="AC37" s="30">
         <f>[1]Demands!R43</f>
         <v>0</v>
       </c>
-      <c r="AD37" s="31">
+      <c r="AD37" s="30">
         <f>[1]Demands!S43</f>
         <v>0</v>
       </c>
-      <c r="AE37" s="31">
+      <c r="AE37" s="30">
         <f>[1]Demands!T43</f>
         <v>0</v>
       </c>
-      <c r="AF37" s="31">
+      <c r="AF37" s="30">
         <f>[1]Demands!U43</f>
         <v>0</v>
       </c>
-      <c r="AG37" s="31">
+      <c r="AG37" s="30">
         <f>[1]Demands!V43</f>
         <v>0</v>
       </c>
-      <c r="AH37" s="31">
+      <c r="AH37" s="30">
         <f>[1]Demands!W43</f>
         <v>0</v>
       </c>
-      <c r="AI37" s="31">
+      <c r="AI37" s="30">
         <f>[1]Demands!X43</f>
         <v>0</v>
       </c>
-      <c r="AJ37" s="31">
+      <c r="AJ37" s="30">
         <f>[1]Demands!Y43</f>
         <v>0</v>
       </c>
-      <c r="AK37" s="31">
+      <c r="AK37" s="30">
         <f>[1]Demands!Z43</f>
         <v>0</v>
       </c>
-      <c r="AL37" s="31">
+      <c r="AL37" s="30">
         <f>[1]Demands!AA43</f>
         <v>0</v>
       </c>
-      <c r="AM37" s="31">
+      <c r="AM37" s="30">
         <f>[1]Demands!AB43</f>
         <v>0</v>
       </c>
-      <c r="AN37" s="31">
+      <c r="AN37" s="30">
         <f>[1]Demands!AC43</f>
         <v>0</v>
       </c>
-      <c r="AO37" s="31">
+      <c r="AO37" s="30">
         <f>[1]Demands!AD43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:41" x14ac:dyDescent="0.3">
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38" t="s">
         <v>69</v>
       </c>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="31"/>
-      <c r="AC38" s="31"/>
-      <c r="AD38" s="31"/>
-      <c r="AE38" s="31"/>
-      <c r="AF38" s="31"/>
-      <c r="AG38" s="31"/>
-      <c r="AH38" s="31"/>
-      <c r="AI38" s="31"/>
-      <c r="AJ38" s="31"/>
-      <c r="AK38" s="31"/>
-      <c r="AL38" s="31"/>
-      <c r="AM38" s="31"/>
-      <c r="AN38" s="31"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="30"/>
+      <c r="AE38" s="30"/>
+      <c r="AF38" s="30"/>
+      <c r="AG38" s="30"/>
+      <c r="AH38" s="30"/>
+      <c r="AI38" s="30"/>
+      <c r="AJ38" s="30"/>
+      <c r="AK38" s="30"/>
+      <c r="AL38" s="30"/>
+      <c r="AM38" s="30"/>
+      <c r="AN38" s="30"/>
       <c r="AO38">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>81</v>
       </c>
@@ -6936,158 +7058,158 @@
         <f>M15</f>
         <v>2-wheelers</v>
       </c>
-      <c r="N39" s="31">
+      <c r="N39" s="30">
         <f>[1]Demands!C44</f>
         <v>3.2739468688573266E-3</v>
       </c>
-      <c r="O39" s="31">
+      <c r="O39" s="30">
         <f>[1]Demands!D44</f>
         <v>2.1586268841599747E-3</v>
       </c>
-      <c r="P39" s="31">
+      <c r="P39" s="30">
         <f>[1]Demands!E44</f>
         <v>4.3137182635283444E-3</v>
       </c>
-      <c r="Q39" s="31">
+      <c r="Q39" s="30">
         <f>[1]Demands!F44</f>
         <v>3.6319751739066989E-3</v>
       </c>
-      <c r="R39" s="31">
+      <c r="R39" s="30">
         <f>[1]Demands!G44</f>
         <v>2.5491869155235955E-3</v>
       </c>
-      <c r="S39" s="31">
+      <c r="S39" s="30">
         <f>[1]Demands!H44</f>
         <v>1.6941154698507114E-3</v>
       </c>
-      <c r="T39" s="31">
+      <c r="T39" s="30">
         <f>[1]Demands!I44</f>
         <v>3.2883004760979389E-3</v>
       </c>
-      <c r="U39" s="31">
+      <c r="U39" s="30">
         <f>[1]Demands!J44</f>
         <v>2.4416088687366478E-3</v>
       </c>
-      <c r="V39" s="31">
+      <c r="V39" s="30">
         <f>[1]Demands!K44</f>
         <v>3.5159102982178412E-3</v>
       </c>
-      <c r="W39" s="31">
+      <c r="W39" s="30">
         <f>[1]Demands!L44</f>
         <v>3.3185344885490013E-3</v>
       </c>
-      <c r="X39" s="31">
+      <c r="X39" s="30">
         <f>[1]Demands!M44</f>
         <v>2.939754742265497E-3</v>
       </c>
-      <c r="Y39" s="31">
+      <c r="Y39" s="30">
         <f>[1]Demands!N44</f>
         <v>3.3151523856669103E-3</v>
       </c>
-      <c r="Z39" s="31">
+      <c r="Z39" s="30">
         <f>[1]Demands!O44</f>
         <v>3.906666915379246E-3</v>
       </c>
-      <c r="AA39" s="31">
+      <c r="AA39" s="30">
         <f>[1]Demands!P44</f>
         <v>3.2306073901205486E-3</v>
       </c>
-      <c r="AB39" s="31">
+      <c r="AB39" s="30">
         <f>[1]Demands!Q44</f>
         <v>3.9969766503394092E-3</v>
       </c>
-      <c r="AC39" s="31">
+      <c r="AC39" s="30">
         <f>[1]Demands!R44</f>
         <v>2.4423953155841079E-3</v>
       </c>
-      <c r="AD39" s="31">
+      <c r="AD39" s="30">
         <f>[1]Demands!S44</f>
         <v>2.8914591982090753E-3</v>
       </c>
-      <c r="AE39" s="31">
+      <c r="AE39" s="30">
         <f>[1]Demands!T44</f>
         <v>2.9812499263931389E-3</v>
       </c>
-      <c r="AF39" s="31">
+      <c r="AF39" s="30">
         <f>[1]Demands!U44</f>
         <v>3.5441732524901714E-3</v>
       </c>
-      <c r="AG39" s="31">
+      <c r="AG39" s="30">
         <f>[1]Demands!V44</f>
         <v>2.1106258862285242E-3</v>
       </c>
-      <c r="AH39" s="31">
+      <c r="AH39" s="30">
         <f>[1]Demands!W44</f>
         <v>0</v>
       </c>
-      <c r="AI39" s="31">
+      <c r="AI39" s="30">
         <f>[1]Demands!X44</f>
         <v>1.9054783663146626E-3</v>
       </c>
-      <c r="AJ39" s="31">
+      <c r="AJ39" s="30">
         <f>[1]Demands!Y44</f>
         <v>1.7694736792673005E-3</v>
       </c>
-      <c r="AK39" s="31">
+      <c r="AK39" s="30">
         <f>[1]Demands!Z44</f>
         <v>2.1690169741061518E-3</v>
       </c>
-      <c r="AL39" s="31">
+      <c r="AL39" s="30">
         <f>[1]Demands!AA44</f>
         <v>1.996201699404686E-3</v>
       </c>
-      <c r="AM39" s="31">
+      <c r="AM39" s="30">
         <f>[1]Demands!AB44</f>
         <v>2.1678265957034699E-3</v>
       </c>
-      <c r="AN39" s="31">
+      <c r="AN39" s="30">
         <f>[1]Demands!AC44</f>
         <v>1.9708873200458749E-3</v>
       </c>
-      <c r="AO39" s="31">
+      <c r="AO39" s="30">
         <f>[1]Demands!AD44</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:41" x14ac:dyDescent="0.3">
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40" t="s">
         <v>69</v>
       </c>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="31"/>
-      <c r="S40" s="31"/>
-      <c r="T40" s="31"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="31"/>
-      <c r="W40" s="31"/>
-      <c r="X40" s="31"/>
-      <c r="Y40" s="31"/>
-      <c r="Z40" s="31"/>
-      <c r="AA40" s="31"/>
-      <c r="AB40" s="31"/>
-      <c r="AC40" s="31"/>
-      <c r="AD40" s="31"/>
-      <c r="AE40" s="31"/>
-      <c r="AF40" s="31"/>
-      <c r="AG40" s="31"/>
-      <c r="AH40" s="31"/>
-      <c r="AI40" s="31"/>
-      <c r="AJ40" s="31"/>
-      <c r="AK40" s="31"/>
-      <c r="AL40" s="31"/>
-      <c r="AM40" s="31"/>
-      <c r="AN40" s="31"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="30"/>
+      <c r="V40" s="30"/>
+      <c r="W40" s="30"/>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="30"/>
+      <c r="AA40" s="30"/>
+      <c r="AB40" s="30"/>
+      <c r="AC40" s="30"/>
+      <c r="AD40" s="30"/>
+      <c r="AE40" s="30"/>
+      <c r="AF40" s="30"/>
+      <c r="AG40" s="30"/>
+      <c r="AH40" s="30"/>
+      <c r="AI40" s="30"/>
+      <c r="AJ40" s="30"/>
+      <c r="AK40" s="30"/>
+      <c r="AL40" s="30"/>
+      <c r="AM40" s="30"/>
+      <c r="AN40" s="30"/>
       <c r="AO40">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>82</v>
       </c>
@@ -7112,158 +7234,158 @@
         <f>M17</f>
         <v>LDV</v>
       </c>
-      <c r="N41" s="31">
+      <c r="N41" s="30">
         <f>[1]Demands!C45</f>
         <v>0.83405572391255312</v>
       </c>
-      <c r="O41" s="31">
+      <c r="O41" s="30">
         <f>[1]Demands!D45</f>
         <v>0.88136996225712338</v>
       </c>
-      <c r="P41" s="31">
+      <c r="P41" s="30">
         <f>[1]Demands!E45</f>
         <v>0.7240198055510555</v>
       </c>
-      <c r="Q41" s="31">
+      <c r="Q41" s="30">
         <f>[1]Demands!F45</f>
         <v>0.85033097733510543</v>
       </c>
-      <c r="R41" s="31">
+      <c r="R41" s="30">
         <f>[1]Demands!G45</f>
         <v>0.81358360125192186</v>
       </c>
-      <c r="S41" s="31">
+      <c r="S41" s="30">
         <f>[1]Demands!H45</f>
         <v>0.88000079438796519</v>
       </c>
-      <c r="T41" s="31">
+      <c r="T41" s="30">
         <f>[1]Demands!I45</f>
         <v>0.86292967512561713</v>
       </c>
-      <c r="U41" s="31">
+      <c r="U41" s="30">
         <f>[1]Demands!J45</f>
         <v>0.84991917486050839</v>
       </c>
-      <c r="V41" s="31">
+      <c r="V41" s="30">
         <f>[1]Demands!K45</f>
         <v>0.87489878054676506</v>
       </c>
-      <c r="W41" s="31">
+      <c r="W41" s="30">
         <f>[1]Demands!L45</f>
         <v>0.84396948853578213</v>
       </c>
-      <c r="X41" s="31">
+      <c r="X41" s="30">
         <f>[1]Demands!M45</f>
         <v>0.89058577172865516</v>
       </c>
-      <c r="Y41" s="31">
+      <c r="Y41" s="30">
         <f>[1]Demands!N45</f>
         <v>0.88596847722847849</v>
       </c>
-      <c r="Z41" s="31">
+      <c r="Z41" s="30">
         <f>[1]Demands!O45</f>
         <v>0.87519253516054751</v>
       </c>
-      <c r="AA41" s="31">
+      <c r="AA41" s="30">
         <f>[1]Demands!P45</f>
         <v>0.89017909286971042</v>
       </c>
-      <c r="AB41" s="31">
+      <c r="AB41" s="30">
         <f>[1]Demands!Q45</f>
         <v>0.88395825319439558</v>
       </c>
-      <c r="AC41" s="31">
+      <c r="AC41" s="30">
         <f>[1]Demands!R45</f>
         <v>0.80306472393989703</v>
       </c>
-      <c r="AD41" s="31">
+      <c r="AD41" s="30">
         <f>[1]Demands!S45</f>
         <v>0.88153417928289457</v>
       </c>
-      <c r="AE41" s="31">
+      <c r="AE41" s="30">
         <f>[1]Demands!T45</f>
         <v>0.87036679499941227</v>
       </c>
-      <c r="AF41" s="31">
+      <c r="AF41" s="30">
         <f>[1]Demands!U45</f>
         <v>0.89725064481847272</v>
       </c>
-      <c r="AG41" s="31">
+      <c r="AG41" s="30">
         <f>[1]Demands!V45</f>
         <v>0.84303694258501916</v>
       </c>
-      <c r="AH41" s="31">
+      <c r="AH41" s="30">
         <f>[1]Demands!W45</f>
         <v>0.88919219682824724</v>
       </c>
-      <c r="AI41" s="31">
+      <c r="AI41" s="30">
         <f>[1]Demands!X45</f>
         <v>0.83536706688667051</v>
       </c>
-      <c r="AJ41" s="31">
+      <c r="AJ41" s="30">
         <f>[1]Demands!Y45</f>
         <v>0.90275636290048633</v>
       </c>
-      <c r="AK41" s="31">
+      <c r="AK41" s="30">
         <f>[1]Demands!Z45</f>
         <v>0.87891574758893642</v>
       </c>
-      <c r="AL41" s="31">
+      <c r="AL41" s="30">
         <f>[1]Demands!AA45</f>
         <v>0.9444737396739924</v>
       </c>
-      <c r="AM41" s="31">
+      <c r="AM41" s="30">
         <f>[1]Demands!AB45</f>
         <v>0.97631596747347482</v>
       </c>
-      <c r="AN41" s="31">
+      <c r="AN41" s="30">
         <f>[1]Demands!AC45</f>
         <v>0.7484312106638259</v>
       </c>
-      <c r="AO41" s="31">
+      <c r="AO41" s="30">
         <f>[1]Demands!AD45</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:41" x14ac:dyDescent="0.3">
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42" t="s">
         <v>69</v>
       </c>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="31"/>
-      <c r="T42" s="31"/>
-      <c r="U42" s="31"/>
-      <c r="V42" s="31"/>
-      <c r="W42" s="31"/>
-      <c r="X42" s="31"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="31"/>
-      <c r="AA42" s="31"/>
-      <c r="AB42" s="31"/>
-      <c r="AC42" s="31"/>
-      <c r="AD42" s="31"/>
-      <c r="AE42" s="31"/>
-      <c r="AF42" s="31"/>
-      <c r="AG42" s="31"/>
-      <c r="AH42" s="31"/>
-      <c r="AI42" s="31"/>
-      <c r="AJ42" s="31"/>
-      <c r="AK42" s="31"/>
-      <c r="AL42" s="31"/>
-      <c r="AM42" s="31"/>
-      <c r="AN42" s="31"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="30"/>
+      <c r="U42" s="30"/>
+      <c r="V42" s="30"/>
+      <c r="W42" s="30"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="30"/>
+      <c r="AA42" s="30"/>
+      <c r="AB42" s="30"/>
+      <c r="AC42" s="30"/>
+      <c r="AD42" s="30"/>
+      <c r="AE42" s="30"/>
+      <c r="AF42" s="30"/>
+      <c r="AG42" s="30"/>
+      <c r="AH42" s="30"/>
+      <c r="AI42" s="30"/>
+      <c r="AJ42" s="30"/>
+      <c r="AK42" s="30"/>
+      <c r="AL42" s="30"/>
+      <c r="AM42" s="30"/>
+      <c r="AN42" s="30"/>
       <c r="AO42">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>83</v>
       </c>
@@ -7288,158 +7410,158 @@
         <f>M19</f>
         <v>Taxis</v>
       </c>
-      <c r="N43" s="31">
+      <c r="N43" s="30">
         <f>[1]Demands!C46</f>
         <v>2.1905905312439161E-2</v>
       </c>
-      <c r="O43" s="31">
+      <c r="O43" s="30">
         <f>[1]Demands!D46</f>
         <v>9.3709663140288998E-3</v>
       </c>
-      <c r="P43" s="31">
+      <c r="P43" s="30">
         <f>[1]Demands!E46</f>
         <v>4.6013893098741668E-2</v>
       </c>
-      <c r="Q43" s="31">
+      <c r="Q43" s="30">
         <f>[1]Demands!F46</f>
         <v>1.8394858695029128E-2</v>
       </c>
-      <c r="R43" s="31">
+      <c r="R43" s="30">
         <f>[1]Demands!G46</f>
         <v>9.9598084318994508E-3</v>
       </c>
-      <c r="S43" s="31">
+      <c r="S43" s="30">
         <f>[1]Demands!H46</f>
         <v>1.3237997918849932E-2</v>
       </c>
-      <c r="T43" s="31">
+      <c r="T43" s="30">
         <f>[1]Demands!I46</f>
         <v>1.1420057155050359E-2</v>
       </c>
-      <c r="U43" s="31">
+      <c r="U43" s="30">
         <f>[1]Demands!J46</f>
         <v>2.6498598054231513E-2</v>
       </c>
-      <c r="V43" s="31">
+      <c r="V43" s="30">
         <f>[1]Demands!K46</f>
         <v>2.5642116158186581E-2</v>
       </c>
-      <c r="W43" s="31">
+      <c r="W43" s="30">
         <f>[1]Demands!L46</f>
         <v>8.6437934593511252E-3</v>
       </c>
-      <c r="X43" s="31">
+      <c r="X43" s="30">
         <f>[1]Demands!M46</f>
         <v>1.5314370184172183E-2</v>
       </c>
-      <c r="Y43" s="31">
+      <c r="Y43" s="30">
         <f>[1]Demands!N46</f>
         <v>7.9154020817384443E-3</v>
       </c>
-      <c r="Z43" s="31">
+      <c r="Z43" s="30">
         <f>[1]Demands!O46</f>
         <v>1.1871653704006174E-2</v>
       </c>
-      <c r="AA43" s="31">
+      <c r="AA43" s="30">
         <f>[1]Demands!P46</f>
         <v>1.3089641552029165E-2</v>
       </c>
-      <c r="AB43" s="31">
+      <c r="AB43" s="30">
         <f>[1]Demands!Q46</f>
         <v>1.6194784858342321E-2</v>
       </c>
-      <c r="AC43" s="31">
+      <c r="AC43" s="30">
         <f>[1]Demands!R46</f>
         <v>1.272342398540301E-2</v>
       </c>
-      <c r="AD43" s="31">
+      <c r="AD43" s="30">
         <f>[1]Demands!S46</f>
         <v>1.6945626580446856E-2</v>
       </c>
-      <c r="AE43" s="31">
+      <c r="AE43" s="30">
         <f>[1]Demands!T46</f>
         <v>6.4710564013944778E-3</v>
       </c>
-      <c r="AF43" s="31">
+      <c r="AF43" s="30">
         <f>[1]Demands!U46</f>
         <v>1.1282963024401618E-2</v>
       </c>
-      <c r="AG43" s="31">
+      <c r="AG43" s="30">
         <f>[1]Demands!V46</f>
         <v>1.7408913059663488E-2</v>
       </c>
-      <c r="AH43" s="31">
+      <c r="AH43" s="30">
         <f>[1]Demands!W46</f>
         <v>1.0528920260910977E-2</v>
       </c>
-      <c r="AI43" s="31">
+      <c r="AI43" s="30">
         <f>[1]Demands!X46</f>
         <v>9.0992061135074936E-3</v>
       </c>
-      <c r="AJ43" s="31">
+      <c r="AJ43" s="30">
         <f>[1]Demands!Y46</f>
         <v>7.6815860877352945E-3</v>
       </c>
-      <c r="AK43" s="31">
+      <c r="AK43" s="30">
         <f>[1]Demands!Z46</f>
         <v>1.129928575321087E-2</v>
       </c>
-      <c r="AL43" s="31">
+      <c r="AL43" s="30">
         <f>[1]Demands!AA46</f>
         <v>1.2132191360051241E-2</v>
       </c>
-      <c r="AM43" s="31">
+      <c r="AM43" s="30">
         <f>[1]Demands!AB46</f>
         <v>1.4116355738962196E-2</v>
       </c>
-      <c r="AN43" s="31">
+      <c r="AN43" s="30">
         <f>[1]Demands!AC46</f>
         <v>5.1335741680296381E-3</v>
       </c>
-      <c r="AO43" s="31">
+      <c r="AO43" s="30">
         <f>[1]Demands!AD46</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:41" x14ac:dyDescent="0.3">
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44" t="s">
         <v>69</v>
       </c>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="31"/>
-      <c r="T44" s="31"/>
-      <c r="U44" s="31"/>
-      <c r="V44" s="31"/>
-      <c r="W44" s="31"/>
-      <c r="X44" s="31"/>
-      <c r="Y44" s="31"/>
-      <c r="Z44" s="31"/>
-      <c r="AA44" s="31"/>
-      <c r="AB44" s="31"/>
-      <c r="AC44" s="31"/>
-      <c r="AD44" s="31"/>
-      <c r="AE44" s="31"/>
-      <c r="AF44" s="31"/>
-      <c r="AG44" s="31"/>
-      <c r="AH44" s="31"/>
-      <c r="AI44" s="31"/>
-      <c r="AJ44" s="31"/>
-      <c r="AK44" s="31"/>
-      <c r="AL44" s="31"/>
-      <c r="AM44" s="31"/>
-      <c r="AN44" s="31"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="30"/>
+      <c r="Z44" s="30"/>
+      <c r="AA44" s="30"/>
+      <c r="AB44" s="30"/>
+      <c r="AC44" s="30"/>
+      <c r="AD44" s="30"/>
+      <c r="AE44" s="30"/>
+      <c r="AF44" s="30"/>
+      <c r="AG44" s="30"/>
+      <c r="AH44" s="30"/>
+      <c r="AI44" s="30"/>
+      <c r="AJ44" s="30"/>
+      <c r="AK44" s="30"/>
+      <c r="AL44" s="30"/>
+      <c r="AM44" s="30"/>
+      <c r="AN44" s="30"/>
       <c r="AO44">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="3:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>84</v>
       </c>
@@ -7464,158 +7586,158 @@
         <f>M21</f>
         <v>BUS</v>
       </c>
-      <c r="N45" s="31">
+      <c r="N45" s="30">
         <f>[1]Demands!C47</f>
         <v>0.13420523697456904</v>
       </c>
-      <c r="O45" s="31">
+      <c r="O45" s="30">
         <f>[1]Demands!D47</f>
         <v>0.10710044454468777</v>
       </c>
-      <c r="P45" s="31">
+      <c r="P45" s="30">
         <f>[1]Demands!E47</f>
         <v>0.19873794082808949</v>
       </c>
-      <c r="Q45" s="31">
+      <c r="Q45" s="30">
         <f>[1]Demands!F47</f>
         <v>0.12764218879595873</v>
       </c>
-      <c r="R45" s="31">
+      <c r="R45" s="30">
         <f>[1]Demands!G47</f>
         <v>0.17390740340065505</v>
       </c>
-      <c r="S45" s="31">
+      <c r="S45" s="30">
         <f>[1]Demands!H47</f>
         <v>0.10506709222333424</v>
       </c>
-      <c r="T45" s="31">
+      <c r="T45" s="30">
         <f>[1]Demands!I47</f>
         <v>0.12236196724323453</v>
       </c>
-      <c r="U45" s="31">
+      <c r="U45" s="30">
         <f>[1]Demands!J47</f>
         <v>0.12114061821652349</v>
       </c>
-      <c r="V45" s="31">
+      <c r="V45" s="30">
         <f>[1]Demands!K47</f>
         <v>9.5943192996830379E-2</v>
       </c>
-      <c r="W45" s="31">
+      <c r="W45" s="30">
         <f>[1]Demands!L47</f>
         <v>0.14406818351631784</v>
       </c>
-      <c r="X45" s="31">
+      <c r="X45" s="30">
         <f>[1]Demands!M47</f>
         <v>9.1160103344907026E-2</v>
       </c>
-      <c r="Y45" s="31">
+      <c r="Y45" s="30">
         <f>[1]Demands!N47</f>
         <v>0.10280096830411618</v>
       </c>
-      <c r="Z45" s="31">
+      <c r="Z45" s="30">
         <f>[1]Demands!O47</f>
         <v>0.1090291442200671</v>
       </c>
-      <c r="AA45" s="31">
+      <c r="AA45" s="30">
         <f>[1]Demands!P47</f>
         <v>9.3500658188139713E-2</v>
       </c>
-      <c r="AB45" s="31">
+      <c r="AB45" s="30">
         <f>[1]Demands!Q47</f>
         <v>9.5849985296922749E-2</v>
       </c>
-      <c r="AC45" s="31">
+      <c r="AC45" s="30">
         <f>[1]Demands!R47</f>
         <v>0.18176945675911579</v>
       </c>
-      <c r="AD45" s="31">
+      <c r="AD45" s="30">
         <f>[1]Demands!S47</f>
         <v>9.8628734938449439E-2</v>
       </c>
-      <c r="AE45" s="31">
+      <c r="AE45" s="30">
         <f>[1]Demands!T47</f>
         <v>0.1201808986728002</v>
       </c>
-      <c r="AF45" s="31">
+      <c r="AF45" s="30">
         <f>[1]Demands!U47</f>
         <v>8.7922218904635543E-2</v>
       </c>
-      <c r="AG45" s="31">
+      <c r="AG45" s="30">
         <f>[1]Demands!V47</f>
         <v>0.13744351846908884</v>
       </c>
-      <c r="AH45" s="31">
+      <c r="AH45" s="30">
         <f>[1]Demands!W47</f>
         <v>0.10027888291084175</v>
       </c>
-      <c r="AI45" s="31">
+      <c r="AI45" s="30">
         <f>[1]Demands!X47</f>
         <v>0.15362824863350735</v>
       </c>
-      <c r="AJ45" s="31">
+      <c r="AJ45" s="30">
         <f>[1]Demands!Y47</f>
         <v>8.779257733251114E-2</v>
       </c>
-      <c r="AK45" s="31">
+      <c r="AK45" s="30">
         <f>[1]Demands!Z47</f>
         <v>0.10761594968374652</v>
       </c>
-      <c r="AL45" s="31">
+      <c r="AL45" s="30">
         <f>[1]Demands!AA47</f>
         <v>4.1397867266551647E-2</v>
       </c>
-      <c r="AM45" s="31">
+      <c r="AM45" s="30">
         <f>[1]Demands!AB47</f>
         <v>7.3998501918595234E-3</v>
       </c>
-      <c r="AN45" s="31">
+      <c r="AN45" s="30">
         <f>[1]Demands!AC47</f>
         <v>0.24446432784809863</v>
       </c>
-      <c r="AO45" s="31">
+      <c r="AO45" s="30">
         <f>[1]Demands!AD47</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46" t="s">
         <v>69</v>
       </c>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="31"/>
-      <c r="S46" s="31"/>
-      <c r="T46" s="31"/>
-      <c r="U46" s="31"/>
-      <c r="V46" s="31"/>
-      <c r="W46" s="31"/>
-      <c r="X46" s="31"/>
-      <c r="Y46" s="31"/>
-      <c r="Z46" s="31"/>
-      <c r="AA46" s="31"/>
-      <c r="AB46" s="31"/>
-      <c r="AC46" s="31"/>
-      <c r="AD46" s="31"/>
-      <c r="AE46" s="31"/>
-      <c r="AF46" s="31"/>
-      <c r="AG46" s="31"/>
-      <c r="AH46" s="31"/>
-      <c r="AI46" s="31"/>
-      <c r="AJ46" s="31"/>
-      <c r="AK46" s="31"/>
-      <c r="AL46" s="31"/>
-      <c r="AM46" s="31"/>
-      <c r="AN46" s="31"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="30"/>
+      <c r="U46" s="30"/>
+      <c r="V46" s="30"/>
+      <c r="W46" s="30"/>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="30"/>
+      <c r="Z46" s="30"/>
+      <c r="AA46" s="30"/>
+      <c r="AB46" s="30"/>
+      <c r="AC46" s="30"/>
+      <c r="AD46" s="30"/>
+      <c r="AE46" s="30"/>
+      <c r="AF46" s="30"/>
+      <c r="AG46" s="30"/>
+      <c r="AH46" s="30"/>
+      <c r="AI46" s="30"/>
+      <c r="AJ46" s="30"/>
+      <c r="AK46" s="30"/>
+      <c r="AL46" s="30"/>
+      <c r="AM46" s="30"/>
+      <c r="AN46" s="30"/>
       <c r="AO46">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>93</v>
       </c>
@@ -7640,360 +7762,396 @@
         <f>M23</f>
         <v>Light rail (LUAS)</v>
       </c>
-      <c r="N47" s="31">
+      <c r="N47" s="30">
         <f>[1]Demands!C48</f>
         <v>6.559186931581344E-3</v>
       </c>
-      <c r="O47" s="31">
+      <c r="O47" s="30">
         <f>[1]Demands!D48</f>
         <v>0</v>
       </c>
-      <c r="P47" s="31">
+      <c r="P47" s="30">
         <f>[1]Demands!E48</f>
         <v>2.6914642258584892E-2</v>
       </c>
-      <c r="Q47" s="31">
+      <c r="Q47" s="30">
         <f>[1]Demands!F48</f>
         <v>0</v>
       </c>
-      <c r="R47" s="31">
+      <c r="R47" s="30">
         <f>[1]Demands!G48</f>
         <v>0</v>
       </c>
-      <c r="S47" s="31">
+      <c r="S47" s="30">
         <f>[1]Demands!H48</f>
         <v>0</v>
       </c>
-      <c r="T47" s="31">
+      <c r="T47" s="30">
         <f>[1]Demands!I48</f>
         <v>0</v>
       </c>
-      <c r="U47" s="31">
+      <c r="U47" s="30">
         <f>[1]Demands!J48</f>
         <v>0</v>
       </c>
-      <c r="V47" s="31">
+      <c r="V47" s="30">
         <f>[1]Demands!K48</f>
         <v>0</v>
       </c>
-      <c r="W47" s="31">
+      <c r="W47" s="30">
         <f>[1]Demands!L48</f>
         <v>0</v>
       </c>
-      <c r="X47" s="31">
+      <c r="X47" s="30">
         <f>[1]Demands!M48</f>
         <v>0</v>
       </c>
-      <c r="Y47" s="31">
+      <c r="Y47" s="30">
         <f>[1]Demands!N48</f>
         <v>0</v>
       </c>
-      <c r="Z47" s="31">
+      <c r="Z47" s="30">
         <f>[1]Demands!O48</f>
         <v>0</v>
       </c>
-      <c r="AA47" s="31">
+      <c r="AA47" s="30">
         <f>[1]Demands!P48</f>
         <v>0</v>
       </c>
-      <c r="AB47" s="31">
+      <c r="AB47" s="30">
         <f>[1]Demands!Q48</f>
         <v>0</v>
       </c>
-      <c r="AC47" s="31">
+      <c r="AC47" s="30">
         <f>[1]Demands!R48</f>
         <v>0</v>
       </c>
-      <c r="AD47" s="31">
+      <c r="AD47" s="30">
         <f>[1]Demands!S48</f>
         <v>0</v>
       </c>
-      <c r="AE47" s="31">
+      <c r="AE47" s="30">
         <f>[1]Demands!T48</f>
         <v>0</v>
       </c>
-      <c r="AF47" s="31">
+      <c r="AF47" s="30">
         <f>[1]Demands!U48</f>
         <v>0</v>
       </c>
-      <c r="AG47" s="31">
+      <c r="AG47" s="30">
         <f>[1]Demands!V48</f>
         <v>0</v>
       </c>
-      <c r="AH47" s="31">
+      <c r="AH47" s="30">
         <f>[1]Demands!W48</f>
         <v>0</v>
       </c>
-      <c r="AI47" s="31">
+      <c r="AI47" s="30">
         <f>[1]Demands!X48</f>
         <v>0</v>
       </c>
-      <c r="AJ47" s="31">
+      <c r="AJ47" s="30">
         <f>[1]Demands!Y48</f>
         <v>0</v>
       </c>
-      <c r="AK47" s="31">
+      <c r="AK47" s="30">
         <f>[1]Demands!Z48</f>
         <v>0</v>
       </c>
-      <c r="AL47" s="31">
+      <c r="AL47" s="30">
         <f>[1]Demands!AA48</f>
         <v>0</v>
       </c>
-      <c r="AM47" s="31">
+      <c r="AM47" s="30">
         <f>[1]Demands!AB48</f>
         <v>0</v>
       </c>
-      <c r="AN47" s="31">
+      <c r="AN47" s="30">
         <f>[1]Demands!AC48</f>
         <v>0</v>
       </c>
-      <c r="AO47" s="31">
+      <c r="AO47" s="30">
         <f>[1]Demands!AD48</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:41" x14ac:dyDescent="0.3">
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48" t="s">
         <v>69</v>
       </c>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="31"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="31"/>
-      <c r="T48" s="31"/>
-      <c r="U48" s="31"/>
-      <c r="V48" s="31"/>
-      <c r="W48" s="31"/>
-      <c r="X48" s="31"/>
-      <c r="Y48" s="31"/>
-      <c r="Z48" s="31"/>
-      <c r="AA48" s="31"/>
-      <c r="AB48" s="31"/>
-      <c r="AC48" s="31"/>
-      <c r="AD48" s="31"/>
-      <c r="AE48" s="31"/>
-      <c r="AF48" s="31"/>
-      <c r="AG48" s="31"/>
-      <c r="AH48" s="31"/>
-      <c r="AI48" s="31"/>
-      <c r="AJ48" s="31"/>
-      <c r="AK48" s="31"/>
-      <c r="AL48" s="31"/>
-      <c r="AM48" s="31"/>
-      <c r="AN48" s="31"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="30"/>
+      <c r="U48" s="30"/>
+      <c r="V48" s="30"/>
+      <c r="W48" s="30"/>
+      <c r="X48" s="30"/>
+      <c r="Y48" s="30"/>
+      <c r="Z48" s="30"/>
+      <c r="AA48" s="30"/>
+      <c r="AB48" s="30"/>
+      <c r="AC48" s="30"/>
+      <c r="AD48" s="30"/>
+      <c r="AE48" s="30"/>
+      <c r="AF48" s="30"/>
+      <c r="AG48" s="30"/>
+      <c r="AH48" s="30"/>
+      <c r="AI48" s="30"/>
+      <c r="AJ48" s="30"/>
+      <c r="AK48" s="30"/>
+      <c r="AL48" s="30"/>
+      <c r="AM48" s="30"/>
+      <c r="AN48" s="30"/>
       <c r="AO48">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C49" s="32" t="s">
+    <row r="49" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C49" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D49" s="32"/>
-      <c r="E49" t="str">
+      <c r="D49" s="33"/>
+      <c r="E49" s="33" t="str">
         <f t="shared" si="1"/>
         <v>THRAIL*</v>
       </c>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32" t="str">
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33" t="str">
         <f t="shared" ref="H49" si="2">H47</f>
         <v>TRAPM</v>
       </c>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32">
+      <c r="I49" s="33"/>
+      <c r="J49" s="33">
         <v>2018</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L49" s="32">
+      <c r="L49" s="33">
         <v>-1</v>
       </c>
-      <c r="M49" s="32" t="str">
+      <c r="M49" s="33" t="str">
         <f t="shared" ref="M49" si="3">M25</f>
         <v>Train</v>
       </c>
-      <c r="N49" s="33">
+      <c r="N49" s="34">
         <f>[1]Demands!C49</f>
         <v>0</v>
       </c>
-      <c r="O49" s="33">
+      <c r="O49" s="34">
         <f>[1]Demands!D49</f>
         <v>0</v>
       </c>
-      <c r="P49" s="33">
+      <c r="P49" s="34">
         <f>[1]Demands!E49</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="33">
+      <c r="Q49" s="34">
         <f>[1]Demands!F49</f>
         <v>0</v>
       </c>
-      <c r="R49" s="33">
+      <c r="R49" s="34">
         <f>[1]Demands!G49</f>
         <v>0</v>
       </c>
-      <c r="S49" s="33">
+      <c r="S49" s="34">
         <f>[1]Demands!H49</f>
         <v>0</v>
       </c>
-      <c r="T49" s="33">
+      <c r="T49" s="34">
         <f>[1]Demands!I49</f>
         <v>0</v>
       </c>
-      <c r="U49" s="33">
+      <c r="U49" s="34">
         <f>[1]Demands!J49</f>
         <v>0</v>
       </c>
-      <c r="V49" s="33">
+      <c r="V49" s="34">
         <f>[1]Demands!K49</f>
         <v>0</v>
       </c>
-      <c r="W49" s="33">
+      <c r="W49" s="34">
         <f>[1]Demands!L49</f>
         <v>0</v>
       </c>
-      <c r="X49" s="33">
+      <c r="X49" s="34">
         <f>[1]Demands!M49</f>
         <v>0</v>
       </c>
-      <c r="Y49" s="33">
+      <c r="Y49" s="34">
         <f>[1]Demands!N49</f>
         <v>0</v>
       </c>
-      <c r="Z49" s="33">
+      <c r="Z49" s="34">
         <f>[1]Demands!O49</f>
         <v>0</v>
       </c>
-      <c r="AA49" s="33">
+      <c r="AA49" s="34">
         <f>[1]Demands!P49</f>
         <v>0</v>
       </c>
-      <c r="AB49" s="33">
+      <c r="AB49" s="34">
         <f>[1]Demands!Q49</f>
         <v>0</v>
       </c>
-      <c r="AC49" s="33">
+      <c r="AC49" s="34">
         <f>[1]Demands!R49</f>
         <v>0</v>
       </c>
-      <c r="AD49" s="33">
+      <c r="AD49" s="34">
         <f>[1]Demands!S49</f>
         <v>0</v>
       </c>
-      <c r="AE49" s="33">
+      <c r="AE49" s="34">
         <f>[1]Demands!T49</f>
         <v>0</v>
       </c>
-      <c r="AF49" s="33">
+      <c r="AF49" s="34">
         <f>[1]Demands!U49</f>
         <v>0</v>
       </c>
-      <c r="AG49" s="33">
+      <c r="AG49" s="34">
         <f>[1]Demands!V49</f>
         <v>0</v>
       </c>
-      <c r="AH49" s="33">
+      <c r="AH49" s="34">
         <f>[1]Demands!W49</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="33">
+      <c r="AI49" s="34">
         <f>[1]Demands!X49</f>
         <v>0</v>
       </c>
-      <c r="AJ49" s="33">
+      <c r="AJ49" s="34">
         <f>[1]Demands!Y49</f>
         <v>0</v>
       </c>
-      <c r="AK49" s="33">
+      <c r="AK49" s="34">
         <f>[1]Demands!Z49</f>
         <v>0</v>
       </c>
-      <c r="AL49" s="33">
+      <c r="AL49" s="34">
         <f>[1]Demands!AA49</f>
         <v>0</v>
       </c>
-      <c r="AM49" s="33">
+      <c r="AM49" s="34">
         <f>[1]Demands!AB49</f>
         <v>0</v>
       </c>
-      <c r="AN49" s="33">
+      <c r="AN49" s="34">
         <f>[1]Demands!AC49</f>
         <v>0</v>
       </c>
-      <c r="AO49" s="33">
+      <c r="AO49" s="34">
         <f>[1]Demands!AD49</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="J50" s="36">
-        <v>0</v>
-      </c>
-      <c r="K50" t="s">
+    <row r="50" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="48">
+        <v>0</v>
+      </c>
+      <c r="K50" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="AO50">
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="31"/>
+      <c r="T50" s="31"/>
+      <c r="U50" s="31"/>
+      <c r="V50" s="31"/>
+      <c r="W50" s="31"/>
+      <c r="X50" s="31"/>
+      <c r="Y50" s="31"/>
+      <c r="Z50" s="31"/>
+      <c r="AA50" s="31"/>
+      <c r="AB50" s="31"/>
+      <c r="AC50" s="31"/>
+      <c r="AD50" s="31"/>
+      <c r="AE50" s="31"/>
+      <c r="AF50" s="31"/>
+      <c r="AG50" s="31"/>
+      <c r="AH50" s="31"/>
+      <c r="AI50" s="31"/>
+      <c r="AJ50" s="31"/>
+      <c r="AK50" s="31"/>
+      <c r="AL50" s="31"/>
+      <c r="AM50" s="31"/>
+      <c r="AN50" s="31"/>
+      <c r="AO50" s="31">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C56" s="7"/>
     </row>
-    <row r="57" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C57" s="7"/>
     </row>
-    <row r="58" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34" t="s">
+    <row r="58" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="L58" s="34"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="34"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="34"/>
-      <c r="Q58" s="34"/>
-      <c r="R58" s="34"/>
-      <c r="S58" s="34"/>
-      <c r="T58" s="34"/>
-      <c r="U58" s="34"/>
-      <c r="V58" s="34"/>
-      <c r="W58" s="34"/>
-      <c r="X58" s="34"/>
-      <c r="Y58" s="34"/>
-      <c r="Z58" s="34"/>
-      <c r="AA58" s="34"/>
-      <c r="AB58" s="34"/>
-      <c r="AC58" s="34"/>
-      <c r="AD58" s="34"/>
-      <c r="AE58" s="34"/>
-      <c r="AF58" s="34"/>
-      <c r="AG58" s="34"/>
-      <c r="AH58" s="34"/>
-      <c r="AI58" s="34"/>
-      <c r="AJ58" s="34"/>
-      <c r="AK58" s="34"/>
-      <c r="AL58" s="34"/>
-      <c r="AM58" s="34"/>
-      <c r="AN58" s="34"/>
-      <c r="AO58" s="34"/>
-    </row>
-    <row r="59" spans="3:41" x14ac:dyDescent="0.45">
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="33"/>
+      <c r="V58" s="33"/>
+      <c r="W58" s="33"/>
+      <c r="X58" s="33"/>
+      <c r="Y58" s="33"/>
+      <c r="Z58" s="33"/>
+      <c r="AA58" s="33"/>
+      <c r="AB58" s="33"/>
+      <c r="AC58" s="33"/>
+      <c r="AD58" s="33"/>
+      <c r="AE58" s="33"/>
+      <c r="AF58" s="33"/>
+      <c r="AG58" s="33"/>
+      <c r="AH58" s="33"/>
+      <c r="AI58" s="33"/>
+      <c r="AJ58" s="33"/>
+      <c r="AK58" s="33"/>
+      <c r="AL58" s="33"/>
+      <c r="AM58" s="33"/>
+      <c r="AN58" s="33"/>
+      <c r="AO58" s="33"/>
+    </row>
+    <row r="59" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C59" s="5" t="s">
         <v>1</v>
       </c>
@@ -8027,111 +8185,111 @@
       <c r="M59" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N59" s="28" t="str">
+      <c r="N59" s="27" t="str">
         <f>Regions!C$3</f>
         <v>IE</v>
       </c>
-      <c r="O59" s="28" t="str">
+      <c r="O59" s="27" t="str">
         <f>Regions!E$3</f>
         <v>IE-CW</v>
       </c>
-      <c r="P59" s="28" t="str">
+      <c r="P59" s="27" t="str">
         <f>Regions!F$3</f>
         <v>IE-D</v>
       </c>
-      <c r="Q59" s="28" t="str">
+      <c r="Q59" s="27" t="str">
         <f>Regions!G$3</f>
         <v>IE-KE</v>
       </c>
-      <c r="R59" s="28" t="str">
+      <c r="R59" s="27" t="str">
         <f>Regions!H$3</f>
         <v>IE-KK</v>
       </c>
-      <c r="S59" s="28" t="str">
+      <c r="S59" s="27" t="str">
         <f>Regions!I$3</f>
         <v>IE-LS</v>
       </c>
-      <c r="T59" s="28" t="str">
+      <c r="T59" s="27" t="str">
         <f>Regions!J$3</f>
         <v>IE-LD</v>
       </c>
-      <c r="U59" s="28" t="str">
+      <c r="U59" s="27" t="str">
         <f>Regions!K$3</f>
         <v>IE-LH</v>
       </c>
-      <c r="V59" s="28" t="str">
+      <c r="V59" s="27" t="str">
         <f>Regions!L$3</f>
         <v>IE-MH</v>
       </c>
-      <c r="W59" s="28" t="str">
+      <c r="W59" s="27" t="str">
         <f>Regions!M$3</f>
         <v>IE-OY</v>
       </c>
-      <c r="X59" s="28" t="str">
+      <c r="X59" s="27" t="str">
         <f>Regions!N$3</f>
         <v>IE-WH</v>
       </c>
-      <c r="Y59" s="28" t="str">
+      <c r="Y59" s="27" t="str">
         <f>Regions!O$3</f>
         <v>IE-WX</v>
       </c>
-      <c r="Z59" s="28" t="str">
+      <c r="Z59" s="27" t="str">
         <f>Regions!P$3</f>
         <v>IE-WW</v>
       </c>
-      <c r="AA59" s="28" t="str">
+      <c r="AA59" s="27" t="str">
         <f>Regions!Q$3</f>
         <v>IE-CE</v>
       </c>
-      <c r="AB59" s="28" t="str">
+      <c r="AB59" s="27" t="str">
         <f>Regions!R$3</f>
         <v>IE-CO</v>
       </c>
-      <c r="AC59" s="28" t="str">
+      <c r="AC59" s="27" t="str">
         <f>Regions!S$3</f>
         <v>IE-KY</v>
       </c>
-      <c r="AD59" s="28" t="str">
+      <c r="AD59" s="27" t="str">
         <f>Regions!T$3</f>
         <v>IE-LK</v>
       </c>
-      <c r="AE59" s="28" t="str">
+      <c r="AE59" s="27" t="str">
         <f>Regions!U$3</f>
         <v>IE-TA</v>
       </c>
-      <c r="AF59" s="28" t="str">
+      <c r="AF59" s="27" t="str">
         <f>Regions!V$3</f>
         <v>IE-WD</v>
       </c>
-      <c r="AG59" s="28" t="str">
+      <c r="AG59" s="27" t="str">
         <f>Regions!W$3</f>
         <v>IE-G</v>
       </c>
-      <c r="AH59" s="28" t="str">
+      <c r="AH59" s="27" t="str">
         <f>Regions!X$3</f>
         <v>IE-LM</v>
       </c>
-      <c r="AI59" s="28" t="str">
+      <c r="AI59" s="27" t="str">
         <f>Regions!Y$3</f>
         <v>IE-MO</v>
       </c>
-      <c r="AJ59" s="28" t="str">
+      <c r="AJ59" s="27" t="str">
         <f>Regions!Z$3</f>
         <v>IE-RN</v>
       </c>
-      <c r="AK59" s="28" t="str">
+      <c r="AK59" s="27" t="str">
         <f>Regions!AA$3</f>
         <v>IE-SO</v>
       </c>
-      <c r="AL59" s="28" t="str">
+      <c r="AL59" s="27" t="str">
         <f>Regions!AB$3</f>
         <v>IE-CN</v>
       </c>
-      <c r="AM59" s="28" t="str">
+      <c r="AM59" s="27" t="str">
         <f>Regions!AC$3</f>
         <v>IE-DL</v>
       </c>
-      <c r="AN59" s="28" t="str">
+      <c r="AN59" s="27" t="str">
         <f>Regions!AD$3</f>
         <v>IE-MN</v>
       </c>
@@ -8139,1478 +8297,1514 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C60" s="34" t="s">
+    <row r="60" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C60" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34" t="str">
+      <c r="D60" s="33"/>
+      <c r="E60" s="33" t="str">
         <f>E35</f>
         <v>TWLK_WLK</v>
       </c>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34" t="str">
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33" t="str">
         <f>[1]Commodities!$B$20</f>
         <v>TRAPL</v>
       </c>
-      <c r="I60" s="34"/>
+      <c r="I60" s="33"/>
       <c r="J60">
         <v>2018</v>
       </c>
       <c r="K60" t="s">
         <v>69</v>
       </c>
-      <c r="L60" s="34">
+      <c r="L60" s="33">
         <v>-1</v>
       </c>
-      <c r="M60" s="34" t="str">
+      <c r="M60" s="33" t="str">
         <f>M35</f>
         <v>Walk</v>
       </c>
-      <c r="N60" s="35">
+      <c r="N60" s="34">
         <f>[1]Demands!C56</f>
         <v>0</v>
       </c>
-      <c r="O60" s="35">
+      <c r="O60" s="34">
         <f>[1]Demands!D56</f>
         <v>0</v>
       </c>
-      <c r="P60" s="35">
+      <c r="P60" s="34">
         <f>[1]Demands!E56</f>
         <v>0</v>
       </c>
-      <c r="Q60" s="35">
+      <c r="Q60" s="34">
         <f>[1]Demands!F56</f>
         <v>0</v>
       </c>
-      <c r="R60" s="35">
+      <c r="R60" s="34">
         <f>[1]Demands!G56</f>
         <v>0</v>
       </c>
-      <c r="S60" s="35">
+      <c r="S60" s="34">
         <f>[1]Demands!H56</f>
         <v>0</v>
       </c>
-      <c r="T60" s="35">
+      <c r="T60" s="34">
         <f>[1]Demands!I56</f>
         <v>0</v>
       </c>
-      <c r="U60" s="35">
+      <c r="U60" s="34">
         <f>[1]Demands!J56</f>
         <v>0</v>
       </c>
-      <c r="V60" s="35">
+      <c r="V60" s="34">
         <f>[1]Demands!K56</f>
         <v>0</v>
       </c>
-      <c r="W60" s="35">
+      <c r="W60" s="34">
         <f>[1]Demands!L56</f>
         <v>0</v>
       </c>
-      <c r="X60" s="35">
+      <c r="X60" s="34">
         <f>[1]Demands!M56</f>
         <v>0</v>
       </c>
-      <c r="Y60" s="35">
+      <c r="Y60" s="34">
         <f>[1]Demands!N56</f>
         <v>0</v>
       </c>
-      <c r="Z60" s="35">
+      <c r="Z60" s="34">
         <f>[1]Demands!O56</f>
         <v>0</v>
       </c>
-      <c r="AA60" s="35">
+      <c r="AA60" s="34">
         <f>[1]Demands!P56</f>
         <v>0</v>
       </c>
-      <c r="AB60" s="35">
+      <c r="AB60" s="34">
         <f>[1]Demands!Q56</f>
         <v>0</v>
       </c>
-      <c r="AC60" s="35">
+      <c r="AC60" s="34">
         <f>[1]Demands!R56</f>
         <v>0</v>
       </c>
-      <c r="AD60" s="35">
+      <c r="AD60" s="34">
         <f>[1]Demands!S56</f>
         <v>0</v>
       </c>
-      <c r="AE60" s="35">
+      <c r="AE60" s="34">
         <f>[1]Demands!T56</f>
         <v>0</v>
       </c>
-      <c r="AF60" s="35">
+      <c r="AF60" s="34">
         <f>[1]Demands!U56</f>
         <v>0</v>
       </c>
-      <c r="AG60" s="35">
+      <c r="AG60" s="34">
         <f>[1]Demands!V56</f>
         <v>0</v>
       </c>
-      <c r="AH60" s="35">
+      <c r="AH60" s="34">
         <f>[1]Demands!W56</f>
         <v>0</v>
       </c>
-      <c r="AI60" s="35">
+      <c r="AI60" s="34">
         <f>[1]Demands!X56</f>
         <v>0</v>
       </c>
-      <c r="AJ60" s="35">
+      <c r="AJ60" s="34">
         <f>[1]Demands!Y56</f>
         <v>0</v>
       </c>
-      <c r="AK60" s="35">
+      <c r="AK60" s="34">
         <f>[1]Demands!Z56</f>
         <v>0</v>
       </c>
-      <c r="AL60" s="35">
+      <c r="AL60" s="34">
         <f>[1]Demands!AA56</f>
         <v>0</v>
       </c>
-      <c r="AM60" s="35">
+      <c r="AM60" s="34">
         <f>[1]Demands!AB56</f>
         <v>0</v>
       </c>
-      <c r="AN60" s="35">
+      <c r="AN60" s="34">
         <f>[1]Demands!AC56</f>
         <v>0</v>
       </c>
-      <c r="AO60" s="35">
+      <c r="AO60" s="34">
         <f>[1]Demands!AD60</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
+    <row r="61" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61" t="s">
         <v>69</v>
       </c>
-      <c r="L61" s="34"/>
-      <c r="M61" s="34"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="35"/>
-      <c r="S61" s="35"/>
-      <c r="T61" s="35"/>
-      <c r="U61" s="35"/>
-      <c r="V61" s="35"/>
-      <c r="W61" s="35"/>
-      <c r="X61" s="35"/>
-      <c r="Y61" s="35"/>
-      <c r="Z61" s="35"/>
-      <c r="AA61" s="35"/>
-      <c r="AB61" s="35"/>
-      <c r="AC61" s="35"/>
-      <c r="AD61" s="35"/>
-      <c r="AE61" s="35"/>
-      <c r="AF61" s="35"/>
-      <c r="AG61" s="35"/>
-      <c r="AH61" s="35"/>
-      <c r="AI61" s="35"/>
-      <c r="AJ61" s="35"/>
-      <c r="AK61" s="35"/>
-      <c r="AL61" s="35"/>
-      <c r="AM61" s="35"/>
-      <c r="AN61" s="35"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="34"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="34"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="34"/>
+      <c r="T61" s="34"/>
+      <c r="U61" s="34"/>
+      <c r="V61" s="34"/>
+      <c r="W61" s="34"/>
+      <c r="X61" s="34"/>
+      <c r="Y61" s="34"/>
+      <c r="Z61" s="34"/>
+      <c r="AA61" s="34"/>
+      <c r="AB61" s="34"/>
+      <c r="AC61" s="34"/>
+      <c r="AD61" s="34"/>
+      <c r="AE61" s="34"/>
+      <c r="AF61" s="34"/>
+      <c r="AG61" s="34"/>
+      <c r="AH61" s="34"/>
+      <c r="AI61" s="34"/>
+      <c r="AJ61" s="34"/>
+      <c r="AK61" s="34"/>
+      <c r="AL61" s="34"/>
+      <c r="AM61" s="34"/>
+      <c r="AN61" s="34"/>
       <c r="AO61">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C62" s="34" t="s">
+    <row r="62" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C62" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34" t="str">
+      <c r="D62" s="33"/>
+      <c r="E62" s="33" t="str">
         <f t="shared" ref="E62:E74" si="4">E37</f>
         <v>TCYC_CYC</v>
       </c>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34" t="str">
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33" t="str">
         <f>H60</f>
         <v>TRAPL</v>
       </c>
-      <c r="I62" s="34"/>
+      <c r="I62" s="33"/>
       <c r="J62">
         <v>2018</v>
       </c>
       <c r="K62" t="s">
         <v>69</v>
       </c>
-      <c r="L62" s="34">
+      <c r="L62" s="33">
         <v>-1</v>
       </c>
-      <c r="M62" s="34" t="str">
+      <c r="M62" s="33" t="str">
         <f>M37</f>
         <v>Bike</v>
       </c>
-      <c r="N62" s="35">
+      <c r="N62" s="34">
         <f>[1]Demands!C57</f>
         <v>0</v>
       </c>
-      <c r="O62" s="35">
+      <c r="O62" s="34">
         <f>[1]Demands!D57</f>
         <v>0</v>
       </c>
-      <c r="P62" s="35">
+      <c r="P62" s="34">
         <f>[1]Demands!E57</f>
         <v>0</v>
       </c>
-      <c r="Q62" s="35">
+      <c r="Q62" s="34">
         <f>[1]Demands!F57</f>
         <v>0</v>
       </c>
-      <c r="R62" s="35">
+      <c r="R62" s="34">
         <f>[1]Demands!G57</f>
         <v>0</v>
       </c>
-      <c r="S62" s="35">
+      <c r="S62" s="34">
         <f>[1]Demands!H57</f>
         <v>0</v>
       </c>
-      <c r="T62" s="35">
+      <c r="T62" s="34">
         <f>[1]Demands!I57</f>
         <v>0</v>
       </c>
-      <c r="U62" s="35">
+      <c r="U62" s="34">
         <f>[1]Demands!J57</f>
         <v>0</v>
       </c>
-      <c r="V62" s="35">
+      <c r="V62" s="34">
         <f>[1]Demands!K57</f>
         <v>0</v>
       </c>
-      <c r="W62" s="35">
+      <c r="W62" s="34">
         <f>[1]Demands!L57</f>
         <v>0</v>
       </c>
-      <c r="X62" s="35">
+      <c r="X62" s="34">
         <f>[1]Demands!M57</f>
         <v>0</v>
       </c>
-      <c r="Y62" s="35">
+      <c r="Y62" s="34">
         <f>[1]Demands!N57</f>
         <v>0</v>
       </c>
-      <c r="Z62" s="35">
+      <c r="Z62" s="34">
         <f>[1]Demands!O57</f>
         <v>0</v>
       </c>
-      <c r="AA62" s="35">
+      <c r="AA62" s="34">
         <f>[1]Demands!P57</f>
         <v>0</v>
       </c>
-      <c r="AB62" s="35">
+      <c r="AB62" s="34">
         <f>[1]Demands!Q57</f>
         <v>0</v>
       </c>
-      <c r="AC62" s="35">
+      <c r="AC62" s="34">
         <f>[1]Demands!R57</f>
         <v>0</v>
       </c>
-      <c r="AD62" s="35">
+      <c r="AD62" s="34">
         <f>[1]Demands!S57</f>
         <v>0</v>
       </c>
-      <c r="AE62" s="35">
+      <c r="AE62" s="34">
         <f>[1]Demands!T57</f>
         <v>0</v>
       </c>
-      <c r="AF62" s="35">
+      <c r="AF62" s="34">
         <f>[1]Demands!U57</f>
         <v>0</v>
       </c>
-      <c r="AG62" s="35">
+      <c r="AG62" s="34">
         <f>[1]Demands!V57</f>
         <v>0</v>
       </c>
-      <c r="AH62" s="35">
+      <c r="AH62" s="34">
         <f>[1]Demands!W57</f>
         <v>0</v>
       </c>
-      <c r="AI62" s="35">
+      <c r="AI62" s="34">
         <f>[1]Demands!X57</f>
         <v>0</v>
       </c>
-      <c r="AJ62" s="35">
+      <c r="AJ62" s="34">
         <f>[1]Demands!Y57</f>
         <v>0</v>
       </c>
-      <c r="AK62" s="35">
+      <c r="AK62" s="34">
         <f>[1]Demands!Z57</f>
         <v>0</v>
       </c>
-      <c r="AL62" s="35">
+      <c r="AL62" s="34">
         <f>[1]Demands!AA57</f>
         <v>0</v>
       </c>
-      <c r="AM62" s="35">
+      <c r="AM62" s="34">
         <f>[1]Demands!AB57</f>
         <v>0</v>
       </c>
-      <c r="AN62" s="35">
+      <c r="AN62" s="34">
         <f>[1]Demands!AC57</f>
         <v>0</v>
       </c>
-      <c r="AO62" s="35">
+      <c r="AO62" s="34">
         <f>[1]Demands!AD61</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
+    <row r="63" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63" t="s">
         <v>69</v>
       </c>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="35"/>
-      <c r="S63" s="35"/>
-      <c r="T63" s="35"/>
-      <c r="U63" s="35"/>
-      <c r="V63" s="35"/>
-      <c r="W63" s="35"/>
-      <c r="X63" s="35"/>
-      <c r="Y63" s="35"/>
-      <c r="Z63" s="35"/>
-      <c r="AA63" s="35"/>
-      <c r="AB63" s="35"/>
-      <c r="AC63" s="35"/>
-      <c r="AD63" s="35"/>
-      <c r="AE63" s="35"/>
-      <c r="AF63" s="35"/>
-      <c r="AG63" s="35"/>
-      <c r="AH63" s="35"/>
-      <c r="AI63" s="35"/>
-      <c r="AJ63" s="35"/>
-      <c r="AK63" s="35"/>
-      <c r="AL63" s="35"/>
-      <c r="AM63" s="35"/>
-      <c r="AN63" s="35"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="34"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="34"/>
+      <c r="S63" s="34"/>
+      <c r="T63" s="34"/>
+      <c r="U63" s="34"/>
+      <c r="V63" s="34"/>
+      <c r="W63" s="34"/>
+      <c r="X63" s="34"/>
+      <c r="Y63" s="34"/>
+      <c r="Z63" s="34"/>
+      <c r="AA63" s="34"/>
+      <c r="AB63" s="34"/>
+      <c r="AC63" s="34"/>
+      <c r="AD63" s="34"/>
+      <c r="AE63" s="34"/>
+      <c r="AF63" s="34"/>
+      <c r="AG63" s="34"/>
+      <c r="AH63" s="34"/>
+      <c r="AI63" s="34"/>
+      <c r="AJ63" s="34"/>
+      <c r="AK63" s="34"/>
+      <c r="AL63" s="34"/>
+      <c r="AM63" s="34"/>
+      <c r="AN63" s="34"/>
       <c r="AO63">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C64" s="34" t="s">
+    <row r="64" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C64" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34" t="str">
+      <c r="D64" s="33"/>
+      <c r="E64" s="33" t="str">
         <f t="shared" si="4"/>
         <v>TMOT*</v>
       </c>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34" t="str">
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33" t="str">
         <f>H62</f>
         <v>TRAPL</v>
       </c>
-      <c r="I64" s="34"/>
+      <c r="I64" s="33"/>
       <c r="J64">
         <v>2018</v>
       </c>
       <c r="K64" t="s">
         <v>69</v>
       </c>
-      <c r="L64" s="34">
+      <c r="L64" s="33">
         <v>-1</v>
       </c>
-      <c r="M64" s="34" t="str">
+      <c r="M64" s="33" t="str">
         <f>M39</f>
         <v>2-wheelers</v>
       </c>
-      <c r="N64" s="35">
+      <c r="N64" s="34">
         <f>[1]Demands!C58</f>
         <v>0</v>
       </c>
-      <c r="O64" s="35">
+      <c r="O64" s="34">
         <f>[1]Demands!D58</f>
         <v>0</v>
       </c>
-      <c r="P64" s="35">
+      <c r="P64" s="34">
         <f>[1]Demands!E58</f>
         <v>0</v>
       </c>
-      <c r="Q64" s="35">
+      <c r="Q64" s="34">
         <f>[1]Demands!F58</f>
         <v>0</v>
       </c>
-      <c r="R64" s="35">
+      <c r="R64" s="34">
         <f>[1]Demands!G58</f>
         <v>0</v>
       </c>
-      <c r="S64" s="35">
+      <c r="S64" s="34">
         <f>[1]Demands!H58</f>
         <v>0</v>
       </c>
-      <c r="T64" s="35">
+      <c r="T64" s="34">
         <f>[1]Demands!I58</f>
         <v>0</v>
       </c>
-      <c r="U64" s="35">
+      <c r="U64" s="34">
         <f>[1]Demands!J58</f>
         <v>0</v>
       </c>
-      <c r="V64" s="35">
+      <c r="V64" s="34">
         <f>[1]Demands!K58</f>
         <v>0</v>
       </c>
-      <c r="W64" s="35">
+      <c r="W64" s="34">
         <f>[1]Demands!L58</f>
         <v>0</v>
       </c>
-      <c r="X64" s="35">
+      <c r="X64" s="34">
         <f>[1]Demands!M58</f>
         <v>0</v>
       </c>
-      <c r="Y64" s="35">
+      <c r="Y64" s="34">
         <f>[1]Demands!N58</f>
         <v>0</v>
       </c>
-      <c r="Z64" s="35">
+      <c r="Z64" s="34">
         <f>[1]Demands!O58</f>
         <v>0</v>
       </c>
-      <c r="AA64" s="35">
+      <c r="AA64" s="34">
         <f>[1]Demands!P58</f>
         <v>0</v>
       </c>
-      <c r="AB64" s="35">
+      <c r="AB64" s="34">
         <f>[1]Demands!Q58</f>
         <v>0</v>
       </c>
-      <c r="AC64" s="35">
+      <c r="AC64" s="34">
         <f>[1]Demands!R58</f>
         <v>0</v>
       </c>
-      <c r="AD64" s="35">
+      <c r="AD64" s="34">
         <f>[1]Demands!S58</f>
         <v>0</v>
       </c>
-      <c r="AE64" s="35">
+      <c r="AE64" s="34">
         <f>[1]Demands!T58</f>
         <v>0</v>
       </c>
-      <c r="AF64" s="35">
+      <c r="AF64" s="34">
         <f>[1]Demands!U58</f>
         <v>0</v>
       </c>
-      <c r="AG64" s="35">
+      <c r="AG64" s="34">
         <f>[1]Demands!V58</f>
         <v>0</v>
       </c>
-      <c r="AH64" s="35">
+      <c r="AH64" s="34">
         <f>[1]Demands!W58</f>
         <v>0</v>
       </c>
-      <c r="AI64" s="35">
+      <c r="AI64" s="34">
         <f>[1]Demands!X58</f>
         <v>0</v>
       </c>
-      <c r="AJ64" s="35">
+      <c r="AJ64" s="34">
         <f>[1]Demands!Y58</f>
         <v>0</v>
       </c>
-      <c r="AK64" s="35">
+      <c r="AK64" s="34">
         <f>[1]Demands!Z58</f>
         <v>0</v>
       </c>
-      <c r="AL64" s="35">
+      <c r="AL64" s="34">
         <f>[1]Demands!AA58</f>
         <v>0</v>
       </c>
-      <c r="AM64" s="35">
+      <c r="AM64" s="34">
         <f>[1]Demands!AB58</f>
         <v>0</v>
       </c>
-      <c r="AN64" s="35">
+      <c r="AN64" s="34">
         <f>[1]Demands!AC58</f>
         <v>0</v>
       </c>
-      <c r="AO64" s="35">
+      <c r="AO64" s="34">
         <f>[1]Demands!AD62</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
+    <row r="65" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65" t="s">
         <v>69</v>
       </c>
-      <c r="L65" s="34"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
-      <c r="R65" s="35"/>
-      <c r="S65" s="35"/>
-      <c r="T65" s="35"/>
-      <c r="U65" s="35"/>
-      <c r="V65" s="35"/>
-      <c r="W65" s="35"/>
-      <c r="X65" s="35"/>
-      <c r="Y65" s="35"/>
-      <c r="Z65" s="35"/>
-      <c r="AA65" s="35"/>
-      <c r="AB65" s="35"/>
-      <c r="AC65" s="35"/>
-      <c r="AD65" s="35"/>
-      <c r="AE65" s="35"/>
-      <c r="AF65" s="35"/>
-      <c r="AG65" s="35"/>
-      <c r="AH65" s="35"/>
-      <c r="AI65" s="35"/>
-      <c r="AJ65" s="35"/>
-      <c r="AK65" s="35"/>
-      <c r="AL65" s="35"/>
-      <c r="AM65" s="35"/>
-      <c r="AN65" s="35"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="34"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="34"/>
+      <c r="S65" s="34"/>
+      <c r="T65" s="34"/>
+      <c r="U65" s="34"/>
+      <c r="V65" s="34"/>
+      <c r="W65" s="34"/>
+      <c r="X65" s="34"/>
+      <c r="Y65" s="34"/>
+      <c r="Z65" s="34"/>
+      <c r="AA65" s="34"/>
+      <c r="AB65" s="34"/>
+      <c r="AC65" s="34"/>
+      <c r="AD65" s="34"/>
+      <c r="AE65" s="34"/>
+      <c r="AF65" s="34"/>
+      <c r="AG65" s="34"/>
+      <c r="AH65" s="34"/>
+      <c r="AI65" s="34"/>
+      <c r="AJ65" s="34"/>
+      <c r="AK65" s="34"/>
+      <c r="AL65" s="34"/>
+      <c r="AM65" s="34"/>
+      <c r="AN65" s="34"/>
       <c r="AO65">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C66" s="34" t="s">
+    <row r="66" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C66" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34" t="str">
+      <c r="D66" s="33"/>
+      <c r="E66" s="33" t="str">
         <f t="shared" si="4"/>
         <v>TCAR*</v>
       </c>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34" t="str">
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33" t="str">
         <f>H64</f>
         <v>TRAPL</v>
       </c>
-      <c r="I66" s="34"/>
+      <c r="I66" s="33"/>
       <c r="J66">
         <v>2018</v>
       </c>
       <c r="K66" t="s">
         <v>69</v>
       </c>
-      <c r="L66" s="34">
+      <c r="L66" s="33">
         <v>-1</v>
       </c>
-      <c r="M66" s="34" t="str">
+      <c r="M66" s="33" t="str">
         <f>M41</f>
         <v>LDV</v>
       </c>
-      <c r="N66" s="35">
+      <c r="N66" s="34">
         <f>[1]Demands!C59</f>
         <v>0.74108639947108168</v>
       </c>
-      <c r="O66" s="35">
+      <c r="O66" s="34">
         <f>[1]Demands!D59</f>
         <v>0.79071880912169545</v>
       </c>
-      <c r="P66" s="35">
+      <c r="P66" s="34">
         <f>[1]Demands!E59</f>
         <v>0.6386131571238467</v>
       </c>
-      <c r="Q66" s="35">
+      <c r="Q66" s="34">
         <f>[1]Demands!F59</f>
         <v>0.75580744416441215</v>
       </c>
-      <c r="R66" s="35">
+      <c r="R66" s="34">
         <f>[1]Demands!G59</f>
         <v>0.71320246300225565</v>
       </c>
-      <c r="S66" s="35">
+      <c r="S66" s="34">
         <f>[1]Demands!H59</f>
         <v>0.78115676031065473</v>
       </c>
-      <c r="T66" s="35">
+      <c r="T66" s="34">
         <f>[1]Demands!I59</f>
         <v>0.76642349622098382</v>
       </c>
-      <c r="U66" s="35">
+      <c r="U66" s="34">
         <f>[1]Demands!J59</f>
         <v>0.74828496387185417</v>
       </c>
-      <c r="V66" s="35">
+      <c r="V66" s="34">
         <f>[1]Demands!K59</f>
         <v>0.78640329755658556</v>
       </c>
-      <c r="W66" s="35">
+      <c r="W66" s="34">
         <f>[1]Demands!L59</f>
         <v>0.74588309703681677</v>
       </c>
-      <c r="X66" s="35">
+      <c r="X66" s="34">
         <f>[1]Demands!M59</f>
         <v>0.80172469534468704</v>
       </c>
-      <c r="Y66" s="35">
+      <c r="Y66" s="34">
         <f>[1]Demands!N59</f>
         <v>0.79583426304303684</v>
       </c>
-      <c r="Z66" s="35">
+      <c r="Z66" s="34">
         <f>[1]Demands!O59</f>
         <v>0.77907090765006382</v>
       </c>
-      <c r="AA66" s="35">
+      <c r="AA66" s="34">
         <f>[1]Demands!P59</f>
         <v>0.80155723993574601</v>
       </c>
-      <c r="AB66" s="35">
+      <c r="AB66" s="34">
         <f>[1]Demands!Q59</f>
         <v>0.78887154985237196</v>
       </c>
-      <c r="AC66" s="35">
+      <c r="AC66" s="34">
         <f>[1]Demands!R59</f>
         <v>0.70533422841274862</v>
       </c>
-      <c r="AD66" s="35">
+      <c r="AD66" s="34">
         <f>[1]Demands!S59</f>
         <v>0.78717070970762593</v>
       </c>
-      <c r="AE66" s="35">
+      <c r="AE66" s="34">
         <f>[1]Demands!T59</f>
         <v>0.77916775606401434</v>
       </c>
-      <c r="AF66" s="35">
+      <c r="AF66" s="34">
         <f>[1]Demands!U59</f>
         <v>0.80467495581567261</v>
       </c>
-      <c r="AG66" s="35">
+      <c r="AG66" s="34">
         <f>[1]Demands!V59</f>
         <v>0.74505854970828844</v>
       </c>
-      <c r="AH66" s="35">
+      <c r="AH66" s="34">
         <f>[1]Demands!W59</f>
         <v>0.79514890678426453</v>
       </c>
-      <c r="AI66" s="35">
+      <c r="AI66" s="34">
         <f>[1]Demands!X59</f>
         <v>0.73736495113760858</v>
       </c>
-      <c r="AJ66" s="35">
+      <c r="AJ66" s="34">
         <f>[1]Demands!Y59</f>
         <v>0.81853938082108479</v>
       </c>
-      <c r="AK66" s="35">
+      <c r="AK66" s="34">
         <f>[1]Demands!Z59</f>
         <v>0.77998817627338324</v>
       </c>
-      <c r="AL66" s="35">
+      <c r="AL66" s="34">
         <f>[1]Demands!AA59</f>
         <v>0.85154985463859412</v>
       </c>
-      <c r="AM66" s="35">
+      <c r="AM66" s="34">
         <f>[1]Demands!AB59</f>
         <v>0.88006272796227247</v>
       </c>
-      <c r="AN66" s="35">
+      <c r="AN66" s="34">
         <f>[1]Demands!AC59</f>
         <v>0.64231184378282558</v>
       </c>
-      <c r="AO66" s="35">
+      <c r="AO66" s="34">
         <f>[1]Demands!AD63</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
+    <row r="67" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67" t="s">
         <v>69</v>
       </c>
-      <c r="L67" s="34"/>
-      <c r="M67" s="34"/>
-      <c r="N67" s="35"/>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="35"/>
-      <c r="S67" s="35"/>
-      <c r="T67" s="35"/>
-      <c r="U67" s="35"/>
-      <c r="V67" s="35"/>
-      <c r="W67" s="35"/>
-      <c r="X67" s="35"/>
-      <c r="Y67" s="35"/>
-      <c r="Z67" s="35"/>
-      <c r="AA67" s="35"/>
-      <c r="AB67" s="35"/>
-      <c r="AC67" s="35"/>
-      <c r="AD67" s="35"/>
-      <c r="AE67" s="35"/>
-      <c r="AF67" s="35"/>
-      <c r="AG67" s="35"/>
-      <c r="AH67" s="35"/>
-      <c r="AI67" s="35"/>
-      <c r="AJ67" s="35"/>
-      <c r="AK67" s="35"/>
-      <c r="AL67" s="35"/>
-      <c r="AM67" s="35"/>
-      <c r="AN67" s="35"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="34"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="34"/>
+      <c r="S67" s="34"/>
+      <c r="T67" s="34"/>
+      <c r="U67" s="34"/>
+      <c r="V67" s="34"/>
+      <c r="W67" s="34"/>
+      <c r="X67" s="34"/>
+      <c r="Y67" s="34"/>
+      <c r="Z67" s="34"/>
+      <c r="AA67" s="34"/>
+      <c r="AB67" s="34"/>
+      <c r="AC67" s="34"/>
+      <c r="AD67" s="34"/>
+      <c r="AE67" s="34"/>
+      <c r="AF67" s="34"/>
+      <c r="AG67" s="34"/>
+      <c r="AH67" s="34"/>
+      <c r="AI67" s="34"/>
+      <c r="AJ67" s="34"/>
+      <c r="AK67" s="34"/>
+      <c r="AL67" s="34"/>
+      <c r="AM67" s="34"/>
+      <c r="AN67" s="34"/>
       <c r="AO67">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C68" s="34" t="s">
+    <row r="68" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C68" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34" t="str">
+      <c r="D68" s="33"/>
+      <c r="E68" s="33" t="str">
         <f t="shared" si="4"/>
         <v>TTAXI*</v>
       </c>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34" t="str">
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33" t="str">
         <f>H66</f>
         <v>TRAPL</v>
       </c>
-      <c r="I68" s="34"/>
+      <c r="I68" s="33"/>
       <c r="J68">
         <v>2018</v>
       </c>
       <c r="K68" t="s">
         <v>69</v>
       </c>
-      <c r="L68" s="34">
+      <c r="L68" s="33">
         <v>-1</v>
       </c>
-      <c r="M68" s="34" t="str">
+      <c r="M68" s="33" t="str">
         <f>M43</f>
         <v>Taxis</v>
       </c>
-      <c r="N68" s="35">
+      <c r="N68" s="34">
         <f>[1]Demands!C60</f>
         <v>1.214216695359136E-2</v>
       </c>
-      <c r="O68" s="35">
+      <c r="O68" s="34">
         <f>[1]Demands!D60</f>
         <v>5.244564356444866E-3</v>
       </c>
-      <c r="P68" s="35">
+      <c r="P68" s="34">
         <f>[1]Demands!E60</f>
         <v>2.5318479036608464E-2</v>
       </c>
-      <c r="Q68" s="35">
+      <c r="Q68" s="34">
         <f>[1]Demands!F60</f>
         <v>1.0199545943263343E-2</v>
       </c>
-      <c r="R68" s="35">
+      <c r="R68" s="34">
         <f>[1]Demands!G60</f>
         <v>5.4465670112681473E-3</v>
       </c>
-      <c r="S68" s="35">
+      <c r="S68" s="34">
         <f>[1]Demands!H60</f>
         <v>7.3305854058422536E-3</v>
       </c>
-      <c r="T68" s="35">
+      <c r="T68" s="34">
         <f>[1]Demands!I60</f>
         <v>6.327365203104513E-3</v>
       </c>
-      <c r="U68" s="35">
+      <c r="U68" s="34">
         <f>[1]Demands!J60</f>
         <v>1.4553702960433654E-2</v>
       </c>
-      <c r="V68" s="35">
+      <c r="V68" s="34">
         <f>[1]Demands!K60</f>
         <v>1.4378136289327563E-2</v>
       </c>
-      <c r="W68" s="35">
+      <c r="W68" s="34">
         <f>[1]Demands!L60</f>
         <v>4.7655125577413509E-3</v>
       </c>
-      <c r="X68" s="35">
+      <c r="X68" s="34">
         <f>[1]Demands!M60</f>
         <v>8.6002260738130814E-3</v>
       </c>
-      <c r="Y68" s="35">
+      <c r="Y68" s="34">
         <f>[1]Demands!N60</f>
         <v>4.4354589246647135E-3</v>
       </c>
-      <c r="Z68" s="35">
+      <c r="Z68" s="34">
         <f>[1]Demands!O60</f>
         <v>6.592434448494537E-3</v>
       </c>
-      <c r="AA68" s="35">
+      <c r="AA68" s="34">
         <f>[1]Demands!P60</f>
         <v>7.3526877521562662E-3</v>
       </c>
-      <c r="AB68" s="35">
+      <c r="AB68" s="34">
         <f>[1]Demands!Q60</f>
         <v>9.0159384819168999E-3</v>
       </c>
-      <c r="AC68" s="35">
+      <c r="AC68" s="34">
         <f>[1]Demands!R60</f>
         <v>6.9712334769449829E-3</v>
       </c>
-      <c r="AD68" s="35">
+      <c r="AD68" s="34">
         <f>[1]Demands!S60</f>
         <v>9.4394919428535985E-3</v>
       </c>
-      <c r="AE68" s="35">
+      <c r="AE68" s="34">
         <f>[1]Demands!T60</f>
         <v>3.6138078846859318E-3</v>
       </c>
-      <c r="AF68" s="35">
+      <c r="AF68" s="34">
         <f>[1]Demands!U60</f>
         <v>6.3123502546919919E-3</v>
       </c>
-      <c r="AG68" s="35">
+      <c r="AG68" s="34">
         <f>[1]Demands!V60</f>
         <v>9.5979099500525071E-3</v>
       </c>
-      <c r="AH68" s="35">
+      <c r="AH68" s="34">
         <f>[1]Demands!W60</f>
         <v>5.8735122381989901E-3</v>
       </c>
-      <c r="AI68" s="35">
+      <c r="AI68" s="34">
         <f>[1]Demands!X60</f>
         <v>5.0103707288089395E-3</v>
       </c>
-      <c r="AJ68" s="35">
+      <c r="AJ68" s="34">
         <f>[1]Demands!Y60</f>
         <v>4.3449135578945168E-3</v>
       </c>
-      <c r="AK68" s="35">
+      <c r="AK68" s="34">
         <f>[1]Demands!Z60</f>
         <v>6.2553697184935773E-3</v>
       </c>
-      <c r="AL68" s="35">
+      <c r="AL68" s="34">
         <f>[1]Demands!AA60</f>
         <v>6.8237115745591239E-3</v>
       </c>
-      <c r="AM68" s="35">
+      <c r="AM68" s="34">
         <f>[1]Demands!AB60</f>
         <v>7.9379260453763534E-3</v>
       </c>
-      <c r="AN68" s="35">
+      <c r="AN68" s="34">
         <f>[1]Demands!AC60</f>
         <v>2.7483693665086213E-3</v>
       </c>
-      <c r="AO68" s="35">
+      <c r="AO68" s="34">
         <f>[1]Demands!AD64</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
+    <row r="69" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69" t="s">
         <v>69</v>
       </c>
-      <c r="L69" s="34"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
-      <c r="S69" s="35"/>
-      <c r="T69" s="35"/>
-      <c r="U69" s="35"/>
-      <c r="V69" s="35"/>
-      <c r="W69" s="35"/>
-      <c r="X69" s="35"/>
-      <c r="Y69" s="35"/>
-      <c r="Z69" s="35"/>
-      <c r="AA69" s="35"/>
-      <c r="AB69" s="35"/>
-      <c r="AC69" s="35"/>
-      <c r="AD69" s="35"/>
-      <c r="AE69" s="35"/>
-      <c r="AF69" s="35"/>
-      <c r="AG69" s="35"/>
-      <c r="AH69" s="35"/>
-      <c r="AI69" s="35"/>
-      <c r="AJ69" s="35"/>
-      <c r="AK69" s="35"/>
-      <c r="AL69" s="35"/>
-      <c r="AM69" s="35"/>
-      <c r="AN69" s="35"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
+      <c r="Q69" s="34"/>
+      <c r="R69" s="34"/>
+      <c r="S69" s="34"/>
+      <c r="T69" s="34"/>
+      <c r="U69" s="34"/>
+      <c r="V69" s="34"/>
+      <c r="W69" s="34"/>
+      <c r="X69" s="34"/>
+      <c r="Y69" s="34"/>
+      <c r="Z69" s="34"/>
+      <c r="AA69" s="34"/>
+      <c r="AB69" s="34"/>
+      <c r="AC69" s="34"/>
+      <c r="AD69" s="34"/>
+      <c r="AE69" s="34"/>
+      <c r="AF69" s="34"/>
+      <c r="AG69" s="34"/>
+      <c r="AH69" s="34"/>
+      <c r="AI69" s="34"/>
+      <c r="AJ69" s="34"/>
+      <c r="AK69" s="34"/>
+      <c r="AL69" s="34"/>
+      <c r="AM69" s="34"/>
+      <c r="AN69" s="34"/>
       <c r="AO69">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C70" s="34" t="s">
+    <row r="70" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C70" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34" t="str">
+      <c r="D70" s="33"/>
+      <c r="E70" s="33" t="str">
         <f t="shared" si="4"/>
         <v>TBUS*</v>
       </c>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34" t="str">
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33" t="str">
         <f>H68</f>
         <v>TRAPL</v>
       </c>
-      <c r="I70" s="34"/>
+      <c r="I70" s="33"/>
       <c r="J70">
         <v>2018</v>
       </c>
       <c r="K70" t="s">
         <v>69</v>
       </c>
-      <c r="L70" s="34">
+      <c r="L70" s="33">
         <v>-1</v>
       </c>
-      <c r="M70" s="34" t="str">
+      <c r="M70" s="33" t="str">
         <f>M45</f>
         <v>BUS</v>
       </c>
-      <c r="N70" s="35">
+      <c r="N70" s="34">
         <f>[1]Demands!C61</f>
         <v>0.1626965950818042</v>
       </c>
-      <c r="O70" s="35">
+      <c r="O70" s="34">
         <f>[1]Demands!D61</f>
         <v>0.13109626623170204</v>
       </c>
-      <c r="P70" s="35">
+      <c r="P70" s="34">
         <f>[1]Demands!E61</f>
         <v>0.23916819504950479</v>
       </c>
-      <c r="Q70" s="35">
+      <c r="Q70" s="34">
         <f>[1]Demands!F61</f>
         <v>0.15479346868381608</v>
       </c>
-      <c r="R70" s="35">
+      <c r="R70" s="34">
         <f>[1]Demands!G61</f>
         <v>0.20800029152740038</v>
       </c>
-      <c r="S70" s="35">
+      <c r="S70" s="34">
         <f>[1]Demands!H61</f>
         <v>0.12724978858051844</v>
       </c>
-      <c r="T70" s="35">
+      <c r="T70" s="34">
         <f>[1]Demands!I61</f>
         <v>0.14827744084788594</v>
       </c>
-      <c r="U70" s="35">
+      <c r="U70" s="34">
         <f>[1]Demands!J61</f>
         <v>0.14551722418000443</v>
       </c>
-      <c r="V70" s="35">
+      <c r="V70" s="34">
         <f>[1]Demands!K61</f>
         <v>0.11766218454461841</v>
       </c>
-      <c r="W70" s="35">
+      <c r="W70" s="34">
         <f>[1]Demands!L61</f>
         <v>0.17371900154534914</v>
       </c>
-      <c r="X70" s="35">
+      <c r="X70" s="34">
         <f>[1]Demands!M61</f>
         <v>0.11196687123703571</v>
       </c>
-      <c r="Y70" s="35">
+      <c r="Y70" s="34">
         <f>[1]Demands!N61</f>
         <v>0.12599020808803368</v>
       </c>
-      <c r="Z70" s="35">
+      <c r="Z70" s="34">
         <f>[1]Demands!O61</f>
         <v>0.13241927644257739</v>
       </c>
-      <c r="AA70" s="35">
+      <c r="AA70" s="34">
         <f>[1]Demands!P61</f>
         <v>0.11487011188674058</v>
       </c>
-      <c r="AB70" s="35">
+      <c r="AB70" s="34">
         <f>[1]Demands!Q61</f>
         <v>0.11670831913312733</v>
       </c>
-      <c r="AC70" s="35">
+      <c r="AC70" s="34">
         <f>[1]Demands!R61</f>
         <v>0.2178213998684824</v>
       </c>
-      <c r="AD70" s="35">
+      <c r="AD70" s="34">
         <f>[1]Demands!S61</f>
         <v>0.12016236232976817</v>
       </c>
-      <c r="AE70" s="35">
+      <c r="AE70" s="34">
         <f>[1]Demands!T61</f>
         <v>0.14679096653005977</v>
       </c>
-      <c r="AF70" s="35">
+      <c r="AF70" s="34">
         <f>[1]Demands!U61</f>
         <v>0.10758223700696061</v>
       </c>
-      <c r="AG70" s="35">
+      <c r="AG70" s="34">
         <f>[1]Demands!V61</f>
         <v>0.1657308225029282</v>
       </c>
-      <c r="AH70" s="35">
+      <c r="AH70" s="34">
         <f>[1]Demands!W61</f>
         <v>0.12234818626194599</v>
       </c>
-      <c r="AI70" s="35">
+      <c r="AI70" s="34">
         <f>[1]Demands!X61</f>
         <v>0.18501691930313938</v>
       </c>
-      <c r="AJ70" s="35">
+      <c r="AJ70" s="34">
         <f>[1]Demands!Y61</f>
         <v>0.10860805699514527</v>
       </c>
-      <c r="AK70" s="35">
+      <c r="AK70" s="34">
         <f>[1]Demands!Z61</f>
         <v>0.13030246782805119</v>
       </c>
-      <c r="AL70" s="35">
+      <c r="AL70" s="34">
         <f>[1]Demands!AA61</f>
         <v>5.0925275195199252E-2</v>
       </c>
-      <c r="AM70" s="35">
+      <c r="AM70" s="34">
         <f>[1]Demands!AB61</f>
         <v>9.1008381034736394E-3</v>
       </c>
-      <c r="AN70" s="35">
+      <c r="AN70" s="34">
         <f>[1]Demands!AC61</f>
         <v>0.28624951607603277</v>
       </c>
-      <c r="AO70" s="35">
+      <c r="AO70" s="34">
         <f>[1]Demands!AD65</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
+    <row r="71" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="33"/>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71" t="s">
         <v>69</v>
       </c>
-      <c r="L71" s="34"/>
-      <c r="M71" s="34"/>
-      <c r="N71" s="35"/>
-      <c r="O71" s="35"/>
-      <c r="P71" s="35"/>
-      <c r="Q71" s="35"/>
-      <c r="R71" s="35"/>
-      <c r="S71" s="35"/>
-      <c r="T71" s="35"/>
-      <c r="U71" s="35"/>
-      <c r="V71" s="35"/>
-      <c r="W71" s="35"/>
-      <c r="X71" s="35"/>
-      <c r="Y71" s="35"/>
-      <c r="Z71" s="35"/>
-      <c r="AA71" s="35"/>
-      <c r="AB71" s="35"/>
-      <c r="AC71" s="35"/>
-      <c r="AD71" s="35"/>
-      <c r="AE71" s="35"/>
-      <c r="AF71" s="35"/>
-      <c r="AG71" s="35"/>
-      <c r="AH71" s="35"/>
-      <c r="AI71" s="35"/>
-      <c r="AJ71" s="35"/>
-      <c r="AK71" s="35"/>
-      <c r="AL71" s="35"/>
-      <c r="AM71" s="35"/>
-      <c r="AN71" s="35"/>
+      <c r="L71" s="33"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="34"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
+      <c r="Q71" s="34"/>
+      <c r="R71" s="34"/>
+      <c r="S71" s="34"/>
+      <c r="T71" s="34"/>
+      <c r="U71" s="34"/>
+      <c r="V71" s="34"/>
+      <c r="W71" s="34"/>
+      <c r="X71" s="34"/>
+      <c r="Y71" s="34"/>
+      <c r="Z71" s="34"/>
+      <c r="AA71" s="34"/>
+      <c r="AB71" s="34"/>
+      <c r="AC71" s="34"/>
+      <c r="AD71" s="34"/>
+      <c r="AE71" s="34"/>
+      <c r="AF71" s="34"/>
+      <c r="AG71" s="34"/>
+      <c r="AH71" s="34"/>
+      <c r="AI71" s="34"/>
+      <c r="AJ71" s="34"/>
+      <c r="AK71" s="34"/>
+      <c r="AL71" s="34"/>
+      <c r="AM71" s="34"/>
+      <c r="AN71" s="34"/>
       <c r="AO71">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="72" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>93</v>
       </c>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34" t="str">
+      <c r="D72" s="33"/>
+      <c r="E72" s="33" t="str">
         <f t="shared" si="4"/>
         <v>TLRAI*</v>
       </c>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="34" t="str">
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33" t="str">
         <f>H70</f>
         <v>TRAPL</v>
       </c>
-      <c r="I72" s="34"/>
+      <c r="I72" s="33"/>
       <c r="J72">
         <v>2018</v>
       </c>
       <c r="K72" t="s">
         <v>69</v>
       </c>
-      <c r="L72" s="34">
+      <c r="L72" s="33">
         <v>-1</v>
       </c>
-      <c r="M72" s="34" t="str">
+      <c r="M72" s="33" t="str">
         <f>M47</f>
         <v>Light rail (LUAS)</v>
       </c>
-      <c r="N72" s="35">
+      <c r="N72" s="34">
         <f>[1]Demands!C62</f>
         <v>0</v>
       </c>
-      <c r="O72" s="35">
+      <c r="O72" s="34">
         <f>[1]Demands!D62</f>
         <v>0</v>
       </c>
-      <c r="P72" s="35">
+      <c r="P72" s="34">
         <f>[1]Demands!E62</f>
         <v>0</v>
       </c>
-      <c r="Q72" s="35">
+      <c r="Q72" s="34">
         <f>[1]Demands!F62</f>
         <v>0</v>
       </c>
-      <c r="R72" s="35">
+      <c r="R72" s="34">
         <f>[1]Demands!G62</f>
         <v>0</v>
       </c>
-      <c r="S72" s="35">
+      <c r="S72" s="34">
         <f>[1]Demands!H62</f>
         <v>0</v>
       </c>
-      <c r="T72" s="35">
+      <c r="T72" s="34">
         <f>[1]Demands!I62</f>
         <v>0</v>
       </c>
-      <c r="U72" s="35">
+      <c r="U72" s="34">
         <f>[1]Demands!J62</f>
         <v>0</v>
       </c>
-      <c r="V72" s="35">
+      <c r="V72" s="34">
         <f>[1]Demands!K62</f>
         <v>0</v>
       </c>
-      <c r="W72" s="35">
+      <c r="W72" s="34">
         <f>[1]Demands!L62</f>
         <v>0</v>
       </c>
-      <c r="X72" s="35">
+      <c r="X72" s="34">
         <f>[1]Demands!M62</f>
         <v>0</v>
       </c>
-      <c r="Y72" s="35">
+      <c r="Y72" s="34">
         <f>[1]Demands!N62</f>
         <v>0</v>
       </c>
-      <c r="Z72" s="35">
+      <c r="Z72" s="34">
         <f>[1]Demands!O62</f>
         <v>0</v>
       </c>
-      <c r="AA72" s="35">
+      <c r="AA72" s="34">
         <f>[1]Demands!P62</f>
         <v>0</v>
       </c>
-      <c r="AB72" s="35">
+      <c r="AB72" s="34">
         <f>[1]Demands!Q62</f>
         <v>0</v>
       </c>
-      <c r="AC72" s="35">
+      <c r="AC72" s="34">
         <f>[1]Demands!R62</f>
         <v>0</v>
       </c>
-      <c r="AD72" s="35">
+      <c r="AD72" s="34">
         <f>[1]Demands!S62</f>
         <v>0</v>
       </c>
-      <c r="AE72" s="35">
+      <c r="AE72" s="34">
         <f>[1]Demands!T62</f>
         <v>0</v>
       </c>
-      <c r="AF72" s="35">
+      <c r="AF72" s="34">
         <f>[1]Demands!U62</f>
         <v>0</v>
       </c>
-      <c r="AG72" s="35">
+      <c r="AG72" s="34">
         <f>[1]Demands!V62</f>
         <v>0</v>
       </c>
-      <c r="AH72" s="35">
+      <c r="AH72" s="34">
         <f>[1]Demands!W62</f>
         <v>0</v>
       </c>
-      <c r="AI72" s="35">
+      <c r="AI72" s="34">
         <f>[1]Demands!X62</f>
         <v>0</v>
       </c>
-      <c r="AJ72" s="35">
+      <c r="AJ72" s="34">
         <f>[1]Demands!Y62</f>
         <v>0</v>
       </c>
-      <c r="AK72" s="35">
+      <c r="AK72" s="34">
         <f>[1]Demands!Z62</f>
         <v>0</v>
       </c>
-      <c r="AL72" s="35">
+      <c r="AL72" s="34">
         <f>[1]Demands!AA62</f>
         <v>0</v>
       </c>
-      <c r="AM72" s="35">
+      <c r="AM72" s="34">
         <f>[1]Demands!AB62</f>
         <v>0</v>
       </c>
-      <c r="AN72" s="35">
+      <c r="AN72" s="34">
         <f>[1]Demands!AC62</f>
         <v>0</v>
       </c>
-      <c r="AO72" s="35">
+      <c r="AO72" s="34">
         <f>[1]Demands!AD66</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="34"/>
+    <row r="73" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="33"/>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73" t="s">
         <v>69</v>
       </c>
-      <c r="L73" s="34"/>
-      <c r="M73" s="34"/>
-      <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
-      <c r="Q73" s="35"/>
-      <c r="R73" s="35"/>
-      <c r="S73" s="35"/>
-      <c r="T73" s="35"/>
-      <c r="U73" s="35"/>
-      <c r="V73" s="35"/>
-      <c r="W73" s="35"/>
-      <c r="X73" s="35"/>
-      <c r="Y73" s="35"/>
-      <c r="Z73" s="35"/>
-      <c r="AA73" s="35"/>
-      <c r="AB73" s="35"/>
-      <c r="AC73" s="35"/>
-      <c r="AD73" s="35"/>
-      <c r="AE73" s="35"/>
-      <c r="AF73" s="35"/>
-      <c r="AG73" s="35"/>
-      <c r="AH73" s="35"/>
-      <c r="AI73" s="35"/>
-      <c r="AJ73" s="35"/>
-      <c r="AK73" s="35"/>
-      <c r="AL73" s="35"/>
-      <c r="AM73" s="35"/>
-      <c r="AN73" s="35"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="34"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="34"/>
+      <c r="Q73" s="34"/>
+      <c r="R73" s="34"/>
+      <c r="S73" s="34"/>
+      <c r="T73" s="34"/>
+      <c r="U73" s="34"/>
+      <c r="V73" s="34"/>
+      <c r="W73" s="34"/>
+      <c r="X73" s="34"/>
+      <c r="Y73" s="34"/>
+      <c r="Z73" s="34"/>
+      <c r="AA73" s="34"/>
+      <c r="AB73" s="34"/>
+      <c r="AC73" s="34"/>
+      <c r="AD73" s="34"/>
+      <c r="AE73" s="34"/>
+      <c r="AF73" s="34"/>
+      <c r="AG73" s="34"/>
+      <c r="AH73" s="34"/>
+      <c r="AI73" s="34"/>
+      <c r="AJ73" s="34"/>
+      <c r="AK73" s="34"/>
+      <c r="AL73" s="34"/>
+      <c r="AM73" s="34"/>
+      <c r="AN73" s="34"/>
       <c r="AO73">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C74" s="32" t="s">
+    <row r="74" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C74" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="D74" s="32"/>
-      <c r="E74" s="34" t="str">
+      <c r="D74" s="33"/>
+      <c r="E74" s="33" t="str">
         <f t="shared" si="4"/>
         <v>THRAIL*</v>
       </c>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32" t="str">
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33" t="str">
         <f t="shared" ref="H74" si="5">H72</f>
         <v>TRAPL</v>
       </c>
-      <c r="I74" s="32"/>
-      <c r="J74" s="32">
+      <c r="I74" s="33"/>
+      <c r="J74" s="33">
         <v>2018</v>
       </c>
-      <c r="K74" t="s">
+      <c r="K74" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="L74" s="32">
+      <c r="L74" s="33">
         <v>-1</v>
       </c>
-      <c r="M74" s="32" t="str">
+      <c r="M74" s="33" t="str">
         <f t="shared" ref="M74" si="6">M49</f>
         <v>Train</v>
       </c>
-      <c r="N74" s="33">
+      <c r="N74" s="34">
         <f>[1]Demands!C63</f>
         <v>8.4074838493522847E-2</v>
       </c>
-      <c r="O74" s="33">
+      <c r="O74" s="34">
         <f>[1]Demands!D63</f>
         <v>7.2940360290157685E-2</v>
       </c>
-      <c r="P74" s="33">
+      <c r="P74" s="34">
         <f>[1]Demands!E63</f>
         <v>9.6900168790040125E-2</v>
       </c>
-      <c r="Q74" s="33">
+      <c r="Q74" s="34">
         <f>[1]Demands!F63</f>
         <v>7.91995412085085E-2</v>
       </c>
-      <c r="R74" s="33">
+      <c r="R74" s="34">
         <f>[1]Demands!G63</f>
         <v>7.3350678459075919E-2</v>
       </c>
-      <c r="S74" s="33">
+      <c r="S74" s="34">
         <f>[1]Demands!H63</f>
         <v>8.426286570298451E-2</v>
       </c>
-      <c r="T74" s="33">
+      <c r="T74" s="34">
         <f>[1]Demands!I63</f>
         <v>7.8971697728025606E-2</v>
       </c>
-      <c r="U74" s="33">
+      <c r="U74" s="34">
         <f>[1]Demands!J63</f>
         <v>9.1644108987707917E-2</v>
       </c>
-      <c r="V74" s="33">
+      <c r="V74" s="34">
         <f>[1]Demands!K63</f>
         <v>8.1556381609468237E-2</v>
       </c>
-      <c r="W74" s="33">
+      <c r="W74" s="34">
         <f>[1]Demands!L63</f>
         <v>7.5632388860092645E-2</v>
       </c>
-      <c r="X74" s="33">
+      <c r="X74" s="34">
         <f>[1]Demands!M63</f>
         <v>7.7708207344464181E-2</v>
       </c>
-      <c r="Y74" s="33">
+      <c r="Y74" s="34">
         <f>[1]Demands!N63</f>
         <v>7.3740069944264783E-2</v>
       </c>
-      <c r="Z74" s="33">
+      <c r="Z74" s="34">
         <f>[1]Demands!O63</f>
         <v>8.1917381458864319E-2</v>
       </c>
-      <c r="AA74" s="33">
+      <c r="AA74" s="34">
         <f>[1]Demands!P63</f>
         <v>7.6219960425357156E-2</v>
       </c>
-      <c r="AB74" s="33">
+      <c r="AB74" s="34">
         <f>[1]Demands!Q63</f>
         <v>8.5404192532583911E-2</v>
       </c>
-      <c r="AC74" s="33">
+      <c r="AC74" s="34">
         <f>[1]Demands!R63</f>
         <v>6.987313824182402E-2</v>
       </c>
-      <c r="AD74" s="33">
+      <c r="AD74" s="34">
         <f>[1]Demands!S63</f>
         <v>8.3227436019752521E-2</v>
       </c>
-      <c r="AE74" s="33">
+      <c r="AE74" s="34">
         <f>[1]Demands!T63</f>
         <v>7.0427469521239974E-2</v>
       </c>
-      <c r="AF74" s="33">
+      <c r="AF74" s="34">
         <f>[1]Demands!U63</f>
         <v>8.1430456922674907E-2</v>
       </c>
-      <c r="AG74" s="33">
+      <c r="AG74" s="34">
         <f>[1]Demands!V63</f>
         <v>7.9612717838730945E-2</v>
       </c>
-      <c r="AH74" s="33">
+      <c r="AH74" s="34">
         <f>[1]Demands!W63</f>
         <v>7.6629394715590618E-2</v>
       </c>
-      <c r="AI74" s="33">
+      <c r="AI74" s="34">
         <f>[1]Demands!X63</f>
         <v>7.2607758830443E-2</v>
       </c>
-      <c r="AJ74" s="33">
+      <c r="AJ74" s="34">
         <f>[1]Demands!Y63</f>
         <v>6.8507648625875522E-2</v>
       </c>
-      <c r="AK74" s="33">
+      <c r="AK74" s="34">
         <f>[1]Demands!Z63</f>
         <v>8.3453986180072076E-2</v>
       </c>
-      <c r="AL74" s="33">
+      <c r="AL74" s="34">
         <f>[1]Demands!AA63</f>
         <v>9.070115859164736E-2</v>
       </c>
-      <c r="AM74" s="33">
+      <c r="AM74" s="34">
         <f>[1]Demands!AB63</f>
         <v>0.10289850788887757</v>
       </c>
-      <c r="AN74" s="33">
+      <c r="AN74" s="34">
         <f>[1]Demands!AC63</f>
         <v>6.8690270774633036E-2</v>
       </c>
-      <c r="AO74" s="33">
+      <c r="AO74" s="34">
         <f>[1]Demands!AD67</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="J75" s="36">
-        <v>0</v>
-      </c>
-      <c r="K75" t="s">
+    <row r="75" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="48">
+        <v>0</v>
+      </c>
+      <c r="K75" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="AO75">
+      <c r="L75" s="31"/>
+      <c r="M75" s="31"/>
+      <c r="N75" s="31"/>
+      <c r="O75" s="31"/>
+      <c r="P75" s="31"/>
+      <c r="Q75" s="31"/>
+      <c r="R75" s="31"/>
+      <c r="S75" s="31"/>
+      <c r="T75" s="31"/>
+      <c r="U75" s="31"/>
+      <c r="V75" s="31"/>
+      <c r="W75" s="31"/>
+      <c r="X75" s="31"/>
+      <c r="Y75" s="31"/>
+      <c r="Z75" s="31"/>
+      <c r="AA75" s="31"/>
+      <c r="AB75" s="31"/>
+      <c r="AC75" s="31"/>
+      <c r="AD75" s="31"/>
+      <c r="AE75" s="31"/>
+      <c r="AF75" s="31"/>
+      <c r="AG75" s="31"/>
+      <c r="AH75" s="31"/>
+      <c r="AI75" s="31"/>
+      <c r="AJ75" s="31"/>
+      <c r="AK75" s="31"/>
+      <c r="AL75" s="31"/>
+      <c r="AM75" s="31"/>
+      <c r="AN75" s="31"/>
+      <c r="AO75" s="31">
         <v>5</v>
       </c>
     </row>
@@ -9629,33 +9823,33 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -9714,33 +9908,33 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -9797,32 +9991,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -9877,16 +10071,16 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:AG63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>16</v>
       </c>
@@ -9921,7 +10115,7 @@
       <c r="AF2" s="15"/>
       <c r="AG2" s="15"/>
     </row>
-    <row r="3" spans="2:33" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
         <v>17</v>
       </c>
@@ -10046,7 +10240,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15" t="s">
@@ -10062,118 +10256,118 @@
         <f>[1]Demands!C4</f>
         <v>14.556561092397196</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="30">
         <f>[1]Demands!D4</f>
         <v>0.19075815329593268</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="30">
         <f>[1]Demands!E4</f>
         <v>3.8138683626467009</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="30">
         <f>[1]Demands!F4</f>
         <v>0.70334338163959453</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="30">
         <f>[1]Demands!G4</f>
         <v>0.3263059331917631</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="30">
         <f>[1]Demands!H4</f>
         <v>0.25725946218495216</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="30">
         <f>[1]Demands!I4</f>
         <v>0.12926410609378711</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="30">
         <f>[1]Demands!J4</f>
         <v>0.37066642356770213</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="30">
         <f>[1]Demands!K4</f>
         <v>0.61012642539130313</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4" s="30">
         <f>[1]Demands!L4</f>
         <v>0.25256357827040127</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="30">
         <f>[1]Demands!M4</f>
         <v>0.28627808516599751</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4" s="30">
         <f>[1]Demands!N4</f>
         <v>0.49824919039150339</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4" s="30">
         <f>[1]Demands!O4</f>
         <v>0.44072764898712008</v>
       </c>
-      <c r="T4" s="20">
+      <c r="T4" s="30">
         <f>[1]Demands!P4</f>
         <v>0.38789417997018355</v>
       </c>
-      <c r="U4" s="20">
+      <c r="U4" s="30">
         <f>[1]Demands!Q4</f>
         <v>1.6403528726430969</v>
       </c>
-      <c r="V4" s="20">
+      <c r="V4" s="30">
         <f>[1]Demands!R4</f>
         <v>0.50223766282260618</v>
       </c>
-      <c r="W4" s="20">
+      <c r="W4" s="30">
         <f>[1]Demands!S4</f>
         <v>0.59887772521592175</v>
       </c>
-      <c r="X4" s="20">
+      <c r="X4" s="30">
         <f>[1]Demands!T4</f>
         <v>0.54597893159747035</v>
       </c>
-      <c r="Y4" s="20">
+      <c r="Y4" s="30">
         <f>[1]Demands!U4</f>
         <v>0.36254754715779958</v>
       </c>
-      <c r="Z4" s="20">
+      <c r="Z4" s="30">
         <f>[1]Demands!V4</f>
         <v>0.8103180854486004</v>
       </c>
-      <c r="AA4" s="20">
+      <c r="AA4" s="30">
         <f>[1]Demands!W4</f>
         <v>0.10383763195644793</v>
       </c>
-      <c r="AB4" s="20">
+      <c r="AB4" s="30">
         <f>[1]Demands!X4</f>
         <v>0.43396473286285792</v>
       </c>
-      <c r="AC4" s="20">
+      <c r="AC4" s="30">
         <f>[1]Demands!Y4</f>
         <v>0.22701130303232972</v>
       </c>
-      <c r="AD4" s="20">
+      <c r="AD4" s="30">
         <f>[1]Demands!Z4</f>
         <v>0.20014421509334299</v>
       </c>
-      <c r="AE4" s="20">
+      <c r="AE4" s="30">
         <f>[1]Demands!AA4</f>
         <v>0.22324073939976716</v>
       </c>
-      <c r="AF4" s="20">
+      <c r="AF4" s="30">
         <f>[1]Demands!AB4</f>
         <v>0.43304852577361913</v>
       </c>
-      <c r="AG4" s="20">
+      <c r="AG4" s="30">
         <f>[1]Demands!AC4</f>
         <v>0.20769618859639608</v>
       </c>
     </row>
-    <row r="5" spans="2:33" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>65</v>
       </c>
       <c r="F5" s="18">
@@ -10183,112 +10377,112 @@
         <f>G4*$D15</f>
         <v>21.834841638595794</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="45">
         <f t="shared" ref="H5:AG5" si="0">H4*$D$15</f>
         <v>0.28613722994389901</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="45">
         <f t="shared" si="0"/>
         <v>5.7208025439700512</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="45">
         <f t="shared" si="0"/>
         <v>1.0550150724593919</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="45">
         <f t="shared" si="0"/>
         <v>0.48945889978764467</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="45">
         <f t="shared" si="0"/>
         <v>0.38588919327742821</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="45">
         <f t="shared" si="0"/>
         <v>0.19389615914068065</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="45">
         <f t="shared" si="0"/>
         <v>0.55599963535155317</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="45">
         <f t="shared" si="0"/>
         <v>0.91518963808695464</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="45">
         <f t="shared" si="0"/>
         <v>0.37884536740560193</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="45">
         <f t="shared" si="0"/>
         <v>0.42941712774899626</v>
       </c>
-      <c r="R5" s="21">
+      <c r="R5" s="45">
         <f t="shared" si="0"/>
         <v>0.74737378558725509</v>
       </c>
-      <c r="S5" s="21">
+      <c r="S5" s="45">
         <f t="shared" si="0"/>
         <v>0.66109147348068009</v>
       </c>
-      <c r="T5" s="21">
+      <c r="T5" s="45">
         <f t="shared" si="0"/>
         <v>0.5818412699552753</v>
       </c>
-      <c r="U5" s="21">
+      <c r="U5" s="45">
         <f t="shared" si="0"/>
         <v>2.4605293089646452</v>
       </c>
-      <c r="V5" s="21">
+      <c r="V5" s="45">
         <f t="shared" si="0"/>
         <v>0.75335649423390927</v>
       </c>
-      <c r="W5" s="21">
+      <c r="W5" s="45">
         <f t="shared" si="0"/>
         <v>0.89831658782388257</v>
       </c>
-      <c r="X5" s="21">
+      <c r="X5" s="45">
         <f t="shared" si="0"/>
         <v>0.81896839739620553</v>
       </c>
-      <c r="Y5" s="21">
+      <c r="Y5" s="45">
         <f t="shared" si="0"/>
         <v>0.54382132073669931</v>
       </c>
-      <c r="Z5" s="21">
+      <c r="Z5" s="45">
         <f t="shared" si="0"/>
         <v>1.2154771281729007</v>
       </c>
-      <c r="AA5" s="21">
+      <c r="AA5" s="45">
         <f t="shared" si="0"/>
         <v>0.15575644793467192</v>
       </c>
-      <c r="AB5" s="21">
+      <c r="AB5" s="45">
         <f t="shared" si="0"/>
         <v>0.65094709929428685</v>
       </c>
-      <c r="AC5" s="21">
+      <c r="AC5" s="45">
         <f t="shared" si="0"/>
         <v>0.34051695454849457</v>
       </c>
-      <c r="AD5" s="21">
+      <c r="AD5" s="45">
         <f t="shared" si="0"/>
         <v>0.30021632264001447</v>
       </c>
-      <c r="AE5" s="21">
+      <c r="AE5" s="45">
         <f t="shared" si="0"/>
         <v>0.33486110909965072</v>
       </c>
-      <c r="AF5" s="21">
+      <c r="AF5" s="45">
         <f t="shared" si="0"/>
         <v>0.64957278866042867</v>
       </c>
-      <c r="AG5" s="21">
+      <c r="AG5" s="45">
         <f t="shared" si="0"/>
         <v>0.31154428289459413</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
@@ -10304,118 +10498,118 @@
         <f>[1]Demands!C5</f>
         <v>31.276118540280986</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="30">
         <f>[1]Demands!D5</f>
         <v>0.43519149385547129</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="30">
         <f>[1]Demands!E5</f>
         <v>7.6220930610573197</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="30">
         <f>[1]Demands!F5</f>
         <v>1.5519093827676476</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="30">
         <f>[1]Demands!G5</f>
         <v>0.73703191607760743</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="30">
         <f>[1]Demands!H5</f>
         <v>0.55451713599955721</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="30">
         <f>[1]Demands!I5</f>
         <v>0.28568437258778695</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="30">
         <f>[1]Demands!J5</f>
         <v>0.76950577172521428</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="30">
         <f>[1]Demands!K5</f>
         <v>1.3359499798250478</v>
       </c>
-      <c r="P6" s="20">
+      <c r="P6" s="30">
         <f>[1]Demands!L5</f>
         <v>0.56616320344762294</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6" s="30">
         <f>[1]Demands!M5</f>
         <v>0.63911185847443031</v>
       </c>
-      <c r="R6" s="20">
+      <c r="R6" s="30">
         <f>[1]Demands!N5</f>
         <v>1.1334816009734383</v>
       </c>
-      <c r="S6" s="20">
+      <c r="S6" s="30">
         <f>[1]Demands!O5</f>
         <v>0.96185938421931272</v>
       </c>
-      <c r="T6" s="20">
+      <c r="T6" s="30">
         <f>[1]Demands!P5</f>
         <v>0.8723586108918423</v>
       </c>
-      <c r="U6" s="20">
+      <c r="U6" s="30">
         <f>[1]Demands!Q5</f>
         <v>3.5254749048173277</v>
       </c>
-      <c r="V6" s="20">
+      <c r="V6" s="30">
         <f>[1]Demands!R5</f>
         <v>1.1538869884003555</v>
       </c>
-      <c r="W6" s="20">
+      <c r="W6" s="30">
         <f>[1]Demands!S5</f>
         <v>1.2995736671311431</v>
       </c>
-      <c r="X6" s="20">
+      <c r="X6" s="30">
         <f>[1]Demands!T5</f>
         <v>1.2604324784412986</v>
       </c>
-      <c r="Y6" s="20">
+      <c r="Y6" s="30">
         <f>[1]Demands!U5</f>
         <v>0.79517788054022265</v>
       </c>
-      <c r="Z6" s="20">
+      <c r="Z6" s="30">
         <f>[1]Demands!V5</f>
         <v>1.7803554187858515</v>
       </c>
-      <c r="AA6" s="20">
+      <c r="AA6" s="30">
         <f>[1]Demands!W5</f>
         <v>0.23239789425769783</v>
       </c>
-      <c r="AB6" s="20">
+      <c r="AB6" s="30">
         <f>[1]Demands!X5</f>
         <v>0.98601597898071291</v>
       </c>
-      <c r="AC6" s="20">
+      <c r="AC6" s="30">
         <f>[1]Demands!Y5</f>
         <v>0.53090140271719211</v>
       </c>
-      <c r="AD6" s="20">
+      <c r="AD6" s="30">
         <f>[1]Demands!Z5</f>
         <v>0.43310682655274862</v>
       </c>
-      <c r="AE6" s="20">
+      <c r="AE6" s="30">
         <f>[1]Demands!AA5</f>
         <v>0.47060177269376968</v>
       </c>
-      <c r="AF6" s="20">
+      <c r="AF6" s="30">
         <f>[1]Demands!AB5</f>
         <v>0.86668930093951158</v>
       </c>
-      <c r="AG6" s="20">
+      <c r="AG6" s="30">
         <f>[1]Demands!AC5</f>
         <v>0.47664625412085693</v>
       </c>
     </row>
-    <row r="7" spans="2:33" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="25" t="s">
         <v>66</v>
       </c>
       <c r="F7" s="19">
@@ -10425,112 +10619,112 @@
         <f t="shared" ref="G7:AG7" si="1">G6*$D$16</f>
         <v>46.914177810421478</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="45">
         <f t="shared" si="1"/>
         <v>0.65278724078320693</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="45">
         <f t="shared" si="1"/>
         <v>11.433139591585979</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="45">
         <f t="shared" si="1"/>
         <v>2.3278640741514716</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="45">
         <f t="shared" si="1"/>
         <v>1.1055478741164111</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="45">
         <f t="shared" si="1"/>
         <v>0.83177570399933587</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="45">
         <f t="shared" si="1"/>
         <v>0.42852655888168045</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="45">
         <f t="shared" si="1"/>
         <v>1.1542586575878215</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="45">
         <f t="shared" si="1"/>
         <v>2.0039249697375716</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="45">
         <f t="shared" si="1"/>
         <v>0.84924480517143441</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="45">
         <f t="shared" si="1"/>
         <v>0.9586677877116454</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R7" s="45">
         <f t="shared" si="1"/>
         <v>1.7002224014601575</v>
       </c>
-      <c r="S7" s="21">
+      <c r="S7" s="45">
         <f t="shared" si="1"/>
         <v>1.442789076328969</v>
       </c>
-      <c r="T7" s="21">
+      <c r="T7" s="45">
         <f t="shared" si="1"/>
         <v>1.3085379163377635</v>
       </c>
-      <c r="U7" s="21">
+      <c r="U7" s="45">
         <f t="shared" si="1"/>
         <v>5.2882123572259916</v>
       </c>
-      <c r="V7" s="21">
+      <c r="V7" s="45">
         <f t="shared" si="1"/>
         <v>1.7308304826005334</v>
       </c>
-      <c r="W7" s="21">
+      <c r="W7" s="45">
         <f t="shared" si="1"/>
         <v>1.9493605006967147</v>
       </c>
-      <c r="X7" s="21">
+      <c r="X7" s="45">
         <f t="shared" si="1"/>
         <v>1.8906487176619478</v>
       </c>
-      <c r="Y7" s="21">
+      <c r="Y7" s="45">
         <f t="shared" si="1"/>
         <v>1.1927668208103339</v>
       </c>
-      <c r="Z7" s="21">
+      <c r="Z7" s="45">
         <f t="shared" si="1"/>
         <v>2.6705331281787772</v>
       </c>
-      <c r="AA7" s="21">
+      <c r="AA7" s="45">
         <f t="shared" si="1"/>
         <v>0.34859684138654673</v>
       </c>
-      <c r="AB7" s="21">
+      <c r="AB7" s="45">
         <f t="shared" si="1"/>
         <v>1.4790239684710693</v>
       </c>
-      <c r="AC7" s="21">
+      <c r="AC7" s="45">
         <f t="shared" si="1"/>
         <v>0.79635210407578816</v>
       </c>
-      <c r="AD7" s="21">
+      <c r="AD7" s="45">
         <f t="shared" si="1"/>
         <v>0.64966023982912291</v>
       </c>
-      <c r="AE7" s="21">
+      <c r="AE7" s="45">
         <f t="shared" si="1"/>
         <v>0.70590265904065452</v>
       </c>
-      <c r="AF7" s="21">
+      <c r="AF7" s="45">
         <f t="shared" si="1"/>
         <v>1.3000339514092674</v>
       </c>
-      <c r="AG7" s="21">
+      <c r="AG7" s="45">
         <f t="shared" si="1"/>
         <v>0.71496938118128539</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
@@ -10546,255 +10740,487 @@
         <f>[1]Demands!C6</f>
         <v>27.131577542973638</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="30">
         <f>[1]Demands!D6</f>
         <v>0.373897486374975</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="30">
         <f>[1]Demands!E6</f>
         <v>6.6607449340349936</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="30">
         <f>[1]Demands!F6</f>
         <v>1.3457957919305057</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="30">
         <f>[1]Demands!G6</f>
         <v>0.64805463087287241</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="30">
         <f>[1]Demands!H6</f>
         <v>0.48149946813234057</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="30">
         <f>[1]Demands!I6</f>
         <v>0.24792998248868531</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="30">
         <f>[1]Demands!J6</f>
         <v>0.6736874578715788</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="30">
         <f>[1]Demands!K6</f>
         <v>1.145614903113785</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="30">
         <f>[1]Demands!L6</f>
         <v>0.49378011021821833</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="30">
         <f>[1]Demands!M6</f>
         <v>0.54722173482691427</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="30">
         <f>[1]Demands!N6</f>
         <v>0.97262646758485327</v>
       </c>
-      <c r="S8" s="20">
+      <c r="S8" s="30">
         <f>[1]Demands!O6</f>
         <v>0.83286416374941885</v>
       </c>
-      <c r="T8" s="20">
+      <c r="T8" s="30">
         <f>[1]Demands!P6</f>
         <v>0.74674766413249039</v>
       </c>
-      <c r="U8" s="20">
+      <c r="U8" s="30">
         <f>[1]Demands!Q6</f>
         <v>3.0449422514531714</v>
       </c>
-      <c r="V8" s="20">
+      <c r="V8" s="30">
         <f>[1]Demands!R6</f>
         <v>1.0126394376791288</v>
       </c>
-      <c r="W8" s="20">
+      <c r="W8" s="30">
         <f>[1]Demands!S6</f>
         <v>1.1217784798314174</v>
       </c>
-      <c r="X8" s="20">
+      <c r="X8" s="30">
         <f>[1]Demands!T6</f>
         <v>1.0852427647392462</v>
       </c>
-      <c r="Y8" s="20">
+      <c r="Y8" s="30">
         <f>[1]Demands!U6</f>
         <v>0.6834292413998585</v>
       </c>
-      <c r="Z8" s="20">
+      <c r="Z8" s="30">
         <f>[1]Demands!V6</f>
         <v>1.5527405180508131</v>
       </c>
-      <c r="AA8" s="20">
+      <c r="AA8" s="30">
         <f>[1]Demands!W6</f>
         <v>0.20031586047476843</v>
       </c>
-      <c r="AB8" s="20">
+      <c r="AB8" s="30">
         <f>[1]Demands!X6</f>
         <v>0.86102306186829458</v>
       </c>
-      <c r="AC8" s="20">
+      <c r="AC8" s="30">
         <f>[1]Demands!Y6</f>
         <v>0.4513160972888865</v>
       </c>
-      <c r="AD8" s="20">
+      <c r="AD8" s="30">
         <f>[1]Demands!Z6</f>
         <v>0.37617525772313687</v>
       </c>
-      <c r="AE8" s="20">
+      <c r="AE8" s="30">
         <f>[1]Demands!AA6</f>
         <v>0.40231788404487256</v>
       </c>
-      <c r="AF8" s="20">
+      <c r="AF8" s="30">
         <f>[1]Demands!AB6</f>
         <v>0.74109890371757148</v>
       </c>
-      <c r="AG8" s="20">
+      <c r="AG8" s="30">
         <f>[1]Demands!AC6</f>
         <v>0.42809298937083867</v>
       </c>
     </row>
-    <row r="9" spans="2:33" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22" t="s">
+    <row r="9" spans="2:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="42">
         <v>2050</v>
       </c>
-      <c r="G9" s="24">
-        <f t="shared" ref="G9:AG9" si="2">G8*$D$17</f>
+      <c r="G9" s="43">
+        <f t="shared" ref="G9:AG11" si="2">G8*$D$17</f>
         <v>40.697366314460453</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="46">
         <f t="shared" si="2"/>
         <v>0.56084622956246255</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="46">
         <f t="shared" si="2"/>
         <v>9.9911174010524899</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="46">
         <f t="shared" si="2"/>
         <v>2.0186936878957584</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="46">
         <f t="shared" si="2"/>
         <v>0.97208194630930866</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="46">
         <f t="shared" si="2"/>
         <v>0.72224920219851085</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="46">
         <f t="shared" si="2"/>
         <v>0.37189497373302793</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="46">
         <f t="shared" si="2"/>
         <v>1.0105311868073681</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="46">
         <f t="shared" si="2"/>
         <v>1.7184223546706776</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="46">
         <f t="shared" si="2"/>
         <v>0.74067016532732755</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="46">
         <f t="shared" si="2"/>
         <v>0.82083260224037136</v>
       </c>
-      <c r="R9" s="24">
+      <c r="R9" s="46">
         <f t="shared" si="2"/>
         <v>1.4589397013772798</v>
       </c>
-      <c r="S9" s="24">
+      <c r="S9" s="46">
         <f t="shared" si="2"/>
         <v>1.2492962456241283</v>
       </c>
-      <c r="T9" s="24">
+      <c r="T9" s="46">
         <f t="shared" si="2"/>
         <v>1.1201214961987356</v>
       </c>
-      <c r="U9" s="24">
+      <c r="U9" s="46">
         <f t="shared" si="2"/>
         <v>4.5674133771797569</v>
       </c>
-      <c r="V9" s="24">
+      <c r="V9" s="46">
         <f t="shared" si="2"/>
         <v>1.5189591565186933</v>
       </c>
-      <c r="W9" s="24">
+      <c r="W9" s="46">
         <f t="shared" si="2"/>
         <v>1.6826677197471263</v>
       </c>
-      <c r="X9" s="24">
+      <c r="X9" s="46">
         <f t="shared" si="2"/>
         <v>1.6278641471088693</v>
       </c>
-      <c r="Y9" s="24">
+      <c r="Y9" s="46">
         <f t="shared" si="2"/>
         <v>1.0251438620997877</v>
       </c>
-      <c r="Z9" s="24">
+      <c r="Z9" s="46">
         <f t="shared" si="2"/>
         <v>2.3291107770762198</v>
       </c>
-      <c r="AA9" s="24">
+      <c r="AA9" s="46">
         <f t="shared" si="2"/>
         <v>0.30047379071215263</v>
       </c>
-      <c r="AB9" s="24">
+      <c r="AB9" s="46">
         <f t="shared" si="2"/>
         <v>1.2915345928024418</v>
       </c>
-      <c r="AC9" s="24">
+      <c r="AC9" s="46">
         <f t="shared" si="2"/>
         <v>0.67697414593332972</v>
       </c>
-      <c r="AD9" s="24">
+      <c r="AD9" s="46">
         <f t="shared" si="2"/>
         <v>0.56426288658470525</v>
       </c>
-      <c r="AE9" s="24">
+      <c r="AE9" s="46">
         <f t="shared" si="2"/>
         <v>0.6034768260673089</v>
       </c>
-      <c r="AF9" s="24">
+      <c r="AF9" s="46">
         <f t="shared" si="2"/>
         <v>1.1116483555763572</v>
       </c>
-      <c r="AG9" s="24">
+      <c r="AG9" s="46">
         <f t="shared" si="2"/>
         <v>0.64213948405625798</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.45">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.45">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="33">
+        <v>2018</v>
+      </c>
+      <c r="G10" s="44">
+        <f>[2]Demands!C7</f>
+        <v>11.536999999999999</v>
+      </c>
+      <c r="H10" s="34">
+        <f>[2]Demands!D7</f>
+        <v>0.17794099599204954</v>
+      </c>
+      <c r="I10" s="34">
+        <f>[2]Demands!E7</f>
+        <v>2.6292279716035631</v>
+      </c>
+      <c r="J10" s="34">
+        <f>[2]Demands!F7</f>
+        <v>0.48228404218784626</v>
+      </c>
+      <c r="K10" s="34">
+        <f>[2]Demands!G7</f>
+        <v>0.31014966827589163</v>
+      </c>
+      <c r="L10" s="34">
+        <f>[2]Demands!H7</f>
+        <v>0.22090468018989404</v>
+      </c>
+      <c r="M10" s="34">
+        <f>[2]Demands!I7</f>
+        <v>0.10660397645018758</v>
+      </c>
+      <c r="N10" s="34">
+        <f>[2]Demands!J7</f>
+        <v>0.27935990585939297</v>
+      </c>
+      <c r="O10" s="34">
+        <f>[2]Demands!K7</f>
+        <v>0.42276367492038924</v>
+      </c>
+      <c r="P10" s="34">
+        <f>[2]Demands!L7</f>
+        <v>0.20333600685129727</v>
+      </c>
+      <c r="Q10" s="34">
+        <f>[2]Demands!M7</f>
+        <v>0.23152778091853185</v>
+      </c>
+      <c r="R10" s="34">
+        <f>[2]Demands!N7</f>
+        <v>0.46795618987426485</v>
+      </c>
+      <c r="S10" s="34">
+        <f>[2]Demands!O7</f>
+        <v>0.30871042636808321</v>
+      </c>
+      <c r="T10" s="34">
+        <f>[2]Demands!P7</f>
+        <v>0.30378726686741447</v>
+      </c>
+      <c r="U10" s="34">
+        <f>[2]Demands!Q7</f>
+        <v>1.625427705266085</v>
+      </c>
+      <c r="V10" s="34">
+        <f>[2]Demands!R7</f>
+        <v>0.44225677339931185</v>
+      </c>
+      <c r="W10" s="34">
+        <f>[2]Demands!S7</f>
+        <v>0.49831113834882401</v>
+      </c>
+      <c r="X10" s="34">
+        <f>[2]Demands!T7</f>
+        <v>0.40793968700183131</v>
+      </c>
+      <c r="Y10" s="34">
+        <f>[2]Demands!U7</f>
+        <v>0.36310814920207179</v>
+      </c>
+      <c r="Z10" s="34">
+        <f>[2]Demands!V7</f>
+        <v>0.60506096800451603</v>
+      </c>
+      <c r="AA10" s="34">
+        <f>[2]Demands!W7</f>
+        <v>8.0693470189707711E-2</v>
+      </c>
+      <c r="AB10" s="34">
+        <f>[2]Demands!X7</f>
+        <v>0.30599590693319084</v>
+      </c>
+      <c r="AC10" s="34">
+        <f>[2]Demands!Y7</f>
+        <v>0.1513344097795204</v>
+      </c>
+      <c r="AD10" s="34">
+        <f>[2]Demands!Z7</f>
+        <v>0.16503078794415471</v>
+      </c>
+      <c r="AE10" s="34">
+        <f>[2]Demands!AA7</f>
+        <v>0.19182704360164693</v>
+      </c>
+      <c r="AF10" s="34">
+        <f>[2]Demands!AB7</f>
+        <v>0.40087863270627727</v>
+      </c>
+      <c r="AG10" s="34">
+        <f>[2]Demands!AC7</f>
+        <v>0.15458274126405555</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="22">
+        <v>2050</v>
+      </c>
+      <c r="G11" s="23">
+        <f>G10*$D$18</f>
+        <v>17.305499999999999</v>
+      </c>
+      <c r="H11" s="47">
+        <f t="shared" ref="H11:AG11" si="3">H10*$D$18</f>
+        <v>0.26691149398807434</v>
+      </c>
+      <c r="I11" s="47">
+        <f t="shared" si="3"/>
+        <v>3.9438419574053447</v>
+      </c>
+      <c r="J11" s="47">
+        <f t="shared" si="3"/>
+        <v>0.72342606328176939</v>
+      </c>
+      <c r="K11" s="47">
+        <f t="shared" si="3"/>
+        <v>0.46522450241383745</v>
+      </c>
+      <c r="L11" s="47">
+        <f t="shared" si="3"/>
+        <v>0.33135702028484104</v>
+      </c>
+      <c r="M11" s="47">
+        <f t="shared" si="3"/>
+        <v>0.15990596467528137</v>
+      </c>
+      <c r="N11" s="47">
+        <f t="shared" si="3"/>
+        <v>0.41903985878908945</v>
+      </c>
+      <c r="O11" s="47">
+        <f t="shared" si="3"/>
+        <v>0.63414551238058392</v>
+      </c>
+      <c r="P11" s="47">
+        <f t="shared" si="3"/>
+        <v>0.3050040102769459</v>
+      </c>
+      <c r="Q11" s="47">
+        <f t="shared" si="3"/>
+        <v>0.34729167137779776</v>
+      </c>
+      <c r="R11" s="47">
+        <f t="shared" si="3"/>
+        <v>0.7019342848113973</v>
+      </c>
+      <c r="S11" s="47">
+        <f t="shared" si="3"/>
+        <v>0.46306563955212482</v>
+      </c>
+      <c r="T11" s="47">
+        <f t="shared" si="3"/>
+        <v>0.45568090030112174</v>
+      </c>
+      <c r="U11" s="47">
+        <f t="shared" si="3"/>
+        <v>2.4381415578991277</v>
+      </c>
+      <c r="V11" s="47">
+        <f t="shared" si="3"/>
+        <v>0.66338516009896775</v>
+      </c>
+      <c r="W11" s="47">
+        <f t="shared" si="3"/>
+        <v>0.74746670752323596</v>
+      </c>
+      <c r="X11" s="47">
+        <f t="shared" si="3"/>
+        <v>0.61190953050274699</v>
+      </c>
+      <c r="Y11" s="47">
+        <f t="shared" si="3"/>
+        <v>0.54466222380310769</v>
+      </c>
+      <c r="Z11" s="47">
+        <f t="shared" si="3"/>
+        <v>0.90759145200677405</v>
+      </c>
+      <c r="AA11" s="47">
+        <f t="shared" si="3"/>
+        <v>0.12104020528456157</v>
+      </c>
+      <c r="AB11" s="47">
+        <f t="shared" si="3"/>
+        <v>0.45899386039978629</v>
+      </c>
+      <c r="AC11" s="47">
+        <f t="shared" si="3"/>
+        <v>0.22700161466928059</v>
+      </c>
+      <c r="AD11" s="47">
+        <f t="shared" si="3"/>
+        <v>0.24754618191623207</v>
+      </c>
+      <c r="AE11" s="47">
+        <f t="shared" si="3"/>
+        <v>0.28774056540247039</v>
+      </c>
+      <c r="AF11" s="47">
+        <f t="shared" si="3"/>
+        <v>0.60131794905941593</v>
+      </c>
+      <c r="AG11" s="47">
+        <f t="shared" si="3"/>
+        <v>0.23187411189608331</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
         <v>64</v>
       </c>
@@ -10830,7 +11256,7 @@
       <c r="AF14" s="15"/>
       <c r="AG14" s="15"/>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
         <v>65</v>
       </c>
@@ -10841,7 +11267,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
         <v>66</v>
       </c>
@@ -10852,7 +11278,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
         <v>67</v>
       </c>
@@ -10863,137 +11289,143 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D38" s="15"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D39" s="15"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D40" s="15"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D41" s="15"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D42" s="15"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D43" s="15"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D44" s="15"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D45" s="15"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D46" s="15"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D47" s="15"/>
     </row>
-    <row r="52" spans="5:33" x14ac:dyDescent="0.45">
+    <row r="52" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
@@ -11024,7 +11456,7 @@
       <c r="AF52" s="15"/>
       <c r="AG52" s="15"/>
     </row>
-    <row r="53" spans="5:33" x14ac:dyDescent="0.45">
+    <row r="53" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
@@ -11055,7 +11487,7 @@
       <c r="AF53" s="15"/>
       <c r="AG53" s="15"/>
     </row>
-    <row r="54" spans="5:33" x14ac:dyDescent="0.45">
+    <row r="54" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
@@ -11086,7 +11518,7 @@
       <c r="AF54" s="15"/>
       <c r="AG54" s="15"/>
     </row>
-    <row r="55" spans="5:33" x14ac:dyDescent="0.45">
+    <row r="55" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
@@ -11117,7 +11549,7 @@
       <c r="AF55" s="15"/>
       <c r="AG55" s="15"/>
     </row>
-    <row r="56" spans="5:33" x14ac:dyDescent="0.45">
+    <row r="56" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
@@ -11148,7 +11580,7 @@
       <c r="AF56" s="15"/>
       <c r="AG56" s="15"/>
     </row>
-    <row r="57" spans="5:33" x14ac:dyDescent="0.45">
+    <row r="57" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
@@ -11179,7 +11611,7 @@
       <c r="AF57" s="15"/>
       <c r="AG57" s="15"/>
     </row>
-    <row r="58" spans="5:33" x14ac:dyDescent="0.45">
+    <row r="58" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
@@ -11210,7 +11642,7 @@
       <c r="AF58" s="15"/>
       <c r="AG58" s="15"/>
     </row>
-    <row r="59" spans="5:33" x14ac:dyDescent="0.45">
+    <row r="59" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
@@ -11241,7 +11673,7 @@
       <c r="AF59" s="15"/>
       <c r="AG59" s="15"/>
     </row>
-    <row r="60" spans="5:33" x14ac:dyDescent="0.45">
+    <row r="60" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
@@ -11272,7 +11704,7 @@
       <c r="AF60" s="15"/>
       <c r="AG60" s="15"/>
     </row>
-    <row r="61" spans="5:33" x14ac:dyDescent="0.45">
+    <row r="61" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -11303,7 +11735,7 @@
       <c r="AF61" s="15"/>
       <c r="AG61" s="15"/>
     </row>
-    <row r="62" spans="5:33" x14ac:dyDescent="0.45">
+    <row r="62" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
@@ -11334,7 +11766,7 @@
       <c r="AF62" s="15"/>
       <c r="AG62" s="15"/>
     </row>
-    <row r="63" spans="5:33" x14ac:dyDescent="0.45">
+    <row r="63" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
